--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4625C267-57B6-469B-82BE-D5390F303461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98737BBD-AB79-40F8-A4A3-A0A294C59791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="648" windowWidth="23028" windowHeight="11592" xr2:uid="{7A131893-4D4E-4E7C-A683-4E8BBB49B49E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A131893-4D4E-4E7C-A683-4E8BBB49B49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="348">
   <si>
     <t>Isekai Nonbiri Nouka</t>
   </si>
@@ -1036,13 +1036,58 @@
   </si>
   <si>
     <t>Thằng Hajime, học sinh bình thường, rơi xuống hố vì bị đồng đội phản bội. Rồi vùng vẫy, ăn máu quái vật, trở thành quái vật bá đạo, cứu gái ma cà rồng xinh như thiên thần. Đi qua hầm ngục chém giết, vừa trả thù vừa… tình cảm, bạo lực, fanservice đủ cả??.</t>
+  </si>
+  <si>
+    <t>Bộ anime kiểu đéo gì thấy cả lớp bệnh hoạn vcl, duy chỉ thấy được thằng main là bình thường chán. Bộ này kể về hành trình vượt qua rối loạn giao tiếp xã hội của nữ sinh trung học Komi Shouko. Dù sở hữu ngoại hình hoàn hảo và được mọi người đều ngưỡng mộ nhưng con này lại không thể giao tiếp được bình thường. Nó câm như hến vậy, à nhầm, do chứng sợ xã hội. Khi gặp thằng nam chính, Tadano Hitohito - một thằng main được gọi là bình thường nhất trong tất cả các nhân vật được coi là bình thường. Thằng này biết được con câm kia nó muốn kết bạn 100 thằng và nó quyết định giúp thực hiện. À mà thằng này được làm lớp trưởng nhé, nên bị đì deadline khổ như chó. Tuy nhiên, câu chuyện không chỉ xoay quanh sự tiến bộ của Komi trong giao tiếp mà còn khắc họa được sâu sắc về các mối quan hệ học đường, sự đa dạng tính cách của các nhân vật phụ, và cả sự tiến triển tình cảm nhẹ nhàng của cả 2 đứa. Vậy thôi chứ chẳng có gì lắm.</t>
+  </si>
+  <si>
+    <t>Để mà tóm tắt của bộ này thì khá là khó. Vì có khá nhiều những sự kiện hay mà muốn liệt kê vào đây thì nó lại dài, không liệt kê vào thì nó lại hơi thiếu thiếu. Thôi thì nói chung chung thôi: Bộ này kể về thằng có best skill là thông não chi thuật. Ý lộn, quay về quá khứ lúc nó còn nhỏ một chút. Mồ côi cả cha lẫn mẹ, thằng hokage thì đớp hết tài sản của nhà nó, xong chỉ cho nó ở 1 cái căn phòng bé tý như cái ổ chuột. Học hành thì ngu, phá phách thì là bố của cả cái làng. Lại còn mang trong mình con cửu vĩ - xưa con này tấn công phá cả làng nên cả làng ai cũng ghét thằng này vãi l. Thôi thì thấy thằng này mang trong mình là thằng main chính nên các ông thầy cố nhắm mắt cho nó qua môn để còn lên lớp. Sang môi trường mới thì nó có xếp chung team với Sasuke với Sakura. Với giảng viên hướng dẫn là Kakashi thì ba khứa này nói chung cũng trải qua nhiều nhiệm vụ, thi tuyển ninja và đối mặt với các tổ chức khá là nguy hiểm, như là Akatsuki. Sang phần tiếp thì Naruto đã trưởng thành hơn, tiếp tục hành trình tìm lại Sasuke – người bạn thân đã rời bỏ làng để theo đuổi sức mạnh. Câu chuyện trở nên sâu sắc hơn khi nó khám phá nguồn gốc của mình, học cách kiểm soát sức mạnh Cửu Vĩ, và trở thành nhân vật chủ chốt trong cuộc đại chiến Ninja lần thứ tư. Những sự kiện lớn như sự hồi sinh của Madara, sự xuất hiện của Kaguya – tổ tiên của chakra, và trận chiến cuối cùng giữa Naruto và Sasuke đã khép lại hành trình dài đầy cảm xúc. Cuối cùng, Naruto thực hiện được ước mơ trở thành Hokage, mang lại hòa bình cho thế giới ninja.</t>
+  </si>
+  <si>
+    <t>Không nói đến những cái movies, chỉ tận trung vào mạch truyện chính.</t>
+  </si>
+  <si>
+    <t>Cái này dài vcl, đéo tóm tắt đâu</t>
+  </si>
+  <si>
+    <t>Lần cuối t xem bộ này là lúc nào ấy nhỉ? T drop bộ này từ lâu lắm rồi, chắc từ độ hồi học hết cấp 1 :vv.</t>
+  </si>
+  <si>
+    <t>Ban đầu thì giống hệt cái bộ shin ở trên kia, chẳng nhớ drop nó từ lúc nào luôn :vv</t>
+  </si>
+  <si>
+    <t>Seishun Buta Yarou wa Bunny Girl Senpai no Yume wo Minai</t>
+  </si>
+  <si>
+    <t>Kishuku Gakkou no Juliet</t>
+  </si>
+  <si>
+    <t>Ore wo Suki nano wa Omae dake ka yo</t>
+  </si>
+  <si>
+    <t>Kono Kaisha ni Suki na Hito ga Imasu</t>
+  </si>
+  <si>
+    <t>Itsudatte Bokura no Koi wa 10 cm Datta</t>
+  </si>
+  <si>
+    <t>Wind Breaker</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>☑</t>
+  </si>
+  <si>
+    <t>☐</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,8 +1118,15 @@
       <charset val="163"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,6 +1148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,7 +1225,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1192,6 +1249,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,6 +1267,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>3421380</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="162224"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6617970" y="89801700"/>
+          <a:ext cx="65" cy="162224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1528,1387 +1648,1685 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F690C1C7-FCAC-4B78-8590-EB89D6F75891}">
   <dimension ref="A2:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:H90"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="11" width="8.796875" style="4"/>
-    <col min="12" max="12" width="79.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="8.796875" style="3"/>
+    <col min="12" max="12" width="79.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="L2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="L2" s="4" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="L3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="L3" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="L4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="L4" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="L5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="L5" s="4" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="L6" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="L6" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="156" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="L7" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="L7" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="L8" s="5" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="L8" s="4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="L9" s="5" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="L9" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="L10" s="5" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="L10" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="L11" s="5" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="L11" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="L12" s="5" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="L12" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:12" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="L18" s="5" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="L18" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="L28" s="5" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="L28" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="L29" s="5" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="L29" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="L30" s="5" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="L30" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:12" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="L31" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="L32" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="L33" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="L34" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="L35" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="L36" s="5" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="L36" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="L38" s="5" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="L38" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="L39" s="5" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="L39" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="L40" s="5" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="L40" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="L41" s="5" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="L41" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
+    <row r="42" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="L42" s="5" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="L42" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="2:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="7" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="L44" s="5" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="L44" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
+    <row r="45" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="L45" s="5" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="L45" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
+    <row r="46" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="L46" s="5" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="L46" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="7" t="s">
+    <row r="47" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="L47" s="5" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="L47" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
+    <row r="48" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="L48" s="5" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="L48" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B49" s="7" t="s">
+    <row r="49" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="L49" s="5" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="L49" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="L50" s="5" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="L50" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="L51" s="5" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="L51" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B52" s="7" t="s">
+    <row r="52" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="L52" s="5" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="L52" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="L53" s="5" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="L53" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="7" t="s">
+    <row r="54" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="L54" s="5" t="s">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="L54" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="6" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="2:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="B57" s="7" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="L57" s="5" t="s">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="L57" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="L58" s="5" t="s">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="L58" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
+    <row r="59" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="L59" s="5" t="s">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="L59" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B60" s="7" t="s">
+    <row r="60" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="L60" s="5" t="s">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="L60" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="7" t="s">
+    <row r="61" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="L61" s="5" t="s">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="L61" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B62" s="7" t="s">
+    <row r="62" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="L62" s="5" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="L62" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="7" t="s">
+    <row r="63" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="L63" s="5" t="s">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="L63" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="B64" s="7" t="s">
+    <row r="64" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="L64" s="5" t="s">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="L64" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="L65" s="5" t="s">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="L65" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B66" s="7" t="s">
+    <row r="66" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="L66" s="5" t="s">
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="L66" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="B67" s="7" t="s">
+    <row r="67" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="L67" s="5" t="s">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="L67" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="6" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B69" s="7" t="s">
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="L69" s="5" t="s">
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="L69" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="156" x14ac:dyDescent="0.3">
-      <c r="B70" s="7" t="s">
+    <row r="70" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="L70" s="5" t="s">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="L70" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B71" s="7" t="s">
+    <row r="71" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="L71" s="5" t="s">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="L71" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="6" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="6" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="6" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="2:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="B75" s="7" t="s">
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="L75" s="5" t="s">
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="L75" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B76" s="7" t="s">
+    <row r="76" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="L76" s="5" t="s">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="L76" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="6" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="2:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="B78" s="7" t="s">
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="L78" s="5" t="s">
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="L78" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="7" t="s">
+    <row r="79" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="L79" s="5" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="L79" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="6" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="6" t="s">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="6" t="s">
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="6" t="s">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="6" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="6" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="6" t="s">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="6" t="s">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="6" t="s">
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="6" t="s">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="6" t="s">
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="6" t="s">
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="6" t="s">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="6" t="s">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="6" t="s">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="6" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="B96" s="6" t="s">
         <v>262</v>
       </c>
@@ -2920,202 +3338,249 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B97" s="6" t="s">
+      <c r="L96" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B98" s="6" t="s">
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B99" s="6" t="s">
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="2:12" ht="156" x14ac:dyDescent="0.3">
-      <c r="B100" s="7" t="s">
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="L100" s="5" t="s">
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="L100" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B101" s="6" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-    </row>
-    <row r="102" spans="2:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="B102" s="7" t="s">
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="L102" s="5" t="s">
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="L102" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B103" s="7" t="s">
+    <row r="103" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="L103" s="5" t="s">
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="L103" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B104" s="6" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="2:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="B105" s="7" t="s">
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="L105" s="5" t="s">
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="L105" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="B106" s="7" t="s">
+    <row r="106" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="L106" s="5" t="s">
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="L106" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="B107" s="7" t="s">
+    <row r="107" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="L107" s="5" t="s">
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="L107" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="B108" s="7" t="s">
+    <row r="108" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="L108" s="5" t="s">
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="L108" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="296.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B109" s="7" t="s">
+    <row r="109" spans="1:12" ht="296.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="L109" s="5" t="s">
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="L109" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B110" s="6"/>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="C110" s="6" t="s">
         <v>111</v>
       </c>
@@ -3125,52 +3590,77 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6" t="s">
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B113" s="6"/>
-      <c r="C113" s="6" t="s">
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B114" s="6"/>
-      <c r="C114" s="6" t="s">
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B115" s="6"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>344</v>
+      </c>
       <c r="C115" s="6" t="s">
         <v>116</v>
       </c>
@@ -3180,8 +3670,13 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B116" s="6"/>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="C116" s="6" t="s">
         <v>117</v>
       </c>
@@ -3191,632 +3686,735 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B117" s="6"/>
-      <c r="C117" s="6" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B118" s="6"/>
-      <c r="C118" s="6" t="s">
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6" t="s">
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6" t="s">
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B121" s="6"/>
-      <c r="C121" s="6" t="s">
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B121" s="5"/>
+      <c r="C121" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B122" s="6"/>
-      <c r="C122" s="6" t="s">
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B122" s="5"/>
+      <c r="C122" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B123" s="6"/>
-      <c r="C123" s="6" t="s">
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B124" s="6"/>
-      <c r="C124" s="6" t="s">
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B124" s="5"/>
+      <c r="C124" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B125" s="6"/>
-      <c r="C125" s="6" t="s">
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B125" s="5"/>
+      <c r="C125" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B126" s="6"/>
-      <c r="C126" s="6" t="s">
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B127" s="6"/>
-      <c r="C127" s="6" t="s">
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B127" s="5"/>
+      <c r="C127" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B128" s="6"/>
-      <c r="C128" s="6" t="s">
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B128" s="5"/>
+      <c r="C128" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B129" s="6"/>
-      <c r="C129" s="6" t="s">
+      <c r="B129" s="5"/>
+      <c r="C129" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B130" s="6"/>
-      <c r="C130" s="6" t="s">
+      <c r="B130" s="5"/>
+      <c r="C130" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B131" s="6"/>
-      <c r="C131" s="6" t="s">
+      <c r="B131" s="5"/>
+      <c r="C131" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B132" s="6"/>
-      <c r="C132" s="6" t="s">
+      <c r="B132" s="5"/>
+      <c r="C132" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B133" s="6"/>
-      <c r="C133" s="6" t="s">
+      <c r="B133" s="5"/>
+      <c r="C133" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B134" s="6"/>
-      <c r="C134" s="6" t="s">
+      <c r="B134" s="5"/>
+      <c r="C134" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B135" s="6"/>
-      <c r="C135" s="6" t="s">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B136" s="6"/>
-      <c r="C136" s="6" t="s">
+      <c r="B136" s="5"/>
+      <c r="C136" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B137" s="6"/>
-      <c r="C137" s="6" t="s">
+      <c r="B137" s="5"/>
+      <c r="C137" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B138" s="6"/>
-      <c r="C138" s="6" t="s">
+      <c r="B138" s="5"/>
+      <c r="C138" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B139" s="6"/>
-      <c r="C139" s="6" t="s">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B140" s="6"/>
-      <c r="C140" s="6" t="s">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B141" s="6"/>
-      <c r="C141" s="6" t="s">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B142" s="6"/>
-      <c r="C142" s="6" t="s">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B143" s="6"/>
-      <c r="C143" s="6" t="s">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B144" s="6"/>
-      <c r="C144" s="6" t="s">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B145" s="6"/>
-      <c r="C145" s="6" t="s">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B146" s="6"/>
-      <c r="C146" s="6" t="s">
+      <c r="B146" s="5"/>
+      <c r="C146" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B147" s="6"/>
-      <c r="C147" s="6" t="s">
+      <c r="B147" s="5"/>
+      <c r="C147" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B148" s="6"/>
-      <c r="C148" s="6" t="s">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B149" s="6"/>
-      <c r="C149" s="6" t="s">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B150" s="6"/>
-      <c r="C150" s="6" t="s">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B151" s="6"/>
-      <c r="C151" s="6" t="s">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B152" s="6"/>
-      <c r="C152" s="6" t="s">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B153" s="6"/>
-      <c r="C153" s="6" t="s">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B154" s="6"/>
-      <c r="C154" s="6" t="s">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B155" s="6"/>
-      <c r="C155" s="6" t="s">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B156" s="6"/>
-      <c r="C156" s="6" t="s">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B157" s="6"/>
-      <c r="C157" s="6" t="s">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B158" s="6"/>
-      <c r="C158" s="6" t="s">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B159" s="6"/>
-      <c r="C159" s="6" t="s">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B160" s="6"/>
-      <c r="C160" s="6" t="s">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B161" s="6"/>
-      <c r="C161" s="6" t="s">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B162" s="6"/>
-      <c r="C162" s="6" t="s">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B163" s="6"/>
-      <c r="C163" s="6" t="s">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B164" s="6"/>
-      <c r="C164" s="6" t="s">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B165" s="6"/>
-      <c r="C165" s="6" t="s">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B166" s="6"/>
-      <c r="C166" s="6" t="s">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B167" s="6"/>
-      <c r="C167" s="6" t="s">
+      <c r="B167" s="5"/>
+      <c r="C167" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B168" s="6"/>
-      <c r="C168" s="6" t="s">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B169" s="6"/>
-      <c r="C169" s="6" t="s">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B170" s="6"/>
-      <c r="C170" s="6" t="s">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B171" s="6"/>
-      <c r="C171" s="6" t="s">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B126:H126"/>
-    <mergeCell ref="B127:H127"/>
-    <mergeCell ref="B128:H128"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B142:H142"/>
-    <mergeCell ref="B139:H139"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="B141:H141"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B123:H123"/>
+    <mergeCell ref="B124:H124"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="B171:H171"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="B160:H160"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B3:H3"/>
@@ -3841,136 +4439,34 @@
     <mergeCell ref="B73:H73"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B94:H94"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="B160:H160"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B127:H127"/>
+    <mergeCell ref="B128:H128"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B142:H142"/>
+    <mergeCell ref="B139:H139"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="B141:H141"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B144:H144"/>
     <mergeCell ref="B130:H130"/>
     <mergeCell ref="B131:H131"/>
     <mergeCell ref="B132:H132"/>
     <mergeCell ref="B143:H143"/>
     <mergeCell ref="B112:H112"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B123:H123"/>
-    <mergeCell ref="B124:H124"/>
-    <mergeCell ref="B125:H125"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="B105:H105"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98737BBD-AB79-40F8-A4A3-A0A294C59791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0404D9-AB42-4BFD-8EDA-DB5538DCDC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A131893-4D4E-4E7C-A683-4E8BBB49B49E}"/>
   </bookViews>
@@ -1087,7 +1087,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,15 +1118,8 @@
       <charset val="163"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1148,12 +1141,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,14 +1236,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1649,7 +1641,7 @@
   <dimension ref="A2:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:H18"/>
+      <selection activeCell="B118" sqref="B118:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1660,7 +1652,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1677,7 +1669,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1694,7 +1686,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1713,7 +1705,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1732,7 +1724,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1751,7 +1743,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="156" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1770,7 +1762,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1789,7 +1781,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1808,7 +1800,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1827,7 +1819,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1846,7 +1838,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1944,7 +1936,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2107,7 +2099,7 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2126,7 +2118,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2145,7 +2137,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -2164,7 +2156,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2183,7 +2175,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2202,7 +2194,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2221,7 +2213,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2240,7 +2232,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2259,7 +2251,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2294,7 +2286,7 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -2313,7 +2305,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -2332,7 +2324,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -2351,7 +2343,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -2370,7 +2362,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2405,7 +2397,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -2424,7 +2416,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -2443,7 +2435,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -2462,7 +2454,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -2481,7 +2473,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -2500,7 +2492,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -2519,7 +2511,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -2538,7 +2530,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2557,7 +2549,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -2576,7 +2568,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -2595,7 +2587,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -2630,7 +2622,7 @@
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -2646,7 +2638,7 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2665,7 +2657,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2684,7 +2676,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -2703,7 +2695,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -2722,7 +2714,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -2741,7 +2733,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2760,7 +2752,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -2779,7 +2771,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -2798,7 +2790,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -2817,7 +2809,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -2836,7 +2828,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -2871,7 +2863,7 @@
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -2890,7 +2882,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="156" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -2909,7 +2901,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -2976,7 +2968,7 @@
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -2995,7 +2987,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -3015,7 +3007,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>241</v>
@@ -3030,7 +3022,7 @@
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -3049,7 +3041,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -3324,7 +3316,7 @@
       <c r="H95" s="5"/>
     </row>
     <row r="96" spans="1:12" ht="156" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -3391,7 +3383,7 @@
       <c r="H99" s="5"/>
     </row>
     <row r="100" spans="1:12" ht="156" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -3426,7 +3418,7 @@
       <c r="H101" s="5"/>
     </row>
     <row r="102" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -3445,7 +3437,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -3480,7 +3472,7 @@
       <c r="H104" s="5"/>
     </row>
     <row r="105" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -3499,7 +3491,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -3518,7 +3510,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -3537,7 +3529,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -3556,7 +3548,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="296.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -3655,7 +3647,7 @@
       <c r="H114" s="5"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -3671,7 +3663,7 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -4293,29 +4285,129 @@
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B127:H127"/>
+    <mergeCell ref="B128:H128"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B142:H142"/>
+    <mergeCell ref="B139:H139"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="B141:H141"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B132:H132"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B171:H171"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="B160:H160"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
     <mergeCell ref="B122:H122"/>
     <mergeCell ref="B123:H123"/>
     <mergeCell ref="B124:H124"/>
@@ -4340,131 +4432,41 @@
     <mergeCell ref="B78:H78"/>
     <mergeCell ref="B79:H79"/>
     <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="B160:H160"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B94:H94"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B126:H126"/>
-    <mergeCell ref="B127:H127"/>
-    <mergeCell ref="B128:H128"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B142:H142"/>
-    <mergeCell ref="B139:H139"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="B141:H141"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B132:H132"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A116">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"☑"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A116" xr:uid="{EBAD085A-D376-43E6-A524-24D36825E7AA}">
+      <formula1>"☑,☐"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0404D9-AB42-4BFD-8EDA-DB5538DCDC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CE7936-F3F0-45DA-A5CE-87CD32801AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A131893-4D4E-4E7C-A683-4E8BBB49B49E}"/>
+    <workbookView xWindow="12" yWindow="252" windowWidth="23028" windowHeight="11592" xr2:uid="{7A131893-4D4E-4E7C-A683-4E8BBB49B49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="368">
   <si>
     <t>Isekai Nonbiri Nouka</t>
   </si>
@@ -879,9 +879,6 @@
   </si>
   <si>
     <t>Main là Daikichi, độc thân, có ông nội khỏe vcl. Đi đám tang ông nội thì phát hiện ông để lại một “đứa con riêng” – Rin, tầm sáu tuổi, bị cả họ coi như gánh nặng. Khứa này thể hiện là “người lớn tử tế”, quyết định đem con bé về nuôi, vừa học cách làm cha, vừa học lại cách làm người. Câu chuyện bắt đầu với hành trình làm bố của ổng. Cái kết không gì lỏ hơn: khi Rin lớn lên và… thích ngược lại Daikichi, biến chuyện cha-con tinh thần thành mối tình lệch pha?</t>
-  </si>
-  <si>
-    <t>Một tác phẩm 210 đầy bệnh hoạn. Nó kể về một gái thích thể hiện bản thân từ lúc còn đi học. Thích ăn chơi, bị lừa tình, bị cuốn vào vòng xoáy của dục vọng, phản bội và tuyệt vọng. Rồi cứ thế trượt dài, trượt luôn vào hẳn cuộc sống bẩn thỉu, thối nát, tận cùng của đáy xã hội. Kết thì cả mẹ lẫn con đều 'đi', mặc dầu thì đứa con vẫn còn trong bụng, trước khi lên bảng đếm số vĩnh viễn thì có cảnh tưởng tượng (hồi quang phản chiếu à?) về lúc mình của quá khứ và có cái kết khác, kết đẹp đẽ hơn... Nói chung hentai nhân văn.</t>
   </si>
   <si>
     <t>Main là Nishikata, là một thằng ngu, suốt ngày nghĩ cách trêu lại Takagi, cô bạn bàn bên mặt tỉnh rụi, miệng cười nhẹ mà nội tâm toàn chiêu độc?. Mỗi lần Nishikata định phục thù, là y như rằng bị Takagi đọc vị như gì, phản đòn một phát tan xác lun?. Nói chung thằng main có nỗi bất lực khi crush mình lúc nào cũng ở trên tầm với, kiểu vừa sợ vừa nghiện bị hành.</t>
@@ -1081,6 +1078,69 @@
   </si>
   <si>
     <t>☐</t>
+  </si>
+  <si>
+    <t>Monster Musume no Oishasan</t>
+  </si>
+  <si>
+    <t>Yozakura-san Chi no Daisakusen</t>
+  </si>
+  <si>
+    <t>Một tác phẩm 210 đầy bệnh hoạn. Nó kể về một cô gái thích thể hiện bản thân từ lúc còn đi học. Thích ăn chơi, bị lừa tình, bị cuốn vào vòng xoáy của dục vọng, phản bội và tuyệt vọng. Rồi cứ thế trượt dài, trượt luôn vào hẳn cuộc sống bẩn thỉu, thối nát, tận cùng của đáy xã hội. Kết thì cả mẹ lẫn con đều 'đi', mặc dầu thì đứa con vẫn còn trong bụng, trước khi lên bảng đếm số vĩnh viễn thì có cảnh tưởng tượng (hồi quang phản chiếu à?) về lúc mình của quá khứ và có cái kết khác, kết đẹp đẽ hơn... Nói chung hentai nhân văn.</t>
+  </si>
+  <si>
+    <t>Xem xong tôi bị chết não. Main là một thanh niên ở thế giới hiện đại, luôn luyện tập bí mật để trở nên mạnh mẽ, nhưng không muốn nổi bật. Sau khi chết trong một tai nạn, nó được chuyển sinh sang một thế giới phép thuật. Tại đây, Cid tiếp tục theo đuổi giấc mơ trở thành “chúa tể bóng tối” bằng cách lập ra tổ chức Shadow Garden, chuyên chống lại một tổ chức hư cấu mà nó bịa ra – Cult of Diablos. Tuy nhiên, điều bất ngờ là tổ chức này… thực sự tồn tại, và vô tình trở thành nhân vật trung tâm trong cuộc chiến ngầm giữa các thế lực lớn.</t>
+  </si>
+  <si>
+    <t>Tôi không biết tóm tắt bộ dở hơi này như nào nên cop tạm bên ngoài: Asamura Yuuta, một học sinh cao trung bắt đầu sống cùng dưới một mái nhà với cô nữ sinh đẹp nhất khối- Ayase Saki dưới danh nghĩa anh em sau khi bố mẹ cả hai quyết định tái hôn. Chứng kiến cảnh bất hòa giữa hai vị phụ huynh trước kia của mình, cả hai người đều có những định kiến chẳng mấy tốt đẹp gì đối với mối quan hệ nam nữ. Sau đó, Yuuta và Saki đã thiết lập nên một lời hứa rằng không ai được phép quá xa, cũng không được phép bất hòa, chỉ giữ khoảng cách cần thiết trong mối quan hệ của cả hai.</t>
+  </si>
+  <si>
+    <t>Bộ này thì có nhiều cái làm tôi bị điên và khó hiểu vcl. Nhưng cách phát triển các nhân vật lẫn cốt truyện thì ok. Anime theo chân Azusagawa Sakuta, một nam sinh trung học, cậu gặp Sakurajima Mai – một nữ diễn viên nổi tiếng đang tạm nghỉ học – trong bộ đồ thỏ tại thư viện, nhưng không ai ngoài Sakuta có thể nhìn thấy cô. Đây là biểu hiện của “Hội chứng tuổi thanh xuân” – một hiện tượng siêu nhiên phản ánh những tổn thương tâm lý của tuổi mới lớn. Sakuta quyết định giúp Mai vượt qua tình trạng “vô hình” này, từ đó mở ra chuỗi câu chuyện liên quan đến nhiều nhân vật khác cũng mắc phải hội chứng tương tự: người bị lặp thời gian, hoán đổi thân xác, mất trí nhớ, hay thậm chí tồn tại hai bản thể. Mỗi trường hợp đều gắn liền với những vấn đề tâm lý sâu sắc như áp lực xã hội, cô đơn, ghen tị, và khủng hoảng bản thân.</t>
+  </si>
+  <si>
+    <t>Bộ này cũng được phết.</t>
+  </si>
+  <si>
+    <t>Đây là bộ hơi bạo lực nhưng lại có phật giáo?? Tại trường trung học Fuurin, nơi nổi tiếng không phải vì học tập mà vì là nơi tụ hội của những học sinh cá biệt, mạnh mẽ và thường xuyên xảy ra bạo lực. Nhân vật chính Sakuraba Haruka là một học sinh ưu tú, lạnh lùng, luôn tập trung vào học hành và giữ khoảng cách với người khác. Tuy nhiên, nó chọn vào Fuurin với mục tiêu thử thách bản thân và khám phá ý nghĩa thực sự của sức mạnh. Haruka bị cuốn vào những trận chiến giữa các nhóm học sinh, đặc biệt là nhóm Wind Breaker – những người dùng sức mạnh để bảo vệ cộng đồng. Dù ban đầu chỉ muốn giữ khoảng cách, Haruka dần bị ảnh hưởng bởi tinh thần đoàn kết, lòng nghĩa hiệp và sự gắn bó giữa các thành viên??</t>
+  </si>
+  <si>
+    <t>Elfen Lied</t>
+  </si>
+  <si>
+    <t>Darwin’s Game</t>
+  </si>
+  <si>
+    <t>Happy Sugar Life</t>
+  </si>
+  <si>
+    <t>Akame ga Kill!</t>
+  </si>
+  <si>
+    <t>Big Order</t>
+  </si>
+  <si>
+    <t>Renai Boukun</t>
+  </si>
+  <si>
+    <t>Bakemonogatari</t>
+  </si>
+  <si>
+    <t>Nurarihyon no Mago</t>
+  </si>
+  <si>
+    <t>Code Geass</t>
+  </si>
+  <si>
+    <t>Yakusoku no Neverland</t>
+  </si>
+  <si>
+    <t>Katanagatari</t>
+  </si>
+  <si>
+    <t>Bungou Stray Dogs</t>
+  </si>
+  <si>
+    <t>Tasogare Otome x Amnesia</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,6 +1294,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1267,7 +1336,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>582930</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>3421380</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="162224"/>
@@ -1640,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F690C1C7-FCAC-4B78-8590-EB89D6F75891}">
   <dimension ref="A2:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118:H118"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1653,7 +1722,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1670,7 +1739,7 @@
     </row>
     <row r="3" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1682,12 +1751,12 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="L3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1706,7 +1775,7 @@
     </row>
     <row r="5" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>260</v>
@@ -1725,7 +1794,7 @@
     </row>
     <row r="6" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
@@ -1744,7 +1813,7 @@
     </row>
     <row r="7" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>2</v>
@@ -1758,12 +1827,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="L7" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1782,7 +1851,7 @@
     </row>
     <row r="9" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>173</v>
@@ -1796,12 +1865,12 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="L9" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>174</v>
@@ -1815,12 +1884,12 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="L10" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>175</v>
@@ -1834,12 +1903,12 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="L11" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>176</v>
@@ -1852,98 +1921,113 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="L12" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="L13" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="L14" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="L15" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="L16" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="L17" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1951,162 +2035,189 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="L18" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="L19" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="L20" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="L21" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="L22" s="4" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="L23" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="L24" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="L25" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="L26" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="L27" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2114,18 +2225,18 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="L28" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2133,18 +2244,18 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="L29" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2152,18 +2263,18 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="L30" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="265.2" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2171,18 +2282,18 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="L31" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2190,18 +2301,18 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="L32" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2209,18 +2320,18 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="L33" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2228,18 +2339,18 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="L34" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2247,18 +2358,18 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="L35" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2266,34 +2377,37 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="L36" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="L37" s="4" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2301,18 +2415,18 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="L38" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -2320,18 +2434,18 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="L39" s="4" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2339,37 +2453,34 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="L40" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="L41" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2377,34 +2488,37 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="L42" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="L43" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2412,18 +2526,18 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="L44" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2431,18 +2545,18 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="L45" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -2450,18 +2564,18 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="L46" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2469,18 +2583,18 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="L47" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -2488,18 +2602,18 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="L48" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -2507,18 +2621,18 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="L49" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -2526,18 +2640,18 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="L50" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -2545,18 +2659,18 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="L51" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -2564,18 +2678,18 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="L52" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -2583,18 +2697,18 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="L53" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2602,50 +2716,56 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="L54" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="L55" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="L56" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2653,18 +2773,18 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="L57" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -2672,18 +2792,18 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="L58" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -2691,18 +2811,18 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="L59" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -2710,18 +2830,18 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="L60" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -2729,18 +2849,18 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="L61" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -2748,18 +2868,18 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="L62" s="4" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -2767,18 +2887,18 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="L63" s="4" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -2786,18 +2906,18 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="L64" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -2805,18 +2925,18 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="L65" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -2824,18 +2944,18 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="L66" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -2843,34 +2963,37 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="L67" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="L68" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -2878,18 +3001,18 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="L69" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -2897,18 +3020,18 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="L70" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -2916,18 +3039,18 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="L71" s="4" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2937,83 +3060,72 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+        <v>346</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="L75" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="L76" s="4" t="s">
-        <v>330</v>
-      </c>
+      <c r="B76" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3021,53 +3133,47 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="L78" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B78" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="L79" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="B79" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3075,15 +3181,15 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3091,15 +3197,15 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3107,15 +3213,15 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>247</v>
+        <v>339</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3123,15 +3229,15 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3139,15 +3245,15 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3155,15 +3261,15 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3171,15 +3277,15 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>251</v>
+        <v>342</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3187,15 +3293,15 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3203,15 +3309,15 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3219,15 +3325,15 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3235,15 +3341,15 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3251,15 +3357,15 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3267,15 +3373,15 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3283,15 +3389,15 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3299,15 +3405,15 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3315,34 +3421,31 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="L96" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B96" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -3350,15 +3453,15 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -3366,15 +3469,15 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3382,34 +3485,31 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="L100" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B100" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -3417,53 +3517,47 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="L102" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="L103" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B103" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -3471,126 +3565,111 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="L105" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="B105" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="L106" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="B106" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="L107" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="B107" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="L108" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="296.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B108" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="L109" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B109" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3598,15 +3677,15 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3616,13 +3695,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3632,13 +3711,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -3650,36 +3729,41 @@
       <c r="A115" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+      <c r="B115" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
+      <c r="B116" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B117" s="5"/>
+      <c r="A117" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="C117" s="5" t="s">
         <v>118</v>
       </c>
@@ -3690,18 +3774,28 @@
       <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B118" s="5"/>
-      <c r="C118" s="5" t="s">
+      <c r="A118" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B119" s="5"/>
+      <c r="A119" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="C119" s="5" t="s">
         <v>120</v>
       </c>
@@ -3712,7 +3806,12 @@
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B120" s="5"/>
+      <c r="A120" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="C120" s="5" t="s">
         <v>121</v>
       </c>
@@ -3723,7 +3822,12 @@
       <c r="H120" s="5"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B121" s="5"/>
+      <c r="A121" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="C121" s="5" t="s">
         <v>122</v>
       </c>
@@ -3734,7 +3838,12 @@
       <c r="H121" s="5"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B122" s="5"/>
+      <c r="A122" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="C122" s="5" t="s">
         <v>123</v>
       </c>
@@ -3745,7 +3854,12 @@
       <c r="H122" s="5"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B123" s="5"/>
+      <c r="A123" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="C123" s="5" t="s">
         <v>124</v>
       </c>
@@ -3756,7 +3870,12 @@
       <c r="H123" s="5"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B124" s="5"/>
+      <c r="A124" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="C124" s="5" t="s">
         <v>125</v>
       </c>
@@ -3767,7 +3886,12 @@
       <c r="H124" s="5"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B125" s="5"/>
+      <c r="A125" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="C125" s="5" t="s">
         <v>126</v>
       </c>
@@ -3778,7 +3902,12 @@
       <c r="H125" s="5"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B126" s="5"/>
+      <c r="A126" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="C126" s="5" t="s">
         <v>127</v>
       </c>
@@ -3789,7 +3918,12 @@
       <c r="H126" s="5"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B127" s="5"/>
+      <c r="A127" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="C127" s="5" t="s">
         <v>128</v>
       </c>
@@ -3800,7 +3934,12 @@
       <c r="H127" s="5"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B128" s="5"/>
+      <c r="A128" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="C128" s="5" t="s">
         <v>129</v>
       </c>
@@ -3810,8 +3949,13 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B129" s="5"/>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="C129" s="5" t="s">
         <v>130</v>
       </c>
@@ -3821,8 +3965,13 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B130" s="5"/>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="C130" s="5" t="s">
         <v>131</v>
       </c>
@@ -3832,8 +3981,13 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B131" s="5"/>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="C131" s="5" t="s">
         <v>132</v>
       </c>
@@ -3843,7 +3997,10 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5" t="s">
         <v>133</v>
@@ -3854,7 +4011,10 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
         <v>134</v>
@@ -3865,7 +4025,10 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
         <v>135</v>
@@ -3876,7 +4039,10 @@
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5" t="s">
         <v>136</v>
@@ -3887,7 +4053,10 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5" t="s">
         <v>137</v>
@@ -3898,7 +4067,10 @@
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5" t="s">
         <v>138</v>
@@ -3909,7 +4081,10 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5" t="s">
         <v>139</v>
@@ -3920,7 +4095,10 @@
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5" t="s">
         <v>140</v>
@@ -3931,7 +4109,10 @@
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5" t="s">
         <v>141</v>
@@ -3942,7 +4123,10 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5" t="s">
         <v>142</v>
@@ -3953,7 +4137,10 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5" t="s">
         <v>143</v>
@@ -3964,7 +4151,10 @@
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5" t="s">
         <v>144</v>
@@ -3975,7 +4165,10 @@
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5" t="s">
         <v>145</v>
@@ -3986,7 +4179,10 @@
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5" t="s">
         <v>146</v>
@@ -3997,7 +4193,10 @@
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5" t="s">
         <v>147</v>
@@ -4008,7 +4207,10 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5" t="s">
         <v>148</v>
@@ -4019,7 +4221,10 @@
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5" t="s">
         <v>149</v>
@@ -4030,7 +4235,10 @@
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5" t="s">
         <v>150</v>
@@ -4041,7 +4249,10 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5" t="s">
         <v>151</v>
@@ -4052,7 +4263,10 @@
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5" t="s">
         <v>152</v>
@@ -4063,7 +4277,10 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5" t="s">
         <v>153</v>
@@ -4074,7 +4291,10 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
         <v>154</v>
@@ -4085,7 +4305,10 @@
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B154" s="5"/>
       <c r="C154" s="5" t="s">
         <v>155</v>
@@ -4096,7 +4319,10 @@
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
         <v>156</v>
@@ -4107,7 +4333,10 @@
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
         <v>157</v>
@@ -4118,7 +4347,10 @@
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5" t="s">
         <v>158</v>
@@ -4129,7 +4361,10 @@
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5" t="s">
         <v>159</v>
@@ -4140,7 +4375,10 @@
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5" t="s">
         <v>160</v>
@@ -4151,7 +4389,10 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5" t="s">
         <v>161</v>
@@ -4162,7 +4403,10 @@
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5" t="s">
         <v>162</v>
@@ -4173,7 +4417,10 @@
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5" t="s">
         <v>163</v>
@@ -4184,7 +4431,10 @@
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5" t="s">
         <v>164</v>
@@ -4195,7 +4445,10 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
         <v>165</v>
@@ -4206,7 +4459,10 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5" t="s">
         <v>166</v>
@@ -4217,7 +4473,10 @@
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
         <v>167</v>
@@ -4228,7 +4487,10 @@
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5" t="s">
         <v>168</v>
@@ -4239,7 +4501,10 @@
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
         <v>169</v>
@@ -4250,7 +4515,10 @@
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
         <v>170</v>
@@ -4261,7 +4529,10 @@
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
         <v>171</v>
@@ -4272,7 +4543,10 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
         <v>172</v>
@@ -4284,7 +4558,7 @@
       <c r="H171" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="170">
+  <mergeCells count="169">
     <mergeCell ref="B145:H145"/>
     <mergeCell ref="B146:H146"/>
     <mergeCell ref="B147:H147"/>
@@ -4292,10 +4566,10 @@
     <mergeCell ref="B127:H127"/>
     <mergeCell ref="B128:H128"/>
     <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B83:H83"/>
     <mergeCell ref="B142:H142"/>
     <mergeCell ref="B139:H139"/>
     <mergeCell ref="B140:H140"/>
@@ -4308,16 +4582,32 @@
     <mergeCell ref="B131:H131"/>
     <mergeCell ref="B132:H132"/>
     <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
     <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
@@ -4325,56 +4615,39 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B115:H115"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B41:H41"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
     <mergeCell ref="B51:H51"/>
     <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B80:H80"/>
     <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B109:H109"/>
     <mergeCell ref="B171:H171"/>
     <mergeCell ref="B148:H148"/>
     <mergeCell ref="B149:H149"/>
@@ -4399,10 +4672,10 @@
     <mergeCell ref="B166:H166"/>
     <mergeCell ref="B167:H167"/>
     <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
     <mergeCell ref="B117:H117"/>
     <mergeCell ref="B118:H118"/>
     <mergeCell ref="B119:H119"/>
@@ -4416,38 +4689,38 @@
     <mergeCell ref="B134:H134"/>
     <mergeCell ref="B135:H135"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="B105:H105"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B98:H98"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B91:H91"/>
     <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
@@ -4457,13 +4730,13 @@
     <mergeCell ref="B11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A116">
+  <conditionalFormatting sqref="A2:A171">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"☑"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A116" xr:uid="{EBAD085A-D376-43E6-A524-24D36825E7AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A57 A58:A171" xr:uid="{EBAD085A-D376-43E6-A524-24D36825E7AA}">
       <formula1>"☑,☐"</formula1>
     </dataValidation>
   </dataValidations>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CE7936-F3F0-45DA-A5CE-87CD32801AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A2E7D-C43D-4093-890E-75BB68971F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="252" windowWidth="23028" windowHeight="11592" xr2:uid="{7A131893-4D4E-4E7C-A683-4E8BBB49B49E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="367">
   <si>
     <t>Isekai Nonbiri Nouka</t>
   </si>
@@ -330,9 +330,6 @@
   </si>
   <si>
     <t>98 years</t>
-  </si>
-  <si>
-    <t>99 years</t>
   </si>
   <si>
     <t>100 years</t>
@@ -1709,7 +1706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F690C1C7-FCAC-4B78-8590-EB89D6F75891}">
   <dimension ref="A2:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B77" sqref="B77:H77"/>
     </sheetView>
   </sheetViews>
@@ -1722,7 +1719,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1734,12 +1731,12 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="L2" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1751,12 +1748,12 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="L3" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1770,15 +1767,15 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="L4" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -1789,12 +1786,12 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="L5" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
@@ -1808,12 +1805,12 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="L6" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>2</v>
@@ -1827,12 +1824,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="L7" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1846,15 +1843,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="L8" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
@@ -1865,15 +1862,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="L9" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1884,15 +1881,15 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="L10" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>13</v>
@@ -1903,15 +1900,15 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="L11" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1921,15 +1918,15 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="L12" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>14</v>
@@ -1940,15 +1937,15 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="L13" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>18</v>
@@ -1959,15 +1956,15 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="L14" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>19</v>
@@ -1978,15 +1975,15 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="L15" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>29</v>
@@ -1997,15 +1994,15 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="L16" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
@@ -2016,15 +2013,15 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="L17" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>31</v>
@@ -2035,15 +2032,15 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="L18" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>32</v>
@@ -2054,15 +2051,15 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="L19" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>33</v>
@@ -2073,15 +2070,15 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="L20" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>34</v>
@@ -2092,15 +2089,15 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="L21" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>35</v>
@@ -2111,15 +2108,15 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="L22" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>36</v>
@@ -2130,15 +2127,15 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="L23" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>37</v>
@@ -2149,15 +2146,15 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="L24" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>39</v>
@@ -2168,15 +2165,15 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="L25" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>40</v>
@@ -2187,15 +2184,15 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="L26" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>41</v>
@@ -2206,15 +2203,15 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="L27" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>42</v>
@@ -2225,15 +2222,15 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="L28" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>43</v>
@@ -2244,15 +2241,15 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="L29" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>45</v>
@@ -2263,15 +2260,15 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="L30" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>46</v>
@@ -2282,15 +2279,15 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="L31" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>47</v>
@@ -2301,15 +2298,15 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="L32" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>48</v>
@@ -2320,15 +2317,15 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="L33" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>49</v>
@@ -2339,15 +2336,15 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="L34" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>50</v>
@@ -2358,15 +2355,15 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="L35" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>51</v>
@@ -2377,15 +2374,15 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="L36" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>52</v>
@@ -2396,15 +2393,15 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="L37" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>53</v>
@@ -2415,15 +2412,15 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="L38" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>54</v>
@@ -2434,15 +2431,15 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="L39" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>55</v>
@@ -2453,15 +2450,15 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="L40" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>57</v>
@@ -2474,10 +2471,10 @@
     </row>
     <row r="42" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>58</v>
@@ -2488,15 +2485,15 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="L42" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>59</v>
@@ -2507,15 +2504,15 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="L43" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>60</v>
@@ -2526,15 +2523,15 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="L44" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>61</v>
@@ -2545,15 +2542,15 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="L45" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>62</v>
@@ -2564,15 +2561,15 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="L46" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>63</v>
@@ -2583,15 +2580,15 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="L47" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>64</v>
@@ -2602,15 +2599,15 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="L48" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>65</v>
@@ -2621,15 +2618,15 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="L49" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>66</v>
@@ -2640,15 +2637,15 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="L50" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>67</v>
@@ -2659,15 +2656,15 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="L51" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>68</v>
@@ -2678,15 +2675,15 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="L52" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>70</v>
@@ -2697,15 +2694,15 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="L53" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>71</v>
@@ -2716,15 +2713,15 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="L54" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>72</v>
@@ -2735,15 +2732,15 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="L55" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>76</v>
@@ -2754,15 +2751,15 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="L56" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>77</v>
@@ -2773,15 +2770,15 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="L57" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>79</v>
@@ -2792,15 +2789,15 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="L58" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>80</v>
@@ -2811,15 +2808,15 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="L59" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>97</v>
@@ -2830,18 +2827,18 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="L60" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -2849,18 +2846,18 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="L61" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -2868,18 +2865,18 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="L62" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -2887,18 +2884,18 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="L63" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -2906,18 +2903,18 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="L64" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -2925,18 +2922,18 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="L65" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -2944,18 +2941,18 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="L66" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -2963,18 +2960,18 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="L67" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2982,18 +2979,18 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="L68" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3001,18 +2998,18 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="L69" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -3020,18 +3017,18 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="L70" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -3039,7 +3036,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="L71" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3047,7 +3044,7 @@
         <v>345</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>78</v>
@@ -3060,21 +3057,24 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>73</v>
@@ -3087,13 +3087,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3119,10 +3119,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>74</v>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>75</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>69</v>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3199,10 +3199,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>56</v>
@@ -3215,13 +3215,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>44</v>
@@ -3247,13 +3247,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3263,13 +3263,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3295,10 +3295,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>20</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>21</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>22</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>23</v>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>38</v>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>24</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>25</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>26</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>27</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>28</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>15</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>16</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>17</v>
@@ -3503,10 +3503,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>81</v>
@@ -3519,10 +3519,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>82</v>
@@ -3535,10 +3535,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>83</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>84</v>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>85</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>86</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>87</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>88</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>89</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>90</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>91</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>92</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>93</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>94</v>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>95</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>96</v>
@@ -3759,13 +3759,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="C117" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -3775,13 +3775,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -3791,13 +3791,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -3823,13 +3823,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -3839,13 +3839,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -3855,13 +3855,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -3871,13 +3871,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -3887,13 +3887,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3903,13 +3903,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -3919,13 +3919,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -3935,13 +3935,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -3951,13 +3951,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3967,13 +3967,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3999,11 +3999,11 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4013,11 +4013,11 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4027,11 +4027,11 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4041,11 +4041,11 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4055,11 +4055,11 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4069,11 +4069,11 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4083,11 +4083,11 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4097,11 +4097,11 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4111,11 +4111,11 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4125,11 +4125,11 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4139,11 +4139,11 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4153,11 +4153,11 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4167,11 +4167,11 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4181,11 +4181,11 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4195,11 +4195,11 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4209,11 +4209,11 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4223,11 +4223,11 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4237,11 +4237,11 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4251,11 +4251,11 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4265,11 +4265,11 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4279,11 +4279,11 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4293,11 +4293,11 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4307,11 +4307,11 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4321,11 +4321,11 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -4335,11 +4335,11 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -4349,11 +4349,11 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4363,11 +4363,11 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4377,11 +4377,11 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4391,11 +4391,11 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4405,11 +4405,11 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4419,11 +4419,11 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4433,11 +4433,11 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4447,11 +4447,11 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4461,11 +4461,11 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -4475,11 +4475,11 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -4489,11 +4489,11 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -4503,11 +4503,11 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -4517,11 +4517,11 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -4531,11 +4531,11 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -4545,11 +4545,11 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -4558,7 +4558,7 @@
       <c r="H171" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
+  <mergeCells count="170">
     <mergeCell ref="B145:H145"/>
     <mergeCell ref="B146:H146"/>
     <mergeCell ref="B147:H147"/>
@@ -4624,6 +4624,7 @@
     <mergeCell ref="B103:H103"/>
     <mergeCell ref="B104:H104"/>
     <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B73:H73"/>
     <mergeCell ref="B76:H76"/>
     <mergeCell ref="B115:H115"/>
     <mergeCell ref="B39:H39"/>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A2E7D-C43D-4093-890E-75BB68971F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13818F7D-A0B6-418C-8D61-D72F1A6587CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="252" windowWidth="23028" windowHeight="11592" xr2:uid="{7A131893-4D4E-4E7C-A683-4E8BBB49B49E}"/>
   </bookViews>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="367">
   <si>
-    <t>Isekai Nonbiri Nouka</t>
-  </si>
-  <si>
-    <t>Kaguya-sama wa Kokurasetai - Tensai-tachi no Renai Zunousen</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
     <t>2 years</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>3 years</t>
   </si>
   <si>
-    <t>Sono Bisque Doll wa Koi o suru</t>
-  </si>
-  <si>
     <t>4 years</t>
   </si>
   <si>
@@ -71,12 +59,6 @@
     <t>7 years</t>
   </si>
   <si>
-    <t>Hige wo Soru. Soshite Joshikousei wo Hirou</t>
-  </si>
-  <si>
-    <t>Danjon ni Deai o Motomeru no wa Machigatte Iru Darō ka</t>
-  </si>
-  <si>
     <t>9 years</t>
   </si>
   <si>
@@ -554,21 +536,6 @@
     <t>173 years</t>
   </si>
   <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Aoharaido</t>
-  </si>
-  <si>
-    <t>Tokidoki Bosotto Roshiago de Dereru Tonari no Ārya-san</t>
-  </si>
-  <si>
-    <t>Otonari no Tenshi-sama ni Itsu no Ma ni ka Dame Ningen ni Sareteita Ken</t>
-  </si>
-  <si>
-    <t>Gimai Seikatsu</t>
-  </si>
-  <si>
     <t>Eiti Shikkusu</t>
   </si>
   <si>
@@ -578,12 +545,6 @@
     <t>Shimotsuki wa Mob ga Suki</t>
   </si>
   <si>
-    <t>Kage no Jitsuryokusha ni Naritakute</t>
-  </si>
-  <si>
-    <t>Natsu e no Tonneru, Sayonara no Deguchi</t>
-  </si>
-  <si>
     <t>Majo no Tabitabi</t>
   </si>
   <si>
@@ -611,33 +572,15 @@
     <t>Byōsoku Go Senchimētoru</t>
   </si>
   <si>
-    <t>177013 - Henshin</t>
-  </si>
-  <si>
-    <t>Karakai jōzu no Takagi-san</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
     <t>Meitantei Conan</t>
   </si>
   <si>
-    <t>Doragon Bōru</t>
-  </si>
-  <si>
     <t>Kureyon Shin-chan</t>
   </si>
   <si>
     <t>Doraemon</t>
   </si>
   <si>
-    <t xml:space="preserve">Yamada-kun to Lv999 no Koi wo Suru </t>
-  </si>
-  <si>
     <t xml:space="preserve">Violet Evergarden Movie </t>
   </si>
   <si>
@@ -813,9 +756,6 @@
   </si>
   <si>
     <t>Tsurezure Children</t>
-  </si>
-  <si>
-    <t>5-toubun no Hanayome</t>
   </si>
   <si>
     <t>Ijiranaide, Nagatoro-san</t>
@@ -1038,9 +978,6 @@
     <t>Để mà tóm tắt của bộ này thì khá là khó. Vì có khá nhiều những sự kiện hay mà muốn liệt kê vào đây thì nó lại dài, không liệt kê vào thì nó lại hơi thiếu thiếu. Thôi thì nói chung chung thôi: Bộ này kể về thằng có best skill là thông não chi thuật. Ý lộn, quay về quá khứ lúc nó còn nhỏ một chút. Mồ côi cả cha lẫn mẹ, thằng hokage thì đớp hết tài sản của nhà nó, xong chỉ cho nó ở 1 cái căn phòng bé tý như cái ổ chuột. Học hành thì ngu, phá phách thì là bố của cả cái làng. Lại còn mang trong mình con cửu vĩ - xưa con này tấn công phá cả làng nên cả làng ai cũng ghét thằng này vãi l. Thôi thì thấy thằng này mang trong mình là thằng main chính nên các ông thầy cố nhắm mắt cho nó qua môn để còn lên lớp. Sang môi trường mới thì nó có xếp chung team với Sasuke với Sakura. Với giảng viên hướng dẫn là Kakashi thì ba khứa này nói chung cũng trải qua nhiều nhiệm vụ, thi tuyển ninja và đối mặt với các tổ chức khá là nguy hiểm, như là Akatsuki. Sang phần tiếp thì Naruto đã trưởng thành hơn, tiếp tục hành trình tìm lại Sasuke – người bạn thân đã rời bỏ làng để theo đuổi sức mạnh. Câu chuyện trở nên sâu sắc hơn khi nó khám phá nguồn gốc của mình, học cách kiểm soát sức mạnh Cửu Vĩ, và trở thành nhân vật chủ chốt trong cuộc đại chiến Ninja lần thứ tư. Những sự kiện lớn như sự hồi sinh của Madara, sự xuất hiện của Kaguya – tổ tiên của chakra, và trận chiến cuối cùng giữa Naruto và Sasuke đã khép lại hành trình dài đầy cảm xúc. Cuối cùng, Naruto thực hiện được ước mơ trở thành Hokage, mang lại hòa bình cho thế giới ninja.</t>
   </si>
   <si>
-    <t>Không nói đến những cái movies, chỉ tận trung vào mạch truyện chính.</t>
-  </si>
-  <si>
     <t>Cái này dài vcl, đéo tóm tắt đâu</t>
   </si>
   <si>
@@ -1138,6 +1075,109 @@
   </si>
   <si>
     <t>Tasogare Otome x Amnesia</t>
+  </si>
+  <si>
+    <t>Isekai Nonbiri Nouka
+異世界のんびり農家
+Nông dân thong thả nơi dị giới</t>
+  </si>
+  <si>
+    <t>Kaguya-sama wa Kokurasetai? Tensai-tachi no Renai Zunousen
+かぐや様は告らせたい？～天才たちの恋愛頭脳戦
+Kaguya muốn được tỏ tình? – Cuộc chiến tình yêu của những thiên tài</t>
+  </si>
+  <si>
+    <t>Sono Bisque Doll wa Koi wo Suru
+その着せ替え人形は恋をする
+Cô búp bê hóa trang ấy biết yêu rồi</t>
+  </si>
+  <si>
+    <t>5-toubun no Hanayome
+五等分の花嫁
+Cô dâu được chia làm năm phần?</t>
+  </si>
+  <si>
+    <t>Hige wo Soru. Soshite Joshikousei wo Hirou
+ひげを剃る。そして女子高生を拾う。
+Cạo râu. Rồi nhặt một nữ sinh trung học.</t>
+  </si>
+  <si>
+    <t>Danjon ni Deai o Motomeru no wa Machigatte Iru Darō ka
+ダンジョンに出会いを求めるのは間違っているだろうか
+Liệu rằng đi tìm tình yêu trong hầm ngục có sai không nhỉ?</t>
+  </si>
+  <si>
+    <t>Ao Haru Ride
+アオハライド
+Chuyến hành mùa xuân xanh</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso
+四月は君の嘘
+Tháng tư là lời nói dối của em</t>
+  </si>
+  <si>
+    <t>Sword Art Online
+ソードアート・オンライン
+Kiếm (thuật) sĩ trực tuyến</t>
+  </si>
+  <si>
+    <t>Tokidoki Bosotto Russia-go de Dereru Tonari no Alya-san
+時々ボソッとロシア語でデレる隣のアーリャさん
+Thỉnh thoảng cô nàng hàng xóm Arya lỡ nói lời ngọt ngào bằng tiếng Nga</t>
+  </si>
+  <si>
+    <t>Otonari no Tenshi-sama ni Itsu no Ma ni ka Dame Ningen ni Sareteita Ken
+お隣の天使様にいつの間にか駄目人間にされていた件
+Chuyện tôi bỗng dưng bị cô thiên thần hàng xóm biến thành kẻ vô dụng</t>
+  </si>
+  <si>
+    <t>Gimai Seikatsu
+義妹生活
+Cuộc sống cùng cô em gái kế</t>
+  </si>
+  <si>
+    <t>Kage no Jitsuryokusha ni Naritakute
+陰の実力者になりたくて
+Tôi muốn trở thành kẻ mạnh trong bóng tối.</t>
+  </si>
+  <si>
+    <t>Natsu e no Tonneru, Sayonara no Deguchi
+夏へのトンネル, さよならの出口
+Đường hầm đến mùa hè, lối thoát của lời tạm biệt</t>
+  </si>
+  <si>
+    <t>177013 - Henshin
+変身
+Biến dạng</t>
+  </si>
+  <si>
+    <t>Karakai Jouzu no Takagi-san
+からかい上手の高木さん
+Sự trêu chọc khéo léo của Takagi</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba
+鬼滅の刃
+Thanh gươm của sự diệt quỷ</t>
+  </si>
+  <si>
+    <t>Naruto
+ナルト</t>
+  </si>
+  <si>
+    <t>Không nói đến những cái movies,
+ chỉ tận trung vào mạch truyện chính.</t>
+  </si>
+  <si>
+    <t>Doragon Bōru
+ドラゴンボール
+Ngọc rồng</t>
+  </si>
+  <si>
+    <t>Yamada-kun to Lv999 no Koi wo Suru
+山田くんとLv999の恋をする
+Yamada và tình yêu cấp độ 999</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,9 +1324,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1301,6 +1338,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1704,25 +1756,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F690C1C7-FCAC-4B78-8590-EB89D6F75891}">
-  <dimension ref="A2:L171"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:H77"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="8.796875" style="3"/>
-    <col min="12" max="12" width="79.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="10" width="8.796875" style="3"/>
+    <col min="11" max="11" width="79.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>346</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1730,738 +1791,738 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="L2" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="K2" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="L3" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="K3" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>323</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>348</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K4" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>259</v>
+        <v>323</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>349</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="L5" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="K5" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>323</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>350</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="L6" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+      <c r="K6" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="156" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>323</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>354</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="L7" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>323</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="L8" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K8" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>172</v>
+        <v>323</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>353</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="L9" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="K9" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>173</v>
+        <v>323</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>352</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="L10" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="K10" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>174</v>
+        <v>323</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="L11" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K11" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="L12" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>176</v>
+        <v>323</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="L13" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K13" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>180</v>
+        <v>323</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="L14" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="K14" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>181</v>
+        <v>323</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>359</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="L15" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K15" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>191</v>
+        <v>323</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="L16" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="K16" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>192</v>
+        <v>323</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>361</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="L17" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K17" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>193</v>
+        <v>323</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="L18" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="K18" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>194</v>
+        <v>323</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>363</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="L19" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="L20" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="K20" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="L21" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="K21" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="L22" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="L23" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K23" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>199</v>
+        <v>323</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="L24" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K24" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="L25" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K25" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="L26" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="K26" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="L27" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K27" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="L28" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K28" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="L29" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K29" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="L30" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K30" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="L31" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="K31" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="L32" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K32" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="L33" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="K33" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="L34" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K34" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="L35" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="K35" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="L36" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="K36" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="L37" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K37" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="L38" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="K38" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="L39" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="K39" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="L40" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K40" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2469,585 +2530,585 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="L42" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="K42" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="L43" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="K43" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="L44" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="K44" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="L45" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="K45" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="L46" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="K46" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="L47" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K47" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="L48" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="K48" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="L49" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K49" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="L50" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K50" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="L51" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="K51" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="L52" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K52" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="L53" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+      <c r="K53" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="156" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="L54" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K54" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="L55" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="K55" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="L56" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="K56" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="L57" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="K57" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="L58" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="K58" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="L59" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+      <c r="K59" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="156" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="L60" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="156" x14ac:dyDescent="0.3">
+      <c r="K60" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="156" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="L61" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="K61" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="L62" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="K62" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="L63" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="K63" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="L64" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="K64" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
-      <c r="L65" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="K65" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="L66" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="K66" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="L67" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="296.39999999999998" x14ac:dyDescent="0.3">
+      <c r="K67" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="L68" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="K68" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="L69" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="K69" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="L70" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K70" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="L71" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K71" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -3055,45 +3116,45 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3101,15 +3162,15 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3117,15 +3178,15 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3133,15 +3194,15 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3149,15 +3210,15 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3165,15 +3226,15 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3183,13 +3244,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3199,13 +3260,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3215,13 +3276,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3231,13 +3292,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3247,13 +3308,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3263,13 +3324,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3279,13 +3340,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3295,13 +3356,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3311,13 +3372,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3327,13 +3388,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3343,13 +3404,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3359,13 +3420,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3375,13 +3436,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3391,13 +3452,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3407,13 +3468,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3423,13 +3484,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3439,13 +3500,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -3455,13 +3516,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -3471,13 +3532,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3487,13 +3548,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3503,13 +3564,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -3519,13 +3580,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -3535,13 +3596,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -3551,13 +3612,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -3567,13 +3628,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -3583,13 +3644,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3599,13 +3660,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -3615,13 +3676,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -3631,13 +3692,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3647,13 +3708,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -3663,13 +3724,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3679,13 +3740,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3695,13 +3756,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3711,13 +3772,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -3727,13 +3788,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -3743,13 +3804,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -3759,13 +3820,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -3775,13 +3836,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -3791,13 +3852,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -3807,13 +3868,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -3823,13 +3884,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -3839,13 +3900,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -3855,13 +3916,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -3871,13 +3932,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -3887,13 +3948,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3903,13 +3964,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -3919,13 +3980,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -3935,13 +3996,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -3951,13 +4012,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3967,13 +4028,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3983,13 +4044,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="C131" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3999,11 +4060,11 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4013,11 +4074,11 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4027,11 +4088,11 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4041,11 +4102,11 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4055,11 +4116,11 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4069,11 +4130,11 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4083,11 +4144,11 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4097,11 +4158,11 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4111,11 +4172,11 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4125,11 +4186,11 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4139,11 +4200,11 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4153,11 +4214,11 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4167,11 +4228,11 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4181,11 +4242,11 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4195,11 +4256,11 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4209,11 +4270,11 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4223,11 +4284,11 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4237,11 +4298,11 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4251,11 +4312,11 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4265,11 +4326,11 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4279,11 +4340,11 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4293,11 +4354,11 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4307,11 +4368,11 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4321,11 +4382,11 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -4335,11 +4396,11 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -4349,11 +4410,11 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4363,11 +4424,11 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4377,11 +4438,11 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4391,11 +4452,11 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4405,11 +4466,11 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4419,11 +4480,11 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4433,11 +4494,11 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4447,11 +4508,11 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4461,11 +4522,11 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -4475,11 +4536,11 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -4489,11 +4550,11 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -4503,11 +4564,11 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -4517,11 +4578,11 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -4531,11 +4592,11 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -4545,11 +4606,11 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -4558,7 +4619,8 @@
       <c r="H171" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="170">
+  <mergeCells count="171">
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="B145:H145"/>
     <mergeCell ref="B146:H146"/>
     <mergeCell ref="B147:H147"/>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD7DF3-0B75-4EFA-AFCA-B53BE80E3F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A2A541-CE1D-4F29-B32D-E2F1A9B6BC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="384" windowWidth="23028" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="648" windowWidth="23028" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="392">
   <si>
     <t>2 years</t>
   </si>
@@ -884,9 +884,6 @@
   </si>
   <si>
     <t>Darwin’s Game</t>
-  </si>
-  <si>
-    <t>Big Order</t>
   </si>
   <si>
     <t>Renai Boukun</t>
@@ -1266,13 +1263,90 @@
     <t>Omoide no Marnie
 思い出のマーニー
 Hồi ức của Marnie</t>
+  </si>
+  <si>
+    <t>Big Order
+ビッグオーダー
+Đại Mệnh Lệnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhìn thằng l main ngu quá, phim hay mà thằng main ngu vcl. Có nên drop luôn không trời? Bộ này như l. Thôi được rồi tóm tắt ngắn gọn thôi: </t>
+  </si>
+  <si>
+    <t>Mười năm trước, thế giới bỗng nhiên sụp đổ vì một sự kiện được gọi là “Ngày Tận Thế”. Nhân vật chính, Eiji Hoshimiya, bị nghi là người đó. Khi còn nhỏ, Eiji từng vô tình ước cho thế giới biến mất, và sau đó mọi chuyện thực sự xảy ra. Từ đó, nó sống trong mặc cảm, cố gắng sống yên ổn và chăm sóc em gái bị bệnh. Một ngày nọ, Rin Kurenai, một cô gái mới chuyển đến, đột nhiên tấn công Eiji vì nó muốn trả thù cho cha mẹ đã chết trong Ngày Tận Thế. Sức mạnh thật sự của Eiji là có thể kiểm soát mọi thứ trong phạm vi mình chiếm lĩnh, gần như trở thành “chúa tể” ở khu vực đó. Nhờ vậy mà nó khiến Rin buộc phải nghe theo lệnh của mình??. Từ đây, Eiji bị cuốn vào cuộc chiến giữa các “Order” khác — những người cũng có sức mạnh từ điều ước của họ. Một tổ chức tên là Dazaifu tìm đến và muốn lợi dụng sức mạnh của Eiji để chinh phục thế giới. Eiji không thật sự muốn làm điều đó, nhưng để bảo vệ em gái và tìm hiểu sự thật đằng sau thảm họa 10 năm trước, nó buộc phải tham gia. Trong quá trình chiến đấu, Eiji gặp nhiều người có ước mơ và nỗi đau riêng, đồng thời dần khám phá ra rằng sự thật về Ngày Tận Thế không đơn giản như nó nghĩ — mọi thứ đều bị một thế lực khác thao túng. Cuối cùng, Eiji đối mặt với kẻ đứng sau tất cả để ngăn thế giới sụp đổ thêm lần nữa. Nhờ quyết tâm và lòng tin vào em gái, nó đã cứu được mọi người, đồng thời chuộc lại lỗi lầm trong quá khứ.</t>
+  </si>
+  <si>
+    <t>Kizumonogatari</t>
+  </si>
+  <si>
+    <t>Monogatari</t>
+  </si>
+  <si>
+    <t>Durarara</t>
+  </si>
+  <si>
+    <t>Rất tiếc nhưng đó chỉ là anime thôi, ngoài đời thực thì éo có đâu nhá :vv. Bộ này ban đầu là 26 tập ngắn (mỗi tập khoảng 12 phút), sau đó được biên tập lại thành 13 tập dài. Momokuri kể về mối quan hệ giữa Kurihara Yuki, một cô gái năm hai trung học có vẻ ngoài dịu dàng nhưng lại là một “fan cuồng” bí mật, và Momotsuki Shinya (gọi tắt là Momo), một cậu bạn năm nhất nhút nhát, tốt bụng. Sau một thời gian dài âm thầm theo dõi và chụp lén Momo, Yuki lấy hết can đảm để tỏ tình – và bất ngờ được chấp nhận??? Từ đó, cả hai bắt đầu một mối quan hệ yêu đương chính thức, nhưng không giống như những cặp đôi bình thường. Yuki vẫn tiếp tục những hành vi “theo dõi” kỳ quặc như ghi chép sở thích, chụp ảnh lén, và sưu tầm thông tin về Momo – tất cả đều xuất phát từ tình cảm chân thành nhưng hơi quá đà. Trong khi đó, Momo lại là người thiếu tự tin, luôn lo lắng rằng mình không đủ tốt cho Yuki.</t>
+  </si>
+  <si>
+    <t>Momokuri
+ももくり</t>
+  </si>
+  <si>
+    <t>Bộ này cũng ổn. Mặc dù có nhiều lúc mình ghét thằng main vcl. Bộ này xoay quanh Banri Tada, một sinh viên ngành luật tại đại học Tokyo, vừa chuyển đến sau khi bị mất trí nhớ do tai nạn nghiêm trọng. Trước đó, Banri từng sống ở quê và có một mối quan hệ sâu sắc với cô bạn thời trung học Linda. Tuy nhiên, sau tai nạn, nó quên hết quá khứ và bắt đầu một cuộc sống mới tại thành phố. Tại trường đại học, Banri kết bạn với Mitsuo Yanagisawa, một thằng đang cố tránh khỏi sự theo đuổi của Koko Kaga – cô gái từng là bạn thời thơ ấu và có tình cảm mãnh liệt với Mitsuo. Tuy nhiên, sau nhiều biến cố, Koko và Banri bắt đầu nảy sinh tình cảm và trở thành một cặp đôi. Trong khi mối quan hệ giữa Banri và Koko phát triển, ký ức cũ của Banri dần quay trở lại, đặc biệt là những kỷ niệm với Linda – người từng có ảnh hưởng lớn đến cuộc sống trước đây của anh. Banri rơi vào xung đột nội tâm: giữa con người hiện tại và quá khứ bị lãng quên, giữa tình yêu mới với Koko và cảm xúc chưa rõ ràng dành cho Linda.</t>
+  </si>
+  <si>
+    <t>Golden Time
+ゴールデンタイム
+Khoảnh khắc vàng (quý giá)</t>
+  </si>
+  <si>
+    <t>Danganronpa: The Animation</t>
+  </si>
+  <si>
+    <t>Oshi no Ko</t>
+  </si>
+  <si>
+    <t>Kuzu no Honkai</t>
+  </si>
+  <si>
+    <t>Sankarea</t>
+  </si>
+  <si>
+    <t>Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e</t>
+  </si>
+  <si>
+    <t>Zetsuen no Tempest</t>
+  </si>
+  <si>
+    <t>Yojouhan Shinwa Taikei</t>
+  </si>
+  <si>
+    <t>Kimi ga Nozomu Eien</t>
+  </si>
+  <si>
+    <t>Saishuu Heiki Kanojo</t>
+  </si>
+  <si>
+    <t>Boogiepop wa Warawanai</t>
+  </si>
+  <si>
+    <t>Kara no Kyoukai: The Garden of Sinners</t>
+  </si>
+  <si>
+    <t>Noir</t>
+  </si>
+  <si>
+    <t>Ergo Proxy</t>
+  </si>
+  <si>
+    <t>Texhnolyze</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,6 +1376,18 @@
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1394,7 +1480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1406,17 +1492,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1434,19 +1538,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1852,3011 +1944,2921 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152:H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="18"/>
+    <col min="1" max="1" width="8.69921875" style="5"/>
     <col min="2" max="10" width="8.69921875" style="3"/>
     <col min="11" max="11" width="79.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="K2" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="K3" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="K4" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="K5" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="K6" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="156" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="K7" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="K8" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="K9" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
       <c r="K10" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="K11" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
       <c r="K12" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="K13" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="K14" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="K15" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
       <c r="K16" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
       <c r="K17" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
       <c r="K18" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="K19" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="K20" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
       <c r="K21" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="K22" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
       <c r="K23" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="A24" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
       <c r="K24" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="K25" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
       <c r="K26" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="A27" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
       <c r="K27" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="A28" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
       <c r="K28" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="A29" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
       <c r="K29" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="A30" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
       <c r="K30" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="A31" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="K31" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="A32" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
       <c r="K32" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
       <c r="K33" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="A34" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
       <c r="K34" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="K35" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
       <c r="K36" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="A37" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
       <c r="K37" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="A38" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="K38" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="A39" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
       <c r="K39" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="A40" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
       <c r="K40" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="K42" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="K42" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="K43" s="4" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="K43" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="K44" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="K44" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="K45" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="K45" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="K46" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="K46" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="K47" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="K47" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="K48" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="K48" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="K49" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="K49" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="K50" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="K50" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="K51" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="K51" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="K52" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="K52" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="K53" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="156" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="K53" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="156" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="K54" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="K55" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="78" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="K56" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="K54" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="K55" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="K56" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="K57" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="K57" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="K58" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="K58" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="K59" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="156" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="K59" s="4" t="s">
+      <c r="C60" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="K60" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="156" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="K61" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="K62" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="K63" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="K64" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="K65" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="K66" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="K67" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="280.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="K68" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="156" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="K60" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="156" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="K61" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="K62" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="K63" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="K64" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="K65" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="K66" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="K67" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="280.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="69" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="K68" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="K69" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="K70" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="K69" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="K70" s="4" t="s">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="K71" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="K72" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="156" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="K73" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="K74" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="K71" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="K72" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="156" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="K73" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B74" s="5" t="s">
+    <row r="75" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="K74" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="K75" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="K75" s="4" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="10"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:11" ht="234" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="K78" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="K79" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B87" s="11" t="s">
+      <c r="A87" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="19"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="A88" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="A89" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="A90" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="A92" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="A93" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="A94" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B95" s="7" t="s">
+      <c r="A95" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="A96" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B97" s="7" t="s">
+      <c r="A97" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="A98" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B99" s="7" t="s">
+      <c r="A99" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="A101" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="A102" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B103" s="7" t="s">
+      <c r="A103" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="A104" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B106" s="7" t="s">
+      <c r="A106" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="A107" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="A108" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="A111" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="A113" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="A114" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="A115" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="A116" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="A117" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B118" s="7" t="s">
+      <c r="A118" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="A119" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="A120" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B121" s="7" t="s">
+      <c r="A121" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="A122" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="A123" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B124" s="7" t="s">
+      <c r="A124" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="A125" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="A126" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B127" s="7" t="s">
+      <c r="A127" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B128" s="7" t="s">
+      <c r="A128" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B129" s="7" t="s">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B130" s="7" t="s">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7" t="s">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:11" ht="156" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7" t="s">
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="K131" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7" t="s">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7" t="s">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7" t="s">
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="K134" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7" t="s">
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7" t="s">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7" t="s">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7" t="s">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7" t="s">
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7" t="s">
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7" t="s">
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7" t="s">
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7" t="s">
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7" t="s">
+      <c r="A145" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C145" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7" t="s">
+      <c r="A146" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7" t="s">
+      <c r="A147" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7" t="s">
+      <c r="A148" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7" t="s">
+      <c r="A149" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7" t="s">
+      <c r="A150" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7" t="s">
+      <c r="A151" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7" t="s">
+      <c r="A152" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7" t="s">
+      <c r="A153" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7" t="s">
+      <c r="A154" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7" t="s">
+      <c r="A155" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7" t="s">
+      <c r="A156" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7" t="s">
+      <c r="A157" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7" t="s">
+      <c r="A158" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7" t="s">
+      <c r="A159" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7" t="s">
+      <c r="A160" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7" t="s">
+      <c r="A161" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7" t="s">
+      <c r="A162" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7" t="s">
+      <c r="A163" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7" t="s">
+      <c r="A164" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7" t="s">
+      <c r="A165" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7" t="s">
+      <c r="A166" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7" t="s">
+      <c r="A167" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7" t="s">
+      <c r="A168" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7" t="s">
+      <c r="A169" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7" t="s">
+      <c r="A170" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B141:H141"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B139:H139"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B142:H142"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B123:H123"/>
-    <mergeCell ref="B124:H124"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B128:H128"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="B125:H125"/>
-    <mergeCell ref="B126:H126"/>
-    <mergeCell ref="B127:H127"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="B160:H160"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B132:H132"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B94:H94"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B109:H109"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B112:H112"/>
@@ -4877,10 +4879,156 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B105:H105"/>
     <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B165:H165"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B124:H124"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B132:H132"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="B160:H160"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B141:H141"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B139:H139"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B142:H142"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B128:H128"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B127:H127"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B123:H123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A170">

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="227">
   <si>
     <t>Eiti Shikkusu</t>
   </si>
@@ -609,48 +609,6 @@
 Doraemon</t>
   </si>
   <si>
-    <t>Tác phẩm 異世界のんびり農家 (Isekai Nonbiri Nouka) ra mắt ban đầu dưới dạng web novel trên trang Shōsetsuka ni Narō.</t>
-  </si>
-  <si>
-    <t>Tác phẩm ra mắt ban đầu dưới dạng manga được đăng trên tạp chí Miracle Jump. Sau đó, chuyển sang đăng thường xuyên trên Weekly Young Jump.</t>
-  </si>
-  <si>
-    <t>Manga gốc do Fukuda Shinichi sáng tác, bắt đầu được đăng trên tạp chí Young Gangan của Square Enix.</t>
-  </si>
-  <si>
-    <t>Manga do Haruba Negi sáng tác, lần đầu được đăng trên tạp chí Weekly Shōnen Magazine của Kodansha.</t>
-  </si>
-  <si>
-    <t>Web novel do Shimesaba sáng tác, được đăng lần đầu trên trang Kakuyomu.</t>
-  </si>
-  <si>
-    <t>Web novel do Reki Kawahara sáng tác, đăng lần đầu trên trang web cá nhân của tác giả như một tác phẩm độc lập.</t>
-  </si>
-  <si>
-    <t>Light novel do Fujino Ōmori sáng tác và Suzuhito Yasuda minh họa, được xuất bản lần đầu bởi SB Creative. Manga chuyển thể bắt đầu phát hành cùng năm.</t>
-  </si>
-  <si>
-    <t>Manga do Naoshi Arakawa sáng tác, bắt đầu đăng trên tạp chí Monthly Shōnen Magazine của Kodansha</t>
-  </si>
-  <si>
-    <t>Manga do Io Sakisaka sáng tác, bắt đầu đăng trên tạp chí Bessatsu Margaret của Shueisha</t>
-  </si>
-  <si>
-    <t>Web novel: Được đăng lần đầu trên trang Shōsetsuka ni Narō</t>
-  </si>
-  <si>
-    <t>Web novel do Saekisan sáng tác, đăng lần đầu trên trang Shōsetsuka ni Narō</t>
-  </si>
-  <si>
-    <t>Web novel do Ghost Mikawa (三河ごーすと) sáng tác, được đăng lần đầu trên trang Kakuyomu</t>
-  </si>
-  <si>
-    <t>Web novel do Daisuke Aizawa sáng tác, đăng lần đầu trên trang Shōsetsuka ni Narō</t>
-  </si>
-  <si>
-    <t>Light novel do Hachimoku Mei sáng tác và KUKKA minh họa, được xuất bản lần đầu bởi Gagaga Bunko</t>
-  </si>
-  <si>
     <t>Ra mắt với mã số 177013, thường được biết đến trong cộng đồng mạng như một meme nổi tiếng liên quan đến manga hentai.</t>
   </si>
   <si>
@@ -851,13 +809,58 @@
   </si>
   <si>
     <t>Là một manga do Sakae Esuno sáng tác, được đăng trên tạp chí Shōnen Ace.</t>
+  </si>
+  <si>
+    <t>Kể về Machio Hiraku – một người đàn ông chết vì bệnh được Thần cho tái sinh ở thế giới khác cùng công cụ nông nghiệp vạn năng. Anh chỉ muốn sống yên bình nên chọn làm nông giữa rừng, rồi dần dần lập nên “Làng Đại Cây”, nơi quy tụ elf, ma tộc, thiên sứ, rồng, và cả dàn harem toàn gái xinh. Câu chuyện xoay quanh cuộc sống điền viên, mở rộng làng, dựng nhà, chăn nuôi, rồi vô tình biến cộng đồng nhỏ ấy thành một thế lực mạnh khiến các vương quốc phải dè chừng. Tuy nhiên,nhân vật chính gần như toàn năng vô hạn, không hề có giới hạn sức mạnh hay xung đột nội tâm. Một công cụ nông nghiệp mà có thể chặt rồng, xây lâu đài, khoan giếng, cày ruộng, và… chiến đấu được thì nghe đã thấy sai sai. Làng của anh chỉ vài chục người nhưng trong vài chương đã trở thành trung tâm thương mại, quân sự và công nghệ của cả thế giới, mà chẳng ai thắc mắc chuyện cung ứng, dân số hay hậu cần. Các nhân vật phụ, nhất là dàn harem, cứ xuất hiện ngẫu nhiên như “NPC spawn sai code”: toàn gái đẹp, mạnh vô lý, đến ở rồi mất hút. Ngoài ra, mạch truyện không có cao trào: xung đột chính trị được giải quyết trong… một bữa ăn, chiến tranh kết thúc chỉ vì “hiểu lầm nhỏ”, và ai gặp Hiraku cũng lập tức quý anh như người nhà. Thế giới được mô tả rộng lớn nhưng không có chiều sâu, các khái niệm về ma pháp, thần thánh hay sinh thái gần như chỉ mang tính trang trí.</t>
+  </si>
+  <si>
+    <t>Kể về Shinomiya Kaguya và Shirogane Miyuki, hai học sinh thiên tài trong hội học sinh trường Shuchiin. Cả hai đều có tình cảm với nhau nhưng quá kiêu hãnh để thổ lộ trước, nên họ biến chuyện tình thành “cuộc chiến trí tuệ”, ai khiến đối phương tỏ tình trước sẽ là người chiến thắng. Từ đó, hàng loạt tình huống dở khóc dở cười xảy ra khi họ tìm cách gài nhau qua những chuyện nhỏ nhặt như mời đi chơi, tặng quà hay nói lời cảm ơn. Xung quanh họ là các thành viên hội học sinh khác như Fujiwara, Ishigami và Iino, những người thường vô tình phá hỏng hoặc làm rối thêm mọi kế hoạch. Về sau, câu chuyện mở rộng ra ngoài phạm vi hội học sinh, cho thấy cả quá khứ, gia đình và bước tiến trong mối quan hệ của Kaguya và Miyuki khi họ dần tiến gần đến việc thừa nhận tình cảm thật sự.</t>
+  </si>
+  <si>
+    <t>Kể về Gojo Wakana, một nam sinh nhút nhát đam mê làm búp bê Hina, và Kitagawa Marin, cô bạn cùng lớp năng động, yêu thích cosplay. Khi Marin tình cờ phát hiện Gojo có tài may vá, cô nhờ cậu giúp làm trang phục cosplay cho mình. Từ đó, cả hai bắt đầu gắn bó qua những dự án cosplay khác nhau. Trong quá trình cùng nhau chuẩn bị, thử đồ và tham gia sự kiện, Gojo dần vượt qua mặc cảm bản thân, còn Marin cũng ngày càng thân thiết và nảy sinh tình cảm với cậu. Câu chuyện xoay quanh quá trình họ cùng phát triển — vừa trong sở thích cosplay, vừa trong mối quan hệ giữa hai người.</t>
+  </si>
+  <si>
+    <t>Kể về Uesugi Fuutarou, một học sinh xuất sắc nhưng nghèo, tình cờ được thuê làm gia sư cho năm chị em sinh năm nhà Nakano: Ichika – chị cả chín chắn nhưng hay giấu cảm xúc; Nino – bướng bỉnh, mạnh mẽ; Miku – trầm lặng, yêu lịch sử; Yotsuba – năng động, tốt bụng; và Itsuki – nghiêm túc, hơi vụng về. Ban đầu cả năm đều phản đối việc học, đặc biệt là Nino, nhưng dần dần họ bị thuyết phục bởi sự kiên trì và chân thành của Fuutarou. Qua quá trình cùng nhau học tập, đi dã ngoại, tham gia lễ hội và vượt qua những hiểu lầm, từng người trong số họ bắt đầu nảy sinh tình cảm với Fuutarou. Cậu cũng dần hiểu rõ từng chị em, giúp họ tìm ra con đường riêng. Câu chuyện kéo dài đến lúc họ tốt nghiệp, và trong tương lai, Fuutarou kết hôn với một trong năm người — cô dâu giấu mặt ấy được tiết lộ ở phần kết là Yotsuba, người luôn âm thầm ủng hộ và là mối liên kết giữa tất cả.</t>
+  </si>
+  <si>
+    <t>Kể về Yoshida, một nhân viên văn phòng bình thường vừa thất tình sau khi bị cấp trên từ chối. Trong lúc say rượu trên đường về, anh gặp Ogiwara Sayu, một nữ sinh trung học bỏ nhà, không có chỗ ở. Sau một hồi nói chuyện, Yoshida quyết định cho Sayu tá túc tại căn hộ của mình, nhưng không động chạm hay lợi dụng cô, chỉ yêu cầu cô giúp việc nhà để đổi lại chỗ ở. Thời gian sống chung, Sayu dần bộc lộ quá khứ bị gia đình lạnh nhạt và phải lang thang từ nhà này sang nhà khác, trong khi Yoshida giúp cô học cách sống độc lập và lấy lại niềm tin vào bản thân. Cả hai cùng trải qua nhiều tình huống dở khóc dở cười, đối mặt với sự nghi ngờ từ người xung quanh và dần hiểu rõ cảm xúc của nhau. Cuối cùng, Yoshida khuyên Sayu trở về nhà, đối mặt với cha mẹ và quá khứ của mình, còn anh quay lại cuộc sống bình thường, mang theo những kỷ niệm về quãng thời gian ngắn ngủi nhưng đầy ý nghĩa giữa hai người.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Năm 2022, một game thực tế ảo mang tên Sword Art Online ra mắt, cho phép người chơi hoàn toàn nhập vai vào thế giới ảo bằng thiết bị NerveGear. Tuy nhiên, hàng ngàn người nhanh chóng phát hiện họ không thể thoát ra khỏi game — nhà sáng tạo Kayaba Akihiko tuyên bố rằng ai chết trong game thì cũng chết ngoài đời. Nhân vật chính Kirito, một trong những người chơi beta test, quyết định chiến đấu một mình để sống sót và hoàn thành 100 tầng của pháo đài Aincrad. Trong hành trình ấy, anh gặp Asuna — một kiếm sĩ tài năng, cùng nhau họ chiến đấu, yêu nhau và trở thành cặp đôi mạnh nhất trong SAO. Sau khi đánh bại Kayaba, cả hai được giải thoát. Tuy nhiên, câu chuyện chưa kết thúc. Kirito tiếp tục bị lôi kéo vào các thế giới ảo khác như Alfheim Online (thế giới tiên tộc), Gun Gale Online (thế giới súng đạn), rồi Underworld — nơi chứa đựng bí mật của trí tuệ nhân tạo và chiến tranh ảo. </t>
+  </si>
+  <si>
+    <t>Câu chuyện diễn ra tại thành phố mê cung Orario, nơi con người cùng các vị thần chung sống, và dưới lòng đất là Dungeon — mê cung đầy quái vật, nơi các mạo hiểm giả chiến đấu để thu thập tinh thể và trở nên mạnh hơn. Nhân vật chính là Bell Cranel, một chàng trai trẻ ngây ngô, gia nhập Hestia Familia – tổ chức nhỏ chỉ có duy nhất mình cậu và nữ thần Hestia. Bell mơ ước trở thành anh hùng, nhưng ban đầu chỉ là một mạo hiểm giả yếu ớt. Trong một lần bị quái vật tấn công, cậu được nữ kiếm sĩ mạnh mẽ Ais Wallenstein cứu, từ đó nảy sinh tình cảm và quyết tâm mạnh lên để sánh ngang với cô. Nhờ ý chí và khả năng phát triển đặc biệt (Fast Growth), Bell nhanh chóng trưởng thành vượt trội, thu hút sự chú ý của nhiều người và cả các vị thần. Cùng Hestia, bạn bè mới, và đồng minh từ nhiều Familia khác, cậu đối mặt với vô số thử thách trong Dungeon — từ quái vật khủng khiếp đến những âm mưu giữa các vị thần.</t>
+  </si>
+  <si>
+    <t>Tóm tắt (dùng AI đại đại đi, còn đâu tự mà nhớ)</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Arima Kousei, một thần đồng piano từng nổi tiếng từ nhỏ nhưng sau khi mẹ qua đời, cậu rơi vào khủng hoảng tâm lý, không thể nghe thấy tiếng đàn của chính mình. Kousei sống tẻ nhạt, chỉ lặp lại những ngày tháng vô nghĩa bên hai người bạn thời thơ ấu là Tsubaki và Watari. Mọi thứ thay đổi khi cậu gặp Miyazono Kaori, một nữ nghệ sĩ violin tràn đầy sức sống, tự do và có phần nổi loạn. Kaori kéo Kousei trở lại thế giới âm nhạc bằng cách ép cậu cùng biểu diễn trong các buổi thi, khiến cậu dần đối diện lại với nỗi đau và ký ức về mẹ. Khi Kousei bắt đầu lấy lại đam mê và cảm xúc trong âm nhạc, Kaori bất ngờ ngã bệnh nặng. Dù vậy, cô vẫn giấu đi, tiếp tục sống vui tươi và truyền cảm hứng cho cậu đến tận phút cuối. Sau khi Kaori qua đời trong ca phẫu thuật, Kousei nhận được bức thư cô để lại, trong đó cô thú nhận rằng từ lâu đã biết mình sắp chết và rằng “lời nói dối tháng Tư” chính là việc cô giả vờ thích Watari — trong khi người cô thực sự yêu chính là Kousei.</t>
+  </si>
+  <si>
+    <t>Nhân vật chính là Yoshioka Futaba, một cô gái từng đáng yêu và được nhiều bạn nam để ý ở trung học cơ sở. Tuy nhiên, vì bị các bạn nữ ghen ghét, cô quyết định thay đổi bản thân khi lên cấp ba — trở nên thô lỗ, ồn ào để không còn bị ghét nữa. Một ngày, Futaba tình cờ gặp lại Tanaka Kou, mối tình đầu thời trung học, người từng biến mất không lời từ biệt sau kỳ nghỉ hè. Cậu giờ đây mang họ khác – Mabuchi Kou – và tính cách cũng thay đổi: lạnh lùng, xa cách và có phần u sầu. Futaba cố gắng tiếp cận lại Kou, trong khi cậu cũng dần để lộ những vết thương tinh thần do cái chết của mẹ và sự cô lập với gia đình. Cả hai cùng gia nhập nhóm bạn mới, nơi họ học cách mở lòng, tha thứ cho quá khứ và tìm lại cảm xúc đã mất. Dù tình cảm giữa Futaba và Kou tiến triển chậm chạp, họ vẫn luôn bị kéo lại với nhau giữa những hiểu lầm, sự do dự và cả nỗi sợ bị tổn thương lần nữa. Câu chuyện khép lại với hình ảnh hai người dần vượt qua quá khứ, học cách trưởng thành và chấp nhận rằng “thanh xuân” – dù dang dở – vẫn là quãng thời gian quý giá nhất trong đời.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Masachika Kuze, một nam sinh trung học có vẻ ngoài lười biếng và thờ ơ, nhưng thực ra rất thông minh và tinh tế. Cậu ngồi cạnh Alyssa Mikhailovna Kujo, thường được gọi là Alya, cô gái mang hai dòng máu Nga – Nhật nổi bật với vẻ đẹp lạnh lùng, thành tích học tập xuất sắc và được nhiều người hâm mộ trong trường. Alya thường nói vài câu bằng tiếng Nga khi nói chuyện với Kuze, tin rằng cậu không hiểu, trong khi thực tế Kuze lại biết tiếng Nga và hiểu toàn bộ những lời cô nói — kể cả những câu cô buột miệng bày tỏ tình cảm với cậu. Từ đó, mối quan hệ giữa hai người trở nên vi diệu: bên ngoài là cặp bạn học “lạnh – lười”, nhưng bên trong là chuỗi những hiểu lầm ngọt ngào, trêu đùa và những khoảnh khắc lặng lẽ rung động. Kuze dần được hé lộ có quá khứ gia đình phức tạp và từng là học sinh ưu tú, còn Alya thì che giấu sự cô đơn và áp lực do kỳ vọng của người khác.</t>
+  </si>
+  <si>
+    <t>Nhân vật chính là Amane Fujimiya, một nam sinh sống một mình trong căn hộ nhỏ. Căn hộ kế bên là Mahiru Shiina, cô gái nổi tiếng ở trường, xinh đẹp, giỏi giang, được mệnh danh là “Thiên sứ”. Tuy học cùng trường, hai người hầu như không giao tiếp cho đến một ngày mưa, khi Amane thấy Mahiru ngồi một mình dưới mưa và cho cô mượn ô. Từ đó, họ bắt đầu quen biết. Mahiru phát hiện Amane sống bừa bộn, nên thường sang giúp dọn dẹp, nấu ăn, và chăm sóc cậu. Ban đầu cả hai giữ khoảng cách, nhưng dần dần, mối quan hệ giữa họ trở nên ấm áp và thân thiết hơn. Mahiru bộc lộ một khía cạnh dễ thương, yếu đuối phía sau vẻ hoàn hảo, còn Amane cũng dần vượt qua sự tự ti của mình để mở lòng với cô.</t>
+  </si>
+  <si>
+    <t>Sau khi cha của Yuuta Asamura và mẹ của Saki Ayase tái hôn, cả hai — vốn là học sinh trung học — đột ngột trở thành anh em “trên danh nghĩa” và phải sống chung dưới một mái nhà. Không có quan hệ huyết thống, họ buộc phải học cách cư xử sao cho đúng mực, tránh gây hiểu lầm hay vượt quá giới hạn. Yuuta là kiểu người điềm đạm, có phần khép kín do từng chứng kiến hôn nhân đổ vỡ của cha mẹ. Saki lại là cô gái lạnh lùng, lý trí, luôn giữ khoảng cách vì từng bị tổn thương bởi sự thiếu tin tưởng trong gia đình cũ. Ban đầu, họ giữ thái độ xã giao cứng nhắc, tránh xung đột và không can thiệp vào đời sống riêng của nhau. Thế nhưng, qua thời gian chung sống, họ dần hiểu hơn về nỗi cô đơn và sự bất an của đối phương. Những hành động nhỏ — như cùng ăn cơm, giúp nhau học tập, hay quan tâm khi người kia ốm — khiến bầu không khí trong nhà ấm áp hơn, dù cả hai luôn phải kiềm chế cảm xúc nảy sinh.</t>
+  </si>
+  <si>
+    <t>Nhân vật chính là Cid Kagenou, một thằng ám ảnh với việc trở thành “người thao túng trong bóng tối” — kiểu nhân vật bí ẩn điều khiển thế giới từ phía sau hậu trường. Ở thế giới cũ, Cid chỉ là một người bình thường, nhưng sau khi chết vì tai nạn, cậu được tái sinh trong một thế giới phép thuật. Lần này, cậu quyết tâm sống đúng với “giấc mơ chuunibyou” của mình. Cid lập nên một tổ chức bí mật mang tên Shadow Garden, bịa ra một câu chuyện hư cấu về “Cult of Diablos” — giáo phái hắc ám đang âm mưu thống trị thế giới — chỉ để thỏa mãn sở thích diễn vai nhân vật bí ẩn. Trớ trêu thay, điều cậu tưởng là tưởng tượng lại hóa ra có thật: “Cult of Diablos” thực sự tồn tại, và Shadow Garden do cậu lập ra dần trở thành lực lượng ngầm thực sự chiến đấu chống lại chúng. Trong khi Cid vẫn ngây thơ tin rằng mình chỉ đang “đóng vai ngầu lòi”, thì các thuộc hạ — toàn là những cô gái mà cậu từng cứu — lại trung thành tuyệt đối, xem cậu như lãnh tụ vĩ đại Shadow-sama. Cậu vừa vô tình cứu thế giới, vừa vô tình tạo nên harem hùng mạnh, mà bản thân thì vẫn nghĩ mình chỉ là “diễn cho vui”???</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Minato, một cậu học sinh trung học gặp tai nạn giao thông nghiêm trọng cùng cô bạn thân Rinko, khiến cả hai rơi vào trạng thái hôn mê trong thời gian dài. Khi tỉnh lại, Minato phát hiện mình đã “bước sang tương lai”, nơi mọi thứ thay đổi: Rinko biến mất, bạn bè cũ trưởng thành, và thành phố cũng đã khác xưa. Minato quyết tâm tìm cách quay lại quá khứ, gặp lại Rinko và sửa chữa những sai lầm dẫn đến tai nạn. Cậu trải qua hành trình đi giữa thời gian, gặp gỡ những người hỗ trợ mình, đối mặt với nỗi cô đơn, cảm giác mất mát, và học cách chấp nhận rằng không phải tất cả đều có thể quay lại như xưa nữa.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +882,12 @@
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -941,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,6 +976,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,7 +1048,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1406,7 +1421,7 @@
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="69.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="61.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="96.75" style="6" customWidth="1"/>
     <col min="5" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
@@ -1417,8 +1432,11 @@
       <c r="C1" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="58.5" customHeight="1">
+      <c r="D1" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="213" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1428,11 +1446,11 @@
       <c r="C2" s="1">
         <v>2016</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D2" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="121.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1442,11 +1460,11 @@
       <c r="C3" s="1">
         <v>2015</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="55.5" customHeight="1">
+      <c r="D3" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="99.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1456,11 +1474,11 @@
       <c r="C4" s="1">
         <v>2018</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="57" customHeight="1">
+      <c r="D4" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="136.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1470,11 +1488,11 @@
       <c r="C5" s="1">
         <v>2017</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="56.25" customHeight="1">
+      <c r="D5" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="150.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1484,11 +1502,11 @@
       <c r="C6" s="1">
         <v>2017</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="55.5" customHeight="1">
+      <c r="D6" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="135.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1498,11 +1516,11 @@
       <c r="C7" s="1">
         <v>2002</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D7" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="150" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1512,11 +1530,11 @@
       <c r="C8" s="1">
         <v>2013</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D8" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="146.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1526,11 +1544,11 @@
       <c r="C9" s="1">
         <v>2011</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D9" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="162" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1540,11 +1558,11 @@
       <c r="C10" s="1">
         <v>2011</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57.75" customHeight="1">
+      <c r="D10" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="147.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1554,11 +1572,11 @@
       <c r="C11" s="1">
         <v>2020</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="54" customHeight="1">
+      <c r="D11" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="114.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1568,11 +1586,11 @@
       <c r="C12" s="1">
         <v>2018</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="55.5" customHeight="1">
+      <c r="D12" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="146.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1582,11 +1600,11 @@
       <c r="C13" s="1">
         <v>2021</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D13" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="163.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1596,11 +1614,11 @@
       <c r="C14" s="1">
         <v>2018</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="54.75" customHeight="1">
+      <c r="D14" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="101.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1610,8 +1628,8 @@
       <c r="C15" s="1">
         <v>2019</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>161</v>
+      <c r="D15" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="47.25">
@@ -1625,7 +1643,7 @@
         <v>2013</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="53.25" customHeight="1">
@@ -1639,7 +1657,7 @@
         <v>2013</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="53.25" customHeight="1">
@@ -1653,7 +1671,7 @@
         <v>2016</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="47.25">
@@ -1667,7 +1685,7 @@
         <v>1999</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="47.25">
@@ -1681,7 +1699,7 @@
         <v>1984</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="47.25">
@@ -1695,7 +1713,7 @@
         <v>1994</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="47.25">
@@ -1709,7 +1727,7 @@
         <v>1990</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="47.25">
@@ -1723,7 +1741,7 @@
         <v>1969</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="53.25" customHeight="1">
@@ -1737,7 +1755,7 @@
         <v>2019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="56.25" customHeight="1">
@@ -1751,7 +1769,7 @@
         <v>2005</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51.75" customHeight="1">
@@ -1765,7 +1783,7 @@
         <v>2018</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="54.75" customHeight="1">
@@ -1779,7 +1797,7 @@
         <v>2015</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="54" customHeight="1">
@@ -1793,7 +1811,7 @@
         <v>2003</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="53.25" customHeight="1">
@@ -1807,7 +1825,7 @@
         <v>2008</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="53.25" customHeight="1">
@@ -1821,7 +1839,7 @@
         <v>2019</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="47.25">
@@ -1835,7 +1853,7 @@
         <v>2018</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="54" customHeight="1">
@@ -1849,7 +1867,7 @@
         <v>2013</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="54.75" customHeight="1">
@@ -1863,7 +1881,7 @@
         <v>2018</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="47.25">
@@ -1877,7 +1895,7 @@
         <v>2011</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="54" customHeight="1">
@@ -1891,7 +1909,7 @@
         <v>2017</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="47.25">
@@ -1905,7 +1923,7 @@
         <v>2001</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="56.25" customHeight="1">
@@ -1919,7 +1937,7 @@
         <v>2007</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="57" customHeight="1">
@@ -1933,7 +1951,7 @@
         <v>1998</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="54.75" customHeight="1">
@@ -1947,7 +1965,7 @@
         <v>2012</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51.75" customHeight="1">
@@ -1961,7 +1979,7 @@
         <v>2014</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="47.25">
@@ -1969,13 +1987,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C41" s="1">
         <v>1987</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="50.25" customHeight="1">
@@ -1989,7 +2007,7 @@
         <v>1981</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="51.75" customHeight="1">
@@ -1997,13 +2015,13 @@
         <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C43" s="1">
         <v>2013</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="51" customHeight="1">
@@ -2017,7 +2035,7 @@
         <v>2011</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="53.25" customHeight="1">
@@ -2031,7 +2049,7 @@
         <v>2004</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="55.5" customHeight="1">
@@ -2045,7 +2063,7 @@
         <v>1989</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="57" customHeight="1">
@@ -2059,7 +2077,7 @@
         <v>1982</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="56.25" customHeight="1">
@@ -2073,7 +2091,7 @@
         <v>2016</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="55.5" customHeight="1">
@@ -2087,7 +2105,7 @@
         <v>2013</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="51.75" customHeight="1">
@@ -2101,7 +2119,7 @@
         <v>1984</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="49.5" customHeight="1">
@@ -2115,7 +2133,7 @@
         <v>2002</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="47.25">
@@ -2129,7 +2147,7 @@
         <v>1988</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="54" customHeight="1">
@@ -2137,13 +2155,13 @@
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C53" s="1">
         <v>1996</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="65.25" customHeight="1">
@@ -2157,7 +2175,7 @@
         <v>1975</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="47.25">
@@ -2165,13 +2183,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C55" s="1">
         <v>1980</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="63">
@@ -2185,7 +2203,7 @@
         <v>2004</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="62.45" customHeight="1">
@@ -2199,7 +2217,7 @@
         <v>2020</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="47.25">
@@ -2207,13 +2225,13 @@
         <v>47</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C58" s="1">
         <v>2009</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.5" customHeight="1">
@@ -2227,7 +2245,7 @@
         <v>2013</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="52.5" customHeight="1">
@@ -2241,7 +2259,7 @@
         <v>2016</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54.75" customHeight="1">
@@ -2255,7 +2273,7 @@
         <v>2015</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="54" customHeight="1">
@@ -2269,7 +2287,7 @@
         <v>2018</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="56.25" customHeight="1">
@@ -2283,7 +2301,7 @@
         <v>2015</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="73.5" customHeight="1">
@@ -2297,7 +2315,7 @@
         <v>2019</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="57" customHeight="1">
@@ -2311,7 +2329,7 @@
         <v>2011</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="53.25" customHeight="1">
@@ -2325,7 +2343,7 @@
         <v>2012</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="54.75" customHeight="1">
@@ -2339,7 +2357,7 @@
         <v>2005</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="47.25">
@@ -2353,7 +2371,7 @@
         <v>2006</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="60.75" customHeight="1">
@@ -2367,7 +2385,7 @@
         <v>2014</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="31.5">
@@ -2381,7 +2399,7 @@
         <v>2021</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2406,7 +2424,7 @@
         <v>2019</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="47.25">
@@ -2420,7 +2438,7 @@
         <v>2002</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="51" customHeight="1">
@@ -2434,7 +2452,7 @@
         <v>2015</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="47.25">
@@ -2448,7 +2466,7 @@
         <v>2010</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2478,7 +2496,7 @@
         <v>2011</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:4">

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="228">
   <si>
     <t>Eiti Shikkusu</t>
   </si>
@@ -609,109 +609,16 @@
 Doraemon</t>
   </si>
   <si>
-    <t>Ra mắt với mã số 177013, thường được biết đến trong cộng đồng mạng như một meme nổi tiếng liên quan đến manga hentai.</t>
-  </si>
-  <si>
-    <t>Manga được đăng lần đầu trên tạp chí Gessan (Monthly Shōnen Sunday) của Shogakukan</t>
-  </si>
-  <si>
-    <t>Manga do Koyoharu Gotouge sáng tác, được đăng lần đầu trên tạp chí Weekly Shōnen Jump của Shueisha</t>
-  </si>
-  <si>
-    <t>Manga do Masashi Kishimoto sáng tác, được đăng lần đầu trên tạp chí Weekly Shōnen Jump của Shueisha</t>
-  </si>
-  <si>
-    <t>Manga do Akira Toriyama sáng tác, được đăng lần đầu trên tạp chí Weekly Shōnen Jump của Shueisha</t>
-  </si>
-  <si>
-    <t>Manga do Gosho Aoyama sáng tác, được đăng lần đầu trên tạp chí Weekly Shōnen Sunday của Shogakukan</t>
-  </si>
-  <si>
-    <t>Manga do Yoshito Usui sáng tác, lần đầu được đăng trên tạp chí Weekly Manga Action của Futabasha</t>
-  </si>
-  <si>
-    <t>Manga Doraemon bắt đầu được đăng trên nhiều tạp chí thiếu nhi khác nhau của nhà xuất bản Shogakukan</t>
-  </si>
-  <si>
-    <t>Manga do Mashiro sáng tác, bắt đầu đăng trên nền tảng Ganma! của Comic Smart</t>
-  </si>
-  <si>
-    <t>Manga do Yumi Unita sáng tác, bắt đầu đăng trên tạp chí Feel Young của Shodensha</t>
-  </si>
-  <si>
-    <t>Tác phẩm được ra mắt đăng trên tạp chí Weekly Manga Times</t>
-  </si>
-  <si>
-    <t>Tác phẩm được ra mắt đăng trên tạp chí Comic Garden của nhà xuất bản Mag Garden.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được ra mắt là một phim điện ảnh anime do studio Madhouse sản xuất.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được đăng dưới dạng light novel bởi nhà xuất bản Shogakukan.</t>
-  </si>
-  <si>
-    <t>Tác phẩm là một phim điện ảnh anime do studio CoMix Wave Films sản xuất.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được ra mắt đăng trên tạp chí Monthly Afternoon của nhà xuất bản Kodansha.</t>
-  </si>
-  <si>
-    <t>Tác phẩm là một anime truyền hình gốc do studio Kyoto Animation sản xuất.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được đăng trên tạp chí Monthly Gangan Joker của nhà xuất bản Square Enix.</t>
-  </si>
-  <si>
-    <t>Tác phẩm là một bộ phim anime truyền hình do Wao World sản xuất.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được đăng trên trang web manga trực tuyến Sunday Webry của nhà xuất bản Shogakukan.</t>
-  </si>
-  <si>
-    <t>Tác phẩm là một phim điện ảnh anime do studio Madhouse sản xuất.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được đăng trên tạp chí Monthly Flowers của nhà xuất bản Shogakukan.</t>
-  </si>
-  <si>
-    <t>Tác phẩm là một phim điện ảnh anime do studio Madhouse và Studio Chizu đồng sản xuất.</t>
-  </si>
-  <si>
-    <t>Tác phẩm là một phim điện ảnh anime do Studio Ghibli sản xuất.</t>
-  </si>
-  <si>
     <t>Magic Kaito
 まじっく快斗
 Pháp sư Kaito</t>
   </si>
   <si>
-    <t>Tác phẩm được đăng trên tạp chí Weekly Shōnen Sunday của nhà xuất bản Shogakukan.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được xuất bản bởi nhà xuất bản Kodansha dưới dạng sách văn học thiếu nhi.</t>
-  </si>
-  <si>
     <t>Kotonoha no Niwa
 言の葉の庭
 Khu vườn của những lời nói</t>
   </si>
   <si>
-    <t>Tác phẩm là một phim điện ảnh anime do Makoto Shinkai đạo diễn và viết kịch bản.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tác phẩm được ra mắt dưới dạng one-shot trên tạp chí Bessatsu Shōnen Magazine của nhà xuất bản Kodansha (one-shot: ngắn gọn, thường chỉ dài từ vài chục đến vài trăm trang) </t>
-  </si>
-  <si>
-    <t>Tác phẩm lần đầu được ra mắt dưới dạng one-shot trên tạp chí Bessatsu Young Magazine của nhà xuất bản Kodansha.</t>
-  </si>
-  <si>
-    <t>Manga gốc được ra mắt trên tạp chí Monthly Animal House của nhà xuất bản Hakusensha.</t>
-  </si>
-  <si>
-    <t>Manga được đăng lần đầu trên tạp chí Animage của nhà xuất bản Tokuma Shoten</t>
-  </si>
-  <si>
     <t>Tác phẩm được ra mắt trên trang web Shōsetsuka ni Narō.</t>
   </si>
   <si>
@@ -854,6 +761,102 @@
   </si>
   <si>
     <t>Câu chuyện xoay quanh Minato, một cậu học sinh trung học gặp tai nạn giao thông nghiêm trọng cùng cô bạn thân Rinko, khiến cả hai rơi vào trạng thái hôn mê trong thời gian dài. Khi tỉnh lại, Minato phát hiện mình đã “bước sang tương lai”, nơi mọi thứ thay đổi: Rinko biến mất, bạn bè cũ trưởng thành, và thành phố cũng đã khác xưa. Minato quyết tâm tìm cách quay lại quá khứ, gặp lại Rinko và sửa chữa những sai lầm dẫn đến tai nạn. Cậu trải qua hành trình đi giữa thời gian, gặp gỡ những người hỗ trợ mình, đối mặt với nỗi cô đơn, cảm giác mất mát, và học cách chấp nhận rằng không phải tất cả đều có thể quay lại như xưa nữa.</t>
+  </si>
+  <si>
+    <t>Tác phẩm kể về một cô gái trẻ, bình thường, gặp một người đàn ông lớn tuổi và bắt đầu mối quan hệ tình cảm – nhưng mối quan hệ này nhanh chóng trở nên độc hại. Cô bị lôi kéo vào các tình huống bạo lực về thể chất và tinh thần, trải qua quá trình “biến đổi” cả về nhận thức và cảm xúc, dẫn đến sự suy sụp của bản thân. Câu chuyện theo chân cô từ những ngày đầu ngây thơ, rồi dần sa vào sự kiểm soát, thao túng và bạo hành, cuối cùng là mất đi tự do và sự tự chủ. Tác phẩm nổi bật bởi cách kể tăm tối, bi thương và gây ám ảnh, nhấn mạnh chủ đề về hậu quả của những mối quan hệ lệ thuộc và bạo lực tình dục.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Nishikata, một nam sinh trung học hay bị trêu chọc, và Takagi, cô bạn cùng lớp thông minh, nhanh nhẹn và thích trêu cậu. Mỗi ngày, Takagi tìm cách tinh quái để khiến Nishikata mắc lỗi, đỏ mặt hoặc phản ứng hài hước, nhưng luôn giữ giới hạn thân thiện và không làm cậu tổn thương. Nishikata liên tục cố gắng “trả đũa” nhưng hầu hết đều thất bại trước trí thông minh và sự nhanh nhẹn của Takagi. Qua từng tình huống nhỏ trong lớp học, trên đường về nhà hay trong các hoạt động ngoại khóa, mối quan hệ giữa họ ngày càng gắn bó, chứa đựng những khoảnh khắc tinh nghịch, ngượng ngùng và dần hé lộ tình cảm tiềm ẩn giữa hai người.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Kamado Tanjiro, sống ở vùng núi cùng gia đình. Một ngày, cả gia đình cậu bị quỷ tấn công, chỉ còn Nezuko, em gái, sống sót nhưng bị biến thành quỷ. Tanjiro quyết tâm trở thành kiếm sĩ diệt quỷ để tìm cách đưa Nezuko trở lại thành người và trả thù cho gia đình. Trong hành trình, Tanjiro gia nhập Đội Sát Quỷ, gặp gỡ những đồng đội như Zenitsu, một cậu bé sợ hãi nhưng có kỹ năng phi thường khi tỉnh táo, và Inosuke, cậu trai hoang dã, mạnh mẽ nhưng ngây ngô. Tanjiro học hỏi các kỹ thuật kiếm thuật đặc biệt và “Hơi thở” để chiến đấu với quỷ. Họ đối mặt với nhiều quỷ mạnh, đặc biệt là Ngũ Trụ Quỷ — nhóm quỷ quyền lực dưới trướng Muzan Kibutsuji, kẻ tạo ra tất cả quỷ. Câu chuyện kết hợp hành động, phiêu lưu và sự trưởng thành Tanjiro.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Uzumaki Naruto, một cậu bé mồ côi bị làng Konoha xa lánh vì trong cơ thể cậu bị niêm phong Cửu Vĩ Hồ Ly (Kurama) — một con hồ ly chín đuôi hung dữ từng tấn công làng. Naruto mơ ước trở thành Hokage, lãnh đạo mạnh nhất làng, để được mọi người công nhận. Từ những ngày đầu ngây ngô và vụng về, Naruto tham gia Academy Ninja, kết bạn với Sasuke Uchiha và Sakura Haruno, đồng thời học các kỹ năng ninja. Anh trải qua nhiều nhiệm vụ, chiến đấu với các kẻ thù mạnh và dần trưởng thành. Trên hành trình, Naruto phải đối mặt với Akatsuki, tổ chức âm mưu bắt giữ các hồ ly khác để chiếm quyền năng, và những bí mật về cha mẹ mình. Cậu cũng đấu tranh với tình bạn và thù hận, đặc biệt là với Sasuke, người rời làng để tìm sức mạnh. Cuối cùng, qua nhiều trận chiến, Naruto không chỉ trở thành ninja mạnh mẽ mà còn hòa giải xung đột, mang lại hòa bình và trở thành Hokage, được mọi người công nhận và thực hiện được ước mơ tuổi thơ của mình.</t>
+  </si>
+  <si>
+    <t>Câu chuyện bắt đầu với Son Goku, một cậu bé có sức mạnh phi thường và đuôi khỉ, sống một mình trên núi. Goku gặp Bulma, cô gái tìm kiếm bảy viên Dragon Ball – những viên ngọc rồng có khả năng triệu hồi Rồng Thần để ban điều ước. Goku cùng Bulma trải qua nhiều cuộc phiêu lưu, gặp gỡ những người bạn như Krillin, Yamcha, và Master Roshi, học võ thuật và tham gia các giải đấu võ thuật. Họ chiến đấu chống lại nhiều kẻ xấu, từ Red Ribbon Army đến Piccolo, bảo vệ thế giới khỏi các mối đe dọa. Sau này, câu chuyện mở rộng với Dragon Ball Z, nơi Goku trưởng thành, kết hôn với Chi-Chi, và sinh ra Gohan. Cậu phải đối mặt với các kẻ thù mạnh như Saiyan (Vegeta, Nappa), Frieza, Cell, và Majin Buu, liên tục vượt qua giới hạn sức mạnh của bản thân qua các hình thức Super Saiyan.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Edogawa Conan, thực chất là Shinichi Kudo, một thám tử trung học nổi tiếng. Trong một lần điều tra tổ chức tội phạm bí ẩn Black Organization, cậu bị đầu độc bằng một loại thuốc lạ khiến cơ thể teo nhỏ thành một cậu bé tiểu học. Sau khi trở thành Conan, cậu sống cùng Ran Mouri, người yêu thời trung học và cũng là con gái của thám tử tư Kogoro Mouri, để thuận tiện điều tra tổ chức. Conan tiếp tục giải quyết các vụ án, từ giết người, trộm cắp đến âm mưu tinh vi, luôn che giấu danh tính thật. Song song với việc phá án, Conan tìm cách thu thập thông tin về Black Organization, hy vọng tìm ra thuốc giải để trở lại hình dạng thật. Câu chuyện kết hợp hành động, điều tra, trí tuệ, và các mối quan hệ cá nhân, đồng thời phát triển theo từng vụ án với những bí ẩn nối tiếp nhau.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Shinnosuke “Shin” Nohara, một cậu bé 5 tuổi nghịch ngợm sống ở thành phố Kasukabe cùng bố Hiroshi, mẹ Misae, em gái Himawari và chú chó Shiro. Shin nổi tiếng với tính cách lém lỉnh, thích trêu chọc người lớn, làm những trò nghịch ngợm và nói chuyện bạo dạn. Mỗi tập là những tình huống đời thường, từ đi học, chơi với bạn bè, tham gia lễ hội, đến những rắc rối với hàng xóm hay người thân. Shin thường xuyên gây ra tình huống dở khóc dở cười, khiến gia đình và người xung quanh vừa bực mình vừa buồn cười. Dù chủ yếu hài hước, bộ truyện cũng đôi lúc lồng những thông điệp nhẹ nhàng về gia đình, tình bạn và cuộc sống hàng ngày.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Nobita Nobi, một cậu bé học yếu, hậu đậu, luôn gặp rắc rối trong cuộc sống hàng ngày. Một ngày, từ tương lai, Doraemon — một chú mèo máy xanh — được gửi về để giúp đỡ Nobita thay đổi số phận, tránh những thất bại trong tương lai. Doraemon mang theo vô số bảo bối thần kỳ từ thế kỷ 22, giúp Nobita vượt qua khó khăn, từ bài tập đến các tình huống xã hội hay phiêu lưu kỳ quái. Cậu bạn Nobita thường lạm dụng bảo bối, dẫn đến những tình huống rắc rối nhưng cũng từ đó học được bài học.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Yamada, một chàng trai bình thường, và Tsukasa, cô gái chơi cùng anh trong một trò chơi trực tuyến. Trong game, Tsukasa là một nhân vật mạnh mẽ ở cấp 999, luôn giúp đỡ và bảo vệ Yamada. Dần dần, mối quan hệ giữa họ không chỉ gói gọn trong game mà tiến tới đời thực. Tsukasa trong đời thực là cô gái nhút nhát, ít nói, nhưng qua trò chơi, cô bộc lộ sự quan tâm và tình cảm với Yamada. Cả hai cùng trải qua những tình huống dở khóc dở cười, hiểu hơn về tính cách thật của nhau và dần phát triển tình yêu ngọt ngào, vừa trưởng thành từ game vừa hòa nhập vào đời sống thực.</t>
+  </si>
+  <si>
+    <t>Câu chuyện kể về Daiichi “Daikichi” Kawachi, một đàn ông 30 tuổi, độc thân. Sau đám tang của ông nội, Daikichi bất ngờ gặp Rin, cô bé 6 tuổi là con riêng của người ông — không ai trong gia đình muốn nuôi. Daikichi quyết định nhận Rin làm con nuôi, dù không hề có kinh nghiệm chăm sóc trẻ. Câu chuyện xoay quanh cuộc sống đời thường giữa Daikichi và Rin: từ việc học, chăm sóc hàng ngày, đến những mâu thuẫn, niềm vui và khó khăn trong việc xây dựng một gia đình bất đắc dĩ. Qua thời gian, Daikichi trưởng thành hơn về trách nhiệm và tình cảm, còn Rin lớn lên với tình yêu thương ổn định, tạo nên một mối quan hệ cha – con ấm áp và cưới luôn cha.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Yuta, một người chồng bình thường, và Shiori, vợ anh. Một ngày, do một sự kiện kỳ lạ, Shiori biến thành một cô bé tiểu học. Dù ngoại hình thay đổi, cô vẫn giữ ký ức và tính cách trưởng thành. Yuta phải thích nghi với tình huống bất thường: chăm sóc vợ giờ là học sinh, đồng thời bảo vệ mối quan hệ hôn nhân trong khi mọi người xung quanh chỉ nhìn thấy Shiori như một đứa trẻ. Câu chuyện xoay quanh các tình huống đời thường, hài hước và lãng mạn, đồng thời thể hiện sự gắn bó, quan tâm và tình cảm giữa hai người trong hoàn cảnh ảo ma.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Niina, một cô bé sống trong một thị trấn hẻo lánh ven biển, nơi thời gian và thế giới dường như trôi chậm hơn bình thường. Niina tình cờ gặp Theo, một chàng trai trẻ lạc vào thị trấn, và họ cùng nhau trải qua những ngày tháng thanh xuân, khám phá nơi hoang sơ nhưng bí ẩn này. Câu chuyện nhấn mạnh sự trưởng thành, cô đơn, và quá trình Niina và Theo khám phá bản thân lẫn thế giới xung quanh. Mối quan hệ giữa họ phát triển từ tò mò, ngây thơ đến những cảm xúc phức tạp hơn, trong bối cảnh một thế giới vừa thực vừa kỳ ảo.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh ba người vô gia cư: Gin, một người đàn ông trung niên nghiện rượu; Hana, một phụ nữ chuyển giới mạnh mẽ, lạc quan; và Miyuki, một thiếu nữ trẻ, trầm lặng nhưng thông minh. Vào đêm Giáng Sinh, họ tìm thấy một em bé bị bỏ rơi trong thùng rác. Cả ba quyết định tìm cha mẹ đứa trẻ, và trong hành trình, họ đối mặt với nhiều tình huống dở khóc dở cười, nguy hiểm và cảm động. Trong quá trình đó, họ hé lộ quá khứ đau khổ, những sai lầm và nỗi cô đơn của bản thân, đồng thời học cách tha thứ và giúp đỡ nhau.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Chihiro, một phi công quân sự trẻ, và hành trình của cậu trong một cuộc chiến tranh trên bầu trời, với các trận chiến trên không và các nhiệm vụ nguy hiểm. Trong quá trình này, Chihiro nhớ về quá khứ, người thân và những người đồng đội đã mất, tạo nên những hồi tưởng sâu sắc về tuổi trẻ, tình bạn và lòng dũng cảm. Ngoài chiến tranh, câu chuyện cũng khai thác mối quan hệ tình cảm giữa Chihiro và Mikaze, đồng đội và người yêu, thể hiện sự trưởng thành, mất mát và hy sinh trong thời kỳ chiến đấu. Tác phẩm kết hợp phiêu lưu, lãng mạn và hồi tưởng, vừa tập trung vào hành động trên bầu trời, vừa khắc họa tâm lý nhân vật, tạo nên bức tranh về kỷ niệm và tình yêu trong bối cảnh chiến tranh.</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Hodaka, một cậu học sinh trung học trốn khỏi đảo quê nhà và lên Tokyo sống một mình. Trong thành phố mưa liên tục, Hodaka gặp Hina, một cô gái có khả năng kỳ diệu: cô có thể điều khiển thời tiết, làm nắng trời bất cứ lúc nào. Hodaka và Hina cùng nhau bắt đầu kinh doanh “dịch vụ thời tiết nắng”, nhưng quyền năng của Hina không miễn phí: mỗi lần thay đổi thời tiết, sức khỏe và tuổi thọ của cô bị ảnh hưởng. Khi Tokyo rơi vào những trận mưa lớn nguy hiểm, Hodaka phải đưa ra quyết định khó khăn để bảo vệ Hina, đồng thời đối diện với việc hy sinh cá nhân và tình cảm lãng mạn giữa họ.</t>
+  </si>
+  <si>
+    <t>Câu chuyện về Akemitsu Akagami, một chàng trai quyết tâm sống xa lánh dục vọng bằng cách xuất gia. Tuy nhiên, khi đến tu tại chùa Miharinji, anh phát hiện nơi đây lại toàn là nữ tu trẻ đẹp, khiến cuộc sống tu hành của anh trở nên đầy thử thách và rắc rối. Bộ truyện xoay quanh những tình huống hài hước, dở khóc dở cười khi Akemitsu cố gắng giữ vững lý tưởng giữa môi trường đầy cám dỗ.</t>
+  </si>
+  <si>
+    <t>Kể về Komura Kaede, một nam sinh trung học nhút nhát, thầm thích cô bạn ngồi cạnh Mie Ai – một cô gái thường xuyên quên mang kính. Vì Mie bị cận nặng, Komura thường giúp cô trong lớp, từ đó hai người dần trở nên thân thiết. Mỗi lần Mie ghé sát mặt để nhìn rõ, Komura lại bối rối và rung động. Câu chuyện là một rom-com nhẹ nhàng, dễ thương, tập trung vào những khoảnh khắc gần gũi và cảm xúc tuổi học trò</t>
+  </si>
+  <si>
+    <t>Tamako Market là câu chuyện xoay quanh Tamako Kitashirakawa, một cô gái năng động sống tại khu phố mua sắm Usagiyama, nơi gia đình cô điều hành tiệm bánh mochi truyền thống. Một ngày nọ, Tamako gặp Dera Mochimazzi, một chú chim biết nói đến từ một vương quốc xa xôi. Dera được cử đi để tìm cô dâu cho hoàng tử nước mình, nhưng sau khi ăn quá nhiều mochi và bị tăng cân, chú chim quyết định ở lại khu phố. Từ đó, Dera trở thành một phần của cộng đồng, mang đến nhiều tình huống hài hước và cảm động. Anime tập trung vào cuộc sống thường nhật, tình cảm gia đình, tình bạn và những rung động tuổi mới lớn.</t>
+  </si>
+  <si>
+    <t>Shōwa Monogatari là một anime lấy bối cảnh Tokyo năm 1964, thời kỳ Nhật Bản đang phát triển mạnh mẽ để chuẩn bị cho Thế vận hội mùa hè. Câu chuyện xoay quanh gia đình Yamazaki, đặc biệt là cậu con trai Kōhei Yamazaki, học sinh trung học đang đối mặt với những thay đổi trong cuộc sống và xã hội. Bộ phim khắc họa tình cảm gia đình, sự trưởng thành, và giá trị truyền thống Nhật Bản trong thời kỳ chuyển mình.</t>
+  </si>
+  <si>
+    <t>Kể về một công tử quý tộc bị nguyền rủa bởi một phù thủy từ thời thơ ấu: bất cứ thứ gì anh chạm vào đều sẽ chết. Vì thế, anh sống cô lập trong một dinh thự giữa rừng. Người duy nhất luôn bên cạnh anh là Alice, cô hầu gái xinh đẹp và táo bạo, thường xuyên trêu ghẹo anh bằng những hành động thân mật nhưng không thể chạm vào. Câu chuyện là một mối tình lãng mạn khi cả hai cố gắng vượt qua lời nguyền để đến được với nhau</t>
+  </si>
+  <si>
+    <t>Bộ phim kể về Chiyoko Fujiwara, một nữ diễn viên huyền thoại đã rút lui khỏi làng giải trí suốt 30 năm. Khi một nhóm làm phim tài liệu đến phỏng vấn cô, Chiyoko bắt đầu hồi tưởng về cuộc đời mình — từ lúc còn là thiếu nữ cho đến khi trở thành ngôi sao điện ảnh. Trọng tâm câu chuyện là chìa khóa bí ẩn mà cô nhận được từ một họa sĩ bị truy nã, người mà cô thầm yêu và luôn tìm kiếm trong suốt cuộc đời. Các hồi ức của Chiyoko đan xen giữa hiện thực và phim ảnh, tạo nên một hành trình cảm xúc đầy mê hoặc về tình yêu, ký ức và thời gian</t>
+  </si>
+  <si>
+    <t>Lấy bối cảnh Nhật Bản năm 1966, anime theo chân Kaoru Nishimi, một học sinh trung học trầm lặng vừa chuyển đến thị trấn nhỏ ở Nagasaki. Tại đây, cậu kết bạn với Sentarou Kawabuchi, một cậu bạn nổi loạn mê nhạc jazz. Tình bạn giữa họ phát triển qua những buổi jam session bí mật, cùng với mối quan hệ tình cảm phức tạp với cô bạn Ritsuko. Bộ phim là một bản hòa âm tuyệt đẹp giữa tình bạn, tình yêu tuổi học trò và âm nhạc jazz, phản ánh sự trưởng thành và những rung động đầu đời</t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Kaito Kuroba, một học sinh trung học phát hiện cha mình — một ảo thuật gia nổi tiếng — từng là siêu trộm huyền thoại Kaito Kid. Sau khi cha bị sát hại bí ẩn, Kaito quyết định kế thừa danh tính Kaito Kid để điều tra sự thật. Với tài năng ảo thuật và cải trang, Kaito thực hiện những vụ trộm táo bạo nhằm đánh lừa cảnh sát và tiếp cận tổ chức đứng sau cái chết của cha.</t>
+  </si>
+  <si>
+    <t>Dựa trên hồi ký của Kuroyanagi Tetsuko, tác phẩm kể về Totto-chan, một cô bé hiếu động bị đuổi học vì không thể ngồi yên trong lớp. Mẹ cô đưa cô đến học tại trường Tomoe Gakuen, nơi thầy hiệu trưởng Kobayashi áp dụng phương pháp giáo dục tự do, tôn trọng cá tính và sự sáng tạo của học sinh. Tại đây, Totto-chan dần trưởng thành, học cách thấu hiểu người khác và khám phá thế giới theo cách riêng của mình. Câu chuyện là về một giáo dục nhân văn, sự bao dung và tuổi thơ hồn nhiên và được lấy bối cảnh Nhật Bản trước Thế chiến II.</t>
+  </si>
+  <si>
+    <t>Tác phẩm kể về Anna, một cô bé sống nội tâm, được gửi đến vùng quê để nghỉ hè nhằm cải thiện sức khỏe. Tại đây, Anna phát hiện một biệt thự bỏ hoang bên đầm lầy và gặp Marnie, một cô gái bí ẩn với mái tóc vàng. Hai người trở thành bạn thân, nhưng Marnie dường như không thuộc về thế giới thực. Khi Anna tìm hiểu về thân phận của Marnie, cô khám phá ra những bí mật liên quan đến chính gia đình mình.</t>
+  </si>
+  <si>
+    <t>Tác phẩm xoay quanh Hana, một nữ sinh đại học yêu và kết hôn với một người đàn ông có thể biến thành sói. Sau khi anh qua đời, Hana phải một mình nuôi hai đứa con lai giữa người và sói: Yuki (tuyết) và Ame (mưa). Để bảo vệ con khỏi ánh mắt xã hội, Hana chuyển đến vùng quê hẻo lánh, nơi ba mẹ con bắt đầu cuộc sống mới. Phim theo chân hành trình trưởng thành và lựa chọn bản dạng của Yuki và Ame — một người chọn sống như con người, người kia chọn sống như sói. Đây là một câu chuyện cảm động về tình mẫu tử, sự hy sinh và tự do cá nhân</t>
+  </si>
+  <si>
+    <t>Perfect Blue là một tác phẩm kể về Mima Kirigoe, một thần tượng J-pop quyết định từ bỏ sự nghiệp ca hát để theo đuổi diễn xuất. Khi cô nhận vai trong một bộ phim có nội dung bạo lực và khiêu dâm, Mima bắt đầu bị ám ảnh bởi một kẻ rình rập và một trang web kỳ lạ ghi lại mọi hành động của cô. Dần dần, ranh giới giữa thực và ảo trong tâm trí Mima trở nên mờ nhạt, khiến cô rơi vào trạng thái hoang mang và mất kiểm soát. Phim khai thác sâu sắc chủ đề danh tính, sự nổi tiếng, và áp lực tâm lý.</t>
+  </si>
+  <si>
+    <t>Tác phẩm kể về Shoya Ishida, một cậu học sinh từng bắt nạt cô bạn khiếm thính Shoko Nishimiya trong thời tiểu học. Hành động của cậu khiến Shoko phải chuyển trường, còn bản thân Shoya bị bạn bè xa lánh. Nhiều năm sau, khi đã là học sinh cấp ba, Shoya quyết định tìm Shoko để xin lỗi và chuộc lại lỗi lầm. Câu chuyện là hành trình chuộc lỗi, tha thứ và chữa lành, khai thác sâu sắc những vấn đề như bắt nạt học đường, trầm cảm và sự cô đơn.</t>
+  </si>
+  <si>
+    <t>Tác phẩm kể về Takao Akizuki, một nam sinh trung học mơ ước trở thành thợ làm giày, thường trốn học vào những ngày mưa để đến công viên vẽ thiết kế giày. Tại đây, cậu gặp Yukari Yukino, một người phụ nữ bí ẩn cũng hay đến công viên vào những ngày mưa. Hai người dần trở nên thân thiết qua những lần gặp gỡ lặng lẽ, chia sẻ nỗi cô đơn và những tổn thương trong cuộc sống.</t>
+  </si>
+  <si>
+    <t>Tác phẩm xoay quanh Keita Suminoe, một nam sinh trung học sống cùng hai người chị gái không cùng huyết thống: Ako và Riko. Cả hai đều có tình cảm đặc biệt với Keita và thường xuyên có những hành động thân mật, gây ra nhiều tình huống hài hước và 18+. Dù có yếu tố tình cảm gia đình, câu chuyện chủ yếu mang phong cách hài ecchi, với nhiều cảnh trêu ghẹo và fan-service. Tác phẩm không đi sâu vào cốt truyện mà tập trung vào các tình huống gây cười và mối quan hệ “vượt ranh giới” giữa các con vợ.</t>
+  </si>
+  <si>
+    <t>Tác phẩm lấy bối cảnh hậu tận thế khi thế giới bị bao phủ bởi rừng độc và côn trùng khổng lồ. Nhân vật chính Nausicaä, công chúa của Thung lũng Gió, là người yêu thiên nhiên và có khả năng giao tiếp với sinh vật rừng. Khi chiến tranh nổ ra giữa các vương quốc vì tranh giành vũ khí cổ đại, Nausicaä cố gắng ngăn chặn xung đột và tìm cách hòa giải giữa con người và thiên nhiên.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu chuyện xoay quanh Guts, một chiến binh cô độc mang thanh kiếm khổng lồ, và hành trình của anh trong thời kỳ chiến tranh loạn lạc. Guts gia nhập Đội quân Diều hâu do Griffith lãnh đạo — một người có tham vọng lớn và sức hút kỳ lạ. Tình bạn giữa Guts và Griffith dần biến thành bi kịch khi Griffith sẵn sàng hy sinh tất cả để đạt được quyền lực tối thượng. </t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,6 +909,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,11 +986,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1432,8 +1444,8 @@
       <c r="C1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>219</v>
+      <c r="D1" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213" customHeight="1">
@@ -1446,11 +1458,11 @@
       <c r="C2" s="1">
         <v>2016</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="121.5" customHeight="1">
+      <c r="D2" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="117.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1460,8 +1472,8 @@
       <c r="C3" s="1">
         <v>2015</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>213</v>
+      <c r="D3" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" customHeight="1">
@@ -1474,8 +1486,8 @@
       <c r="C4" s="1">
         <v>2018</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>214</v>
+      <c r="D4" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136.5" customHeight="1">
@@ -1488,8 +1500,8 @@
       <c r="C5" s="1">
         <v>2017</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>215</v>
+      <c r="D5" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150.75" customHeight="1">
@@ -1502,8 +1514,8 @@
       <c r="C6" s="1">
         <v>2017</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>216</v>
+      <c r="D6" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135.75" customHeight="1">
@@ -1516,8 +1528,8 @@
       <c r="C7" s="1">
         <v>2002</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>217</v>
+      <c r="D7" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" customHeight="1">
@@ -1530,8 +1542,8 @@
       <c r="C8" s="1">
         <v>2013</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>218</v>
+      <c r="D8" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="146.25" customHeight="1">
@@ -1544,8 +1556,8 @@
       <c r="C9" s="1">
         <v>2011</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>220</v>
+      <c r="D9" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="162" customHeight="1">
@@ -1558,8 +1570,8 @@
       <c r="C10" s="1">
         <v>2011</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>221</v>
+      <c r="D10" s="11" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="147.75" customHeight="1">
@@ -1572,8 +1584,8 @@
       <c r="C11" s="1">
         <v>2020</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>222</v>
+      <c r="D11" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="114.75" customHeight="1">
@@ -1586,8 +1598,8 @@
       <c r="C12" s="1">
         <v>2018</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>223</v>
+      <c r="D12" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="146.25" customHeight="1">
@@ -1600,8 +1612,8 @@
       <c r="C13" s="1">
         <v>2021</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>224</v>
+      <c r="D13" s="11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="163.5" customHeight="1">
@@ -1614,8 +1626,8 @@
       <c r="C14" s="1">
         <v>2018</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>225</v>
+      <c r="D14" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="101.25" customHeight="1">
@@ -1628,11 +1640,11 @@
       <c r="C15" s="1">
         <v>2019</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="47.25">
+      <c r="D15" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="99" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -1642,11 +1654,11 @@
       <c r="C16" s="1">
         <v>2013</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D16" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="99" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -1656,11 +1668,11 @@
       <c r="C17" s="1">
         <v>2013</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D17" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="116.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1670,11 +1682,11 @@
       <c r="C18" s="1">
         <v>2016</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.25">
+      <c r="D18" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="143.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1684,11 +1696,11 @@
       <c r="C19" s="1">
         <v>1999</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="47.25">
+      <c r="D19" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="111" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1698,11 +1710,11 @@
       <c r="C20" s="1">
         <v>1984</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="47.25">
+      <c r="D20" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="131.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1712,11 +1724,11 @@
       <c r="C21" s="1">
         <v>1994</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="47.25">
+      <c r="D21" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="103.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -1726,11 +1738,11 @@
       <c r="C22" s="1">
         <v>1990</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="47.25">
+      <c r="D22" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="83.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1740,11 +1752,11 @@
       <c r="C23" s="1">
         <v>1969</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D23" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="99" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1754,11 +1766,11 @@
       <c r="C24" s="1">
         <v>2019</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="56.25" customHeight="1">
+      <c r="D24" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="98.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -1768,11 +1780,11 @@
       <c r="C25" s="1">
         <v>2005</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51.75" customHeight="1">
+      <c r="D25" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="98.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1782,11 +1794,11 @@
       <c r="C26" s="1">
         <v>2018</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="54.75" customHeight="1">
+      <c r="D26" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="83.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -1796,11 +1808,11 @@
       <c r="C27" s="1">
         <v>2015</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="54" customHeight="1">
+      <c r="D27" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1810,11 +1822,11 @@
       <c r="C28" s="1">
         <v>2003</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D28" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="114.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1824,11 +1836,11 @@
       <c r="C29" s="1">
         <v>2008</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D29" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="97.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -1838,11 +1850,11 @@
       <c r="C30" s="1">
         <v>2019</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="47.25">
+      <c r="D30" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="68.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1852,11 +1864,11 @@
       <c r="C31" s="1">
         <v>2018</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="54" customHeight="1">
+      <c r="D31" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="98.25" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1866,11 +1878,11 @@
       <c r="C32" s="1">
         <v>2013</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="54.75" customHeight="1">
+      <c r="D32" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="66.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1880,11 +1892,11 @@
       <c r="C33" s="1">
         <v>2018</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="47.25">
+      <c r="D33" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="67.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1894,11 +1906,11 @@
       <c r="C34" s="1">
         <v>2011</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="54" customHeight="1">
+      <c r="D34" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="68.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -1908,11 +1920,11 @@
       <c r="C35" s="1">
         <v>2017</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="47.25">
+      <c r="D35" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="80.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -1922,11 +1934,11 @@
       <c r="C36" s="1">
         <v>2001</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="56.25" customHeight="1">
+      <c r="D36" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="84" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1936,11 +1948,11 @@
       <c r="C37" s="1">
         <v>2007</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="57" customHeight="1">
+      <c r="D37" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="81.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -1950,11 +1962,11 @@
       <c r="C38" s="1">
         <v>1998</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="54.75" customHeight="1">
+      <c r="D38" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="83.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1964,11 +1976,11 @@
       <c r="C39" s="1">
         <v>2012</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="51.75" customHeight="1">
+      <c r="D39" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="66" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -1978,25 +1990,25 @@
       <c r="C40" s="1">
         <v>2014</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="47.25">
+      <c r="D40" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="63">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C41" s="1">
         <v>1987</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="50.25" customHeight="1">
+      <c r="D41" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="82.5" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -2006,25 +2018,25 @@
       <c r="C42" s="1">
         <v>1981</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="51.75" customHeight="1">
+      <c r="D42" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="68.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C43" s="1">
         <v>2013</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="51" customHeight="1">
+      <c r="D43" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="69.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -2034,11 +2046,11 @@
       <c r="C44" s="1">
         <v>2011</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D44" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="81.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -2048,11 +2060,11 @@
       <c r="C45" s="1">
         <v>2004</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="55.5" customHeight="1">
+      <c r="D45" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="68.25" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2062,11 +2074,11 @@
       <c r="C46" s="1">
         <v>1989</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="57" customHeight="1">
+      <c r="D46" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="67.5" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2076,8 +2088,8 @@
       <c r="C47" s="1">
         <v>1982</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>180</v>
+      <c r="D47" s="11" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="56.25" customHeight="1">
@@ -2090,8 +2102,8 @@
       <c r="C48" s="1">
         <v>2016</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>181</v>
+      <c r="D48" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="55.5" customHeight="1">
@@ -2104,8 +2116,8 @@
       <c r="C49" s="1">
         <v>2013</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>182</v>
+      <c r="D49" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="51.75" customHeight="1">
@@ -2118,8 +2130,8 @@
       <c r="C50" s="1">
         <v>1984</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>183</v>
+      <c r="D50" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="49.5" customHeight="1">
@@ -2132,8 +2144,8 @@
       <c r="C51" s="1">
         <v>2002</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>184</v>
+      <c r="D51" s="12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="47.25">
@@ -2146,8 +2158,8 @@
       <c r="C52" s="1">
         <v>1988</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>185</v>
+      <c r="D52" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="54" customHeight="1">
@@ -2155,13 +2167,13 @@
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1">
         <v>1996</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>187</v>
+      <c r="D53" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="65.25" customHeight="1">
@@ -2174,8 +2186,8 @@
       <c r="C54" s="1">
         <v>1975</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>188</v>
+      <c r="D54" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="47.25">
@@ -2183,16 +2195,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C55" s="1">
         <v>1980</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="63">
+      <c r="D55" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="47.25">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -2202,8 +2214,8 @@
       <c r="C56" s="1">
         <v>2004</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>191</v>
+      <c r="D56" s="12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="62.45" customHeight="1">
@@ -2216,8 +2228,8 @@
       <c r="C57" s="1">
         <v>2020</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>192</v>
+      <c r="D57" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="47.25">
@@ -2225,13 +2237,13 @@
         <v>47</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C58" s="1">
         <v>2009</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>193</v>
+      <c r="D58" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.5" customHeight="1">
@@ -2244,8 +2256,8 @@
       <c r="C59" s="1">
         <v>2013</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>195</v>
+      <c r="D59" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="52.5" customHeight="1">
@@ -2258,8 +2270,8 @@
       <c r="C60" s="1">
         <v>2016</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>196</v>
+      <c r="D60" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54.75" customHeight="1">
@@ -2272,8 +2284,8 @@
       <c r="C61" s="1">
         <v>2015</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>198</v>
+      <c r="D61" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="54" customHeight="1">
@@ -2286,8 +2298,8 @@
       <c r="C62" s="1">
         <v>2018</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>197</v>
+      <c r="D62" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="56.25" customHeight="1">
@@ -2300,8 +2312,8 @@
       <c r="C63" s="1">
         <v>2015</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>199</v>
+      <c r="D63" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="73.5" customHeight="1">
@@ -2314,8 +2326,8 @@
       <c r="C64" s="1">
         <v>2019</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>200</v>
+      <c r="D64" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="57" customHeight="1">
@@ -2328,8 +2340,8 @@
       <c r="C65" s="1">
         <v>2011</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>201</v>
+      <c r="D65" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="53.25" customHeight="1">
@@ -2342,8 +2354,8 @@
       <c r="C66" s="1">
         <v>2012</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>202</v>
+      <c r="D66" s="12" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="54.75" customHeight="1">
@@ -2356,8 +2368,8 @@
       <c r="C67" s="1">
         <v>2005</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>203</v>
+      <c r="D67" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="47.25">
@@ -2370,8 +2382,8 @@
       <c r="C68" s="1">
         <v>2006</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>204</v>
+      <c r="D68" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="60.75" customHeight="1">
@@ -2384,11 +2396,11 @@
       <c r="C69" s="1">
         <v>2014</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="31.5">
+      <c r="D69" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>47</v>
       </c>
@@ -2398,8 +2410,8 @@
       <c r="C70" s="1">
         <v>2021</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>206</v>
+      <c r="D70" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2412,6 +2424,7 @@
       <c r="C71" s="1">
         <v>2022</v>
       </c>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" ht="55.5" customHeight="1">
       <c r="A72" s="1" t="s">
@@ -2423,8 +2436,8 @@
       <c r="C72" s="1">
         <v>2019</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>207</v>
+      <c r="D72" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="47.25">
@@ -2437,8 +2450,8 @@
       <c r="C73" s="1">
         <v>2002</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>208</v>
+      <c r="D73" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="51" customHeight="1">
@@ -2451,8 +2464,8 @@
       <c r="C74" s="1">
         <v>2015</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>209</v>
+      <c r="D74" s="12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="47.25">
@@ -2465,8 +2478,8 @@
       <c r="C75" s="1">
         <v>2010</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>210</v>
+      <c r="D75" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2476,6 +2489,7 @@
       <c r="B76" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
@@ -2484,6 +2498,7 @@
       <c r="B77" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" ht="47.25">
       <c r="A78" s="1" t="s">
@@ -2495,8 +2510,8 @@
       <c r="C78" s="1">
         <v>2011</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>211</v>
+      <c r="D78" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2506,6 +2521,7 @@
       <c r="B79" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
@@ -2514,2327 +2530,2749 @@
       <c r="B80" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="D85" s="12"/>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="D86" s="12"/>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="D87" s="12"/>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="D88" s="12"/>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="D89" s="12"/>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="D90" s="12"/>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="D91" s="12"/>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="D95" s="12"/>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="D96" s="12"/>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="D99" s="12"/>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="D100" s="12"/>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="D101" s="12"/>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="D102" s="12"/>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="D103" s="12"/>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="D104" s="12"/>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="D105" s="12"/>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="D107" s="12"/>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="D108" s="12"/>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="D109" s="12"/>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="D110" s="12"/>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="D111" s="12"/>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="D112" s="12"/>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="D113" s="12"/>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="D114" s="12"/>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="D115" s="12"/>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="D116" s="12"/>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="D117" s="12"/>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="D118" s="12"/>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="D119" s="12"/>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="D120" s="12"/>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="D121" s="12"/>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="D122" s="12"/>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="D123" s="12"/>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="D124" s="12"/>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="D125" s="12"/>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="D126" s="12"/>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="D127" s="12"/>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="D128" s="12"/>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="D129" s="12"/>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="31.5">
+      <c r="D130" s="12"/>
+    </row>
+    <row r="131" spans="1:4" ht="31.5">
       <c r="A131" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="D131" s="12"/>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="D132" s="12"/>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="47.25">
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134" spans="1:4" ht="47.25">
       <c r="A134" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="D134" s="12"/>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="D135" s="12"/>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="D136" s="12"/>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="D137" s="12"/>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="D138" s="12"/>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="D139" s="12"/>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="D140" s="12"/>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="D141" s="12"/>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="D142" s="12"/>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="D143" s="12"/>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="D144" s="12"/>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="D145" s="12"/>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="D146" s="12"/>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="D147" s="12"/>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="D148" s="12"/>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="D149" s="12"/>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="D150" s="12"/>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="D151" s="12"/>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="D152" s="12"/>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="D153" s="12"/>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="D154" s="12"/>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="D155" s="12"/>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="D156" s="12"/>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="D157" s="12"/>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="D158" s="12"/>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="D159" s="12"/>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="D160" s="12"/>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="D161" s="12"/>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="D162" s="12"/>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="D163" s="12"/>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="D164" s="12"/>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="D165" s="12"/>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="D166" s="12"/>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="D167" s="12"/>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="D168" s="12"/>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="D169" s="12"/>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="D170" s="12"/>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="D171" s="12"/>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="D172" s="12"/>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="D173" s="12"/>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="D174" s="12"/>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="D175" s="12"/>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="D176" s="12"/>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="D177" s="12"/>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="D178" s="12"/>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="D179" s="12"/>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="D180" s="12"/>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="D181" s="12"/>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="D182" s="12"/>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="D183" s="12"/>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="D184" s="12"/>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="D185" s="12"/>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="D186" s="12"/>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="D187" s="12"/>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="D188" s="12"/>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="D189" s="12"/>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="D190" s="12"/>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="D191" s="12"/>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="D192" s="12"/>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="D193" s="12"/>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="D194" s="12"/>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="D195" s="12"/>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="D196" s="12"/>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="D197" s="12"/>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="D198" s="12"/>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="D199" s="12"/>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="D200" s="12"/>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="D201" s="12"/>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="D202" s="12"/>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="D203" s="12"/>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="D204" s="12"/>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="D205" s="12"/>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="D206" s="12"/>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="D207" s="12"/>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="D208" s="12"/>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="D209" s="12"/>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="D210" s="12"/>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="D211" s="12"/>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="D212" s="12"/>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="D213" s="12"/>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="D214" s="12"/>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="D215" s="12"/>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="D216" s="12"/>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="D217" s="12"/>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="D218" s="12"/>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="D219" s="12"/>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="D220" s="12"/>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="D221" s="12"/>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="D222" s="12"/>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="D223" s="12"/>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="D224" s="12"/>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="D225" s="12"/>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="D226" s="12"/>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="D227" s="12"/>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="D228" s="12"/>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="D229" s="12"/>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="D230" s="12"/>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="D231" s="12"/>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="D232" s="12"/>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="D233" s="12"/>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="D234" s="12"/>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="D235" s="12"/>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="D236" s="12"/>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="D237" s="12"/>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="D238" s="12"/>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="D239" s="12"/>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="D240" s="12"/>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="D241" s="12"/>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="D242" s="12"/>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="D243" s="12"/>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="D244" s="12"/>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="D245" s="12"/>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="D246" s="12"/>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="D247" s="12"/>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="D248" s="12"/>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="D249" s="12"/>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="D250" s="12"/>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="D251" s="12"/>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="D252" s="12"/>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="D253" s="12"/>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="D254" s="12"/>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="D255" s="12"/>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="D256" s="12"/>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="D257" s="12"/>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="D258" s="12"/>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="D259" s="12"/>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="D260" s="12"/>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="D261" s="12"/>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="D262" s="12"/>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="D263" s="12"/>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="D264" s="12"/>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="D265" s="12"/>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="D266" s="12"/>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="D267" s="12"/>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="D268" s="12"/>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="D269" s="12"/>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="D270" s="12"/>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="D271" s="12"/>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="D272" s="12"/>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="D273" s="12"/>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="D274" s="12"/>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="D275" s="12"/>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="D276" s="12"/>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="D277" s="12"/>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="D278" s="12"/>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="D279" s="12"/>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="D280" s="12"/>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="D281" s="12"/>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="D282" s="12"/>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="D283" s="12"/>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="D284" s="12"/>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="D285" s="12"/>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="D286" s="12"/>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="D287" s="12"/>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="D288" s="12"/>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="D289" s="12"/>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="D290" s="12"/>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="D291" s="12"/>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="D292" s="12"/>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="D293" s="12"/>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="D294" s="12"/>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="D295" s="12"/>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="D296" s="12"/>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="D297" s="12"/>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="D298" s="12"/>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="D299" s="12"/>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="D300" s="12"/>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
+      <c r="D301" s="12"/>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
+      <c r="D302" s="12"/>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
+      <c r="D303" s="12"/>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="D304" s="12"/>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
+      <c r="D305" s="12"/>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
+      <c r="D306" s="12"/>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
+      <c r="D307" s="12"/>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
+      <c r="D308" s="12"/>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
+      <c r="D309" s="12"/>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
+      <c r="D310" s="12"/>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
+      <c r="D311" s="12"/>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
+      <c r="D312" s="12"/>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
+      <c r="D313" s="12"/>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
+      <c r="D314" s="12"/>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
+      <c r="D315" s="12"/>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
+      <c r="D316" s="12"/>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
+      <c r="D317" s="12"/>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
+      <c r="D318" s="12"/>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
+      <c r="D319" s="12"/>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
+      <c r="D320" s="12"/>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
+      <c r="D321" s="12"/>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
+      <c r="D322" s="12"/>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
+      <c r="D323" s="12"/>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
+      <c r="D324" s="12"/>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
+      <c r="D325" s="12"/>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
+      <c r="D326" s="12"/>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
+      <c r="D327" s="12"/>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
+      <c r="D328" s="12"/>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
+      <c r="D329" s="12"/>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
+      <c r="D330" s="12"/>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
+      <c r="D331" s="12"/>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
+      <c r="D332" s="12"/>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
+      <c r="D333" s="12"/>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
+      <c r="D334" s="12"/>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
+      <c r="D335" s="12"/>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
+      <c r="D336" s="12"/>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
+      <c r="D337" s="12"/>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
+      <c r="D338" s="12"/>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
+      <c r="D339" s="12"/>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
+      <c r="D340" s="12"/>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
+      <c r="D341" s="12"/>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
+      <c r="D342" s="12"/>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
+      <c r="D343" s="12"/>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
+      <c r="D344" s="12"/>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
+      <c r="D345" s="12"/>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
+      <c r="D346" s="12"/>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
+      <c r="D347" s="12"/>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
+      <c r="D348" s="12"/>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
+      <c r="D349" s="12"/>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
+      <c r="D350" s="12"/>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
+      <c r="D351" s="12"/>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
+      <c r="D352" s="12"/>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
+      <c r="D353" s="12"/>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
+      <c r="D354" s="12"/>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
+      <c r="D355" s="12"/>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
+      <c r="D356" s="12"/>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
+      <c r="D357" s="12"/>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
+      <c r="D358" s="12"/>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
+      <c r="D359" s="12"/>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
+      <c r="D360" s="12"/>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
+      <c r="D361" s="12"/>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
+      <c r="D362" s="12"/>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
+      <c r="D363" s="12"/>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
+      <c r="D364" s="12"/>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
+      <c r="D365" s="12"/>
+    </row>
+    <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
+      <c r="D366" s="12"/>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
+      <c r="D367" s="12"/>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
+      <c r="D368" s="12"/>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
+      <c r="D369" s="12"/>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
+      <c r="D370" s="12"/>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
+      <c r="D371" s="12"/>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
+      <c r="D372" s="12"/>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
+      <c r="D373" s="12"/>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
+      <c r="D374" s="12"/>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
+      <c r="D375" s="12"/>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
+      <c r="D376" s="12"/>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
+      <c r="D377" s="12"/>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
+      <c r="D378" s="12"/>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
+      <c r="D379" s="12"/>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
+      <c r="D380" s="12"/>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
+      <c r="D381" s="12"/>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
+      <c r="D382" s="12"/>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
+      <c r="D383" s="12"/>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
+      <c r="D384" s="12"/>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
+      <c r="D385" s="12"/>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
+      <c r="D386" s="12"/>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
+      <c r="D387" s="12"/>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
+      <c r="D388" s="12"/>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
+      <c r="D389" s="12"/>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
+      <c r="D390" s="12"/>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
+      <c r="D391" s="12"/>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
+      <c r="D392" s="12"/>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
+      <c r="D393" s="12"/>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
+      <c r="D394" s="12"/>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
+      <c r="D395" s="12"/>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
+      <c r="D396" s="12"/>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
+      <c r="D397" s="12"/>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
+      <c r="D398" s="12"/>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
+      <c r="D399" s="12"/>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="D400" s="12"/>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="D401" s="12"/>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="D402" s="12"/>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="D403" s="12"/>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="D404" s="12"/>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="D405" s="12"/>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="D406" s="12"/>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="D407" s="12"/>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="D408" s="12"/>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="D409" s="12"/>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="D410" s="12"/>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="D411" s="12"/>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
+      <c r="D412" s="12"/>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
+      <c r="D413" s="12"/>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
+      <c r="D414" s="12"/>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
+      <c r="D415" s="12"/>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
+      <c r="D416" s="12"/>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
+      <c r="D417" s="12"/>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
+      <c r="D418" s="12"/>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
+      <c r="D419" s="12"/>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
+      <c r="D420" s="12"/>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
+      <c r="D421" s="12"/>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
+      <c r="D422" s="12"/>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
+      <c r="D423" s="12"/>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
+      <c r="D424" s="12"/>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
+      <c r="D425" s="12"/>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
+      <c r="D426" s="12"/>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
+      <c r="D427" s="12"/>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
+      <c r="D428" s="12"/>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
+      <c r="D429" s="12"/>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
+      <c r="D430" s="12"/>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
+      <c r="D431" s="12"/>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
+      <c r="D432" s="12"/>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
+      <c r="D433" s="12"/>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
+      <c r="D434" s="12"/>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
+      <c r="D435" s="12"/>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
+      <c r="D436" s="12"/>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="D437" s="12"/>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
+      <c r="D438" s="12"/>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
+      <c r="D439" s="12"/>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
+      <c r="D440" s="12"/>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
+      <c r="D441" s="12"/>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
+      <c r="D442" s="12"/>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
+      <c r="D443" s="12"/>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
+      <c r="D444" s="12"/>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
+      <c r="D445" s="12"/>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
+      <c r="D446" s="12"/>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
+      <c r="D447" s="12"/>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
+      <c r="D448" s="12"/>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
+      <c r="D449" s="12"/>
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
+      <c r="D450" s="12"/>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="452" spans="1:1">
+      <c r="D451" s="12"/>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="453" spans="1:1">
+      <c r="D452" s="12"/>
+    </row>
+    <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="454" spans="1:1">
+      <c r="D453" s="12"/>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="455" spans="1:1">
+      <c r="D454" s="12"/>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="456" spans="1:1">
+      <c r="D455" s="12"/>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
+      <c r="D456" s="12"/>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
+      <c r="D457" s="12"/>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="459" spans="1:1">
+      <c r="D458" s="12"/>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="460" spans="1:1">
+      <c r="D459" s="12"/>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
+      <c r="D460" s="12"/>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
+      <c r="D461" s="12"/>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
+      <c r="D462" s="12"/>
+    </row>
+    <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
+      <c r="D463" s="12"/>
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
+      <c r="D464" s="12"/>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
+      <c r="D465" s="12"/>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
+      <c r="D466" s="12"/>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
+      <c r="D467" s="12"/>
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
+      <c r="D468" s="12"/>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
+      <c r="D469" s="12"/>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
+      <c r="D470" s="12"/>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
+      <c r="D471" s="12"/>
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
+      <c r="D472" s="12"/>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
+      <c r="D473" s="12"/>
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
+      <c r="D474" s="12"/>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="476" spans="1:1">
+      <c r="D475" s="12"/>
+    </row>
+    <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="477" spans="1:1">
+      <c r="D476" s="12"/>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="478" spans="1:1">
+      <c r="D477" s="12"/>
+    </row>
+    <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="479" spans="1:1">
+      <c r="D478" s="12"/>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="480" spans="1:1">
+      <c r="D479" s="12"/>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="481" spans="1:1">
+      <c r="D480" s="12"/>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="482" spans="1:1">
+      <c r="D481" s="12"/>
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="483" spans="1:1">
+      <c r="D482" s="12"/>
+    </row>
+    <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="484" spans="1:1">
+      <c r="D483" s="12"/>
+    </row>
+    <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="485" spans="1:1">
+      <c r="D484" s="12"/>
+    </row>
+    <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="486" spans="1:1">
+      <c r="D485" s="12"/>
+    </row>
+    <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="487" spans="1:1">
+      <c r="D486" s="12"/>
+    </row>
+    <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="488" spans="1:1">
+      <c r="D487" s="12"/>
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="489" spans="1:1">
+      <c r="D488" s="12"/>
+    </row>
+    <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="490" spans="1:1">
+      <c r="D489" s="12"/>
+    </row>
+    <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="491" spans="1:1">
+      <c r="D490" s="12"/>
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="492" spans="1:1">
+      <c r="D491" s="12"/>
+    </row>
+    <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="493" spans="1:1">
+      <c r="D492" s="12"/>
+    </row>
+    <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="494" spans="1:1">
+      <c r="D493" s="12"/>
+    </row>
+    <row r="494" spans="1:4">
       <c r="A494" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="495" spans="1:1">
+      <c r="D494" s="12"/>
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="496" spans="1:1">
+      <c r="D495" s="12"/>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="497" spans="1:1">
+      <c r="D496" s="12"/>
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="498" spans="1:1">
+      <c r="D497" s="12"/>
+    </row>
+    <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="499" spans="1:1">
+      <c r="D498" s="12"/>
+    </row>
+    <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="500" spans="1:1">
+      <c r="D499" s="12"/>
+    </row>
+    <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="501" spans="1:1">
+      <c r="D500" s="12"/>
+    </row>
+    <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D501" s="12"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -619,105 +619,21 @@
 Khu vườn của những lời nói</t>
   </si>
   <si>
-    <t>Tác phẩm được ra mắt trên trang web Shōsetsuka ni Narō.</t>
-  </si>
-  <si>
-    <t>Tác phẩm là một trong những tác phẩm cuối cùng của đạo diễn huyền thoại Takahata Isao, đồng sáng lập Studio Ghibli.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được ra mắt lần đầu trên tạp chí Monthly Kadokawa của nhà xuất bản Kadokawa Shoten.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được ra mắt lần đầu dưới dạng manga one-shot trên tạp chí LaLa DX của nhà xuất bản Hakusensha.</t>
-  </si>
-  <si>
-    <t>Tác phẩm là một phim điện ảnh nổi bật nhất của Studio Ghibli về đề tài chiến tranh và nhân đạo.</t>
-  </si>
-  <si>
     <t>Tobaku Mokushiroku Kaiji
 賭博黙示録カイジ
 Kaiji - Khải Huyền Đánh Bạc</t>
   </si>
   <si>
-    <t>Tác phẩm được ra mắt lần đầu trên tạp chí Weekly Young Magazine của nhà xuất bản Kodansha.</t>
-  </si>
-  <si>
-    <t>Tác phẩm được ra mắt dưới dạng tiểu thuyết vào năm 1872 tại Anh Quốc, nữ nhà văn Marie Louise de la Ramée (bút danh Ouida) sáng tác. Được chuyển thể sang anime do Nippon Animation thực hiện.</t>
-  </si>
-  <si>
     <t>Dr. Slump: Arale-chan
 Dr.スランプ・アラレちゃん
 Tiến Sĩ Slump và Arale-chan</t>
   </si>
   <si>
-    <t>Manga lần đầu ra mắt trên tạp chí Weekly Shōnen Jump của nhà xuất bản Shueisha.</t>
-  </si>
-  <si>
-    <t>Clannad lần đầu được ra mắt dưới dạng visual novel (trò chơi tiểu thuyết tương tác), do hãng Key phát triển và phát hành trên PC. Sau đó, nhờ vào sự thành công vang dội, Clannad được chuyển thể thành anime bởi Kyoto Animation</t>
-  </si>
-  <si>
-    <t>Tác phẩm là light novel (tiểu thuyết thanh thiếu niên) được phát hành tại Nhật Bản bởi Kadokawa Bunko (thuộc tập đoàn Kadokawa)</t>
-  </si>
-  <si>
-    <t>Barakamon là một bộ manga do tác giả Satsuki Yoshino sáng tác, bắt đầu phát hành trên tạp chí Gangan Online của Square Enix.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Barakamon 
 ばらかもん
 Barakamon </t>
   </si>
   <si>
-    <t>Là một series light novel thể loại isekai, fantasy, được ra mắt lần đầu trên nền tảng web Shōsetsuka ni Narō (web novel).</t>
-  </si>
-  <si>
-    <t>Là một bộ manga ra mắt lần đầu trên tạp chí Weekly Shōnen Sunday của nhà xuất bản Shogakukan.</t>
-  </si>
-  <si>
-    <t>Là một bộ manga được sáng tác bởi Sakurai Norio và ra mắt lần đầu trên nền tảng Champion Cross.</t>
-  </si>
-  <si>
-    <t>Violet Evergarden là một light novel được viết bởi Akatsuki Kana và được hãng Kyoto Animation xuất bản.</t>
-  </si>
-  <si>
-    <t>Là một bộ manga được sáng tác bởi Kirioka Sana và ra mắt lần đầu trên tạp chí Jump Square của Shueisha.</t>
-  </si>
-  <si>
-    <t>Là một light novel được viết bởi Agitogi Akumi và được hãng Kadokawa (dưới nhãn Fujimi L Bunko) xuất bản. Ban đầu là tiểu thuyết đăng trên trang Shōsetsuka ni Narō (dành cho tác giả nghiệp dư)</t>
-  </si>
-  <si>
-    <t>Là một series light novel do Watari Wataru sáng tác và được xuất bản bởi Shogakukan.</t>
-  </si>
-  <si>
-    <t>Là một light novel Nhật Bản do Akagi Hirotaka sáng tác và được xuất bản Shogakukan (nhãn Gagaga Bunko)</t>
-  </si>
-  <si>
-    <t>ban đầu là một trò chơi visual novel, được phát hành bởi hãng phát triển 0verflow. Sau đó mới có chuyển thể manga rồi anime</t>
-  </si>
-  <si>
-    <t>Là một bộ manga do Esuno Sakae sáng tác, được đang trên Shōnen Ace (Kadokawa Shoten).</t>
-  </si>
-  <si>
-    <t>Là tiểu thuyết nhẹ nhàng Light novel của tác giả Hajime Kamoshida được đăng bởi nhà xuất bản Kadokawa dưới nhãn hiệu Dengeki Bunko</t>
-  </si>
-  <si>
-    <t>Là một manga do Satoru Nii sáng tác, được đăng lần đầu trên nền tảng Magazine Pocket của Kodansha</t>
-  </si>
-  <si>
-    <t>Là một manga do Hitsuji Gondaira sáng tác, đăng trên tạp chí Weekly Shōnen Jump.</t>
-  </si>
-  <si>
-    <t>Là một manga do Okamoto Lynn sáng tác. Manga ra mắt trên tạp chí Weekly Young Jump (Shueisha).</t>
-  </si>
-  <si>
-    <t>Là một manga kinh dị tâm lý do Tomiyaki Kagisora sáng tác, được đăng trên tạp chí Gangan Joker của Square Enix.</t>
-  </si>
-  <si>
-    <t>Là một manga do Takahiro sáng tác và Tetsuya Tashiro minh họa, đăng trên tạp chí Gangan Joker.</t>
-  </si>
-  <si>
-    <t>Là một manga do Sakae Esuno sáng tác, được đăng trên tạp chí Shōnen Ace.</t>
-  </si>
-  <si>
     <t>Kể về Machio Hiraku – một người đàn ông chết vì bệnh được Thần cho tái sinh ở thế giới khác cùng công cụ nông nghiệp vạn năng. Anh chỉ muốn sống yên bình nên chọn làm nông giữa rừng, rồi dần dần lập nên “Làng Đại Cây”, nơi quy tụ elf, ma tộc, thiên sứ, rồng, và cả dàn harem toàn gái xinh. Câu chuyện xoay quanh cuộc sống điền viên, mở rộng làng, dựng nhà, chăn nuôi, rồi vô tình biến cộng đồng nhỏ ấy thành một thế lực mạnh khiến các vương quốc phải dè chừng. Tuy nhiên,nhân vật chính gần như toàn năng vô hạn, không hề có giới hạn sức mạnh hay xung đột nội tâm. Một công cụ nông nghiệp mà có thể chặt rồng, xây lâu đài, khoan giếng, cày ruộng, và… chiến đấu được thì nghe đã thấy sai sai. Làng của anh chỉ vài chục người nhưng trong vài chương đã trở thành trung tâm thương mại, quân sự và công nghệ của cả thế giới, mà chẳng ai thắc mắc chuyện cung ứng, dân số hay hậu cần. Các nhân vật phụ, nhất là dàn harem, cứ xuất hiện ngẫu nhiên như “NPC spawn sai code”: toàn gái đẹp, mạnh vô lý, đến ở rồi mất hút. Ngoài ra, mạch truyện không có cao trào: xung đột chính trị được giải quyết trong… một bữa ăn, chiến tranh kết thúc chỉ vì “hiểu lầm nhỏ”, và ai gặp Hiraku cũng lập tức quý anh như người nhà. Thế giới được mô tả rộng lớn nhưng không có chiều sâu, các khái niệm về ma pháp, thần thánh hay sinh thái gần như chỉ mang tính trang trí.</t>
   </si>
   <si>
@@ -857,6 +773,90 @@
   </si>
   <si>
     <t xml:space="preserve">Câu chuyện xoay quanh Guts, một chiến binh cô độc mang thanh kiếm khổng lồ, và hành trình của anh trong thời kỳ chiến tranh loạn lạc. Guts gia nhập Đội quân Diều hâu do Griffith lãnh đạo — một người có tham vọng lớn và sức hút kỳ lạ. Tình bạn giữa Guts và Griffith dần biến thành bi kịch khi Griffith sẵn sàng hy sinh tất cả để đạt được quyền lực tối thượng. </t>
+  </si>
+  <si>
+    <t>Câu chuyện xoay quanh Hoshigami Eiji, một thiếu niên từng ước thế giới bị hủy diệt — và điều đó đã xảy ra. Trong thế giới nơi những người có “Order” (năng lực siêu nhiên dựa trên điều ước) tồn tại, Eiji bị cuốn vào cuộc chiến giữa các Order khác và tổ chức bí ẩn muốn kiểm soát thế giới. Với năng lực thao túng mọi thứ trong phạm vi kiểm soát, Eiji phải đối mặt với sự thật về quá khứ, trách nhiệm và những âm mưu đen tối?</t>
+  </si>
+  <si>
+    <t>Tác phẩm theo chân Tatsumi, một chàng trai trẻ rời quê lên thủ đô để kiếm tiền giúp làng. Sau khi chứng kiến sự thối nát của giới quý tộc, cậu gia nhập Night Raid, một nhóm sát thủ cách mạng chuyên tiêu diệt những kẻ độc ác. Tại đây, Tatsumi gặp Akame, một nữ kiếm sĩ lạnh lùng nhưng chính nghĩa. Câu chuyện là hành trình chiến đấu chống lại chế độ độc tài, với nhiều trận chiến khốc liệt và cái chết đầy bi kịch.</t>
+  </si>
+  <si>
+    <t>Kể về Satou Matsuzaka, một nữ sinh trung học xinh đẹp nhưng có tâm lý lệch lạc. Cô sống cùng Shio, một bé gái nhỏ mà Satou xem là “tình yêu đích thực”. Để bảo vệ cuộc sống ngọt ngào bên Shio, Satou sẵn sàng làm mọi thứ — kể cả giết người. Câu chuyện là một trinh thám tâm lý đen tối, khai thác sự ám ảnh, tình yêu méo mó và sự suy đồi đạo đức.</t>
+  </si>
+  <si>
+    <t>Xoay quanh Lucy, một cô gái thuộc giống loài đột biến gọi là Diclonius — sở hữu năng lực điều khiển các “cánh tay vô hình” cực kỳ nguy hiểm. Sau khi trốn thoát khỏi cơ sở nghiên cứu, Lucy bị mất trí nhớ và được một nhóm sinh viên phát hiện, đặt tên mới là “Nyu”. Tuy nhiên, bản chất sát nhân của Lucy vẫn tồn tại bên trong. Câu chuyện khai thác sâu sắc bạo lực, tổn thương tâm lý, sự phân biệt và tình người, với nhiều cảnh máu me và cảm xúc dữ dội.</t>
+  </si>
+  <si>
+    <t>Kể về Asano Taiyo, một học sinh trung học sống khép kín sau khi mất gia đình. Taiyo có tình cảm với Yozakura Mutsumi, bạn thời thơ ấu và là con gái của một gia đình điệp viên siêu cấp. Để bảo vệ Mutsumi khỏi anh trai quá siscon, Taiyo buộc phải kết hôn với cô và gia nhập gia đình Yozakura. Từ đó, cậu bị cuốn vào thế giới gián điệp, chiến đấu và âm mưu, nhưng cũng tìm thấy sự ấm áp và gắn kết gia đình?</t>
+  </si>
+  <si>
+    <t>Xoay quanh Sakuraba Haruka, một học sinh ưu tú nhưng lạnh lùng, chuyển đến trường Fuurin — nơi nổi tiếng vì tập hợp toàn “đầu gấu”. Tại đây, Haruka bị cuốn vào nhóm Wind Breaker, những học sinh chiến đấu để bảo vệ thị trấn khỏi các thế lực xấu. Truyện nổi bật với các trận chiến mãn nhãn, tinh thần bảo vệ công lý, tình bạn và vượt qua giới hạn bản thân??</t>
+  </si>
+  <si>
+    <t>Xoay quanh Tomoya Okazaki, một nam sinh trung học sống buông thả, cảm thấy cuộc sống nhàm chán. Mọi thứ thay đổi khi anh gặp Nagisa Furukawa, một cô gái yếu ớt nhưng lạc quan, mơ ước hồi sinh câu lạc bộ kịch. Tomoya dần mở lòng và giúp đỡ những người xung quanh, từ đó khám phá ý nghĩa của gia đình, tình yêu và sự trưởng thành. Phần tiếp theo, Clannad: After Story, đi sâu vào cuộc sống hôn nhân và làm cha mẹ, mang đến những cảm xúc sâu sắc về mất mát, hy vọng và sự tha thứ.</t>
+  </si>
+  <si>
+    <t>Kể về cuộc gặp gỡ giữa Cherry, một cậu bé nhút nhát thích làm thơ haiku, và Smile, một cô gái năng động nhưng tự ti vì hàm răng. Hai người gặp nhau tại trung tâm mua sắm trong kỳ nghỉ hè và cùng nhau đi tìm chiếc đĩa nhạc quý giá cho một ông lão. Qua hành trình ấy, họ học cách biểu đạt cảm xúc, vượt qua mặc cảm và kết nối bằng lời nói.</t>
+  </si>
+  <si>
+    <t>Kể về Seishuu Handa, một nhà thư pháp trẻ tuổi bị chỉ trích vì thiếu cá tính trong tác phẩm. Sau một sự cố, anh được gửi đến sống tại một hòn đảo xa xôi để “tĩnh tâm”. Tại đây, Handa gặp gỡ những người dân địa phương, đặc biệt là cô bé Naru, đầy năng lượng và tò mò. Cuộc sống giản dị nhưng đầy màu sắc trên đảo giúp Handa dần thay đổi, tìm lại cảm hứng và ý nghĩa thực sự của nghệ thuật.</t>
+  </si>
+  <si>
+    <t>Xoay quanh Sakuta Azusagawa, một nam sinh trung học gặp phải hiện tượng kỳ lạ gọi là “Hội chứng tuổi dậy thì”, nơi những cảm xúc và vấn đề tâm lý của tuổi trẻ biểu hiện thành hiện tượng siêu nhiên. Câu chuyện bắt đầu khi Sakuta gặp Mai Sakurajima, một nữ diễn viên nổi tiếng mặc đồ thỏ nhưng không ai nhìn thấy cô. Sakuta giúp Mai và những người khác vượt qua các hiện tượng kỳ lạ, từ đó phát triển mối quan hệ tình cảm sâu sắc. Tác phẩm kết hợp giữa tâm lý học đường, lãng mạn và yếu tố siêu nhiên.</t>
+  </si>
+  <si>
+    <t>Kể về Yukiteru Amano, một cậu bé cô đơn sở hữu nhật ký điện thoại ghi lại tương lai. Cậu bị cuốn vào trò chơi sinh tử do Deus Ex Machina, vị thần thời gian, tổ chức. 12 người tham gia đều có nhật ký tương lai riêng, và người sống sót cuối cùng sẽ trở thành thần mới. Yukiteru hợp tác với Yuno Gasai, một cô gái xinh đẹp nhưng ám ảnh và nguy hiểm. Câu chuyện đầy kịch tính, xoay quanh âm mưu, tình yêu lệch lạc và cuộc chiến sinh tồn.</t>
+  </si>
+  <si>
+    <t>Tác phẩm tình cảm học đường với nội dung gây lỏ. Nhân vật chính Makoto Itou là một nam sinh trung học có tình cảm với Kotonoha Katsura, nhưng đồng thời cũng bị thu hút bởi cô bạn Sekai Saionji. Khi Makoto bắt đầu hẹn hò với Kotonoha, Sekai lại giúp anh tiếp cận cô — rồi chính cô cũng nảy sinh tình cảm. Câu chuyện nhanh chóng trở nên phức tạp khi Makoto có mối quan hệ với nhiều cô gái, dẫn đến phản bội, đau khổ và kết thúc bi kịch. Nổi tiếng vì cái kết sốc và chủ đề tình yêu lệch lạc.</t>
+  </si>
+  <si>
+    <t>Lấy bối cảnh Nhật Bản trong tương lai, nơi mọi nội dung khiêu dâm và ngôn từ tục tĩu bị cấm tuyệt đối,  theo chân Tanukichi Okuma, một học sinh gương mẫu bị lôi kéo vào tổ chức kháng chiến “SOX” do Ayame Kajou lãnh đạo. Nhóm này chuyên phát tán nội dung khiêu dâm để chống lại chế độ kiểm duyệt. Câu chuyện là một hài kịch lỏ, châm biếm xã hội, với nhiều tình huống lố bịch và phản ánh sự cực đoan trong kiểm soát đạo đức.</t>
+  </si>
+  <si>
+    <t>Xoay quanh Hikigaya Hachiman, một nam sinh trung học có cái nhìn bi quan về xã hội và các mối quan hệ. Cậu bị ép tham gia “Câu lạc bộ tình nguyện” cùng với Yukino Yukinoshita, một cô gái lạnh lùng nhưng thông minh. Cả hai giúp đỡ các học sinh khác giải quyết vấn đề cá nhân, từ đó khám phá bản thân và hình thành mối quan hệ phức tạp. Tác phẩm nổi bật với phân tích tâm lý tuổi teen, sự cô đơn, và những mâu thuẫn trong giao tiếp xã hội.</t>
+  </si>
+  <si>
+    <t>Lấy bối cảnh Nhật Bản thời Meiji pha lẫn yếu tố giả tưởng, tác phẩm kể về Miyo Saimori, một cô gái bị gia đình ruồng bỏ và ép gả cho Kiyoka Kudou, một sĩ quan lạnh lùng nổi tiếng là khó gần. Ban đầu Miyo lo sợ cuộc hôn nhân sẽ đầy đau khổ, nhưng dần dần cô phát hiện Kiyoka là người tử tế. Cả hai học cách mở lòng và chữa lành tổn thương quá khứ. Đây là một câu chuyện lãng mạn, chữa lành, kết hợp yếu tố siêu nhiên và xã hội phong kiến.</t>
+  </si>
+  <si>
+    <t>Lấy bối cảnh thời đại Taishou (1921), tác phẩm kể về Tamahiko Shima, một thiếu gia bị thương ở tay phải sau tai nạn và bị gia đình ruồng bỏ, sống cô độc ở vùng nông thôn. Một ngày nọ, cô gái tên Yuzuki Tachibana xuất hiện, nói rằng cô được gửi đến để làm vợ anh theo hôn ước. Với tính cách dịu dàng và lạc quan, Yuzuki dần chữa lành trái tim Tamahiko. Đây là một câu chuyện lãng mạn, chữa lành và ấm áp, phản ánh sự thay đổi của con người qua tình yêu và sự tử tế.</t>
+  </si>
+  <si>
+    <t>Xoay quanh Kyoutarou Ichikawa, một nam sinh trung học có xu hướng suy nghĩ đen tối và tự cô lập. Cậu thầm thích Anna Yamada, một cô gái nổi tiếng trong lớp, nhưng luôn nghĩ rằng mình không xứng đáng. Tuy nhiên, khi hai người bắt đầu tiếp xúc, Kyoutarou nhận ra Anna không hề xa cách như cậu tưởng. Câu chuyện là hành trình trưởng thành, vượt qua mặc cảm và khám phá tình cảm tuổi teen, với sự phát triển nhân vật tinh tế và cảm động.</t>
+  </si>
+  <si>
+    <t>Tác phẩm theo chân Violet Evergarden, một cô gái từng là “vũ khí sống” trong chiến tranh, nay trở thành người viết thư thuê — chuyên giúp người khác diễn đạt cảm xúc qua ngôn từ. Trong hành trình ấy, Violet học cách hiểu cảm xúc con người và đối mặt với quá khứ đau thương, đặc biệt là tình cảm dành cho Thiếu tá Gilbert.</t>
+  </si>
+  <si>
+    <t>Xoay quanh Komi Shouko, một nữ sinh xinh đẹp, được ngưỡng mộ bởi mọi người nhưng lại mắc chứng rối loạn giao tiếp xã hội — cô không thể nói chuyện bình thường với người khác. Mục tiêu của Komi là có được 100 người bạn. Đồng hành cùng cô là Tadano Hitohito, một nam sinh bình thường nhưng tinh tế, người đầu tiên nhận ra vấn đề của Komi và quyết tâm giúp cô kết nối với mọi người.</t>
+  </si>
+  <si>
+    <t>Kể về Nagumo Hajime, một học sinh bình thường bị triệu hồi đến thế giới khác cùng cả lớp. Trong một lần bị phản bội và rơi xuống vực sâu, Hajime phải chiến đấu để sống sót, từ đó trở nên mạnh mẽ vượt trội. Anh gặp Yue, một vampire bí ẩn, và cùng nhau khám phá thế giới, chiến đấu với quái vật và tìm cách trở về.</t>
+  </si>
+  <si>
+    <t>Tác phẩm kể về Tsuneo, một sinh viên đại học yêu thích lặn biển, tình cờ gặp Josee, một cô gái bị liệt chân sống khép kín. Ban đầu mối quan hệ giữa họ đầy mâu thuẫn, nhưng dần dần cả hai học cách thấu hiểu và hỗ trợ nhau. Josee bắt đầu mở lòng với thế giới bên ngoài, còn Tsuneo tìm thấy ý nghĩa mới trong cuộc sống. Đây là một câu chuyện lãng mạn, chữa lành và truyền cảm hứng, với thông điệp về ước mơ, sự đồng cảm và vượt qua giới hạn bản thân.</t>
+  </si>
+  <si>
+    <t>Dựa trên truyện dân gian Nhật Bản “Chuyện nàng tiên trong ống tre”. Một ông lão tiều phu phát hiện một bé gái nhỏ trong cây tre phát sáng và nuôi cô như con ruột. Cô bé lớn nhanh thành thiếu nữ xinh đẹp tên Kaguya, thu hút nhiều người cầu hôn nhưng luôn từ chối. Khi quá khứ và thân phận thật sự của Kaguya hé lộ, câu chuyện trở thành một bi kịch nhẹ nhàng về sự tự do, nỗi buồn và sự chia ly. Phim nổi bật với phong cách vẽ tay truyền thống và cảm xúc sâu lắng.</t>
+  </si>
+  <si>
+    <t>Xoay quanh Keyaru, một pháp sư hồi phục bị lạm dụng và phản bội bởi đồng đội trong hành trình tiêu diệt quỷ vương. Sau khi khám phá sức mạnh hồi phục có thể thao túng thời gian, Keyaru quay ngược quá khứ để trả thù tất cả những kẻ đã hại mình. Câu chuyện chứa nhiều yếu tố bạo lực, trả thù và nội dung gây tranh cãi, với phong cách đen tối và phản anh hùng. Cái này(không) dành cho khán giả nhỏ tuổi và thường bị gắn mác 18+ vì nội dung nên xem.</t>
+  </si>
+  <si>
+    <t>Một câu chuyện lãng mạn ngắn nhưng sâu lắng, kể về Hotaru, một cô bé lạc trong rừng và được cứu bởi Gin, một chàng trai đeo mặt nạ không thể bị con người chạm vào — nếu không anh sẽ biến mất. Họ gặp nhau mỗi mùa hè, tình cảm dần lớn lên qua năm tháng. Tuy nhiên, mối quan hệ của họ bị giới hạn bởi ranh giới giữa con người và linh hồn.</t>
+  </si>
+  <si>
+    <t>Lấy bối cảnh Nhật Bản cuối Thế chiến II. Câu chuyện theo chân Seita và em gái Setsuko, hai đứa trẻ mồ côi cố gắng sống sót giữa nạn đói và sự tàn phá của chiến tranh. Dù cố gắng hết sức, họ phải đối mặt với sự thờ ơ, tuyệt vọng và bi kịch. Phim là một lời tố cáo chiến tranh đầy ám ảnh, với hình ảnh đom đóm tượng trưng cho sự sống ngắn ngủi và hy vọng mong manh.</t>
+  </si>
+  <si>
+    <t>Tác phẩm kể về Nello, một cậu bé nghèo sống ở vùng Flanders (Bỉ), và chú chó trung thành Patrasche. Nello có ước mơ trở thành họa sĩ, nhưng cuộc sống khắc nghiệt khiến cậu gặp nhiều khó khăn. Dù bị xã hội ruồng bỏ, Nello vẫn giữ vững lòng tốt và tình yêu nghệ thuật. Câu chuyện kết thúc đầy bi kịch nhưng cảm động, là biểu tượng của tình bạn, lòng trung thành và sự hy sinh.</t>
+  </si>
+  <si>
+    <t>Tác phẩm tâm lý–hành động theo chân Kaiji Itou, một thanh niên thất nghiệp bị lừa gạt và mắc nợ. Anh bị ép tham gia các trò chơi sinh tử do tổ chức ngầm điều hành, nơi người chơi phải dùng trí tuệ, tâm lý và sự liều lĩnh để sống sót và trả nợ. Các trò chơi như “Rock–Paper–Scissors” hay “đi trên ván sắt” đều được nâng lên thành cuộc chiến sinh tồn căng thẳng.</t>
+  </si>
+  <si>
+    <t>Lấy bối cảnh tại Làng Penguin — nơi mọi điều kỳ quặc đều có thể xảy ra. Câu chuyện xoay quanh Tiến sĩ Senbei Norimaki, một nhà khoa học lập dị đã tạo ra Arale, một cô bé robot có sức mạnh siêu phàm nhưng tính cách ngây thơ và hiếu động. Arale thường gây ra những tình huống phi lý và hài hước, như đấm vỡ Trái Đất hay chơi đùa với người ngoài hành tinh. Series nổi bật với phong cách vẽ dễ thương, năng lượng tích cực và lối kể chuyện siêu thực, đồng thời phản ánh xã hội Nhật Bản qua lăng kính hài hước.</t>
   </si>
 </sst>
 </file>
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1445,7 +1445,7 @@
         <v>143</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213" customHeight="1">
@@ -1459,7 +1459,7 @@
         <v>2016</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="117.75" customHeight="1">
@@ -1473,7 +1473,7 @@
         <v>2015</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" customHeight="1">
@@ -1487,7 +1487,7 @@
         <v>2018</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136.5" customHeight="1">
@@ -1501,7 +1501,7 @@
         <v>2017</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150.75" customHeight="1">
@@ -1515,7 +1515,7 @@
         <v>2017</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135.75" customHeight="1">
@@ -1529,7 +1529,7 @@
         <v>2002</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" customHeight="1">
@@ -1543,7 +1543,7 @@
         <v>2013</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="146.25" customHeight="1">
@@ -1557,7 +1557,7 @@
         <v>2011</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="162" customHeight="1">
@@ -1571,7 +1571,7 @@
         <v>2011</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="147.75" customHeight="1">
@@ -1585,7 +1585,7 @@
         <v>2020</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="114.75" customHeight="1">
@@ -1599,7 +1599,7 @@
         <v>2018</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="146.25" customHeight="1">
@@ -1613,7 +1613,7 @@
         <v>2021</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="163.5" customHeight="1">
@@ -1627,7 +1627,7 @@
         <v>2018</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="101.25" customHeight="1">
@@ -1641,7 +1641,7 @@
         <v>2019</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" customHeight="1">
@@ -1655,7 +1655,7 @@
         <v>2013</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" customHeight="1">
@@ -1669,7 +1669,7 @@
         <v>2013</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="116.25" customHeight="1">
@@ -1683,7 +1683,7 @@
         <v>2016</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="143.25" customHeight="1">
@@ -1697,7 +1697,7 @@
         <v>1999</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="111" customHeight="1">
@@ -1711,7 +1711,7 @@
         <v>1984</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="131.25" customHeight="1">
@@ -1725,7 +1725,7 @@
         <v>1994</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="103.5" customHeight="1">
@@ -1739,7 +1739,7 @@
         <v>1990</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="83.25" customHeight="1">
@@ -1753,7 +1753,7 @@
         <v>1969</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" customHeight="1">
@@ -1767,7 +1767,7 @@
         <v>2019</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="98.25" customHeight="1">
@@ -1781,7 +1781,7 @@
         <v>2005</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="98.25" customHeight="1">
@@ -1795,7 +1795,7 @@
         <v>2018</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="83.25" customHeight="1">
@@ -1809,7 +1809,7 @@
         <v>2015</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
@@ -1823,7 +1823,7 @@
         <v>2003</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="114.75" customHeight="1">
@@ -1837,7 +1837,7 @@
         <v>2008</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="97.5" customHeight="1">
@@ -1851,7 +1851,7 @@
         <v>2019</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="68.25" customHeight="1">
@@ -1865,7 +1865,7 @@
         <v>2018</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="98.25" customHeight="1">
@@ -1879,7 +1879,7 @@
         <v>2013</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="66.75" customHeight="1">
@@ -1893,7 +1893,7 @@
         <v>2018</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="67.5" customHeight="1">
@@ -1907,7 +1907,7 @@
         <v>2011</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="68.25" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>2017</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="80.25" customHeight="1">
@@ -1935,7 +1935,7 @@
         <v>2001</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="84" customHeight="1">
@@ -1949,7 +1949,7 @@
         <v>2007</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="81.75" customHeight="1">
@@ -1963,7 +1963,7 @@
         <v>1998</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="83.25" customHeight="1">
@@ -1977,7 +1977,7 @@
         <v>2012</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="66" customHeight="1">
@@ -1991,7 +1991,7 @@
         <v>2014</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="63">
@@ -2005,7 +2005,7 @@
         <v>1987</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" customHeight="1">
@@ -2019,7 +2019,7 @@
         <v>1981</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="68.25" customHeight="1">
@@ -2033,7 +2033,7 @@
         <v>2013</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="69.75" customHeight="1">
@@ -2047,7 +2047,7 @@
         <v>2011</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="81.75" customHeight="1">
@@ -2061,7 +2061,7 @@
         <v>2004</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="68.25" customHeight="1">
@@ -2075,7 +2075,7 @@
         <v>1989</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="67.5" customHeight="1">
@@ -2089,10 +2089,10 @@
         <v>1982</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="56.25" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="83.25" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2102,11 +2102,11 @@
       <c r="C48" s="1">
         <v>2016</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="55.5" customHeight="1">
+      <c r="D48" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="82.5" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2116,11 +2116,11 @@
       <c r="C49" s="1">
         <v>2013</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="51.75" customHeight="1">
+      <c r="D49" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="83.25" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -2130,11 +2130,11 @@
       <c r="C50" s="1">
         <v>1984</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="49.5" customHeight="1">
+      <c r="D50" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="66" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -2144,11 +2144,11 @@
       <c r="C51" s="1">
         <v>2002</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="47.25">
+      <c r="D51" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="68.25" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2158,22 +2158,22 @@
       <c r="C52" s="1">
         <v>1988</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="54" customHeight="1">
+      <c r="D52" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="69.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C53" s="1">
         <v>1996</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>156</v>
+      <c r="D53" s="11" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="65.25" customHeight="1">
@@ -2186,25 +2186,25 @@
       <c r="C54" s="1">
         <v>1975</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="47.25">
+      <c r="D54" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="88.5" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C55" s="1">
         <v>1980</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="47.25">
+      <c r="D55" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="83.25" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -2214,11 +2214,11 @@
       <c r="C56" s="1">
         <v>2004</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="62.45" customHeight="1">
+      <c r="D56" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="65.25" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>47</v>
       </c>
@@ -2228,22 +2228,22 @@
       <c r="C57" s="1">
         <v>2020</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="47.25">
+      <c r="D57" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="68.25" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C58" s="1">
         <v>2009</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>162</v>
+      <c r="D58" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.5" customHeight="1">
@@ -2256,11 +2256,11 @@
       <c r="C59" s="1">
         <v>2013</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="52.5" customHeight="1">
+      <c r="D59" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="66.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
@@ -2270,8 +2270,8 @@
       <c r="C60" s="1">
         <v>2016</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>165</v>
+      <c r="D60" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54.75" customHeight="1">
@@ -2284,11 +2284,11 @@
       <c r="C61" s="1">
         <v>2015</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="54" customHeight="1">
+      <c r="D61" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="71.25" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>47</v>
       </c>
@@ -2298,11 +2298,11 @@
       <c r="C62" s="1">
         <v>2018</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="56.25" customHeight="1">
+      <c r="D62" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="81" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>47</v>
       </c>
@@ -2312,11 +2312,11 @@
       <c r="C63" s="1">
         <v>2015</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="73.5" customHeight="1">
+      <c r="D63" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="72.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>47</v>
       </c>
@@ -2326,11 +2326,11 @@
       <c r="C64" s="1">
         <v>2019</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="57" customHeight="1">
+      <c r="D64" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="68.25" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>47</v>
       </c>
@@ -2340,11 +2340,11 @@
       <c r="C65" s="1">
         <v>2011</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D65" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="65.25" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>47</v>
       </c>
@@ -2354,11 +2354,11 @@
       <c r="C66" s="1">
         <v>2012</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="54.75" customHeight="1">
+      <c r="D66" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="81.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>47</v>
       </c>
@@ -2368,11 +2368,11 @@
       <c r="C67" s="1">
         <v>2005</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="47.25">
+      <c r="D67" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="67.5" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>47</v>
       </c>
@@ -2382,11 +2382,11 @@
       <c r="C68" s="1">
         <v>2006</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="60.75" customHeight="1">
+      <c r="D68" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="82.5" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -2396,11 +2396,11 @@
       <c r="C69" s="1">
         <v>2014</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="65.25" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>47</v>
       </c>
@@ -2410,8 +2410,8 @@
       <c r="C70" s="1">
         <v>2021</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>175</v>
+      <c r="D70" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:4" ht="55.5" customHeight="1">
+    <row r="72" spans="1:4" ht="70.5" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>47</v>
       </c>
@@ -2436,11 +2436,11 @@
       <c r="C72" s="1">
         <v>2019</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="47.25">
+      <c r="D72" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="80.25" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>47</v>
       </c>
@@ -2450,11 +2450,11 @@
       <c r="C73" s="1">
         <v>2002</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="51" customHeight="1">
+      <c r="D73" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="67.5" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>47</v>
       </c>
@@ -2464,11 +2464,11 @@
       <c r="C74" s="1">
         <v>2015</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="47.25">
+      <c r="D74" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="64.5" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>47</v>
       </c>
@@ -2478,8 +2478,8 @@
       <c r="C75" s="1">
         <v>2010</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>179</v>
+      <c r="D75" s="11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D77" s="12"/>
     </row>
-    <row r="78" spans="1:4" ht="47.25">
+    <row r="78" spans="1:4" ht="63">
       <c r="A78" s="1" t="s">
         <v>47</v>
       </c>
@@ -2510,8 +2510,8 @@
       <c r="C78" s="1">
         <v>2011</v>
       </c>
-      <c r="D78" s="12" t="s">
-        <v>180</v>
+      <c r="D78" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:4">

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="228">
   <si>
     <t>Eiti Shikkusu</t>
   </si>
@@ -74,13 +74,7 @@
     <t>☐</t>
   </si>
   <si>
-    <t>Bakemonogatari</t>
-  </si>
-  <si>
     <t>Code Geass</t>
-  </si>
-  <si>
-    <t>Tasogare Otome x Amnesia</t>
   </si>
   <si>
     <t>Isekai Nonbiri Nouka
@@ -421,42 +415,6 @@
     <t>Danganronpa: The Animation</t>
   </si>
   <si>
-    <t>Oshi no Ko</t>
-  </si>
-  <si>
-    <t>Kuzu no Honkai</t>
-  </si>
-  <si>
-    <t>Sankarea</t>
-  </si>
-  <si>
-    <t>Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e</t>
-  </si>
-  <si>
-    <t>Zetsuen no Tempest</t>
-  </si>
-  <si>
-    <t>Yojouhan Shinwa Taikei</t>
-  </si>
-  <si>
-    <t>Kimi ga Nozomu Eien</t>
-  </si>
-  <si>
-    <t>Saishuu Heiki Kanojo</t>
-  </si>
-  <si>
-    <t>Boogiepop wa Warawanai</t>
-  </si>
-  <si>
-    <t>Kara no Kyoukai: The Garden of Sinners</t>
-  </si>
-  <si>
-    <t>Noir</t>
-  </si>
-  <si>
-    <t>Ergo Proxy</t>
-  </si>
-  <si>
     <t>Texhnolyze</t>
   </si>
   <si>
@@ -903,6 +861,54 @@
   <si>
     <t>Ame wo Tsugeru Hyouryuu Danchi 
 雨を告げる漂流団地</t>
+  </si>
+  <si>
+    <t>Ergo Proxy
+エルゴプラクシー</t>
+  </si>
+  <si>
+    <t>Noir
+ノワール</t>
+  </si>
+  <si>
+    <t>Boogiepop wa Warawanai
+ブギーポップは笑わない</t>
+  </si>
+  <si>
+    <t>Kara no Kyoukai: The Garden of Sinners
+空の境界 the Garden of sinners</t>
+  </si>
+  <si>
+    <t>Saishuu Heiki Kanojo
+最終兵器彼女</t>
+  </si>
+  <si>
+    <t>Kimi ga Nozomu Eien
+君が望む永遠</t>
+  </si>
+  <si>
+    <t>Yojouhan Shinwa Taikei
+四畳半神話大系</t>
+  </si>
+  <si>
+    <t>Zetsuen no Tempest
+絶園のテンペスト</t>
+  </si>
+  <si>
+    <t>Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e
+ようこそ実力至上主義の教室へ</t>
+  </si>
+  <si>
+    <t>Sankarea
+さんかれあ</t>
+  </si>
+  <si>
+    <t>Kuzu no Honkai
+クズの本懐</t>
+  </si>
+  <si>
+    <t>Oshi no Ko
+推しの子</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1125,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1499,13 +1505,13 @@
     <row r="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213" customHeight="1">
@@ -1513,13 +1519,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6">
         <v>2016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="117.75" customHeight="1">
@@ -1527,13 +1533,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6">
         <v>2015</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" customHeight="1">
@@ -1541,13 +1547,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6">
         <v>2018</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136.5" customHeight="1">
@@ -1555,13 +1561,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6">
         <v>2017</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150.75" customHeight="1">
@@ -1569,13 +1575,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>2017</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135.75" customHeight="1">
@@ -1583,13 +1589,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6">
         <v>2002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" customHeight="1">
@@ -1597,13 +1603,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6">
         <v>2013</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="146.25" customHeight="1">
@@ -1611,13 +1617,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6">
         <v>2011</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="162" customHeight="1">
@@ -1625,13 +1631,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <v>2011</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="147.75" customHeight="1">
@@ -1639,13 +1645,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6">
         <v>2020</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="114.75" customHeight="1">
@@ -1653,13 +1659,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6">
         <v>2018</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="146.25" customHeight="1">
@@ -1667,13 +1673,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6">
         <v>2021</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="163.5" customHeight="1">
@@ -1681,13 +1687,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6">
         <v>2018</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="101.25" customHeight="1">
@@ -1695,13 +1701,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6">
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" customHeight="1">
@@ -1709,13 +1715,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6">
         <v>2013</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" customHeight="1">
@@ -1723,13 +1729,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="6">
         <v>2013</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="116.25" customHeight="1">
@@ -1737,13 +1743,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6">
         <v>2016</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="143.25" customHeight="1">
@@ -1751,13 +1757,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C19" s="6">
         <v>1999</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="111" customHeight="1">
@@ -1765,13 +1771,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6">
         <v>1984</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="131.25" customHeight="1">
@@ -1779,13 +1785,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C21" s="6">
         <v>1994</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="103.5" customHeight="1">
@@ -1793,13 +1799,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6">
         <v>1990</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="83.25" customHeight="1">
@@ -1807,13 +1813,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C23" s="6">
         <v>1969</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" customHeight="1">
@@ -1821,13 +1827,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="6">
         <v>2019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="98.25" customHeight="1">
@@ -1835,13 +1841,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6">
         <v>2005</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="98.25" customHeight="1">
@@ -1849,13 +1855,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6">
         <v>2018</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="83.25" customHeight="1">
@@ -1863,13 +1869,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6">
         <v>2015</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
@@ -1877,13 +1883,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="6">
         <v>2003</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="114.75" customHeight="1">
@@ -1891,13 +1897,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="6">
         <v>2008</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="97.5" customHeight="1">
@@ -1905,13 +1911,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6">
         <v>2019</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="68.25" customHeight="1">
@@ -1919,13 +1925,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6">
         <v>2018</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="98.25" customHeight="1">
@@ -1933,13 +1939,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6">
         <v>2013</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="66.75" customHeight="1">
@@ -1947,13 +1953,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="6">
         <v>2018</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="67.5" customHeight="1">
@@ -1961,13 +1967,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6">
         <v>2011</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="68.25" customHeight="1">
@@ -1975,13 +1981,13 @@
         <v>14</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="6">
         <v>2017</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="80.25" customHeight="1">
@@ -1989,13 +1995,13 @@
         <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" s="6">
         <v>2001</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="84" customHeight="1">
@@ -2003,13 +2009,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="6">
         <v>2007</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="81.75" customHeight="1">
@@ -2017,13 +2023,13 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="6">
         <v>1998</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="83.25" customHeight="1">
@@ -2031,13 +2037,13 @@
         <v>14</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="6">
         <v>2012</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="66" customHeight="1">
@@ -2045,13 +2051,13 @@
         <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="6">
         <v>2014</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="63">
@@ -2059,13 +2065,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C41" s="6">
         <v>1987</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" customHeight="1">
@@ -2073,13 +2079,13 @@
         <v>14</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="6">
         <v>1981</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="68.25" customHeight="1">
@@ -2087,13 +2093,13 @@
         <v>14</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C43" s="6">
         <v>2013</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="69.75" customHeight="1">
@@ -2101,13 +2107,13 @@
         <v>14</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="6">
         <v>2011</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="81.75" customHeight="1">
@@ -2115,13 +2121,13 @@
         <v>14</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="6">
         <v>2004</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="68.25" customHeight="1">
@@ -2129,13 +2135,13 @@
         <v>14</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="6">
         <v>1989</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="67.5" customHeight="1">
@@ -2143,13 +2149,13 @@
         <v>14</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="6">
         <v>1982</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="83.25" customHeight="1">
@@ -2157,13 +2163,13 @@
         <v>14</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="6">
         <v>2016</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" customHeight="1">
@@ -2171,13 +2177,13 @@
         <v>14</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="6">
         <v>2013</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="83.25" customHeight="1">
@@ -2185,13 +2191,13 @@
         <v>14</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="6">
         <v>1984</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="66" customHeight="1">
@@ -2199,13 +2205,13 @@
         <v>14</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="6">
         <v>2002</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="68.25" customHeight="1">
@@ -2213,13 +2219,13 @@
         <v>14</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="6">
         <v>1988</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="69.75" customHeight="1">
@@ -2227,13 +2233,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C53" s="6">
         <v>1996</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="65.25" customHeight="1">
@@ -2241,13 +2247,13 @@
         <v>14</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="6">
         <v>1975</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="88.5" customHeight="1">
@@ -2255,13 +2261,13 @@
         <v>14</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C55" s="6">
         <v>1980</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="83.25" customHeight="1">
@@ -2275,7 +2281,7 @@
         <v>2004</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="65.25" customHeight="1">
@@ -2283,13 +2289,13 @@
         <v>14</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="6">
         <v>2020</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="68.25" customHeight="1">
@@ -2297,13 +2303,13 @@
         <v>14</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C58" s="6">
         <v>2009</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.5" customHeight="1">
@@ -2311,13 +2317,13 @@
         <v>14</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="6">
         <v>2013</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" customHeight="1">
@@ -2325,13 +2331,13 @@
         <v>14</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="6">
         <v>2016</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54.75" customHeight="1">
@@ -2339,13 +2345,13 @@
         <v>14</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" s="6">
         <v>2015</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="71.25" customHeight="1">
@@ -2353,13 +2359,13 @@
         <v>14</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" s="6">
         <v>2018</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="81" customHeight="1">
@@ -2367,13 +2373,13 @@
         <v>14</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" s="6">
         <v>2015</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="72.75" customHeight="1">
@@ -2381,13 +2387,13 @@
         <v>14</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" s="6">
         <v>2019</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="68.25" customHeight="1">
@@ -2395,13 +2401,13 @@
         <v>14</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="6">
         <v>2011</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="65.25" customHeight="1">
@@ -2409,13 +2415,13 @@
         <v>14</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="6">
         <v>2012</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="81.75" customHeight="1">
@@ -2423,13 +2429,13 @@
         <v>14</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C67" s="6">
         <v>2005</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="67.5" customHeight="1">
@@ -2437,13 +2443,13 @@
         <v>14</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68" s="6">
         <v>2006</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="82.5" customHeight="1">
@@ -2451,13 +2457,13 @@
         <v>14</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69" s="6">
         <v>2014</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="65.25" customHeight="1">
@@ -2471,7 +2477,7 @@
         <v>2021</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2491,13 +2497,13 @@
         <v>14</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72" s="6">
         <v>2019</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="80.25" customHeight="1">
@@ -2505,13 +2511,13 @@
         <v>14</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" s="6">
         <v>2002</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="67.5" customHeight="1">
@@ -2519,13 +2525,13 @@
         <v>14</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" s="6">
         <v>2015</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="64.5" customHeight="1">
@@ -2533,18 +2539,18 @@
         <v>14</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75" s="6">
         <v>2010</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>10</v>
@@ -2554,10 +2560,10 @@
     </row>
     <row r="77" spans="1:4" ht="31.5">
       <c r="A77" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="12"/>
@@ -2567,13 +2573,13 @@
         <v>14</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C78" s="6">
         <v>2011</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="31.5">
@@ -2581,124 +2587,124 @@
         <v>15</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" ht="31.5">
       <c r="A80" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" ht="31.5">
       <c r="A81" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" ht="31.5">
       <c r="A83" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" ht="31.5">
       <c r="A84" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4" ht="31.5">
       <c r="A85" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" ht="31.5">
       <c r="A86" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" ht="31.5">
       <c r="A87" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" ht="31.5">
       <c r="A88" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" ht="31.5">
       <c r="A89" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" ht="31.5">
       <c r="A90" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>11</v>
@@ -2708,107 +2714,107 @@
     </row>
     <row r="92" spans="1:4" ht="31.5">
       <c r="A92" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="12"/>
     </row>
     <row r="93" spans="1:4" ht="31.5">
       <c r="A93" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4" ht="31.5">
       <c r="A94" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="12"/>
     </row>
     <row r="95" spans="1:4" ht="31.5">
       <c r="A95" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="12"/>
     </row>
     <row r="96" spans="1:4" ht="31.5">
       <c r="A96" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4" ht="31.5">
       <c r="A97" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:4" ht="31.5">
       <c r="A98" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" ht="31.5">
       <c r="A99" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" ht="31.5">
       <c r="A100" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="31.5">
       <c r="A101" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>2</v>
@@ -2818,47 +2824,47 @@
     </row>
     <row r="103" spans="1:4" ht="31.5">
       <c r="A103" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:4" ht="31.5">
       <c r="A104" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:4" ht="31.5">
       <c r="A105" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" ht="31.5">
       <c r="A106" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>3</v>
@@ -2868,17 +2874,17 @@
     </row>
     <row r="108" spans="1:4" ht="31.5">
       <c r="A108" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="12"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>4</v>
@@ -2888,7 +2894,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>0</v>
@@ -2898,7 +2904,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>1</v>
@@ -2908,37 +2914,37 @@
     </row>
     <row r="112" spans="1:4" ht="31.5">
       <c r="A112" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" ht="31.5">
       <c r="A113" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4" ht="31.5">
       <c r="A114" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="12"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>6</v>
@@ -2948,37 +2954,37 @@
     </row>
     <row r="116" spans="1:4" ht="31.5">
       <c r="A116" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="12"/>
     </row>
     <row r="117" spans="1:4" ht="31.5">
       <c r="A117" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="12"/>
     </row>
     <row r="118" spans="1:4" ht="31.5">
       <c r="A118" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>7</v>
@@ -2988,7 +2994,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>8</v>
@@ -2998,7 +3004,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>9</v>
@@ -3008,70 +3014,70 @@
     </row>
     <row r="122" spans="1:4" ht="31.5">
       <c r="A122" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4" ht="31.5">
       <c r="A123" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="12"/>
     </row>
     <row r="124" spans="1:4" ht="31.5">
       <c r="A124" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="12"/>
     </row>
     <row r="125" spans="1:4" ht="31.5">
       <c r="A125" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4" ht="31.5">
       <c r="A126" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="12"/>
     </row>
     <row r="127" spans="1:4" ht="31.5">
       <c r="A127" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="12"/>
     </row>
     <row r="128" spans="1:4" ht="31.5">
       <c r="A128" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="12"/>
@@ -3081,29 +3087,29 @@
         <v>14</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="5" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="12"/>
@@ -3113,19 +3119,19 @@
         <v>14</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="31.5">
       <c r="A133" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>16</v>
+        <v>87</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="12"/>
@@ -3135,174 +3141,172 @@
         <v>15</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="12"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="12"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="31.5">
       <c r="A136" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>18</v>
+        <v>87</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" ht="31.5">
       <c r="A137" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" ht="31.5">
       <c r="A138" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" ht="31.5">
       <c r="A139" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" ht="31.5">
       <c r="A140" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="12"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" ht="31.5">
       <c r="A141" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="12"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" ht="31.5">
       <c r="A142" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="12"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" ht="31.5">
       <c r="A143" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="12"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" ht="31.5">
       <c r="A144" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="12"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" ht="31.5">
       <c r="A145" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="12"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="31.5">
       <c r="A146" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="12"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="31.5">
       <c r="A147" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="12"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" ht="31.5">
       <c r="A148" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>100</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B150" s="14"/>
       <c r="C150" s="6"/>
       <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B151" s="14"/>
       <c r="C151" s="6"/>
@@ -3310,7 +3314,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="6"/>
@@ -3318,7 +3322,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B153" s="14"/>
       <c r="C153" s="6"/>
@@ -3326,7 +3330,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B154" s="14"/>
       <c r="C154" s="6"/>
@@ -3334,7 +3338,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B155" s="14"/>
       <c r="C155" s="6"/>
@@ -3342,7 +3346,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="6"/>
@@ -3350,7 +3354,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B157" s="14"/>
       <c r="C157" s="6"/>
@@ -3358,7 +3362,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B158" s="14"/>
       <c r="C158" s="6"/>
@@ -3366,7 +3370,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B159" s="14"/>
       <c r="C159" s="6"/>
@@ -3374,7 +3378,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B160" s="14"/>
       <c r="C160" s="6"/>
@@ -3382,7 +3386,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B161" s="14"/>
       <c r="C161" s="6"/>
@@ -3390,7 +3394,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B162" s="14"/>
       <c r="C162" s="6"/>
@@ -3398,7 +3402,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B163" s="14"/>
       <c r="C163" s="6"/>
@@ -3406,7 +3410,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B164" s="14"/>
       <c r="C164" s="6"/>
@@ -3414,7 +3418,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B165" s="14"/>
       <c r="C165" s="6"/>
@@ -3422,7 +3426,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B166" s="14"/>
       <c r="C166" s="6"/>
@@ -3430,7 +3434,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B167" s="14"/>
       <c r="C167" s="6"/>
@@ -3438,7 +3442,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B168" s="14"/>
       <c r="C168" s="6"/>
@@ -3446,7 +3450,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="6"/>
@@ -3454,7 +3458,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B170" s="14"/>
       <c r="C170" s="6"/>
@@ -3462,7 +3466,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B171" s="14"/>
       <c r="C171" s="6"/>
@@ -3470,7 +3474,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B172" s="14"/>
       <c r="C172" s="6"/>
@@ -3478,7 +3482,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B173" s="14"/>
       <c r="C173" s="6"/>
@@ -3486,7 +3490,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B174" s="14"/>
       <c r="C174" s="6"/>
@@ -3494,7 +3498,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B175" s="14"/>
       <c r="C175" s="6"/>
@@ -3502,7 +3506,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B176" s="14"/>
       <c r="C176" s="6"/>
@@ -3510,7 +3514,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B177" s="14"/>
       <c r="C177" s="6"/>
@@ -3518,7 +3522,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B178" s="14"/>
       <c r="C178" s="6"/>
@@ -3526,7 +3530,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B179" s="14"/>
       <c r="C179" s="6"/>
@@ -3534,7 +3538,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B180" s="14"/>
       <c r="C180" s="6"/>
@@ -3542,7 +3546,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B181" s="14"/>
       <c r="C181" s="6"/>
@@ -3550,7 +3554,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B182" s="14"/>
       <c r="C182" s="6"/>
@@ -3558,7 +3562,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B183" s="14"/>
       <c r="C183" s="6"/>
@@ -3566,7 +3570,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B184" s="14"/>
       <c r="C184" s="6"/>
@@ -3574,7 +3578,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B185" s="14"/>
       <c r="C185" s="6"/>
@@ -3582,7 +3586,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B186" s="14"/>
       <c r="C186" s="6"/>
@@ -3590,7 +3594,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B187" s="14"/>
       <c r="C187" s="6"/>
@@ -3598,7 +3602,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B188" s="14"/>
       <c r="C188" s="6"/>
@@ -3606,7 +3610,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B189" s="14"/>
       <c r="C189" s="6"/>
@@ -3614,7 +3618,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B190" s="14"/>
       <c r="C190" s="6"/>
@@ -3622,7 +3626,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B191" s="14"/>
       <c r="C191" s="6"/>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B192" s="14"/>
       <c r="C192" s="6"/>
@@ -3638,7 +3642,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B193" s="14"/>
       <c r="C193" s="6"/>
@@ -3646,7 +3650,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B194" s="14"/>
       <c r="C194" s="6"/>
@@ -3654,7 +3658,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B195" s="14"/>
       <c r="C195" s="6"/>
@@ -3662,7 +3666,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B196" s="14"/>
       <c r="C196" s="6"/>
@@ -3670,7 +3674,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B197" s="14"/>
       <c r="C197" s="6"/>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B198" s="14"/>
       <c r="C198" s="6"/>
@@ -3686,7 +3690,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B199" s="14"/>
       <c r="C199" s="6"/>
@@ -3694,7 +3698,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B200" s="14"/>
       <c r="C200" s="6"/>
@@ -3702,7 +3706,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B201" s="14"/>
       <c r="C201" s="6"/>
@@ -3710,7 +3714,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B202" s="14"/>
       <c r="C202" s="6"/>
@@ -3718,7 +3722,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B203" s="14"/>
       <c r="C203" s="6"/>
@@ -3726,7 +3730,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B204" s="14"/>
       <c r="C204" s="6"/>
@@ -3734,7 +3738,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B205" s="14"/>
       <c r="C205" s="6"/>
@@ -3742,7 +3746,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B206" s="14"/>
       <c r="C206" s="6"/>
@@ -3750,7 +3754,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B207" s="14"/>
       <c r="C207" s="6"/>
@@ -3758,7 +3762,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B208" s="14"/>
       <c r="C208" s="6"/>
@@ -3766,7 +3770,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B209" s="14"/>
       <c r="C209" s="6"/>
@@ -3774,7 +3778,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B210" s="14"/>
       <c r="C210" s="6"/>
@@ -3782,7 +3786,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B211" s="14"/>
       <c r="C211" s="6"/>
@@ -3790,7 +3794,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B212" s="14"/>
       <c r="C212" s="6"/>
@@ -3798,7 +3802,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B213" s="14"/>
       <c r="C213" s="6"/>
@@ -3806,7 +3810,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B214" s="14"/>
       <c r="C214" s="6"/>
@@ -3814,7 +3818,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B215" s="14"/>
       <c r="C215" s="6"/>
@@ -3822,7 +3826,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B216" s="14"/>
       <c r="C216" s="6"/>
@@ -3830,7 +3834,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B217" s="14"/>
       <c r="C217" s="6"/>
@@ -3838,7 +3842,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B218" s="14"/>
       <c r="C218" s="6"/>
@@ -3846,7 +3850,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B219" s="14"/>
       <c r="C219" s="6"/>
@@ -3854,7 +3858,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B220" s="14"/>
       <c r="C220" s="6"/>
@@ -3862,7 +3866,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B221" s="14"/>
       <c r="C221" s="6"/>
@@ -3870,7 +3874,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B222" s="14"/>
       <c r="C222" s="6"/>
@@ -3878,7 +3882,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B223" s="14"/>
       <c r="C223" s="6"/>
@@ -3886,7 +3890,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B224" s="14"/>
       <c r="C224" s="6"/>
@@ -3894,7 +3898,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B225" s="14"/>
       <c r="C225" s="6"/>
@@ -3902,7 +3906,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B226" s="14"/>
       <c r="C226" s="6"/>
@@ -3910,7 +3914,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B227" s="14"/>
       <c r="C227" s="6"/>
@@ -3918,7 +3922,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B228" s="14"/>
       <c r="C228" s="6"/>
@@ -3926,7 +3930,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B229" s="14"/>
       <c r="C229" s="6"/>
@@ -3934,7 +3938,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B230" s="14"/>
       <c r="C230" s="6"/>
@@ -3942,7 +3946,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B231" s="14"/>
       <c r="C231" s="6"/>
@@ -3950,7 +3954,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B232" s="14"/>
       <c r="C232" s="6"/>
@@ -3958,7 +3962,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B233" s="14"/>
       <c r="C233" s="6"/>
@@ -3966,7 +3970,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B234" s="14"/>
       <c r="C234" s="6"/>
@@ -3974,7 +3978,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B235" s="14"/>
       <c r="C235" s="6"/>
@@ -3982,7 +3986,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B236" s="14"/>
       <c r="C236" s="6"/>
@@ -3990,7 +3994,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B237" s="14"/>
       <c r="C237" s="6"/>
@@ -3998,7 +4002,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B238" s="14"/>
       <c r="C238" s="6"/>
@@ -4006,7 +4010,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B239" s="14"/>
       <c r="C239" s="6"/>
@@ -4014,7 +4018,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B240" s="14"/>
       <c r="C240" s="6"/>
@@ -4022,7 +4026,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B241" s="14"/>
       <c r="C241" s="6"/>
@@ -4030,7 +4034,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B242" s="14"/>
       <c r="C242" s="6"/>
@@ -4038,7 +4042,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B243" s="14"/>
       <c r="C243" s="6"/>
@@ -4046,7 +4050,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B244" s="14"/>
       <c r="C244" s="6"/>
@@ -4054,7 +4058,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B245" s="14"/>
       <c r="C245" s="6"/>
@@ -4062,7 +4066,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B246" s="14"/>
       <c r="C246" s="6"/>
@@ -4070,7 +4074,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B247" s="14"/>
       <c r="C247" s="6"/>
@@ -4078,7 +4082,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B248" s="14"/>
       <c r="C248" s="6"/>
@@ -4086,7 +4090,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B249" s="14"/>
       <c r="C249" s="6"/>
@@ -4094,7 +4098,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B250" s="14"/>
       <c r="C250" s="6"/>
@@ -4102,7 +4106,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B251" s="14"/>
       <c r="C251" s="6"/>
@@ -4110,7 +4114,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B252" s="14"/>
       <c r="C252" s="6"/>
@@ -4118,7 +4122,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B253" s="14"/>
       <c r="C253" s="6"/>
@@ -4126,7 +4130,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B254" s="14"/>
       <c r="C254" s="6"/>
@@ -4134,7 +4138,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B255" s="14"/>
       <c r="C255" s="6"/>
@@ -4142,7 +4146,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B256" s="14"/>
       <c r="C256" s="6"/>
@@ -4150,7 +4154,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B257" s="14"/>
       <c r="C257" s="6"/>
@@ -4158,7 +4162,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B258" s="14"/>
       <c r="C258" s="6"/>
@@ -4166,7 +4170,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B259" s="14"/>
       <c r="C259" s="6"/>
@@ -4174,7 +4178,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B260" s="14"/>
       <c r="C260" s="6"/>
@@ -4182,7 +4186,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B261" s="14"/>
       <c r="C261" s="6"/>
@@ -4190,7 +4194,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B262" s="14"/>
       <c r="C262" s="6"/>
@@ -4198,7 +4202,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B263" s="14"/>
       <c r="C263" s="6"/>
@@ -4206,7 +4210,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B264" s="14"/>
       <c r="C264" s="6"/>
@@ -4214,7 +4218,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B265" s="14"/>
       <c r="C265" s="6"/>
@@ -4222,7 +4226,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B266" s="14"/>
       <c r="C266" s="6"/>
@@ -4230,7 +4234,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B267" s="14"/>
       <c r="C267" s="6"/>
@@ -4238,7 +4242,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B268" s="14"/>
       <c r="C268" s="6"/>
@@ -4246,7 +4250,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B269" s="14"/>
       <c r="C269" s="6"/>
@@ -4254,7 +4258,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B270" s="14"/>
       <c r="C270" s="6"/>
@@ -4262,7 +4266,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B271" s="14"/>
       <c r="C271" s="6"/>
@@ -4270,7 +4274,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B272" s="14"/>
       <c r="C272" s="6"/>
@@ -4278,7 +4282,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B273" s="14"/>
       <c r="C273" s="6"/>
@@ -4286,7 +4290,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B274" s="14"/>
       <c r="C274" s="6"/>
@@ -4294,7 +4298,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B275" s="14"/>
       <c r="C275" s="6"/>
@@ -4302,7 +4306,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B276" s="14"/>
       <c r="C276" s="6"/>
@@ -4310,7 +4314,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B277" s="14"/>
       <c r="C277" s="6"/>
@@ -4318,7 +4322,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B278" s="14"/>
       <c r="C278" s="6"/>
@@ -4326,7 +4330,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B279" s="14"/>
       <c r="C279" s="6"/>
@@ -4334,7 +4338,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B280" s="14"/>
       <c r="C280" s="6"/>
@@ -4342,7 +4346,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B281" s="14"/>
       <c r="C281" s="6"/>
@@ -4350,7 +4354,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B282" s="14"/>
       <c r="C282" s="6"/>
@@ -4358,7 +4362,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B283" s="14"/>
       <c r="C283" s="6"/>
@@ -4366,7 +4370,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B284" s="14"/>
       <c r="C284" s="6"/>
@@ -4374,7 +4378,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B285" s="14"/>
       <c r="C285" s="6"/>
@@ -4382,7 +4386,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B286" s="14"/>
       <c r="C286" s="6"/>
@@ -4390,7 +4394,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B287" s="14"/>
       <c r="C287" s="6"/>
@@ -4398,7 +4402,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B288" s="14"/>
       <c r="C288" s="6"/>
@@ -4406,7 +4410,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B289" s="14"/>
       <c r="C289" s="6"/>
@@ -4414,7 +4418,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B290" s="14"/>
       <c r="C290" s="6"/>
@@ -4422,7 +4426,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B291" s="14"/>
       <c r="C291" s="6"/>
@@ -4430,7 +4434,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B292" s="14"/>
       <c r="C292" s="6"/>
@@ -4438,7 +4442,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B293" s="14"/>
       <c r="C293" s="6"/>
@@ -4446,7 +4450,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B294" s="14"/>
       <c r="C294" s="6"/>
@@ -4454,7 +4458,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B295" s="14"/>
       <c r="C295" s="6"/>
@@ -4462,7 +4466,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B296" s="14"/>
       <c r="C296" s="6"/>
@@ -4470,7 +4474,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B297" s="14"/>
       <c r="C297" s="6"/>
@@ -4478,7 +4482,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B298" s="14"/>
       <c r="C298" s="6"/>
@@ -4486,7 +4490,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B299" s="14"/>
       <c r="C299" s="6"/>
@@ -4494,7 +4498,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B300" s="14"/>
       <c r="C300" s="6"/>
@@ -4502,7 +4506,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B301" s="14"/>
       <c r="C301" s="6"/>
@@ -4510,7 +4514,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B302" s="14"/>
       <c r="C302" s="6"/>
@@ -4518,7 +4522,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B303" s="14"/>
       <c r="C303" s="6"/>
@@ -4526,7 +4530,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B304" s="14"/>
       <c r="C304" s="6"/>
@@ -4534,7 +4538,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B305" s="14"/>
       <c r="C305" s="6"/>
@@ -4542,7 +4546,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B306" s="14"/>
       <c r="C306" s="6"/>
@@ -4550,7 +4554,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B307" s="14"/>
       <c r="C307" s="6"/>
@@ -4558,7 +4562,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B308" s="14"/>
       <c r="C308" s="6"/>
@@ -4566,7 +4570,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B309" s="14"/>
       <c r="C309" s="6"/>
@@ -4574,7 +4578,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B310" s="14"/>
       <c r="C310" s="6"/>
@@ -4582,7 +4586,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B311" s="14"/>
       <c r="C311" s="6"/>
@@ -4590,7 +4594,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B312" s="14"/>
       <c r="C312" s="6"/>
@@ -4598,7 +4602,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B313" s="14"/>
       <c r="C313" s="6"/>
@@ -4606,7 +4610,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B314" s="14"/>
       <c r="C314" s="6"/>
@@ -4614,7 +4618,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B315" s="14"/>
       <c r="C315" s="6"/>
@@ -4622,7 +4626,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B316" s="14"/>
       <c r="C316" s="6"/>
@@ -4630,7 +4634,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B317" s="14"/>
       <c r="C317" s="6"/>
@@ -4638,7 +4642,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B318" s="14"/>
       <c r="C318" s="6"/>
@@ -4646,7 +4650,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B319" s="14"/>
       <c r="C319" s="6"/>
@@ -4654,7 +4658,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B320" s="14"/>
       <c r="C320" s="6"/>
@@ -4662,7 +4666,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B321" s="14"/>
       <c r="C321" s="6"/>
@@ -4670,7 +4674,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B322" s="14"/>
       <c r="C322" s="6"/>
@@ -4678,7 +4682,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B323" s="14"/>
       <c r="C323" s="6"/>
@@ -4686,7 +4690,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B324" s="14"/>
       <c r="C324" s="6"/>
@@ -4694,7 +4698,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B325" s="14"/>
       <c r="C325" s="6"/>
@@ -4702,7 +4706,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B326" s="14"/>
       <c r="C326" s="6"/>
@@ -4710,7 +4714,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B327" s="14"/>
       <c r="C327" s="6"/>
@@ -4718,7 +4722,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B328" s="14"/>
       <c r="C328" s="6"/>
@@ -4726,7 +4730,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B329" s="14"/>
       <c r="C329" s="6"/>
@@ -4734,7 +4738,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B330" s="14"/>
       <c r="C330" s="6"/>
@@ -4742,7 +4746,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B331" s="14"/>
       <c r="C331" s="6"/>
@@ -4750,7 +4754,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B332" s="14"/>
       <c r="C332" s="6"/>
@@ -4758,7 +4762,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B333" s="14"/>
       <c r="C333" s="6"/>
@@ -4766,7 +4770,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B334" s="14"/>
       <c r="C334" s="6"/>
@@ -4774,7 +4778,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B335" s="14"/>
       <c r="C335" s="6"/>
@@ -4782,7 +4786,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B336" s="14"/>
       <c r="C336" s="6"/>
@@ -4790,7 +4794,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B337" s="14"/>
       <c r="C337" s="6"/>
@@ -4798,7 +4802,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B338" s="14"/>
       <c r="C338" s="6"/>
@@ -4806,7 +4810,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B339" s="14"/>
       <c r="C339" s="6"/>
@@ -4814,7 +4818,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B340" s="14"/>
       <c r="C340" s="6"/>
@@ -4822,7 +4826,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B341" s="14"/>
       <c r="C341" s="6"/>
@@ -4830,7 +4834,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B342" s="14"/>
       <c r="C342" s="6"/>
@@ -4838,7 +4842,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B343" s="14"/>
       <c r="C343" s="6"/>
@@ -4846,7 +4850,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B344" s="14"/>
       <c r="C344" s="6"/>
@@ -4854,7 +4858,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B345" s="14"/>
       <c r="C345" s="6"/>
@@ -4862,7 +4866,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B346" s="14"/>
       <c r="C346" s="6"/>
@@ -4870,7 +4874,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B347" s="14"/>
       <c r="C347" s="6"/>
@@ -4878,7 +4882,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B348" s="14"/>
       <c r="C348" s="6"/>
@@ -4886,7 +4890,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B349" s="14"/>
       <c r="C349" s="6"/>
@@ -4894,7 +4898,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B350" s="14"/>
       <c r="C350" s="6"/>
@@ -4902,7 +4906,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B351" s="14"/>
       <c r="C351" s="6"/>
@@ -4910,7 +4914,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B352" s="14"/>
       <c r="C352" s="6"/>
@@ -4918,7 +4922,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B353" s="14"/>
       <c r="C353" s="6"/>
@@ -4926,7 +4930,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B354" s="14"/>
       <c r="C354" s="6"/>
@@ -4934,7 +4938,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B355" s="14"/>
       <c r="C355" s="6"/>
@@ -4942,7 +4946,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B356" s="14"/>
       <c r="C356" s="6"/>
@@ -4950,7 +4954,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B357" s="14"/>
       <c r="C357" s="6"/>
@@ -4958,7 +4962,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B358" s="14"/>
       <c r="C358" s="6"/>
@@ -4966,7 +4970,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B359" s="14"/>
       <c r="C359" s="6"/>
@@ -4974,7 +4978,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B360" s="14"/>
       <c r="C360" s="6"/>
@@ -4982,7 +4986,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B361" s="14"/>
       <c r="C361" s="6"/>
@@ -4990,7 +4994,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B362" s="14"/>
       <c r="C362" s="6"/>
@@ -4998,7 +5002,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B363" s="14"/>
       <c r="C363" s="6"/>
@@ -5006,7 +5010,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B364" s="14"/>
       <c r="C364" s="6"/>
@@ -5014,7 +5018,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B365" s="14"/>
       <c r="C365" s="6"/>
@@ -5022,7 +5026,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B366" s="14"/>
       <c r="C366" s="6"/>
@@ -5030,7 +5034,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B367" s="14"/>
       <c r="C367" s="6"/>
@@ -5038,7 +5042,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B368" s="14"/>
       <c r="C368" s="6"/>
@@ -5046,7 +5050,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B369" s="14"/>
       <c r="C369" s="6"/>
@@ -5054,7 +5058,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B370" s="14"/>
       <c r="C370" s="6"/>
@@ -5062,7 +5066,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B371" s="14"/>
       <c r="C371" s="6"/>
@@ -5070,7 +5074,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B372" s="14"/>
       <c r="C372" s="6"/>
@@ -5078,7 +5082,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B373" s="14"/>
       <c r="C373" s="6"/>
@@ -5086,7 +5090,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B374" s="14"/>
       <c r="C374" s="6"/>
@@ -5094,7 +5098,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B375" s="14"/>
       <c r="C375" s="6"/>
@@ -5102,7 +5106,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B376" s="14"/>
       <c r="C376" s="6"/>
@@ -5110,7 +5114,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B377" s="14"/>
       <c r="C377" s="6"/>
@@ -5118,7 +5122,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B378" s="14"/>
       <c r="C378" s="6"/>
@@ -5126,7 +5130,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B379" s="14"/>
       <c r="C379" s="6"/>
@@ -5134,7 +5138,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B380" s="14"/>
       <c r="C380" s="6"/>
@@ -5142,7 +5146,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B381" s="14"/>
       <c r="C381" s="6"/>
@@ -5150,7 +5154,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B382" s="14"/>
       <c r="C382" s="6"/>
@@ -5158,7 +5162,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B383" s="14"/>
       <c r="C383" s="6"/>
@@ -5166,7 +5170,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B384" s="14"/>
       <c r="C384" s="6"/>
@@ -5174,7 +5178,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B385" s="14"/>
       <c r="C385" s="6"/>
@@ -5182,7 +5186,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B386" s="14"/>
       <c r="C386" s="6"/>
@@ -5190,7 +5194,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B387" s="14"/>
       <c r="C387" s="6"/>
@@ -5198,7 +5202,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B388" s="14"/>
       <c r="C388" s="6"/>
@@ -5206,7 +5210,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B389" s="14"/>
       <c r="C389" s="6"/>
@@ -5214,7 +5218,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B390" s="14"/>
       <c r="C390" s="6"/>
@@ -5222,7 +5226,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B391" s="14"/>
       <c r="C391" s="6"/>
@@ -5230,7 +5234,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B392" s="14"/>
       <c r="C392" s="6"/>
@@ -5238,7 +5242,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B393" s="14"/>
       <c r="C393" s="6"/>
@@ -5246,7 +5250,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B394" s="14"/>
       <c r="C394" s="6"/>
@@ -5254,7 +5258,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B395" s="14"/>
       <c r="C395" s="6"/>
@@ -5262,7 +5266,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B396" s="14"/>
       <c r="C396" s="6"/>
@@ -5270,7 +5274,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B397" s="14"/>
       <c r="C397" s="6"/>
@@ -5278,7 +5282,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B398" s="14"/>
       <c r="C398" s="6"/>
@@ -5286,7 +5290,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B399" s="14"/>
       <c r="C399" s="6"/>
@@ -5294,7 +5298,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B400" s="14"/>
       <c r="C400" s="6"/>
@@ -5302,7 +5306,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B401" s="14"/>
       <c r="C401" s="6"/>
@@ -5310,7 +5314,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B402" s="14"/>
       <c r="C402" s="6"/>
@@ -5318,7 +5322,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B403" s="14"/>
       <c r="C403" s="6"/>
@@ -5326,7 +5330,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B404" s="14"/>
       <c r="C404" s="6"/>
@@ -5334,7 +5338,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B405" s="14"/>
       <c r="C405" s="6"/>
@@ -5342,7 +5346,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B406" s="14"/>
       <c r="C406" s="6"/>
@@ -5350,7 +5354,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B407" s="14"/>
       <c r="C407" s="6"/>
@@ -5358,7 +5362,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B408" s="14"/>
       <c r="C408" s="6"/>
@@ -5366,7 +5370,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B409" s="14"/>
       <c r="C409" s="6"/>
@@ -5374,7 +5378,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B410" s="14"/>
       <c r="C410" s="6"/>
@@ -5382,7 +5386,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B411" s="14"/>
       <c r="C411" s="6"/>
@@ -5390,7 +5394,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B412" s="14"/>
       <c r="C412" s="6"/>
@@ -5398,7 +5402,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B413" s="14"/>
       <c r="C413" s="6"/>
@@ -5406,7 +5410,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B414" s="14"/>
       <c r="C414" s="6"/>
@@ -5414,7 +5418,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B415" s="14"/>
       <c r="C415" s="6"/>
@@ -5422,7 +5426,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B416" s="14"/>
       <c r="C416" s="6"/>
@@ -5430,7 +5434,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B417" s="14"/>
       <c r="C417" s="6"/>
@@ -5438,7 +5442,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B418" s="14"/>
       <c r="C418" s="6"/>
@@ -5446,7 +5450,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B419" s="14"/>
       <c r="C419" s="6"/>
@@ -5454,7 +5458,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B420" s="14"/>
       <c r="C420" s="6"/>
@@ -5462,7 +5466,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B421" s="14"/>
       <c r="C421" s="6"/>
@@ -5470,7 +5474,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B422" s="14"/>
       <c r="C422" s="6"/>
@@ -5478,7 +5482,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B423" s="14"/>
       <c r="C423" s="6"/>
@@ -5486,7 +5490,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B424" s="14"/>
       <c r="C424" s="6"/>
@@ -5494,7 +5498,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B425" s="14"/>
       <c r="C425" s="6"/>
@@ -5502,7 +5506,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B426" s="14"/>
       <c r="C426" s="6"/>
@@ -5510,7 +5514,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B427" s="14"/>
       <c r="C427" s="6"/>
@@ -5518,7 +5522,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B428" s="14"/>
       <c r="C428" s="6"/>
@@ -5526,7 +5530,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B429" s="14"/>
       <c r="C429" s="6"/>
@@ -5534,7 +5538,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B430" s="14"/>
       <c r="C430" s="6"/>
@@ -5542,7 +5546,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B431" s="14"/>
       <c r="C431" s="6"/>
@@ -5550,7 +5554,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B432" s="14"/>
       <c r="C432" s="6"/>
@@ -5558,7 +5562,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B433" s="14"/>
       <c r="C433" s="6"/>
@@ -5566,7 +5570,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B434" s="14"/>
       <c r="C434" s="6"/>
@@ -5574,7 +5578,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B435" s="14"/>
       <c r="C435" s="6"/>
@@ -5582,7 +5586,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B436" s="14"/>
       <c r="C436" s="6"/>
@@ -5590,7 +5594,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B437" s="14"/>
       <c r="C437" s="6"/>
@@ -5598,7 +5602,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B438" s="14"/>
       <c r="C438" s="6"/>
@@ -5606,7 +5610,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B439" s="14"/>
       <c r="C439" s="6"/>
@@ -5614,7 +5618,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B440" s="14"/>
       <c r="C440" s="6"/>
@@ -5622,7 +5626,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B441" s="14"/>
       <c r="C441" s="6"/>
@@ -5630,7 +5634,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B442" s="14"/>
       <c r="C442" s="6"/>
@@ -5638,7 +5642,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B443" s="14"/>
       <c r="C443" s="6"/>
@@ -5646,7 +5650,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B444" s="14"/>
       <c r="C444" s="6"/>
@@ -5654,7 +5658,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B445" s="14"/>
       <c r="C445" s="6"/>
@@ -5662,7 +5666,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B446" s="14"/>
       <c r="C446" s="6"/>
@@ -5670,7 +5674,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B447" s="14"/>
       <c r="C447" s="6"/>
@@ -5678,7 +5682,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B448" s="14"/>
       <c r="C448" s="6"/>
@@ -5686,7 +5690,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B449" s="14"/>
       <c r="C449" s="6"/>
@@ -5694,7 +5698,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B450" s="14"/>
       <c r="C450" s="6"/>
@@ -5702,7 +5706,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B451" s="14"/>
       <c r="C451" s="6"/>
@@ -5710,7 +5714,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B452" s="14"/>
       <c r="C452" s="6"/>
@@ -5718,7 +5722,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B453" s="14"/>
       <c r="C453" s="6"/>
@@ -5726,7 +5730,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B454" s="14"/>
       <c r="C454" s="6"/>
@@ -5734,7 +5738,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B455" s="14"/>
       <c r="C455" s="6"/>
@@ -5742,7 +5746,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B456" s="14"/>
       <c r="C456" s="6"/>
@@ -5750,7 +5754,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B457" s="14"/>
       <c r="C457" s="6"/>
@@ -5758,7 +5762,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B458" s="14"/>
       <c r="C458" s="6"/>
@@ -5766,7 +5770,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B459" s="14"/>
       <c r="C459" s="6"/>
@@ -5774,7 +5778,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B460" s="14"/>
       <c r="C460" s="6"/>
@@ -5782,7 +5786,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B461" s="14"/>
       <c r="C461" s="6"/>
@@ -5790,7 +5794,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B462" s="14"/>
       <c r="C462" s="6"/>
@@ -5798,7 +5802,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B463" s="14"/>
       <c r="C463" s="6"/>
@@ -5806,7 +5810,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B464" s="14"/>
       <c r="C464" s="6"/>
@@ -5814,7 +5818,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B465" s="14"/>
       <c r="C465" s="6"/>
@@ -5822,7 +5826,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B466" s="14"/>
       <c r="C466" s="6"/>
@@ -5830,7 +5834,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B467" s="14"/>
       <c r="C467" s="6"/>
@@ -5838,7 +5842,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B468" s="14"/>
       <c r="C468" s="6"/>
@@ -5846,7 +5850,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B469" s="14"/>
       <c r="C469" s="6"/>
@@ -5854,7 +5858,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B470" s="14"/>
       <c r="C470" s="6"/>
@@ -5862,7 +5866,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B471" s="14"/>
       <c r="C471" s="6"/>
@@ -5870,7 +5874,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B472" s="14"/>
       <c r="C472" s="6"/>
@@ -5878,7 +5882,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B473" s="14"/>
       <c r="C473" s="6"/>
@@ -5886,7 +5890,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B474" s="14"/>
       <c r="C474" s="6"/>
@@ -5894,7 +5898,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B475" s="14"/>
       <c r="C475" s="6"/>
@@ -5902,7 +5906,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B476" s="14"/>
       <c r="C476" s="6"/>
@@ -5910,7 +5914,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B477" s="14"/>
       <c r="C477" s="6"/>
@@ -5918,7 +5922,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B478" s="14"/>
       <c r="C478" s="6"/>
@@ -5926,7 +5930,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B479" s="14"/>
       <c r="C479" s="6"/>
@@ -5934,7 +5938,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B480" s="14"/>
       <c r="C480" s="6"/>
@@ -5942,7 +5946,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B481" s="14"/>
       <c r="C481" s="6"/>
@@ -5950,7 +5954,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B482" s="14"/>
       <c r="C482" s="6"/>
@@ -5958,7 +5962,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B483" s="14"/>
       <c r="C483" s="6"/>
@@ -5966,7 +5970,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B484" s="14"/>
       <c r="C484" s="6"/>
@@ -5974,7 +5978,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B485" s="14"/>
       <c r="C485" s="6"/>
@@ -5982,7 +5986,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B486" s="14"/>
       <c r="C486" s="6"/>
@@ -5990,7 +5994,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B487" s="14"/>
       <c r="C487" s="6"/>
@@ -5998,7 +6002,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B488" s="14"/>
       <c r="C488" s="6"/>
@@ -6006,7 +6010,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B489" s="14"/>
       <c r="C489" s="6"/>
@@ -6014,7 +6018,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B490" s="14"/>
       <c r="C490" s="6"/>
@@ -6022,7 +6026,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B491" s="14"/>
       <c r="C491" s="6"/>
@@ -6030,7 +6034,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B492" s="14"/>
       <c r="C492" s="6"/>
@@ -6038,7 +6042,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B493" s="14"/>
       <c r="C493" s="6"/>
@@ -6046,7 +6050,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B494" s="14"/>
       <c r="C494" s="6"/>
@@ -6054,7 +6058,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B495" s="14"/>
       <c r="C495" s="6"/>
@@ -6062,7 +6066,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B496" s="14"/>
       <c r="C496" s="6"/>
@@ -6070,7 +6074,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B497" s="14"/>
       <c r="C497" s="6"/>
@@ -6078,24 +6082,16 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B498" s="14"/>
       <c r="C498" s="6"/>
       <c r="D498" s="12"/>
     </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B499" s="14"/>
-      <c r="C499" s="6"/>
-      <c r="D499" s="12"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:C499">
+  <conditionalFormatting sqref="A2:C498">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A2="☑"</formula>
     </cfRule>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -24,21 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="228">
-  <si>
-    <t>Eiti Shikkusu</t>
-  </si>
-  <si>
-    <t>Shimotsuki wa Mob ga Suki</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="226">
   <si>
     <t>Netoge no Yome ga Ninki Idol datta</t>
-  </si>
-  <si>
-    <t>Saijo No Osewa</t>
-  </si>
-  <si>
-    <t>Byōsoku Go Senchimētoru</t>
   </si>
   <si>
     <t xml:space="preserve">Clannad </t>
@@ -703,10 +691,6 @@
     <t>Xoay quanh cuộc sống đại học của Tada Banri, một chàng trai trẻ bị mất trí nhớ sau tai nạn thời trung học. Khi bắt đầu cuộc sống mới tại Tokyo, Banri kết bạn với Mitsuo và gặp Kaga Koko – một cô gái xinh đẹp nhưng có tính cách kỳ lạ, từng theo đuổi Mitsuo một cách cực đoan. Sau khi bị từ chối, Koko chuyển hướng tình cảm sang Banri, và hai người bắt đầu một mối quan hệ đầy cảm xúc. Tuy nhiên, ký ức quá khứ của Banri dần quay trở lại, đặc biệt là về người bạn cũ Linda, khiến anh rơi vào mâu thuẫn giữa tình yêu hiện tại và quá khứ đã lãng quên. Tác phẩm khai thác sâu sắc những vấn đề về bản ngã, ký ức và tình yêu trưởng thành, mang đến một câu chuyện cảm động về hành trình tìm lại chính mình và vượt qua những tổn thương để yêu thương trọn vẹn.</t>
   </si>
   <si>
-    <t>Darwin’s Game
-ダーウィンズゲーム</t>
-  </si>
-  <si>
     <t>Renai Boukun
 恋愛暴君</t>
   </si>
@@ -909,6 +893,19 @@
   <si>
     <t>Oshi no Ko
 推しの子</t>
+  </si>
+  <si>
+    <t>Darwin’s Game
+ダーウィンズゲーム
+Trò chơi Darwin</t>
+  </si>
+  <si>
+    <t>Byōsoku Go Senchimētoru
+秒速5センチメートル</t>
+  </si>
+  <si>
+    <t>Eiti Shikkusu
+86-エイティシックス</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1122,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1505,987 +1502,987 @@
     <row r="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6">
         <v>2016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="117.75" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="6">
         <v>2015</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6">
         <v>2018</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6">
         <v>2017</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6">
         <v>2017</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6">
         <v>2002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>2013</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="146.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6">
         <v>2011</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="162" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6">
         <v>2011</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="147.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
         <v>2020</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="114.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>2018</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="146.25" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
         <v>2021</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="163.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6">
         <v>2018</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="101.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6">
         <v>2013</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6">
         <v>2013</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="116.25" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6">
         <v>2016</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="143.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19" s="6">
         <v>1999</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="111" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>1984</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="131.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6">
         <v>1994</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="103.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C22" s="6">
         <v>1990</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="83.25" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" s="6">
         <v>1969</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" s="6">
         <v>2019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="98.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6">
         <v>2005</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="98.25" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6">
         <v>2018</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="83.25" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" s="6">
         <v>2015</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C28" s="6">
         <v>2003</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="114.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" s="6">
         <v>2008</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="97.5" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6">
         <v>2019</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="68.25" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6">
         <v>2018</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="98.25" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" s="6">
         <v>2013</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="66.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6">
         <v>2018</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="67.5" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6">
         <v>2011</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="68.25" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6">
         <v>2017</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="80.25" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36" s="6">
         <v>2001</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="84" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="6">
         <v>2007</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="81.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="6">
         <v>1998</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="83.25" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" s="6">
         <v>2012</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="66" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C40" s="6">
         <v>2014</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="63">
       <c r="A41" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C41" s="6">
         <v>1987</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C42" s="6">
         <v>1981</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="68.25" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C43" s="6">
         <v>2013</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="69.75" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6">
         <v>2011</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="81.75" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C45" s="6">
         <v>2004</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="68.25" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C46" s="6">
         <v>1989</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="67.5" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C47" s="6">
         <v>1982</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="83.25" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C48" s="6">
         <v>2016</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C49" s="6">
         <v>2013</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="83.25" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" s="6">
         <v>1984</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="66" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" s="6">
         <v>2002</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="68.25" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="6">
         <v>1988</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="69.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C53" s="6">
         <v>1996</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="65.25" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C54" s="6">
         <v>1975</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="88.5" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C55" s="6">
         <v>1980</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="83.25" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56" s="6">
         <v>2004</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="65.25" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C57" s="6">
         <v>2020</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="68.25" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C58" s="6">
         <v>2009</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.5" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C59" s="6">
         <v>2013</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C60" s="6">
         <v>2016</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C61" s="6">
         <v>2015</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="71.25" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C62" s="6">
         <v>2018</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="81" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C63" s="6">
         <v>2015</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="72.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C64" s="6">
         <v>2019</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="68.25" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C65" s="6">
         <v>2011</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="65.25" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C66" s="6">
         <v>2012</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="81.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C67" s="6">
         <v>2005</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="67.5" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C68" s="6">
         <v>2006</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="82.5" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C69" s="6">
         <v>2014</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="65.25" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C70" s="6">
         <v>2021</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C71" s="6">
         <v>2022</v>
@@ -2494,811 +2491,937 @@
     </row>
     <row r="72" spans="1:4" ht="70.5" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C72" s="6">
         <v>2019</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="80.25" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C73" s="6">
         <v>2002</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="67.5" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C74" s="6">
         <v>2015</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="64.5" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C75" s="6">
         <v>2010</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="12"/>
     </row>
-    <row r="77" spans="1:4" ht="31.5">
+    <row r="77" spans="1:4" ht="47.25">
       <c r="A77" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C77" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="C77" s="6">
+        <v>2012</v>
+      </c>
       <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" ht="63">
       <c r="A78" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C78" s="6">
         <v>2011</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="31.5">
       <c r="A79" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="C79" s="6">
+        <v>2012</v>
+      </c>
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" ht="31.5">
       <c r="A80" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="C80" s="6">
+        <v>2006</v>
+      </c>
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" ht="31.5">
       <c r="A81" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="C81" s="6">
+        <v>2008</v>
+      </c>
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C82" s="6">
+        <v>2006</v>
+      </c>
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" ht="31.5">
       <c r="A83" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C83" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="C83" s="6">
+        <v>2016</v>
+      </c>
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" ht="31.5">
       <c r="A84" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2007</v>
+      </c>
       <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4" ht="31.5">
       <c r="A85" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C85" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="C85" s="6">
+        <v>2012</v>
+      </c>
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" ht="31.5">
       <c r="A86" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="C86" s="6">
+        <v>2009</v>
+      </c>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" ht="31.5">
       <c r="A87" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2013</v>
+      </c>
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" ht="31.5">
       <c r="A88" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="C88" s="6">
+        <v>2017</v>
+      </c>
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" ht="31.5">
       <c r="A89" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="C89" s="6">
+        <v>2019</v>
+      </c>
       <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" ht="31.5">
       <c r="A90" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="C90" s="6">
+        <v>1979</v>
+      </c>
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C91" s="6">
+        <v>2017</v>
+      </c>
       <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" ht="31.5">
       <c r="A92" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="C92" s="6">
+        <v>2020</v>
+      </c>
       <c r="D92" s="12"/>
     </row>
     <row r="93" spans="1:4" ht="31.5">
       <c r="A93" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="C93" s="6">
+        <v>2015</v>
+      </c>
       <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4" ht="31.5">
       <c r="A94" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="C94" s="6">
+        <v>2007</v>
+      </c>
       <c r="D94" s="12"/>
     </row>
     <row r="95" spans="1:4" ht="31.5">
       <c r="A95" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="C95" s="6">
+        <v>2012</v>
+      </c>
       <c r="D95" s="12"/>
     </row>
     <row r="96" spans="1:4" ht="31.5">
       <c r="A96" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="C96" s="6">
+        <v>2015</v>
+      </c>
       <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4" ht="31.5">
       <c r="A97" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1986</v>
+      </c>
       <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:4" ht="31.5">
       <c r="A98" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C98" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2016</v>
+      </c>
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" ht="31.5">
       <c r="A99" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="C99" s="6">
+        <v>2019</v>
+      </c>
       <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" ht="31.5">
       <c r="A100" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="C100" s="6">
+        <v>2017</v>
+      </c>
       <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="31.5">
       <c r="A101" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="C101" s="6">
+        <v>2016</v>
+      </c>
       <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="C102" s="6">
+        <v>2022</v>
+      </c>
       <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4" ht="31.5">
       <c r="A103" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C103" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="C103" s="6">
+        <v>2017</v>
+      </c>
       <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:4" ht="31.5">
       <c r="A104" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="C104" s="6">
+        <v>2019</v>
+      </c>
       <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:4" ht="31.5">
       <c r="A105" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C105" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="C105" s="6">
+        <v>2019</v>
+      </c>
       <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" ht="31.5">
       <c r="A106" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="C106" s="6">
+        <v>2020</v>
+      </c>
       <c r="D106" s="12"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" ht="31.5">
       <c r="A107" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="6">
+        <v>2013</v>
+      </c>
       <c r="D107" s="12"/>
     </row>
     <row r="108" spans="1:4" ht="31.5">
       <c r="A108" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="6">
+        <v>2007</v>
+      </c>
+      <c r="D108" s="12"/>
+    </row>
+    <row r="109" spans="1:4" ht="31.5">
+      <c r="A109" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D109" s="12"/>
+    </row>
+    <row r="110" spans="1:4" ht="31.5">
+      <c r="A110" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="12"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="12"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="6"/>
+      <c r="C110" s="6">
+        <v>2022</v>
+      </c>
       <c r="D110" s="12"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" ht="31.5">
       <c r="A111" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="6">
+        <v>1998</v>
+      </c>
       <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" ht="31.5">
       <c r="A112" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C112" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="C112" s="6">
+        <v>2010</v>
+      </c>
       <c r="D112" s="12"/>
     </row>
-    <row r="113" spans="1:4" ht="31.5">
+    <row r="113" spans="1:4">
       <c r="A113" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C113" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="6">
+        <v>2013</v>
+      </c>
       <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4" ht="31.5">
       <c r="A114" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C114" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="C114" s="6">
+        <v>2015</v>
+      </c>
       <c r="D114" s="12"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" ht="31.5">
       <c r="A115" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="6">
+        <v>2016</v>
+      </c>
       <c r="D115" s="12"/>
     </row>
     <row r="116" spans="1:4" ht="31.5">
       <c r="A116" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C116" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="C116" s="6">
+        <v>2010</v>
+      </c>
       <c r="D116" s="12"/>
     </row>
-    <row r="117" spans="1:4" ht="31.5">
+    <row r="117" spans="1:4">
       <c r="A117" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>211</v>
+        <v>83</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="12"/>
     </row>
-    <row r="118" spans="1:4" ht="31.5">
+    <row r="118" spans="1:4">
       <c r="A118" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>207</v>
+        <v>83</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="12"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" ht="31.5">
       <c r="A120" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="6">
+        <v>2023</v>
+      </c>
       <c r="D120" s="12"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" ht="31.5">
       <c r="A121" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="6">
+        <v>2008</v>
+      </c>
       <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" ht="31.5">
       <c r="A122" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C122" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="C122" s="6">
+        <v>2005</v>
+      </c>
       <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4" ht="31.5">
       <c r="A123" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C123" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="C123" s="6">
+        <v>2019</v>
+      </c>
       <c r="D123" s="12"/>
     </row>
     <row r="124" spans="1:4" ht="31.5">
       <c r="A124" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C124" s="6"/>
+        <v>189</v>
+      </c>
+      <c r="C124" s="6">
+        <v>2014</v>
+      </c>
       <c r="D124" s="12"/>
     </row>
     <row r="125" spans="1:4" ht="31.5">
       <c r="A125" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C125" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="C125" s="6">
+        <v>2017</v>
+      </c>
       <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4" ht="31.5">
       <c r="A126" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C126" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="C126" s="6">
+        <v>2016</v>
+      </c>
       <c r="D126" s="12"/>
     </row>
-    <row r="127" spans="1:4" ht="31.5">
+    <row r="127" spans="1:4" ht="94.5">
       <c r="A127" s="6" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="12"/>
-    </row>
-    <row r="128" spans="1:4" ht="31.5">
+        <v>79</v>
+      </c>
+      <c r="C127" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C128" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C128" s="6">
+        <v>2008</v>
+      </c>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:4" ht="94.5">
+    <row r="129" spans="1:4">
       <c r="A129" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D129" s="12"/>
+    </row>
+    <row r="130" spans="1:4" ht="110.25">
       <c r="A130" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B130" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="12"/>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="C130" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="31.5">
       <c r="A131" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B131" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" s="6">
+        <v>2005</v>
+      </c>
+      <c r="D131" s="12"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" s="6">
+        <v>2004</v>
+      </c>
+      <c r="D132" s="12"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="12"/>
-    </row>
-    <row r="132" spans="1:4" ht="110.25">
-      <c r="A132" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="31.5">
-      <c r="A133" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C133" s="6"/>
+      <c r="C133" s="6">
+        <v>2013</v>
+      </c>
       <c r="D133" s="12"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" ht="31.5">
       <c r="A134" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C134" s="6">
+        <v>2020</v>
+      </c>
       <c r="D134" s="12"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" ht="31.5">
       <c r="A135" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C135" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" s="6">
+        <v>2012</v>
+      </c>
       <c r="D135" s="12"/>
     </row>
     <row r="136" spans="1:4" ht="31.5">
       <c r="A136" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C136" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="C136" s="6">
+        <v>2009</v>
+      </c>
       <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:4" ht="31.5">
       <c r="A137" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C137" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="C137" s="6">
+        <v>2015</v>
+      </c>
       <c r="D137" s="12"/>
     </row>
     <row r="138" spans="1:4" ht="31.5">
       <c r="A138" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C138" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="C138" s="6">
+        <v>2009</v>
+      </c>
       <c r="D138" s="12"/>
     </row>
     <row r="139" spans="1:4" ht="31.5">
       <c r="A139" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C139" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="C139" s="6">
+        <v>2004</v>
+      </c>
       <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" ht="31.5">
       <c r="A140" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C140" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="C140" s="6">
+        <v>2001</v>
+      </c>
       <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" ht="31.5">
       <c r="A141" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C141" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="C141" s="6">
+        <v>1999</v>
+      </c>
       <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" ht="31.5">
       <c r="A142" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C142" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="C142" s="6">
+        <v>1998</v>
+      </c>
       <c r="D142" s="12"/>
     </row>
     <row r="143" spans="1:4" ht="31.5">
       <c r="A143" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C143" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="C143" s="6">
+        <v>1998</v>
+      </c>
       <c r="D143" s="12"/>
     </row>
     <row r="144" spans="1:4" ht="31.5">
       <c r="A144" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C144" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="C144" s="6">
+        <v>2001</v>
+      </c>
       <c r="D144" s="12"/>
     </row>
     <row r="145" spans="1:4" ht="31.5">
       <c r="A145" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C145" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="C145" s="6">
+        <v>2006</v>
+      </c>
       <c r="D145" s="12"/>
     </row>
-    <row r="146" spans="1:4" ht="31.5">
+    <row r="146" spans="1:4">
       <c r="A146" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C146" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146" s="6">
+        <v>2003</v>
+      </c>
       <c r="D146" s="12"/>
     </row>
-    <row r="147" spans="1:4" ht="31.5">
+    <row r="147" spans="1:4">
       <c r="A147" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>217</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B147" s="14"/>
       <c r="C147" s="6"/>
       <c r="D147" s="12"/>
     </row>
-    <row r="148" spans="1:4" ht="31.5">
+    <row r="148" spans="1:4">
       <c r="A148" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>216</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B148" s="14"/>
       <c r="C148" s="6"/>
       <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B149" s="14"/>
       <c r="C149" s="6"/>
       <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B150" s="14"/>
       <c r="C150" s="6"/>
@@ -3306,7 +3429,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B151" s="14"/>
       <c r="C151" s="6"/>
@@ -3314,7 +3437,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="6"/>
@@ -3322,7 +3445,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B153" s="14"/>
       <c r="C153" s="6"/>
@@ -3330,7 +3453,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B154" s="14"/>
       <c r="C154" s="6"/>
@@ -3338,7 +3461,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B155" s="14"/>
       <c r="C155" s="6"/>
@@ -3346,7 +3469,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="6"/>
@@ -3354,7 +3477,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B157" s="14"/>
       <c r="C157" s="6"/>
@@ -3362,7 +3485,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B158" s="14"/>
       <c r="C158" s="6"/>
@@ -3370,7 +3493,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B159" s="14"/>
       <c r="C159" s="6"/>
@@ -3378,7 +3501,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B160" s="14"/>
       <c r="C160" s="6"/>
@@ -3386,7 +3509,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B161" s="14"/>
       <c r="C161" s="6"/>
@@ -3394,7 +3517,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B162" s="14"/>
       <c r="C162" s="6"/>
@@ -3402,7 +3525,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B163" s="14"/>
       <c r="C163" s="6"/>
@@ -3410,7 +3533,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B164" s="14"/>
       <c r="C164" s="6"/>
@@ -3418,7 +3541,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B165" s="14"/>
       <c r="C165" s="6"/>
@@ -3426,7 +3549,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B166" s="14"/>
       <c r="C166" s="6"/>
@@ -3434,7 +3557,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B167" s="14"/>
       <c r="C167" s="6"/>
@@ -3442,7 +3565,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B168" s="14"/>
       <c r="C168" s="6"/>
@@ -3450,7 +3573,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="6"/>
@@ -3458,7 +3581,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B170" s="14"/>
       <c r="C170" s="6"/>
@@ -3466,7 +3589,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B171" s="14"/>
       <c r="C171" s="6"/>
@@ -3474,7 +3597,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B172" s="14"/>
       <c r="C172" s="6"/>
@@ -3482,7 +3605,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B173" s="14"/>
       <c r="C173" s="6"/>
@@ -3490,7 +3613,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B174" s="14"/>
       <c r="C174" s="6"/>
@@ -3498,7 +3621,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B175" s="14"/>
       <c r="C175" s="6"/>
@@ -3506,7 +3629,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B176" s="14"/>
       <c r="C176" s="6"/>
@@ -3514,7 +3637,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B177" s="14"/>
       <c r="C177" s="6"/>
@@ -3522,7 +3645,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B178" s="14"/>
       <c r="C178" s="6"/>
@@ -3530,7 +3653,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B179" s="14"/>
       <c r="C179" s="6"/>
@@ -3538,7 +3661,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B180" s="14"/>
       <c r="C180" s="6"/>
@@ -3546,7 +3669,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B181" s="14"/>
       <c r="C181" s="6"/>
@@ -3554,7 +3677,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B182" s="14"/>
       <c r="C182" s="6"/>
@@ -3562,7 +3685,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B183" s="14"/>
       <c r="C183" s="6"/>
@@ -3570,7 +3693,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B184" s="14"/>
       <c r="C184" s="6"/>
@@ -3578,7 +3701,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B185" s="14"/>
       <c r="C185" s="6"/>
@@ -3586,7 +3709,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B186" s="14"/>
       <c r="C186" s="6"/>
@@ -3594,7 +3717,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B187" s="14"/>
       <c r="C187" s="6"/>
@@ -3602,7 +3725,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B188" s="14"/>
       <c r="C188" s="6"/>
@@ -3610,7 +3733,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B189" s="14"/>
       <c r="C189" s="6"/>
@@ -3618,7 +3741,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B190" s="14"/>
       <c r="C190" s="6"/>
@@ -3626,7 +3749,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B191" s="14"/>
       <c r="C191" s="6"/>
@@ -3634,7 +3757,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B192" s="14"/>
       <c r="C192" s="6"/>
@@ -3642,7 +3765,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B193" s="14"/>
       <c r="C193" s="6"/>
@@ -3650,7 +3773,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B194" s="14"/>
       <c r="C194" s="6"/>
@@ -3658,7 +3781,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B195" s="14"/>
       <c r="C195" s="6"/>
@@ -3666,7 +3789,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B196" s="14"/>
       <c r="C196" s="6"/>
@@ -3674,7 +3797,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B197" s="14"/>
       <c r="C197" s="6"/>
@@ -3682,7 +3805,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B198" s="14"/>
       <c r="C198" s="6"/>
@@ -3690,7 +3813,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B199" s="14"/>
       <c r="C199" s="6"/>
@@ -3698,7 +3821,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B200" s="14"/>
       <c r="C200" s="6"/>
@@ -3706,7 +3829,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B201" s="14"/>
       <c r="C201" s="6"/>
@@ -3714,7 +3837,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B202" s="14"/>
       <c r="C202" s="6"/>
@@ -3722,7 +3845,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B203" s="14"/>
       <c r="C203" s="6"/>
@@ -3730,7 +3853,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B204" s="14"/>
       <c r="C204" s="6"/>
@@ -3738,7 +3861,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B205" s="14"/>
       <c r="C205" s="6"/>
@@ -3746,7 +3869,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B206" s="14"/>
       <c r="C206" s="6"/>
@@ -3754,7 +3877,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B207" s="14"/>
       <c r="C207" s="6"/>
@@ -3762,7 +3885,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B208" s="14"/>
       <c r="C208" s="6"/>
@@ -3770,7 +3893,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B209" s="14"/>
       <c r="C209" s="6"/>
@@ -3778,7 +3901,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B210" s="14"/>
       <c r="C210" s="6"/>
@@ -3786,7 +3909,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B211" s="14"/>
       <c r="C211" s="6"/>
@@ -3794,7 +3917,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B212" s="14"/>
       <c r="C212" s="6"/>
@@ -3802,7 +3925,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B213" s="14"/>
       <c r="C213" s="6"/>
@@ -3810,7 +3933,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B214" s="14"/>
       <c r="C214" s="6"/>
@@ -3818,7 +3941,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B215" s="14"/>
       <c r="C215" s="6"/>
@@ -3826,7 +3949,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B216" s="14"/>
       <c r="C216" s="6"/>
@@ -3834,7 +3957,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B217" s="14"/>
       <c r="C217" s="6"/>
@@ -3842,7 +3965,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B218" s="14"/>
       <c r="C218" s="6"/>
@@ -3850,7 +3973,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B219" s="14"/>
       <c r="C219" s="6"/>
@@ -3858,7 +3981,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B220" s="14"/>
       <c r="C220" s="6"/>
@@ -3866,7 +3989,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B221" s="14"/>
       <c r="C221" s="6"/>
@@ -3874,7 +3997,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B222" s="14"/>
       <c r="C222" s="6"/>
@@ -3882,7 +4005,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B223" s="14"/>
       <c r="C223" s="6"/>
@@ -3890,7 +4013,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B224" s="14"/>
       <c r="C224" s="6"/>
@@ -3898,7 +4021,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B225" s="14"/>
       <c r="C225" s="6"/>
@@ -3906,7 +4029,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B226" s="14"/>
       <c r="C226" s="6"/>
@@ -3914,7 +4037,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B227" s="14"/>
       <c r="C227" s="6"/>
@@ -3922,7 +4045,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B228" s="14"/>
       <c r="C228" s="6"/>
@@ -3930,7 +4053,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B229" s="14"/>
       <c r="C229" s="6"/>
@@ -3938,7 +4061,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B230" s="14"/>
       <c r="C230" s="6"/>
@@ -3946,7 +4069,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B231" s="14"/>
       <c r="C231" s="6"/>
@@ -3954,7 +4077,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B232" s="14"/>
       <c r="C232" s="6"/>
@@ -3962,7 +4085,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B233" s="14"/>
       <c r="C233" s="6"/>
@@ -3970,7 +4093,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B234" s="14"/>
       <c r="C234" s="6"/>
@@ -3978,7 +4101,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B235" s="14"/>
       <c r="C235" s="6"/>
@@ -3986,7 +4109,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B236" s="14"/>
       <c r="C236" s="6"/>
@@ -3994,7 +4117,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B237" s="14"/>
       <c r="C237" s="6"/>
@@ -4002,7 +4125,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B238" s="14"/>
       <c r="C238" s="6"/>
@@ -4010,7 +4133,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B239" s="14"/>
       <c r="C239" s="6"/>
@@ -4018,7 +4141,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B240" s="14"/>
       <c r="C240" s="6"/>
@@ -4026,7 +4149,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B241" s="14"/>
       <c r="C241" s="6"/>
@@ -4034,7 +4157,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B242" s="14"/>
       <c r="C242" s="6"/>
@@ -4042,7 +4165,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B243" s="14"/>
       <c r="C243" s="6"/>
@@ -4050,7 +4173,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B244" s="14"/>
       <c r="C244" s="6"/>
@@ -4058,7 +4181,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B245" s="14"/>
       <c r="C245" s="6"/>
@@ -4066,7 +4189,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B246" s="14"/>
       <c r="C246" s="6"/>
@@ -4074,7 +4197,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B247" s="14"/>
       <c r="C247" s="6"/>
@@ -4082,7 +4205,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B248" s="14"/>
       <c r="C248" s="6"/>
@@ -4090,7 +4213,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B249" s="14"/>
       <c r="C249" s="6"/>
@@ -4098,7 +4221,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B250" s="14"/>
       <c r="C250" s="6"/>
@@ -4106,7 +4229,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B251" s="14"/>
       <c r="C251" s="6"/>
@@ -4114,7 +4237,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B252" s="14"/>
       <c r="C252" s="6"/>
@@ -4122,7 +4245,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B253" s="14"/>
       <c r="C253" s="6"/>
@@ -4130,7 +4253,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B254" s="14"/>
       <c r="C254" s="6"/>
@@ -4138,7 +4261,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B255" s="14"/>
       <c r="C255" s="6"/>
@@ -4146,7 +4269,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B256" s="14"/>
       <c r="C256" s="6"/>
@@ -4154,7 +4277,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B257" s="14"/>
       <c r="C257" s="6"/>
@@ -4162,7 +4285,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B258" s="14"/>
       <c r="C258" s="6"/>
@@ -4170,7 +4293,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B259" s="14"/>
       <c r="C259" s="6"/>
@@ -4178,7 +4301,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B260" s="14"/>
       <c r="C260" s="6"/>
@@ -4186,7 +4309,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B261" s="14"/>
       <c r="C261" s="6"/>
@@ -4194,7 +4317,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B262" s="14"/>
       <c r="C262" s="6"/>
@@ -4202,7 +4325,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B263" s="14"/>
       <c r="C263" s="6"/>
@@ -4210,7 +4333,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B264" s="14"/>
       <c r="C264" s="6"/>
@@ -4218,7 +4341,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B265" s="14"/>
       <c r="C265" s="6"/>
@@ -4226,7 +4349,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B266" s="14"/>
       <c r="C266" s="6"/>
@@ -4234,7 +4357,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B267" s="14"/>
       <c r="C267" s="6"/>
@@ -4242,7 +4365,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B268" s="14"/>
       <c r="C268" s="6"/>
@@ -4250,7 +4373,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B269" s="14"/>
       <c r="C269" s="6"/>
@@ -4258,7 +4381,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B270" s="14"/>
       <c r="C270" s="6"/>
@@ -4266,7 +4389,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B271" s="14"/>
       <c r="C271" s="6"/>
@@ -4274,7 +4397,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B272" s="14"/>
       <c r="C272" s="6"/>
@@ -4282,7 +4405,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B273" s="14"/>
       <c r="C273" s="6"/>
@@ -4290,7 +4413,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B274" s="14"/>
       <c r="C274" s="6"/>
@@ -4298,7 +4421,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B275" s="14"/>
       <c r="C275" s="6"/>
@@ -4306,7 +4429,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B276" s="14"/>
       <c r="C276" s="6"/>
@@ -4314,7 +4437,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B277" s="14"/>
       <c r="C277" s="6"/>
@@ -4322,7 +4445,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B278" s="14"/>
       <c r="C278" s="6"/>
@@ -4330,7 +4453,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B279" s="14"/>
       <c r="C279" s="6"/>
@@ -4338,7 +4461,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B280" s="14"/>
       <c r="C280" s="6"/>
@@ -4346,7 +4469,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B281" s="14"/>
       <c r="C281" s="6"/>
@@ -4354,7 +4477,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B282" s="14"/>
       <c r="C282" s="6"/>
@@ -4362,7 +4485,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B283" s="14"/>
       <c r="C283" s="6"/>
@@ -4370,7 +4493,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B284" s="14"/>
       <c r="C284" s="6"/>
@@ -4378,7 +4501,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B285" s="14"/>
       <c r="C285" s="6"/>
@@ -4386,7 +4509,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B286" s="14"/>
       <c r="C286" s="6"/>
@@ -4394,7 +4517,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B287" s="14"/>
       <c r="C287" s="6"/>
@@ -4402,7 +4525,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B288" s="14"/>
       <c r="C288" s="6"/>
@@ -4410,7 +4533,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B289" s="14"/>
       <c r="C289" s="6"/>
@@ -4418,7 +4541,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B290" s="14"/>
       <c r="C290" s="6"/>
@@ -4426,7 +4549,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B291" s="14"/>
       <c r="C291" s="6"/>
@@ -4434,7 +4557,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B292" s="14"/>
       <c r="C292" s="6"/>
@@ -4442,7 +4565,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B293" s="14"/>
       <c r="C293" s="6"/>
@@ -4450,7 +4573,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B294" s="14"/>
       <c r="C294" s="6"/>
@@ -4458,7 +4581,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B295" s="14"/>
       <c r="C295" s="6"/>
@@ -4466,7 +4589,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B296" s="14"/>
       <c r="C296" s="6"/>
@@ -4474,7 +4597,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B297" s="14"/>
       <c r="C297" s="6"/>
@@ -4482,7 +4605,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B298" s="14"/>
       <c r="C298" s="6"/>
@@ -4490,7 +4613,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B299" s="14"/>
       <c r="C299" s="6"/>
@@ -4498,7 +4621,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B300" s="14"/>
       <c r="C300" s="6"/>
@@ -4506,7 +4629,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B301" s="14"/>
       <c r="C301" s="6"/>
@@ -4514,7 +4637,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B302" s="14"/>
       <c r="C302" s="6"/>
@@ -4522,7 +4645,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B303" s="14"/>
       <c r="C303" s="6"/>
@@ -4530,7 +4653,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B304" s="14"/>
       <c r="C304" s="6"/>
@@ -4538,7 +4661,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B305" s="14"/>
       <c r="C305" s="6"/>
@@ -4546,7 +4669,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B306" s="14"/>
       <c r="C306" s="6"/>
@@ -4554,7 +4677,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B307" s="14"/>
       <c r="C307" s="6"/>
@@ -4562,7 +4685,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B308" s="14"/>
       <c r="C308" s="6"/>
@@ -4570,7 +4693,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B309" s="14"/>
       <c r="C309" s="6"/>
@@ -4578,7 +4701,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B310" s="14"/>
       <c r="C310" s="6"/>
@@ -4586,7 +4709,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B311" s="14"/>
       <c r="C311" s="6"/>
@@ -4594,7 +4717,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B312" s="14"/>
       <c r="C312" s="6"/>
@@ -4602,7 +4725,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B313" s="14"/>
       <c r="C313" s="6"/>
@@ -4610,7 +4733,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B314" s="14"/>
       <c r="C314" s="6"/>
@@ -4618,7 +4741,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B315" s="14"/>
       <c r="C315" s="6"/>
@@ -4626,7 +4749,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B316" s="14"/>
       <c r="C316" s="6"/>
@@ -4634,7 +4757,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B317" s="14"/>
       <c r="C317" s="6"/>
@@ -4642,7 +4765,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B318" s="14"/>
       <c r="C318" s="6"/>
@@ -4650,7 +4773,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B319" s="14"/>
       <c r="C319" s="6"/>
@@ -4658,7 +4781,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B320" s="14"/>
       <c r="C320" s="6"/>
@@ -4666,7 +4789,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B321" s="14"/>
       <c r="C321" s="6"/>
@@ -4674,7 +4797,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B322" s="14"/>
       <c r="C322" s="6"/>
@@ -4682,7 +4805,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B323" s="14"/>
       <c r="C323" s="6"/>
@@ -4690,7 +4813,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B324" s="14"/>
       <c r="C324" s="6"/>
@@ -4698,7 +4821,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B325" s="14"/>
       <c r="C325" s="6"/>
@@ -4706,7 +4829,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B326" s="14"/>
       <c r="C326" s="6"/>
@@ -4714,7 +4837,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B327" s="14"/>
       <c r="C327" s="6"/>
@@ -4722,7 +4845,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B328" s="14"/>
       <c r="C328" s="6"/>
@@ -4730,7 +4853,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B329" s="14"/>
       <c r="C329" s="6"/>
@@ -4738,7 +4861,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B330" s="14"/>
       <c r="C330" s="6"/>
@@ -4746,7 +4869,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B331" s="14"/>
       <c r="C331" s="6"/>
@@ -4754,7 +4877,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B332" s="14"/>
       <c r="C332" s="6"/>
@@ -4762,7 +4885,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B333" s="14"/>
       <c r="C333" s="6"/>
@@ -4770,7 +4893,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B334" s="14"/>
       <c r="C334" s="6"/>
@@ -4778,7 +4901,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B335" s="14"/>
       <c r="C335" s="6"/>
@@ -4786,7 +4909,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B336" s="14"/>
       <c r="C336" s="6"/>
@@ -4794,7 +4917,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B337" s="14"/>
       <c r="C337" s="6"/>
@@ -4802,7 +4925,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B338" s="14"/>
       <c r="C338" s="6"/>
@@ -4810,7 +4933,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B339" s="14"/>
       <c r="C339" s="6"/>
@@ -4818,7 +4941,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B340" s="14"/>
       <c r="C340" s="6"/>
@@ -4826,7 +4949,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B341" s="14"/>
       <c r="C341" s="6"/>
@@ -4834,7 +4957,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B342" s="14"/>
       <c r="C342" s="6"/>
@@ -4842,7 +4965,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B343" s="14"/>
       <c r="C343" s="6"/>
@@ -4850,7 +4973,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B344" s="14"/>
       <c r="C344" s="6"/>
@@ -4858,7 +4981,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B345" s="14"/>
       <c r="C345" s="6"/>
@@ -4866,7 +4989,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B346" s="14"/>
       <c r="C346" s="6"/>
@@ -4874,7 +4997,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B347" s="14"/>
       <c r="C347" s="6"/>
@@ -4882,7 +5005,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B348" s="14"/>
       <c r="C348" s="6"/>
@@ -4890,7 +5013,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B349" s="14"/>
       <c r="C349" s="6"/>
@@ -4898,7 +5021,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B350" s="14"/>
       <c r="C350" s="6"/>
@@ -4906,7 +5029,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B351" s="14"/>
       <c r="C351" s="6"/>
@@ -4914,7 +5037,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B352" s="14"/>
       <c r="C352" s="6"/>
@@ -4922,7 +5045,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B353" s="14"/>
       <c r="C353" s="6"/>
@@ -4930,7 +5053,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B354" s="14"/>
       <c r="C354" s="6"/>
@@ -4938,7 +5061,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B355" s="14"/>
       <c r="C355" s="6"/>
@@ -4946,7 +5069,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B356" s="14"/>
       <c r="C356" s="6"/>
@@ -4954,7 +5077,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B357" s="14"/>
       <c r="C357" s="6"/>
@@ -4962,7 +5085,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B358" s="14"/>
       <c r="C358" s="6"/>
@@ -4970,7 +5093,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B359" s="14"/>
       <c r="C359" s="6"/>
@@ -4978,7 +5101,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B360" s="14"/>
       <c r="C360" s="6"/>
@@ -4986,7 +5109,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B361" s="14"/>
       <c r="C361" s="6"/>
@@ -4994,7 +5117,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B362" s="14"/>
       <c r="C362" s="6"/>
@@ -5002,7 +5125,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B363" s="14"/>
       <c r="C363" s="6"/>
@@ -5010,7 +5133,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B364" s="14"/>
       <c r="C364" s="6"/>
@@ -5018,7 +5141,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B365" s="14"/>
       <c r="C365" s="6"/>
@@ -5026,7 +5149,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B366" s="14"/>
       <c r="C366" s="6"/>
@@ -5034,7 +5157,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B367" s="14"/>
       <c r="C367" s="6"/>
@@ -5042,7 +5165,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B368" s="14"/>
       <c r="C368" s="6"/>
@@ -5050,7 +5173,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B369" s="14"/>
       <c r="C369" s="6"/>
@@ -5058,7 +5181,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B370" s="14"/>
       <c r="C370" s="6"/>
@@ -5066,7 +5189,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B371" s="14"/>
       <c r="C371" s="6"/>
@@ -5074,7 +5197,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B372" s="14"/>
       <c r="C372" s="6"/>
@@ -5082,7 +5205,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B373" s="14"/>
       <c r="C373" s="6"/>
@@ -5090,7 +5213,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B374" s="14"/>
       <c r="C374" s="6"/>
@@ -5098,7 +5221,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B375" s="14"/>
       <c r="C375" s="6"/>
@@ -5106,7 +5229,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B376" s="14"/>
       <c r="C376" s="6"/>
@@ -5114,7 +5237,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B377" s="14"/>
       <c r="C377" s="6"/>
@@ -5122,7 +5245,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B378" s="14"/>
       <c r="C378" s="6"/>
@@ -5130,7 +5253,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B379" s="14"/>
       <c r="C379" s="6"/>
@@ -5138,7 +5261,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B380" s="14"/>
       <c r="C380" s="6"/>
@@ -5146,7 +5269,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B381" s="14"/>
       <c r="C381" s="6"/>
@@ -5154,7 +5277,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B382" s="14"/>
       <c r="C382" s="6"/>
@@ -5162,7 +5285,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B383" s="14"/>
       <c r="C383" s="6"/>
@@ -5170,7 +5293,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B384" s="14"/>
       <c r="C384" s="6"/>
@@ -5178,7 +5301,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B385" s="14"/>
       <c r="C385" s="6"/>
@@ -5186,7 +5309,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B386" s="14"/>
       <c r="C386" s="6"/>
@@ -5194,7 +5317,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B387" s="14"/>
       <c r="C387" s="6"/>
@@ -5202,7 +5325,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B388" s="14"/>
       <c r="C388" s="6"/>
@@ -5210,7 +5333,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B389" s="14"/>
       <c r="C389" s="6"/>
@@ -5218,7 +5341,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B390" s="14"/>
       <c r="C390" s="6"/>
@@ -5226,7 +5349,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B391" s="14"/>
       <c r="C391" s="6"/>
@@ -5234,7 +5357,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B392" s="14"/>
       <c r="C392" s="6"/>
@@ -5242,7 +5365,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B393" s="14"/>
       <c r="C393" s="6"/>
@@ -5250,7 +5373,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B394" s="14"/>
       <c r="C394" s="6"/>
@@ -5258,7 +5381,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B395" s="14"/>
       <c r="C395" s="6"/>
@@ -5266,7 +5389,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B396" s="14"/>
       <c r="C396" s="6"/>
@@ -5274,7 +5397,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B397" s="14"/>
       <c r="C397" s="6"/>
@@ -5282,7 +5405,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B398" s="14"/>
       <c r="C398" s="6"/>
@@ -5290,7 +5413,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B399" s="14"/>
       <c r="C399" s="6"/>
@@ -5298,7 +5421,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B400" s="14"/>
       <c r="C400" s="6"/>
@@ -5306,7 +5429,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B401" s="14"/>
       <c r="C401" s="6"/>
@@ -5314,7 +5437,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B402" s="14"/>
       <c r="C402" s="6"/>
@@ -5322,7 +5445,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B403" s="14"/>
       <c r="C403" s="6"/>
@@ -5330,7 +5453,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B404" s="14"/>
       <c r="C404" s="6"/>
@@ -5338,7 +5461,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B405" s="14"/>
       <c r="C405" s="6"/>
@@ -5346,7 +5469,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B406" s="14"/>
       <c r="C406" s="6"/>
@@ -5354,7 +5477,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B407" s="14"/>
       <c r="C407" s="6"/>
@@ -5362,7 +5485,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B408" s="14"/>
       <c r="C408" s="6"/>
@@ -5370,7 +5493,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B409" s="14"/>
       <c r="C409" s="6"/>
@@ -5378,7 +5501,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B410" s="14"/>
       <c r="C410" s="6"/>
@@ -5386,7 +5509,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B411" s="14"/>
       <c r="C411" s="6"/>
@@ -5394,7 +5517,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B412" s="14"/>
       <c r="C412" s="6"/>
@@ -5402,7 +5525,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B413" s="14"/>
       <c r="C413" s="6"/>
@@ -5410,7 +5533,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B414" s="14"/>
       <c r="C414" s="6"/>
@@ -5418,7 +5541,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B415" s="14"/>
       <c r="C415" s="6"/>
@@ -5426,7 +5549,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B416" s="14"/>
       <c r="C416" s="6"/>
@@ -5434,7 +5557,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B417" s="14"/>
       <c r="C417" s="6"/>
@@ -5442,7 +5565,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B418" s="14"/>
       <c r="C418" s="6"/>
@@ -5450,7 +5573,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B419" s="14"/>
       <c r="C419" s="6"/>
@@ -5458,7 +5581,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B420" s="14"/>
       <c r="C420" s="6"/>
@@ -5466,7 +5589,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B421" s="14"/>
       <c r="C421" s="6"/>
@@ -5474,7 +5597,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B422" s="14"/>
       <c r="C422" s="6"/>
@@ -5482,7 +5605,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B423" s="14"/>
       <c r="C423" s="6"/>
@@ -5490,7 +5613,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B424" s="14"/>
       <c r="C424" s="6"/>
@@ -5498,7 +5621,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B425" s="14"/>
       <c r="C425" s="6"/>
@@ -5506,7 +5629,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B426" s="14"/>
       <c r="C426" s="6"/>
@@ -5514,7 +5637,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B427" s="14"/>
       <c r="C427" s="6"/>
@@ -5522,7 +5645,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B428" s="14"/>
       <c r="C428" s="6"/>
@@ -5530,7 +5653,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B429" s="14"/>
       <c r="C429" s="6"/>
@@ -5538,7 +5661,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B430" s="14"/>
       <c r="C430" s="6"/>
@@ -5546,7 +5669,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B431" s="14"/>
       <c r="C431" s="6"/>
@@ -5554,7 +5677,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B432" s="14"/>
       <c r="C432" s="6"/>
@@ -5562,7 +5685,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B433" s="14"/>
       <c r="C433" s="6"/>
@@ -5570,7 +5693,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B434" s="14"/>
       <c r="C434" s="6"/>
@@ -5578,7 +5701,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B435" s="14"/>
       <c r="C435" s="6"/>
@@ -5586,7 +5709,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B436" s="14"/>
       <c r="C436" s="6"/>
@@ -5594,7 +5717,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B437" s="14"/>
       <c r="C437" s="6"/>
@@ -5602,7 +5725,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B438" s="14"/>
       <c r="C438" s="6"/>
@@ -5610,7 +5733,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B439" s="14"/>
       <c r="C439" s="6"/>
@@ -5618,7 +5741,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B440" s="14"/>
       <c r="C440" s="6"/>
@@ -5626,7 +5749,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B441" s="14"/>
       <c r="C441" s="6"/>
@@ -5634,7 +5757,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B442" s="14"/>
       <c r="C442" s="6"/>
@@ -5642,7 +5765,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B443" s="14"/>
       <c r="C443" s="6"/>
@@ -5650,7 +5773,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B444" s="14"/>
       <c r="C444" s="6"/>
@@ -5658,7 +5781,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B445" s="14"/>
       <c r="C445" s="6"/>
@@ -5666,7 +5789,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B446" s="14"/>
       <c r="C446" s="6"/>
@@ -5674,7 +5797,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B447" s="14"/>
       <c r="C447" s="6"/>
@@ -5682,7 +5805,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B448" s="14"/>
       <c r="C448" s="6"/>
@@ -5690,7 +5813,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B449" s="14"/>
       <c r="C449" s="6"/>
@@ -5698,7 +5821,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B450" s="14"/>
       <c r="C450" s="6"/>
@@ -5706,7 +5829,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B451" s="14"/>
       <c r="C451" s="6"/>
@@ -5714,7 +5837,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B452" s="14"/>
       <c r="C452" s="6"/>
@@ -5722,7 +5845,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B453" s="14"/>
       <c r="C453" s="6"/>
@@ -5730,7 +5853,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B454" s="14"/>
       <c r="C454" s="6"/>
@@ -5738,7 +5861,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B455" s="14"/>
       <c r="C455" s="6"/>
@@ -5746,7 +5869,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B456" s="14"/>
       <c r="C456" s="6"/>
@@ -5754,7 +5877,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B457" s="14"/>
       <c r="C457" s="6"/>
@@ -5762,7 +5885,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B458" s="14"/>
       <c r="C458" s="6"/>
@@ -5770,7 +5893,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B459" s="14"/>
       <c r="C459" s="6"/>
@@ -5778,7 +5901,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B460" s="14"/>
       <c r="C460" s="6"/>
@@ -5786,7 +5909,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B461" s="14"/>
       <c r="C461" s="6"/>
@@ -5794,7 +5917,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B462" s="14"/>
       <c r="C462" s="6"/>
@@ -5802,7 +5925,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B463" s="14"/>
       <c r="C463" s="6"/>
@@ -5810,7 +5933,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B464" s="14"/>
       <c r="C464" s="6"/>
@@ -5818,7 +5941,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B465" s="14"/>
       <c r="C465" s="6"/>
@@ -5826,7 +5949,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B466" s="14"/>
       <c r="C466" s="6"/>
@@ -5834,7 +5957,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B467" s="14"/>
       <c r="C467" s="6"/>
@@ -5842,7 +5965,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B468" s="14"/>
       <c r="C468" s="6"/>
@@ -5850,7 +5973,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B469" s="14"/>
       <c r="C469" s="6"/>
@@ -5858,7 +5981,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B470" s="14"/>
       <c r="C470" s="6"/>
@@ -5866,7 +5989,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B471" s="14"/>
       <c r="C471" s="6"/>
@@ -5874,7 +5997,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B472" s="14"/>
       <c r="C472" s="6"/>
@@ -5882,7 +6005,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B473" s="14"/>
       <c r="C473" s="6"/>
@@ -5890,7 +6013,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B474" s="14"/>
       <c r="C474" s="6"/>
@@ -5898,7 +6021,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B475" s="14"/>
       <c r="C475" s="6"/>
@@ -5906,7 +6029,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B476" s="14"/>
       <c r="C476" s="6"/>
@@ -5914,7 +6037,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B477" s="14"/>
       <c r="C477" s="6"/>
@@ -5922,7 +6045,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B478" s="14"/>
       <c r="C478" s="6"/>
@@ -5930,7 +6053,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B479" s="14"/>
       <c r="C479" s="6"/>
@@ -5938,7 +6061,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B480" s="14"/>
       <c r="C480" s="6"/>
@@ -5946,7 +6069,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B481" s="14"/>
       <c r="C481" s="6"/>
@@ -5954,7 +6077,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B482" s="14"/>
       <c r="C482" s="6"/>
@@ -5962,7 +6085,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B483" s="14"/>
       <c r="C483" s="6"/>
@@ -5970,7 +6093,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B484" s="14"/>
       <c r="C484" s="6"/>
@@ -5978,7 +6101,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B485" s="14"/>
       <c r="C485" s="6"/>
@@ -5986,7 +6109,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B486" s="14"/>
       <c r="C486" s="6"/>
@@ -5994,7 +6117,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B487" s="14"/>
       <c r="C487" s="6"/>
@@ -6002,7 +6125,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B488" s="14"/>
       <c r="C488" s="6"/>
@@ -6010,7 +6133,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B489" s="14"/>
       <c r="C489" s="6"/>
@@ -6018,7 +6141,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B490" s="14"/>
       <c r="C490" s="6"/>
@@ -6026,7 +6149,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B491" s="14"/>
       <c r="C491" s="6"/>
@@ -6034,7 +6157,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B492" s="14"/>
       <c r="C492" s="6"/>
@@ -6042,7 +6165,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B493" s="14"/>
       <c r="C493" s="6"/>
@@ -6050,7 +6173,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B494" s="14"/>
       <c r="C494" s="6"/>
@@ -6058,40 +6181,16 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B495" s="14"/>
       <c r="C495" s="6"/>
       <c r="D495" s="12"/>
     </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B496" s="14"/>
-      <c r="C496" s="6"/>
-      <c r="D496" s="12"/>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B497" s="14"/>
-      <c r="C497" s="6"/>
-      <c r="D497" s="12"/>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B498" s="14"/>
-      <c r="C498" s="6"/>
-      <c r="D498" s="12"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:C498">
+  <conditionalFormatting sqref="A2:C495">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A2="☑"</formula>
     </cfRule>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="227">
   <si>
     <t>Netoge no Yome ga Ninki Idol datta</t>
   </si>
@@ -691,208 +691,24 @@
     <t>Xoay quanh cuộc sống đại học của Tada Banri, một chàng trai trẻ bị mất trí nhớ sau tai nạn thời trung học. Khi bắt đầu cuộc sống mới tại Tokyo, Banri kết bạn với Mitsuo và gặp Kaga Koko – một cô gái xinh đẹp nhưng có tính cách kỳ lạ, từng theo đuổi Mitsuo một cách cực đoan. Sau khi bị từ chối, Koko chuyển hướng tình cảm sang Banri, và hai người bắt đầu một mối quan hệ đầy cảm xúc. Tuy nhiên, ký ức quá khứ của Banri dần quay trở lại, đặc biệt là về người bạn cũ Linda, khiến anh rơi vào mâu thuẫn giữa tình yêu hiện tại và quá khứ đã lãng quên. Tác phẩm khai thác sâu sắc những vấn đề về bản ngã, ký ức và tình yêu trưởng thành, mang đến một câu chuyện cảm động về hành trình tìm lại chính mình và vượt qua những tổn thương để yêu thương trọn vẹn.</t>
   </si>
   <si>
-    <t>Renai Boukun
-恋愛暴君</t>
-  </si>
-  <si>
     <t>Bakemonogatari
 化物語</t>
   </si>
   <si>
-    <t>Nurarihyon no Mago
-ぬらりひょんの孫</t>
-  </si>
-  <si>
-    <t>Yakusoku no Neverland
-約束のネバーランド</t>
-  </si>
-  <si>
-    <t>Katanagatari
-刀語</t>
-  </si>
-  <si>
-    <t>Bungou Stray Dogs
-文豪ストレイドッグス</t>
-  </si>
-  <si>
-    <t>Tasogare Otome x Amnesia
-黄昏乙女×アムネジア</t>
-  </si>
-  <si>
-    <t>Death March kara Hajimaru Isekai Kyousoukyoku 
-デスマーチからはじまる異世界狂想曲</t>
-  </si>
-  <si>
-    <t>Tsuki ga Kirei
-月がきれい</t>
-  </si>
-  <si>
     <t>Kimi wa Houkago Insomnia
 君は放課後インソムニア</t>
   </si>
   <si>
-    <t>Coquelicot-zaka kara
-コクリコ坂から</t>
-  </si>
-  <si>
-    <t>Class no Daikirai na Joshi to Kekkon suru Koto ni Natta
-クラスの大嫌いな女子と結婚することになった。</t>
-  </si>
-  <si>
-    <t>Hana to Alice: Satsujin Jiken
-花とアリス 殺人事件</t>
-  </si>
-  <si>
-    <t>Horimiya
-ホリミヤ</t>
-  </si>
-  <si>
-    <t>Momo e no Tegami
-ももへの手紙</t>
-  </si>
-  <si>
-    <t>Monster Musume no Oishasan
-モンスター娘のお医者さん</t>
-  </si>
-  <si>
-    <t>Ijiranaide, Nagatoro-san
-イジらないで、長瀞さん</t>
-  </si>
-  <si>
-    <t>Tsurezure Children
-徒然チルドレン</t>
-  </si>
-  <si>
-    <t>Kishuku Gakkou no Juliet
-寄宿学校のジュリエット</t>
-  </si>
-  <si>
-    <t>Tenkuu no Shiro Laputa 
-天空の城ラピュタ</t>
-  </si>
-  <si>
-    <t>Ore wo Suki nano wa Omae dake ka yo
-俺を好きなのはお前だけかよ</t>
-  </si>
-  <si>
-    <t>Kono Kaisha ni Suki na Hito ga Imasu
-この会社に好きな人がいます</t>
-  </si>
-  <si>
-    <t>Itsudatte Bokura no Koi wa 10 cm Datta
-いつだって僕らの恋は10センチだった</t>
-  </si>
-  <si>
-    <t>Majo no Tabitabi
-魔女の旅々</t>
-  </si>
-  <si>
-    <t>Keikenzumi na Kimi to, Keiken Zero na Ore ga, Otsukiai suru Hanashi
-経験済みなキミと、 経験ゼロなオレが、 お付き合いする話</t>
-  </si>
-  <si>
-    <t>Suki tte Ii na yo
-好きっていいなよ</t>
-  </si>
-  <si>
-    <t>Yofukashi no Uta
-よふかしのうた</t>
-  </si>
-  <si>
-    <t>Kimi ni Todoke
-君に届け</t>
-  </si>
-  <si>
-    <t>Otomege Sekai wa Mob ni Kibishii Sekai desu
-乙女ゲー世界はモブに厳しい世界です</t>
-  </si>
-  <si>
-    <t>Tantei wa mō, shindeiru
-探偵はもう、死んでいる</t>
-  </si>
-  <si>
-    <t>Karigurashi no Arrietty
-借りぐらしのアリエッティ</t>
-  </si>
-  <si>
-    <t>Chitose-kun wa Ramune Bin no Naka
-千歳くんはラムネ瓶のなか</t>
-  </si>
-  <si>
-    <t>Genjitsu de Rabukome Dekinai to Dare ga Kimeta?
-現実でラブコメできないとだれが決めた?</t>
-  </si>
-  <si>
-    <t>Mikkakan no Kōfuku
-三日間の幸福</t>
-  </si>
-  <si>
-    <t>Kimi no Na wa
-君の名は</t>
-  </si>
-  <si>
-    <t>Kokoro ga Sakebitagatterunda
-心が叫びたがってるんだ</t>
-  </si>
-  <si>
-    <t>Ai Yori Aoshi
-藍より青し</t>
-  </si>
-  <si>
-    <t>Gekijō-ban bungaku shōjo
-劇場版“文学少女”</t>
-  </si>
-  <si>
-    <t>Ame wo Tsugeru Hyouryuu Danchi 
-雨を告げる漂流団地</t>
-  </si>
-  <si>
     <t>Ergo Proxy
 エルゴプラクシー</t>
   </si>
   <si>
-    <t>Noir
-ノワール</t>
-  </si>
-  <si>
-    <t>Boogiepop wa Warawanai
-ブギーポップは笑わない</t>
-  </si>
-  <si>
     <t>Kara no Kyoukai: The Garden of Sinners
 空の境界 the Garden of sinners</t>
   </si>
   <si>
-    <t>Saishuu Heiki Kanojo
-最終兵器彼女</t>
-  </si>
-  <si>
-    <t>Kimi ga Nozomu Eien
-君が望む永遠</t>
-  </si>
-  <si>
-    <t>Yojouhan Shinwa Taikei
-四畳半神話大系</t>
-  </si>
-  <si>
-    <t>Zetsuen no Tempest
-絶園のテンペスト</t>
-  </si>
-  <si>
-    <t>Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e
-ようこそ実力至上主義の教室へ</t>
-  </si>
-  <si>
     <t>Sankarea
 さんかれあ</t>
-  </si>
-  <si>
-    <t>Kuzu no Honkai
-クズの本懐</t>
-  </si>
-  <si>
-    <t>Oshi no Ko
-推しの子</t>
   </si>
   <si>
     <t>Darwin’s Game
@@ -900,12 +716,249 @@
 Trò chơi Darwin</t>
   </si>
   <si>
+    <t>Renai Boukun
+恋愛暴君
+Bạo chúa tình yêu</t>
+  </si>
+  <si>
+    <t>Bakemonogatari
+化物語
+Câu chuyện về quái vật</t>
+  </si>
+  <si>
+    <t>Nurarihyon no Mago
+ぬらりひょんの孫
+Hậu duệ của chúa quỷ Nurarihyon</t>
+  </si>
+  <si>
+    <t>Yakusoku no Neverland
+約束のネバーランド
+Neverland của lời hứa</t>
+  </si>
+  <si>
+    <t>Katanagatari
+刀語
+Chuyện kể về đao kiếm</t>
+  </si>
+  <si>
+    <t>Bungou Stray Dogs
+文豪ストレイドッグス
+Văn hào chó hoang</t>
+  </si>
+  <si>
+    <t>Tasogare Otome x Amnesia
+黄昏乙女×アムネジア
+Thiếu nữ và hoàng hôn</t>
+  </si>
+  <si>
+    <t>Tsuki ga Kirei
+月がきれい
+Mặt trăng đẹp thật nhỉ</t>
+  </si>
+  <si>
+    <t>Death March kara Hajimaru Isekai Kyousoukyoku 
+デスマーチからはじまる異世界狂想曲
+Bản nhạc cuồng loạn ở thế giới khác bắt đầu từ hành trình tử thần</t>
+  </si>
+  <si>
+    <t>Coquelicot-zaka kara
+コクリコ坂から
+Từ sườn đồi Kokuriko</t>
+  </si>
+  <si>
+    <t>Class no Daikirai na Joshi to Kekkon suru Koto ni Natta
+クラスの大嫌いな女子と結婚することになった
+Bị bắt kết hôn với cô gái cực ghét trong lớp</t>
+  </si>
+  <si>
+    <t>Hana to Alice: Satsujin Jiken
+花とアリス 殺人事件
+Hana và Alice: Vụ án mạng</t>
+  </si>
+  <si>
+    <t>Horimiya
+ホリミヤ
+Hori và Miya</t>
+  </si>
+  <si>
+    <t>Momo e no Tegami
+ももへの手紙
+Bức thư gửi tới Momo</t>
+  </si>
+  <si>
+    <t>Kishuku Gakkou no Juliet
+寄宿学校のジュリエット
+Trường nội trú Juliet</t>
+  </si>
+  <si>
+    <t>Tenkuu no Shiro Laputa 
+天空の城ラピュタ
+Lâu đài trên không Laputa</t>
+  </si>
+  <si>
+    <t>Ore wo Suki nano wa Omae dake ka yo
+俺を好きなのはお前だけかよ
+Người duy nhất thích mình là cậu à</t>
+  </si>
+  <si>
+    <t>Kono Kaisha ni Suki na Hito ga Imasu
+この会社に好きな人がいます
+Có người mà tôi thích ở công ty này</t>
+  </si>
+  <si>
+    <t>Itsudatte Bokura no Koi wa 10 cm Datta
+いつだって僕らの恋は10センチだった
+Tình yêu của chúng ta luôn cách nhau 10 cm</t>
+  </si>
+  <si>
+    <t>Majo no Tabitabi
+魔女の旅々
+Những chuyến đi của phù thủy</t>
+  </si>
+  <si>
+    <t>Otomege Sekai wa Mob ni Kibishii Sekai desu
+乙女ゲー世界はモブに厳しい世界です
+Trong thế giới game otome cuộc sống của NPC thật nghiệt ngã</t>
+  </si>
+  <si>
+    <t>Tantei wa mō, shindeiru
+探偵はもう、死んでいる
+Thám tử đã chết rồi</t>
+  </si>
+  <si>
+    <t>Chitose-kun wa Ramune Bin no Naka
+千歳くんはラムネ瓶のなか
+Chitose-kun ở trong chai Ramune</t>
+  </si>
+  <si>
+    <t>Genjitsu de Rabukome Dekinai to Dare ga Kimeta?
+現実でラブコメできないとだれが決めた?
+Ai nói rằng không thể làm rom-com trong đời thực?</t>
+  </si>
+  <si>
+    <t>Mikkakan no Kōfuku
+三日間の幸福
+Hạnh phúc trong ba ngày</t>
+  </si>
+  <si>
     <t>Byōsoku Go Senchimētoru
-秒速5センチメートル</t>
+秒速5センチメートル
+5 centimet trên giây</t>
   </si>
   <si>
     <t>Eiti Shikkusu
-86-エイティシックス</t>
+86-エイティシックス
+86-Eighty-Six</t>
+  </si>
+  <si>
+    <t>Ame wo Tsugeru Hyouryuu Danchi 
+雨を告げる漂流団地
+Khu chung cư trôi dạt báo hiệu cơn mưa</t>
+  </si>
+  <si>
+    <t>Ai Yori Aoshi
+藍より青し
+Xanh hơn màu chàm</t>
+  </si>
+  <si>
+    <t>Gekijō-ban bungaku shōjo
+劇場版“文学少女”
+Bản điện ảnh ‘Cô gái văn học</t>
+  </si>
+  <si>
+    <t>Kokoro ga Sakebitagatterunda
+心が叫びたがってるんだ
+Trái tim này muốn được thét lên</t>
+  </si>
+  <si>
+    <t>Kimi no Na wa
+君の名は
+Tên của cậu là gì?</t>
+  </si>
+  <si>
+    <t>Karigurashi no Arrietty
+借りぐらしのアリエッティ
+Arrietty – Cô bé sống nhờ</t>
+  </si>
+  <si>
+    <t>Keikenzumi na Kimi to, Keiken Zero na Ore ga, Otsukiai suru Hanashi
+経験済みなキミと、 経験ゼロなオレが、 お付き合いする話
+Chuyện về cậu ấy đã có kinh nghiệm và tôi chưa từng có kinh nghiệm khi hẹn hò</t>
+  </si>
+  <si>
+    <t>Suki tte Ii na yo
+好きっていいなよ
+Thật tuyệt khi được nói tớ thích cậu</t>
+  </si>
+  <si>
+    <t>Kimi ni Todoke
+君に届け
+Gửi đến cậu</t>
+  </si>
+  <si>
+    <t>Yofukashi no Uta
+よふかしのうた
+Bài hát của những kẻ thức khuya</t>
+  </si>
+  <si>
+    <t>Tsurezure Children
+徒然チルドレン
+Những đứa trẻ lãng phí thời gian</t>
+  </si>
+  <si>
+    <t>Ijiranaide, Nagatoro-san
+イジらないで、長瀞さん
+Đừng có trêu chọc tôi, Nagatoro</t>
+  </si>
+  <si>
+    <t>Monster Musume no Oishasan
+モンスター娘のお医者さん
+Bác sĩ của những cô gái quái vật</t>
+  </si>
+  <si>
+    <t>Oshi no Ko
+推しの子
+Đứa con của người tôi yêu mến</t>
+  </si>
+  <si>
+    <t>Kuzu no Honkai
+クズの本懐
+Tình yêu thật sự của kẻ tệ hại</t>
+  </si>
+  <si>
+    <t>Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e
+ようこそ実力至上主義の教室へ
+Chào mừng đến với lớp học ưu tú theo năng lực</t>
+  </si>
+  <si>
+    <t>Zetsuen no Tempest
+絶園のテンペスト
+Cơn bão tuyệt diệt</t>
+  </si>
+  <si>
+    <t>Yojouhan Shinwa Taikei
+四畳半神話大系
+Hệ thống thần thoại phòng bốn chiếu rưỡi (1 chiếu tatami ~ 1,62m²)</t>
+  </si>
+  <si>
+    <t>Kimi ga Nozomu Eien
+君が望む永遠
+Mãi mãi như cậu mong muốn</t>
+  </si>
+  <si>
+    <t>Saishuu Heiki Kanojo
+最終兵器彼女
+Cô ấy – Vũ khí tối thượng</t>
+  </si>
+  <si>
+    <t>Boogiepop wa Warawanai
+ブギーポップは笑わない
+Boogiepop không cười</t>
+  </si>
+  <si>
+    <t>Noir
+ノワール
+Bóng tối (màu đen)</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1175,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -2560,7 +2613,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="C77" s="6">
         <v>2012</v>
@@ -2581,36 +2634,36 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.5">
+    <row r="79" spans="1:4" ht="47.25">
       <c r="A79" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C79" s="6">
         <v>2012</v>
       </c>
       <c r="D79" s="12"/>
     </row>
-    <row r="80" spans="1:4" ht="31.5">
+    <row r="80" spans="1:4" ht="47.25">
       <c r="A80" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C80" s="6">
         <v>2006</v>
       </c>
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="1:4" ht="31.5">
+    <row r="81" spans="1:4" ht="47.25">
       <c r="A81" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C81" s="6">
         <v>2008</v>
@@ -2629,72 +2682,72 @@
       </c>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" ht="31.5">
+    <row r="83" spans="1:4" ht="47.25">
       <c r="A83" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C83" s="6">
         <v>2016</v>
       </c>
       <c r="D83" s="12"/>
     </row>
-    <row r="84" spans="1:4" ht="31.5">
+    <row r="84" spans="1:4" ht="47.25">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C84" s="6">
         <v>2007</v>
       </c>
       <c r="D84" s="12"/>
     </row>
-    <row r="85" spans="1:4" ht="31.5">
+    <row r="85" spans="1:4" ht="47.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C85" s="6">
         <v>2012</v>
       </c>
       <c r="D85" s="12"/>
     </row>
-    <row r="86" spans="1:4" ht="31.5">
+    <row r="86" spans="1:4" ht="47.25">
       <c r="A86" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C86" s="6">
         <v>2009</v>
       </c>
       <c r="D86" s="12"/>
     </row>
-    <row r="87" spans="1:4" ht="31.5">
+    <row r="87" spans="1:4" ht="47.25">
       <c r="A87" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C87" s="6">
         <v>2013</v>
       </c>
       <c r="D87" s="12"/>
     </row>
-    <row r="88" spans="1:4" ht="31.5">
+    <row r="88" spans="1:4" ht="47.25">
       <c r="A88" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C88" s="6">
         <v>2017</v>
@@ -2706,19 +2759,19 @@
         <v>83</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C89" s="6">
         <v>2019</v>
       </c>
       <c r="D89" s="12"/>
     </row>
-    <row r="90" spans="1:4" ht="31.5">
+    <row r="90" spans="1:4" ht="47.25">
       <c r="A90" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C90" s="6">
         <v>1979</v>
@@ -2737,120 +2790,120 @@
       </c>
       <c r="D91" s="12"/>
     </row>
-    <row r="92" spans="1:4" ht="31.5">
+    <row r="92" spans="1:4" ht="47.25">
       <c r="A92" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C92" s="6">
         <v>2020</v>
       </c>
       <c r="D92" s="12"/>
     </row>
-    <row r="93" spans="1:4" ht="31.5">
+    <row r="93" spans="1:4" ht="47.25">
       <c r="A93" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C93" s="6">
         <v>2015</v>
       </c>
       <c r="D93" s="12"/>
     </row>
-    <row r="94" spans="1:4" ht="31.5">
+    <row r="94" spans="1:4" ht="47.25">
       <c r="A94" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C94" s="6">
         <v>2007</v>
       </c>
       <c r="D94" s="12"/>
     </row>
-    <row r="95" spans="1:4" ht="31.5">
+    <row r="95" spans="1:4" ht="47.25">
       <c r="A95" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C95" s="6">
         <v>2012</v>
       </c>
       <c r="D95" s="12"/>
     </row>
-    <row r="96" spans="1:4" ht="31.5">
+    <row r="96" spans="1:4" ht="47.25">
       <c r="A96" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C96" s="6">
         <v>2015</v>
       </c>
       <c r="D96" s="12"/>
     </row>
-    <row r="97" spans="1:4" ht="31.5">
+    <row r="97" spans="1:4" ht="47.25">
       <c r="A97" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C97" s="6">
         <v>1986</v>
       </c>
       <c r="D97" s="12"/>
     </row>
-    <row r="98" spans="1:4" ht="31.5">
+    <row r="98" spans="1:4" ht="47.25">
       <c r="A98" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C98" s="6">
         <v>2016</v>
       </c>
       <c r="D98" s="12"/>
     </row>
-    <row r="99" spans="1:4" ht="31.5">
+    <row r="99" spans="1:4" ht="47.25">
       <c r="A99" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C99" s="6">
         <v>2019</v>
       </c>
       <c r="D99" s="12"/>
     </row>
-    <row r="100" spans="1:4" ht="31.5">
+    <row r="100" spans="1:4" ht="47.25">
       <c r="A100" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C100" s="6">
         <v>2017</v>
       </c>
       <c r="D100" s="12"/>
     </row>
-    <row r="101" spans="1:4" ht="31.5">
+    <row r="101" spans="1:4" ht="47.25">
       <c r="A101" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C101" s="6">
         <v>2016</v>
@@ -2869,120 +2922,120 @@
       </c>
       <c r="D102" s="12"/>
     </row>
-    <row r="103" spans="1:4" ht="31.5">
+    <row r="103" spans="1:4" ht="47.25">
       <c r="A103" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C103" s="6">
         <v>2017</v>
       </c>
       <c r="D103" s="12"/>
     </row>
-    <row r="104" spans="1:4" ht="31.5">
+    <row r="104" spans="1:4" ht="47.25">
       <c r="A104" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C104" s="6">
         <v>2019</v>
       </c>
       <c r="D104" s="12"/>
     </row>
-    <row r="105" spans="1:4" ht="31.5">
+    <row r="105" spans="1:4" ht="47.25">
       <c r="A105" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C105" s="6">
         <v>2019</v>
       </c>
       <c r="D105" s="12"/>
     </row>
-    <row r="106" spans="1:4" ht="31.5">
+    <row r="106" spans="1:4" ht="47.25">
       <c r="A106" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C106" s="6">
         <v>2020</v>
       </c>
       <c r="D106" s="12"/>
     </row>
-    <row r="107" spans="1:4" ht="31.5">
+    <row r="107" spans="1:4" ht="47.25">
       <c r="A107" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C107" s="6">
         <v>2013</v>
       </c>
       <c r="D107" s="12"/>
     </row>
-    <row r="108" spans="1:4" ht="31.5">
+    <row r="108" spans="1:4" ht="47.25">
       <c r="A108" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C108" s="6">
         <v>2007</v>
       </c>
       <c r="D108" s="12"/>
     </row>
-    <row r="109" spans="1:4" ht="31.5">
+    <row r="109" spans="1:4" ht="47.25">
       <c r="A109" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C109" s="6">
         <v>2017</v>
       </c>
       <c r="D109" s="12"/>
     </row>
-    <row r="110" spans="1:4" ht="31.5">
+    <row r="110" spans="1:4" ht="47.25">
       <c r="A110" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C110" s="6">
         <v>2022</v>
       </c>
       <c r="D110" s="12"/>
     </row>
-    <row r="111" spans="1:4" ht="31.5">
+    <row r="111" spans="1:4" ht="47.25">
       <c r="A111" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C111" s="6">
         <v>1998</v>
       </c>
       <c r="D111" s="12"/>
     </row>
-    <row r="112" spans="1:4" ht="31.5">
+    <row r="112" spans="1:4" ht="47.25">
       <c r="A112" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C112" s="6">
         <v>2010</v>
@@ -3001,36 +3054,36 @@
       </c>
       <c r="D113" s="12"/>
     </row>
-    <row r="114" spans="1:4" ht="31.5">
+    <row r="114" spans="1:4" ht="47.25">
       <c r="A114" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C114" s="6">
         <v>2015</v>
       </c>
       <c r="D114" s="12"/>
     </row>
-    <row r="115" spans="1:4" ht="31.5">
+    <row r="115" spans="1:4" ht="47.25">
       <c r="A115" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C115" s="6">
         <v>2016</v>
       </c>
       <c r="D115" s="12"/>
     </row>
-    <row r="116" spans="1:4" ht="31.5">
+    <row r="116" spans="1:4" ht="47.25">
       <c r="A116" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C116" s="6">
         <v>2010</v>
@@ -3067,84 +3120,84 @@
       <c r="C119" s="6"/>
       <c r="D119" s="12"/>
     </row>
-    <row r="120" spans="1:4" ht="31.5">
+    <row r="120" spans="1:4" ht="47.25">
       <c r="A120" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C120" s="6">
         <v>2023</v>
       </c>
       <c r="D120" s="12"/>
     </row>
-    <row r="121" spans="1:4" ht="31.5">
+    <row r="121" spans="1:4" ht="47.25">
       <c r="A121" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C121" s="6">
         <v>2008</v>
       </c>
       <c r="D121" s="12"/>
     </row>
-    <row r="122" spans="1:4" ht="31.5">
+    <row r="122" spans="1:4" ht="47.25">
       <c r="A122" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C122" s="6">
         <v>2005</v>
       </c>
       <c r="D122" s="12"/>
     </row>
-    <row r="123" spans="1:4" ht="31.5">
+    <row r="123" spans="1:4" ht="47.25">
       <c r="A123" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C123" s="6">
         <v>2019</v>
       </c>
       <c r="D123" s="12"/>
     </row>
-    <row r="124" spans="1:4" ht="31.5">
+    <row r="124" spans="1:4" ht="47.25">
       <c r="A124" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C124" s="6">
         <v>2014</v>
       </c>
       <c r="D124" s="12"/>
     </row>
-    <row r="125" spans="1:4" ht="31.5">
+    <row r="125" spans="1:4" ht="47.25">
       <c r="A125" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C125" s="6">
         <v>2017</v>
       </c>
       <c r="D125" s="12"/>
     </row>
-    <row r="126" spans="1:4" ht="31.5">
+    <row r="126" spans="1:4" ht="47.25">
       <c r="A126" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C126" s="6">
         <v>2016</v>
@@ -3208,7 +3261,7 @@
         <v>83</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C131" s="6">
         <v>2005</v>
@@ -3239,24 +3292,24 @@
       </c>
       <c r="D133" s="12"/>
     </row>
-    <row r="134" spans="1:4" ht="31.5">
+    <row r="134" spans="1:4" ht="47.25">
       <c r="A134" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C134" s="6">
         <v>2020</v>
       </c>
       <c r="D134" s="12"/>
     </row>
-    <row r="135" spans="1:4" ht="31.5">
+    <row r="135" spans="1:4" ht="47.25">
       <c r="A135" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C135" s="6">
         <v>2012</v>
@@ -3268,67 +3321,67 @@
         <v>83</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C136" s="6">
         <v>2009</v>
       </c>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:4" ht="31.5">
+    <row r="137" spans="1:4" ht="47.25">
       <c r="A137" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C137" s="6">
         <v>2015</v>
       </c>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:4" ht="31.5">
+    <row r="138" spans="1:4" ht="47.25">
       <c r="A138" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C138" s="6">
         <v>2009</v>
       </c>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:4" ht="31.5">
+    <row r="139" spans="1:4" ht="47.25">
       <c r="A139" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C139" s="6">
         <v>2004</v>
       </c>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:4" ht="31.5">
+    <row r="140" spans="1:4" ht="47.25">
       <c r="A140" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C140" s="6">
         <v>2001</v>
       </c>
       <c r="D140" s="12"/>
     </row>
-    <row r="141" spans="1:4" ht="31.5">
+    <row r="141" spans="1:4" ht="47.25">
       <c r="A141" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C141" s="6">
         <v>1999</v>
@@ -3340,31 +3393,31 @@
         <v>83</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="C142" s="6">
         <v>1998</v>
       </c>
       <c r="D142" s="12"/>
     </row>
-    <row r="143" spans="1:4" ht="31.5">
+    <row r="143" spans="1:4" ht="47.25">
       <c r="A143" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C143" s="6">
         <v>1998</v>
       </c>
       <c r="D143" s="12"/>
     </row>
-    <row r="144" spans="1:4" ht="31.5">
+    <row r="144" spans="1:4" ht="47.25">
       <c r="A144" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C144" s="6">
         <v>2001</v>
@@ -3376,7 +3429,7 @@
         <v>83</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="C145" s="6">
         <v>2006</v>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -35,15 +35,6 @@
     <t>Steins;Gate Movie: Fuka Ryouiki no Déjà vu</t>
   </si>
   <si>
-    <t>Higashi no Eden Movie I: The King of Eden</t>
-  </si>
-  <si>
-    <t>Hanasaku Iroha Movie: Home Sweet Home</t>
-  </si>
-  <si>
-    <t>Gintama Movie 2: Kanketsu-hen - Yorozuya yo Eien Nare</t>
-  </si>
-  <si>
     <t>Orange</t>
   </si>
   <si>
@@ -382,15 +373,6 @@
 Đại Mệnh Lệnh</t>
   </si>
   <si>
-    <t>Kizumonogatari</t>
-  </si>
-  <si>
-    <t>Monogatari</t>
-  </si>
-  <si>
-    <t>Durarara</t>
-  </si>
-  <si>
     <t>Momokuri
 ももくり</t>
   </si>
@@ -400,9 +382,6 @@
 Khoảnh khắc vàng (quý giá)</t>
   </si>
   <si>
-    <t>Danganronpa: The Animation</t>
-  </si>
-  <si>
     <t>Texhnolyze</t>
   </si>
   <si>
@@ -959,6 +938,38 @@
     <t>Noir
 ノワール
 Bóng tối (màu đen)</t>
+  </si>
+  <si>
+    <t>Higashi no Eden
+東のエデン
+Eden phương Đông</t>
+  </si>
+  <si>
+    <t>Hanasaku Iroha Movie: Home Sweet Home
+劇場版 花咲くいろは Home Sweet Home
+Những sắc màu nở hoa: Ngôi nhà ngọt ngào</t>
+  </si>
+  <si>
+    <t>Gintama
+銀魂
+Linh hồn bạc</t>
+  </si>
+  <si>
+    <t>Kizumonogatari
+傷物語</t>
+  </si>
+  <si>
+    <t>Monogatari
+偽物語</t>
+  </si>
+  <si>
+    <t>Durarara
+デュラララ</t>
+  </si>
+  <si>
+    <t>Danganronpa: Kibou no Gakuen to Zetsubou no Koukousei The Animation
+ダンガンロンパ 希望の学園と絶望の高校生 THE ANIMATION
+Danganronpa: Học viện Hy vọng và Học sinh của Tuyệt vọng – The Animation</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1186,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1555,774 +1566,774 @@
     <row r="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="6">
         <v>2016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="117.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>2015</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
         <v>2018</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
         <v>2017</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6">
         <v>2017</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6">
         <v>2002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
         <v>2013</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="146.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
         <v>2011</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="162" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6">
         <v>2011</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="147.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6">
         <v>2020</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="114.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6">
         <v>2018</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="146.25" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6">
         <v>2021</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="163.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6">
         <v>2018</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="101.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6">
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6">
         <v>2013</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6">
         <v>2013</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="116.25" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6">
         <v>2016</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="143.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C19" s="6">
         <v>1999</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="111" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6">
         <v>1984</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="131.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C21" s="6">
         <v>1994</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="103.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6">
         <v>1990</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="83.25" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23" s="6">
         <v>1969</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6">
         <v>2019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="98.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="6">
         <v>2005</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="98.25" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6">
         <v>2018</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="83.25" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="6">
         <v>2015</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28" s="6">
         <v>2003</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="114.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29" s="6">
         <v>2008</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="97.5" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6">
         <v>2019</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="68.25" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="6">
         <v>2018</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="98.25" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" s="6">
         <v>2013</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="66.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6">
         <v>2018</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="67.5" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6">
         <v>2011</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="68.25" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" s="6">
         <v>2017</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="80.25" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" s="6">
         <v>2001</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="84" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6">
         <v>2007</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="81.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C38" s="6">
         <v>1998</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="83.25" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="6">
         <v>2012</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="66" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="6">
         <v>2014</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="63">
       <c r="A41" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C41" s="6">
         <v>1987</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" s="6">
         <v>1981</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="68.25" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C43" s="6">
         <v>2013</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="69.75" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6">
         <v>2011</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="81.75" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6">
         <v>2004</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="68.25" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" s="6">
         <v>1989</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="67.5" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="6">
         <v>1982</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="83.25" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="6">
         <v>2016</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C49" s="6">
         <v>2013</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="83.25" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C50" s="6">
         <v>1984</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="66" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C51" s="6">
         <v>2002</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="68.25" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C52" s="6">
         <v>1988</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="69.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C53" s="6">
         <v>1996</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="65.25" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C54" s="6">
         <v>1975</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="88.5" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C55" s="6">
         <v>1980</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="83.25" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>1</v>
@@ -2331,211 +2342,211 @@
         <v>2004</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="65.25" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C57" s="6">
         <v>2020</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="68.25" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C58" s="6">
         <v>2009</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.5" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C59" s="6">
         <v>2013</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C60" s="6">
         <v>2016</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C61" s="6">
         <v>2015</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="71.25" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C62" s="6">
         <v>2018</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="81" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C63" s="6">
         <v>2015</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="72.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C64" s="6">
         <v>2019</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="68.25" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C65" s="6">
         <v>2011</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="65.25" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C66" s="6">
         <v>2012</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="81.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C67" s="6">
         <v>2005</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="67.5" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C68" s="6">
         <v>2006</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="82.5" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C69" s="6">
         <v>2014</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="65.25" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" s="6">
         <v>2021</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71" s="6">
         <v>2022</v>
@@ -2544,76 +2555,76 @@
     </row>
     <row r="72" spans="1:4" ht="70.5" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C72" s="6">
         <v>2019</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="80.25" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C73" s="6">
         <v>2002</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="67.5" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C74" s="6">
         <v>2015</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="64.5" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C75" s="6">
         <v>2010</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" ht="47.25">
       <c r="A77" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C77" s="6">
         <v>2012</v>
@@ -2622,24 +2633,24 @@
     </row>
     <row r="78" spans="1:4" ht="63">
       <c r="A78" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C78" s="6">
         <v>2011</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="47.25">
       <c r="A79" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C79" s="6">
         <v>2012</v>
@@ -2648,10 +2659,10 @@
     </row>
     <row r="80" spans="1:4" ht="47.25">
       <c r="A80" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C80" s="6">
         <v>2006</v>
@@ -2660,10 +2671,10 @@
     </row>
     <row r="81" spans="1:4" ht="47.25">
       <c r="A81" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C81" s="6">
         <v>2008</v>
@@ -2672,10 +2683,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C82" s="6">
         <v>2006</v>
@@ -2684,10 +2695,10 @@
     </row>
     <row r="83" spans="1:4" ht="47.25">
       <c r="A83" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C83" s="6">
         <v>2016</v>
@@ -2696,10 +2707,10 @@
     </row>
     <row r="84" spans="1:4" ht="47.25">
       <c r="A84" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C84" s="6">
         <v>2007</v>
@@ -2708,10 +2719,10 @@
     </row>
     <row r="85" spans="1:4" ht="47.25">
       <c r="A85" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C85" s="6">
         <v>2012</v>
@@ -2720,10 +2731,10 @@
     </row>
     <row r="86" spans="1:4" ht="47.25">
       <c r="A86" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C86" s="6">
         <v>2009</v>
@@ -2732,10 +2743,10 @@
     </row>
     <row r="87" spans="1:4" ht="47.25">
       <c r="A87" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C87" s="6">
         <v>2013</v>
@@ -2744,10 +2755,10 @@
     </row>
     <row r="88" spans="1:4" ht="47.25">
       <c r="A88" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C88" s="6">
         <v>2017</v>
@@ -2756,10 +2767,10 @@
     </row>
     <row r="89" spans="1:4" ht="31.5">
       <c r="A89" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C89" s="6">
         <v>2019</v>
@@ -2768,10 +2779,10 @@
     </row>
     <row r="90" spans="1:4" ht="47.25">
       <c r="A90" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C90" s="6">
         <v>1979</v>
@@ -2780,10 +2791,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C91" s="6">
         <v>2017</v>
@@ -2792,10 +2803,10 @@
     </row>
     <row r="92" spans="1:4" ht="47.25">
       <c r="A92" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C92" s="6">
         <v>2020</v>
@@ -2804,10 +2815,10 @@
     </row>
     <row r="93" spans="1:4" ht="47.25">
       <c r="A93" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C93" s="6">
         <v>2015</v>
@@ -2816,10 +2827,10 @@
     </row>
     <row r="94" spans="1:4" ht="47.25">
       <c r="A94" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C94" s="6">
         <v>2007</v>
@@ -2828,10 +2839,10 @@
     </row>
     <row r="95" spans="1:4" ht="47.25">
       <c r="A95" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C95" s="6">
         <v>2012</v>
@@ -2840,10 +2851,10 @@
     </row>
     <row r="96" spans="1:4" ht="47.25">
       <c r="A96" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C96" s="6">
         <v>2015</v>
@@ -2852,10 +2863,10 @@
     </row>
     <row r="97" spans="1:4" ht="47.25">
       <c r="A97" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C97" s="6">
         <v>1986</v>
@@ -2864,10 +2875,10 @@
     </row>
     <row r="98" spans="1:4" ht="47.25">
       <c r="A98" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C98" s="6">
         <v>2016</v>
@@ -2876,10 +2887,10 @@
     </row>
     <row r="99" spans="1:4" ht="47.25">
       <c r="A99" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C99" s="6">
         <v>2019</v>
@@ -2888,10 +2899,10 @@
     </row>
     <row r="100" spans="1:4" ht="47.25">
       <c r="A100" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C100" s="6">
         <v>2017</v>
@@ -2900,10 +2911,10 @@
     </row>
     <row r="101" spans="1:4" ht="47.25">
       <c r="A101" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C101" s="6">
         <v>2016</v>
@@ -2912,7 +2923,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>0</v>
@@ -2924,10 +2935,10 @@
     </row>
     <row r="103" spans="1:4" ht="47.25">
       <c r="A103" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C103" s="6">
         <v>2017</v>
@@ -2936,10 +2947,10 @@
     </row>
     <row r="104" spans="1:4" ht="47.25">
       <c r="A104" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C104" s="6">
         <v>2019</v>
@@ -2948,10 +2959,10 @@
     </row>
     <row r="105" spans="1:4" ht="47.25">
       <c r="A105" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C105" s="6">
         <v>2019</v>
@@ -2960,10 +2971,10 @@
     </row>
     <row r="106" spans="1:4" ht="47.25">
       <c r="A106" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C106" s="6">
         <v>2020</v>
@@ -2972,10 +2983,10 @@
     </row>
     <row r="107" spans="1:4" ht="47.25">
       <c r="A107" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C107" s="6">
         <v>2013</v>
@@ -2984,10 +2995,10 @@
     </row>
     <row r="108" spans="1:4" ht="47.25">
       <c r="A108" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C108" s="6">
         <v>2007</v>
@@ -2996,10 +3007,10 @@
     </row>
     <row r="109" spans="1:4" ht="47.25">
       <c r="A109" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C109" s="6">
         <v>2017</v>
@@ -3008,10 +3019,10 @@
     </row>
     <row r="110" spans="1:4" ht="47.25">
       <c r="A110" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C110" s="6">
         <v>2022</v>
@@ -3020,10 +3031,10 @@
     </row>
     <row r="111" spans="1:4" ht="47.25">
       <c r="A111" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C111" s="6">
         <v>1998</v>
@@ -3032,10 +3043,10 @@
     </row>
     <row r="112" spans="1:4" ht="47.25">
       <c r="A112" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C112" s="6">
         <v>2010</v>
@@ -3044,7 +3055,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>2</v>
@@ -3056,10 +3067,10 @@
     </row>
     <row r="114" spans="1:4" ht="47.25">
       <c r="A114" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C114" s="6">
         <v>2015</v>
@@ -3068,10 +3079,10 @@
     </row>
     <row r="115" spans="1:4" ht="47.25">
       <c r="A115" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C115" s="6">
         <v>2016</v>
@@ -3080,52 +3091,52 @@
     </row>
     <row r="116" spans="1:4" ht="47.25">
       <c r="A116" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C116" s="6">
         <v>2010</v>
       </c>
       <c r="D116" s="12"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" ht="47.25">
       <c r="A117" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="12"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" ht="47.25">
       <c r="A118" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="12"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="47.25">
       <c r="A119" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" ht="47.25">
       <c r="A120" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C120" s="6">
         <v>2023</v>
@@ -3134,10 +3145,10 @@
     </row>
     <row r="121" spans="1:4" ht="47.25">
       <c r="A121" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C121" s="6">
         <v>2008</v>
@@ -3146,10 +3157,10 @@
     </row>
     <row r="122" spans="1:4" ht="47.25">
       <c r="A122" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C122" s="6">
         <v>2005</v>
@@ -3158,10 +3169,10 @@
     </row>
     <row r="123" spans="1:4" ht="47.25">
       <c r="A123" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C123" s="6">
         <v>2019</v>
@@ -3170,10 +3181,10 @@
     </row>
     <row r="124" spans="1:4" ht="47.25">
       <c r="A124" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C124" s="6">
         <v>2014</v>
@@ -3182,10 +3193,10 @@
     </row>
     <row r="125" spans="1:4" ht="47.25">
       <c r="A125" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C125" s="6">
         <v>2017</v>
@@ -3194,10 +3205,10 @@
     </row>
     <row r="126" spans="1:4" ht="47.25">
       <c r="A126" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C126" s="6">
         <v>2016</v>
@@ -3206,36 +3217,36 @@
     </row>
     <row r="127" spans="1:4" ht="94.5">
       <c r="A127" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C127" s="6">
         <v>2014</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="31.5">
       <c r="A128" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>76</v>
+        <v>76</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="C128" s="6">
         <v>2008</v>
       </c>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" ht="31.5">
       <c r="A129" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="C129" s="6">
         <v>2005</v>
@@ -3244,48 +3255,48 @@
     </row>
     <row r="130" spans="1:4" ht="110.25">
       <c r="A130" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C130" s="6">
         <v>2010</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="31.5">
       <c r="A131" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C131" s="6">
         <v>2005</v>
       </c>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" ht="31.5">
       <c r="A132" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>78</v>
+        <v>8</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="C132" s="6">
         <v>2004</v>
       </c>
       <c r="D132" s="12"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" ht="47.25">
       <c r="A133" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="C133" s="6">
         <v>2013</v>
@@ -3294,10 +3305,10 @@
     </row>
     <row r="134" spans="1:4" ht="47.25">
       <c r="A134" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C134" s="6">
         <v>2020</v>
@@ -3306,10 +3317,10 @@
     </row>
     <row r="135" spans="1:4" ht="47.25">
       <c r="A135" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C135" s="6">
         <v>2012</v>
@@ -3318,10 +3329,10 @@
     </row>
     <row r="136" spans="1:4" ht="31.5">
       <c r="A136" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C136" s="6">
         <v>2009</v>
@@ -3330,10 +3341,10 @@
     </row>
     <row r="137" spans="1:4" ht="47.25">
       <c r="A137" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C137" s="6">
         <v>2015</v>
@@ -3342,10 +3353,10 @@
     </row>
     <row r="138" spans="1:4" ht="47.25">
       <c r="A138" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C138" s="6">
         <v>2009</v>
@@ -3354,10 +3365,10 @@
     </row>
     <row r="139" spans="1:4" ht="47.25">
       <c r="A139" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C139" s="6">
         <v>2004</v>
@@ -3366,10 +3377,10 @@
     </row>
     <row r="140" spans="1:4" ht="47.25">
       <c r="A140" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C140" s="6">
         <v>2001</v>
@@ -3378,10 +3389,10 @@
     </row>
     <row r="141" spans="1:4" ht="47.25">
       <c r="A141" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C141" s="6">
         <v>1999</v>
@@ -3390,10 +3401,10 @@
     </row>
     <row r="142" spans="1:4" ht="31.5">
       <c r="A142" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C142" s="6">
         <v>1998</v>
@@ -3402,10 +3413,10 @@
     </row>
     <row r="143" spans="1:4" ht="47.25">
       <c r="A143" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C143" s="6">
         <v>1998</v>
@@ -3414,10 +3425,10 @@
     </row>
     <row r="144" spans="1:4" ht="47.25">
       <c r="A144" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C144" s="6">
         <v>2001</v>
@@ -3426,10 +3437,10 @@
     </row>
     <row r="145" spans="1:4" ht="31.5">
       <c r="A145" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C145" s="6">
         <v>2006</v>
@@ -3438,10 +3449,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C146" s="6">
         <v>2003</v>
@@ -3450,7 +3461,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B147" s="14"/>
       <c r="C147" s="6"/>
@@ -3458,7 +3469,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B148" s="14"/>
       <c r="C148" s="6"/>
@@ -3466,7 +3477,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="6"/>
@@ -3474,7 +3485,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B150" s="14"/>
       <c r="C150" s="6"/>
@@ -3482,7 +3493,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B151" s="14"/>
       <c r="C151" s="6"/>
@@ -3490,7 +3501,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="6"/>
@@ -3498,7 +3509,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B153" s="14"/>
       <c r="C153" s="6"/>
@@ -3506,7 +3517,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B154" s="14"/>
       <c r="C154" s="6"/>
@@ -3514,7 +3525,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B155" s="14"/>
       <c r="C155" s="6"/>
@@ -3522,7 +3533,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="6"/>
@@ -3530,7 +3541,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B157" s="14"/>
       <c r="C157" s="6"/>
@@ -3538,7 +3549,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B158" s="14"/>
       <c r="C158" s="6"/>
@@ -3546,7 +3557,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B159" s="14"/>
       <c r="C159" s="6"/>
@@ -3554,7 +3565,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B160" s="14"/>
       <c r="C160" s="6"/>
@@ -3562,7 +3573,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B161" s="14"/>
       <c r="C161" s="6"/>
@@ -3570,7 +3581,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B162" s="14"/>
       <c r="C162" s="6"/>
@@ -3578,7 +3589,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B163" s="14"/>
       <c r="C163" s="6"/>
@@ -3586,7 +3597,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B164" s="14"/>
       <c r="C164" s="6"/>
@@ -3594,7 +3605,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B165" s="14"/>
       <c r="C165" s="6"/>
@@ -3602,7 +3613,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B166" s="14"/>
       <c r="C166" s="6"/>
@@ -3610,7 +3621,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B167" s="14"/>
       <c r="C167" s="6"/>
@@ -3618,7 +3629,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B168" s="14"/>
       <c r="C168" s="6"/>
@@ -3626,7 +3637,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="6"/>
@@ -3634,7 +3645,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B170" s="14"/>
       <c r="C170" s="6"/>
@@ -3642,7 +3653,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B171" s="14"/>
       <c r="C171" s="6"/>
@@ -3650,7 +3661,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B172" s="14"/>
       <c r="C172" s="6"/>
@@ -3658,7 +3669,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B173" s="14"/>
       <c r="C173" s="6"/>
@@ -3666,7 +3677,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B174" s="14"/>
       <c r="C174" s="6"/>
@@ -3674,7 +3685,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B175" s="14"/>
       <c r="C175" s="6"/>
@@ -3682,7 +3693,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B176" s="14"/>
       <c r="C176" s="6"/>
@@ -3690,7 +3701,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B177" s="14"/>
       <c r="C177" s="6"/>
@@ -3698,7 +3709,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B178" s="14"/>
       <c r="C178" s="6"/>
@@ -3706,7 +3717,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B179" s="14"/>
       <c r="C179" s="6"/>
@@ -3714,7 +3725,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B180" s="14"/>
       <c r="C180" s="6"/>
@@ -3722,7 +3733,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B181" s="14"/>
       <c r="C181" s="6"/>
@@ -3730,7 +3741,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B182" s="14"/>
       <c r="C182" s="6"/>
@@ -3738,7 +3749,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B183" s="14"/>
       <c r="C183" s="6"/>
@@ -3746,7 +3757,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B184" s="14"/>
       <c r="C184" s="6"/>
@@ -3754,7 +3765,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B185" s="14"/>
       <c r="C185" s="6"/>
@@ -3762,7 +3773,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B186" s="14"/>
       <c r="C186" s="6"/>
@@ -3770,7 +3781,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B187" s="14"/>
       <c r="C187" s="6"/>
@@ -3778,7 +3789,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B188" s="14"/>
       <c r="C188" s="6"/>
@@ -3786,7 +3797,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B189" s="14"/>
       <c r="C189" s="6"/>
@@ -3794,7 +3805,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B190" s="14"/>
       <c r="C190" s="6"/>
@@ -3802,7 +3813,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B191" s="14"/>
       <c r="C191" s="6"/>
@@ -3810,7 +3821,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B192" s="14"/>
       <c r="C192" s="6"/>
@@ -3818,7 +3829,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B193" s="14"/>
       <c r="C193" s="6"/>
@@ -3826,7 +3837,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B194" s="14"/>
       <c r="C194" s="6"/>
@@ -3834,7 +3845,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B195" s="14"/>
       <c r="C195" s="6"/>
@@ -3842,7 +3853,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B196" s="14"/>
       <c r="C196" s="6"/>
@@ -3850,7 +3861,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B197" s="14"/>
       <c r="C197" s="6"/>
@@ -3858,7 +3869,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B198" s="14"/>
       <c r="C198" s="6"/>
@@ -3866,7 +3877,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B199" s="14"/>
       <c r="C199" s="6"/>
@@ -3874,7 +3885,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B200" s="14"/>
       <c r="C200" s="6"/>
@@ -3882,7 +3893,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B201" s="14"/>
       <c r="C201" s="6"/>
@@ -3890,7 +3901,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B202" s="14"/>
       <c r="C202" s="6"/>
@@ -3898,7 +3909,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B203" s="14"/>
       <c r="C203" s="6"/>
@@ -3906,7 +3917,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B204" s="14"/>
       <c r="C204" s="6"/>
@@ -3914,7 +3925,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B205" s="14"/>
       <c r="C205" s="6"/>
@@ -3922,7 +3933,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B206" s="14"/>
       <c r="C206" s="6"/>
@@ -3930,7 +3941,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B207" s="14"/>
       <c r="C207" s="6"/>
@@ -3938,7 +3949,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B208" s="14"/>
       <c r="C208" s="6"/>
@@ -3946,7 +3957,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B209" s="14"/>
       <c r="C209" s="6"/>
@@ -3954,7 +3965,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B210" s="14"/>
       <c r="C210" s="6"/>
@@ -3962,7 +3973,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B211" s="14"/>
       <c r="C211" s="6"/>
@@ -3970,7 +3981,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B212" s="14"/>
       <c r="C212" s="6"/>
@@ -3978,7 +3989,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B213" s="14"/>
       <c r="C213" s="6"/>
@@ -3986,7 +3997,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B214" s="14"/>
       <c r="C214" s="6"/>
@@ -3994,7 +4005,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B215" s="14"/>
       <c r="C215" s="6"/>
@@ -4002,7 +4013,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B216" s="14"/>
       <c r="C216" s="6"/>
@@ -4010,7 +4021,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B217" s="14"/>
       <c r="C217" s="6"/>
@@ -4018,7 +4029,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B218" s="14"/>
       <c r="C218" s="6"/>
@@ -4026,7 +4037,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B219" s="14"/>
       <c r="C219" s="6"/>
@@ -4034,7 +4045,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B220" s="14"/>
       <c r="C220" s="6"/>
@@ -4042,7 +4053,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B221" s="14"/>
       <c r="C221" s="6"/>
@@ -4050,7 +4061,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B222" s="14"/>
       <c r="C222" s="6"/>
@@ -4058,7 +4069,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B223" s="14"/>
       <c r="C223" s="6"/>
@@ -4066,7 +4077,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B224" s="14"/>
       <c r="C224" s="6"/>
@@ -4074,7 +4085,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B225" s="14"/>
       <c r="C225" s="6"/>
@@ -4082,7 +4093,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B226" s="14"/>
       <c r="C226" s="6"/>
@@ -4090,7 +4101,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B227" s="14"/>
       <c r="C227" s="6"/>
@@ -4098,7 +4109,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B228" s="14"/>
       <c r="C228" s="6"/>
@@ -4106,7 +4117,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B229" s="14"/>
       <c r="C229" s="6"/>
@@ -4114,7 +4125,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B230" s="14"/>
       <c r="C230" s="6"/>
@@ -4122,7 +4133,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B231" s="14"/>
       <c r="C231" s="6"/>
@@ -4130,7 +4141,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B232" s="14"/>
       <c r="C232" s="6"/>
@@ -4138,7 +4149,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B233" s="14"/>
       <c r="C233" s="6"/>
@@ -4146,7 +4157,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B234" s="14"/>
       <c r="C234" s="6"/>
@@ -4154,7 +4165,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B235" s="14"/>
       <c r="C235" s="6"/>
@@ -4162,7 +4173,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B236" s="14"/>
       <c r="C236" s="6"/>
@@ -4170,7 +4181,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B237" s="14"/>
       <c r="C237" s="6"/>
@@ -4178,7 +4189,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B238" s="14"/>
       <c r="C238" s="6"/>
@@ -4186,7 +4197,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B239" s="14"/>
       <c r="C239" s="6"/>
@@ -4194,7 +4205,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B240" s="14"/>
       <c r="C240" s="6"/>
@@ -4202,7 +4213,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B241" s="14"/>
       <c r="C241" s="6"/>
@@ -4210,7 +4221,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B242" s="14"/>
       <c r="C242" s="6"/>
@@ -4218,7 +4229,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B243" s="14"/>
       <c r="C243" s="6"/>
@@ -4226,7 +4237,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B244" s="14"/>
       <c r="C244" s="6"/>
@@ -4234,7 +4245,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B245" s="14"/>
       <c r="C245" s="6"/>
@@ -4242,7 +4253,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B246" s="14"/>
       <c r="C246" s="6"/>
@@ -4250,7 +4261,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B247" s="14"/>
       <c r="C247" s="6"/>
@@ -4258,7 +4269,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B248" s="14"/>
       <c r="C248" s="6"/>
@@ -4266,7 +4277,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B249" s="14"/>
       <c r="C249" s="6"/>
@@ -4274,7 +4285,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B250" s="14"/>
       <c r="C250" s="6"/>
@@ -4282,7 +4293,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B251" s="14"/>
       <c r="C251" s="6"/>
@@ -4290,7 +4301,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B252" s="14"/>
       <c r="C252" s="6"/>
@@ -4298,7 +4309,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B253" s="14"/>
       <c r="C253" s="6"/>
@@ -4306,7 +4317,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B254" s="14"/>
       <c r="C254" s="6"/>
@@ -4314,7 +4325,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B255" s="14"/>
       <c r="C255" s="6"/>
@@ -4322,7 +4333,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B256" s="14"/>
       <c r="C256" s="6"/>
@@ -4330,7 +4341,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B257" s="14"/>
       <c r="C257" s="6"/>
@@ -4338,7 +4349,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B258" s="14"/>
       <c r="C258" s="6"/>
@@ -4346,7 +4357,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B259" s="14"/>
       <c r="C259" s="6"/>
@@ -4354,7 +4365,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B260" s="14"/>
       <c r="C260" s="6"/>
@@ -4362,7 +4373,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B261" s="14"/>
       <c r="C261" s="6"/>
@@ -4370,7 +4381,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B262" s="14"/>
       <c r="C262" s="6"/>
@@ -4378,7 +4389,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B263" s="14"/>
       <c r="C263" s="6"/>
@@ -4386,7 +4397,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B264" s="14"/>
       <c r="C264" s="6"/>
@@ -4394,7 +4405,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B265" s="14"/>
       <c r="C265" s="6"/>
@@ -4402,7 +4413,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B266" s="14"/>
       <c r="C266" s="6"/>
@@ -4410,7 +4421,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B267" s="14"/>
       <c r="C267" s="6"/>
@@ -4418,7 +4429,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B268" s="14"/>
       <c r="C268" s="6"/>
@@ -4426,7 +4437,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B269" s="14"/>
       <c r="C269" s="6"/>
@@ -4434,7 +4445,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B270" s="14"/>
       <c r="C270" s="6"/>
@@ -4442,7 +4453,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B271" s="14"/>
       <c r="C271" s="6"/>
@@ -4450,7 +4461,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B272" s="14"/>
       <c r="C272" s="6"/>
@@ -4458,7 +4469,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B273" s="14"/>
       <c r="C273" s="6"/>
@@ -4466,7 +4477,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B274" s="14"/>
       <c r="C274" s="6"/>
@@ -4474,7 +4485,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B275" s="14"/>
       <c r="C275" s="6"/>
@@ -4482,7 +4493,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B276" s="14"/>
       <c r="C276" s="6"/>
@@ -4490,7 +4501,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B277" s="14"/>
       <c r="C277" s="6"/>
@@ -4498,7 +4509,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B278" s="14"/>
       <c r="C278" s="6"/>
@@ -4506,7 +4517,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B279" s="14"/>
       <c r="C279" s="6"/>
@@ -4514,7 +4525,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B280" s="14"/>
       <c r="C280" s="6"/>
@@ -4522,7 +4533,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B281" s="14"/>
       <c r="C281" s="6"/>
@@ -4530,7 +4541,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B282" s="14"/>
       <c r="C282" s="6"/>
@@ -4538,7 +4549,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B283" s="14"/>
       <c r="C283" s="6"/>
@@ -4546,7 +4557,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B284" s="14"/>
       <c r="C284" s="6"/>
@@ -4554,7 +4565,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B285" s="14"/>
       <c r="C285" s="6"/>
@@ -4562,7 +4573,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B286" s="14"/>
       <c r="C286" s="6"/>
@@ -4570,7 +4581,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B287" s="14"/>
       <c r="C287" s="6"/>
@@ -4578,7 +4589,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B288" s="14"/>
       <c r="C288" s="6"/>
@@ -4586,7 +4597,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B289" s="14"/>
       <c r="C289" s="6"/>
@@ -4594,7 +4605,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B290" s="14"/>
       <c r="C290" s="6"/>
@@ -4602,7 +4613,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B291" s="14"/>
       <c r="C291" s="6"/>
@@ -4610,7 +4621,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B292" s="14"/>
       <c r="C292" s="6"/>
@@ -4618,7 +4629,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B293" s="14"/>
       <c r="C293" s="6"/>
@@ -4626,7 +4637,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B294" s="14"/>
       <c r="C294" s="6"/>
@@ -4634,7 +4645,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B295" s="14"/>
       <c r="C295" s="6"/>
@@ -4642,7 +4653,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B296" s="14"/>
       <c r="C296" s="6"/>
@@ -4650,7 +4661,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B297" s="14"/>
       <c r="C297" s="6"/>
@@ -4658,7 +4669,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B298" s="14"/>
       <c r="C298" s="6"/>
@@ -4666,7 +4677,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B299" s="14"/>
       <c r="C299" s="6"/>
@@ -4674,7 +4685,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B300" s="14"/>
       <c r="C300" s="6"/>
@@ -4682,7 +4693,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B301" s="14"/>
       <c r="C301" s="6"/>
@@ -4690,7 +4701,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B302" s="14"/>
       <c r="C302" s="6"/>
@@ -4698,7 +4709,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B303" s="14"/>
       <c r="C303" s="6"/>
@@ -4706,7 +4717,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B304" s="14"/>
       <c r="C304" s="6"/>
@@ -4714,7 +4725,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B305" s="14"/>
       <c r="C305" s="6"/>
@@ -4722,7 +4733,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B306" s="14"/>
       <c r="C306" s="6"/>
@@ -4730,7 +4741,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B307" s="14"/>
       <c r="C307" s="6"/>
@@ -4738,7 +4749,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B308" s="14"/>
       <c r="C308" s="6"/>
@@ -4746,7 +4757,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B309" s="14"/>
       <c r="C309" s="6"/>
@@ -4754,7 +4765,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B310" s="14"/>
       <c r="C310" s="6"/>
@@ -4762,7 +4773,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B311" s="14"/>
       <c r="C311" s="6"/>
@@ -4770,7 +4781,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B312" s="14"/>
       <c r="C312" s="6"/>
@@ -4778,7 +4789,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B313" s="14"/>
       <c r="C313" s="6"/>
@@ -4786,7 +4797,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B314" s="14"/>
       <c r="C314" s="6"/>
@@ -4794,7 +4805,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B315" s="14"/>
       <c r="C315" s="6"/>
@@ -4802,7 +4813,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B316" s="14"/>
       <c r="C316" s="6"/>
@@ -4810,7 +4821,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B317" s="14"/>
       <c r="C317" s="6"/>
@@ -4818,7 +4829,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B318" s="14"/>
       <c r="C318" s="6"/>
@@ -4826,7 +4837,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B319" s="14"/>
       <c r="C319" s="6"/>
@@ -4834,7 +4845,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B320" s="14"/>
       <c r="C320" s="6"/>
@@ -4842,7 +4853,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B321" s="14"/>
       <c r="C321" s="6"/>
@@ -4850,7 +4861,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B322" s="14"/>
       <c r="C322" s="6"/>
@@ -4858,7 +4869,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B323" s="14"/>
       <c r="C323" s="6"/>
@@ -4866,7 +4877,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B324" s="14"/>
       <c r="C324" s="6"/>
@@ -4874,7 +4885,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B325" s="14"/>
       <c r="C325" s="6"/>
@@ -4882,7 +4893,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B326" s="14"/>
       <c r="C326" s="6"/>
@@ -4890,7 +4901,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B327" s="14"/>
       <c r="C327" s="6"/>
@@ -4898,7 +4909,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B328" s="14"/>
       <c r="C328" s="6"/>
@@ -4906,7 +4917,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B329" s="14"/>
       <c r="C329" s="6"/>
@@ -4914,7 +4925,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B330" s="14"/>
       <c r="C330" s="6"/>
@@ -4922,7 +4933,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B331" s="14"/>
       <c r="C331" s="6"/>
@@ -4930,7 +4941,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B332" s="14"/>
       <c r="C332" s="6"/>
@@ -4938,7 +4949,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B333" s="14"/>
       <c r="C333" s="6"/>
@@ -4946,7 +4957,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B334" s="14"/>
       <c r="C334" s="6"/>
@@ -4954,7 +4965,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B335" s="14"/>
       <c r="C335" s="6"/>
@@ -4962,7 +4973,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B336" s="14"/>
       <c r="C336" s="6"/>
@@ -4970,7 +4981,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B337" s="14"/>
       <c r="C337" s="6"/>
@@ -4978,7 +4989,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B338" s="14"/>
       <c r="C338" s="6"/>
@@ -4986,7 +4997,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B339" s="14"/>
       <c r="C339" s="6"/>
@@ -4994,7 +5005,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B340" s="14"/>
       <c r="C340" s="6"/>
@@ -5002,7 +5013,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B341" s="14"/>
       <c r="C341" s="6"/>
@@ -5010,7 +5021,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B342" s="14"/>
       <c r="C342" s="6"/>
@@ -5018,7 +5029,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B343" s="14"/>
       <c r="C343" s="6"/>
@@ -5026,7 +5037,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B344" s="14"/>
       <c r="C344" s="6"/>
@@ -5034,7 +5045,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B345" s="14"/>
       <c r="C345" s="6"/>
@@ -5042,7 +5053,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B346" s="14"/>
       <c r="C346" s="6"/>
@@ -5050,7 +5061,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B347" s="14"/>
       <c r="C347" s="6"/>
@@ -5058,7 +5069,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B348" s="14"/>
       <c r="C348" s="6"/>
@@ -5066,7 +5077,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B349" s="14"/>
       <c r="C349" s="6"/>
@@ -5074,7 +5085,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B350" s="14"/>
       <c r="C350" s="6"/>
@@ -5082,7 +5093,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B351" s="14"/>
       <c r="C351" s="6"/>
@@ -5090,7 +5101,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B352" s="14"/>
       <c r="C352" s="6"/>
@@ -5098,7 +5109,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B353" s="14"/>
       <c r="C353" s="6"/>
@@ -5106,7 +5117,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B354" s="14"/>
       <c r="C354" s="6"/>
@@ -5114,7 +5125,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B355" s="14"/>
       <c r="C355" s="6"/>
@@ -5122,7 +5133,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B356" s="14"/>
       <c r="C356" s="6"/>
@@ -5130,7 +5141,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B357" s="14"/>
       <c r="C357" s="6"/>
@@ -5138,7 +5149,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B358" s="14"/>
       <c r="C358" s="6"/>
@@ -5146,7 +5157,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B359" s="14"/>
       <c r="C359" s="6"/>
@@ -5154,7 +5165,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B360" s="14"/>
       <c r="C360" s="6"/>
@@ -5162,7 +5173,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B361" s="14"/>
       <c r="C361" s="6"/>
@@ -5170,7 +5181,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B362" s="14"/>
       <c r="C362" s="6"/>
@@ -5178,7 +5189,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B363" s="14"/>
       <c r="C363" s="6"/>
@@ -5186,7 +5197,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B364" s="14"/>
       <c r="C364" s="6"/>
@@ -5194,7 +5205,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B365" s="14"/>
       <c r="C365" s="6"/>
@@ -5202,7 +5213,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B366" s="14"/>
       <c r="C366" s="6"/>
@@ -5210,7 +5221,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B367" s="14"/>
       <c r="C367" s="6"/>
@@ -5218,7 +5229,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B368" s="14"/>
       <c r="C368" s="6"/>
@@ -5226,7 +5237,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B369" s="14"/>
       <c r="C369" s="6"/>
@@ -5234,7 +5245,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B370" s="14"/>
       <c r="C370" s="6"/>
@@ -5242,7 +5253,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B371" s="14"/>
       <c r="C371" s="6"/>
@@ -5250,7 +5261,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B372" s="14"/>
       <c r="C372" s="6"/>
@@ -5258,7 +5269,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B373" s="14"/>
       <c r="C373" s="6"/>
@@ -5266,7 +5277,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B374" s="14"/>
       <c r="C374" s="6"/>
@@ -5274,7 +5285,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B375" s="14"/>
       <c r="C375" s="6"/>
@@ -5282,7 +5293,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B376" s="14"/>
       <c r="C376" s="6"/>
@@ -5290,7 +5301,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B377" s="14"/>
       <c r="C377" s="6"/>
@@ -5298,7 +5309,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B378" s="14"/>
       <c r="C378" s="6"/>
@@ -5306,7 +5317,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B379" s="14"/>
       <c r="C379" s="6"/>
@@ -5314,7 +5325,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B380" s="14"/>
       <c r="C380" s="6"/>
@@ -5322,7 +5333,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B381" s="14"/>
       <c r="C381" s="6"/>
@@ -5330,7 +5341,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B382" s="14"/>
       <c r="C382" s="6"/>
@@ -5338,7 +5349,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B383" s="14"/>
       <c r="C383" s="6"/>
@@ -5346,7 +5357,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B384" s="14"/>
       <c r="C384" s="6"/>
@@ -5354,7 +5365,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B385" s="14"/>
       <c r="C385" s="6"/>
@@ -5362,7 +5373,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B386" s="14"/>
       <c r="C386" s="6"/>
@@ -5370,7 +5381,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B387" s="14"/>
       <c r="C387" s="6"/>
@@ -5378,7 +5389,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B388" s="14"/>
       <c r="C388" s="6"/>
@@ -5386,7 +5397,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B389" s="14"/>
       <c r="C389" s="6"/>
@@ -5394,7 +5405,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B390" s="14"/>
       <c r="C390" s="6"/>
@@ -5402,7 +5413,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B391" s="14"/>
       <c r="C391" s="6"/>
@@ -5410,7 +5421,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B392" s="14"/>
       <c r="C392" s="6"/>
@@ -5418,7 +5429,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B393" s="14"/>
       <c r="C393" s="6"/>
@@ -5426,7 +5437,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B394" s="14"/>
       <c r="C394" s="6"/>
@@ -5434,7 +5445,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B395" s="14"/>
       <c r="C395" s="6"/>
@@ -5442,7 +5453,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B396" s="14"/>
       <c r="C396" s="6"/>
@@ -5450,7 +5461,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B397" s="14"/>
       <c r="C397" s="6"/>
@@ -5458,7 +5469,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B398" s="14"/>
       <c r="C398" s="6"/>
@@ -5466,7 +5477,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B399" s="14"/>
       <c r="C399" s="6"/>
@@ -5474,7 +5485,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B400" s="14"/>
       <c r="C400" s="6"/>
@@ -5482,7 +5493,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B401" s="14"/>
       <c r="C401" s="6"/>
@@ -5490,7 +5501,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B402" s="14"/>
       <c r="C402" s="6"/>
@@ -5498,7 +5509,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B403" s="14"/>
       <c r="C403" s="6"/>
@@ -5506,7 +5517,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B404" s="14"/>
       <c r="C404" s="6"/>
@@ -5514,7 +5525,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B405" s="14"/>
       <c r="C405" s="6"/>
@@ -5522,7 +5533,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B406" s="14"/>
       <c r="C406" s="6"/>
@@ -5530,7 +5541,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B407" s="14"/>
       <c r="C407" s="6"/>
@@ -5538,7 +5549,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B408" s="14"/>
       <c r="C408" s="6"/>
@@ -5546,7 +5557,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B409" s="14"/>
       <c r="C409" s="6"/>
@@ -5554,7 +5565,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B410" s="14"/>
       <c r="C410" s="6"/>
@@ -5562,7 +5573,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B411" s="14"/>
       <c r="C411" s="6"/>
@@ -5570,7 +5581,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B412" s="14"/>
       <c r="C412" s="6"/>
@@ -5578,7 +5589,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B413" s="14"/>
       <c r="C413" s="6"/>
@@ -5586,7 +5597,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B414" s="14"/>
       <c r="C414" s="6"/>
@@ -5594,7 +5605,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B415" s="14"/>
       <c r="C415" s="6"/>
@@ -5602,7 +5613,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B416" s="14"/>
       <c r="C416" s="6"/>
@@ -5610,7 +5621,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B417" s="14"/>
       <c r="C417" s="6"/>
@@ -5618,7 +5629,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B418" s="14"/>
       <c r="C418" s="6"/>
@@ -5626,7 +5637,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B419" s="14"/>
       <c r="C419" s="6"/>
@@ -5634,7 +5645,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B420" s="14"/>
       <c r="C420" s="6"/>
@@ -5642,7 +5653,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B421" s="14"/>
       <c r="C421" s="6"/>
@@ -5650,7 +5661,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B422" s="14"/>
       <c r="C422" s="6"/>
@@ -5658,7 +5669,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B423" s="14"/>
       <c r="C423" s="6"/>
@@ -5666,7 +5677,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B424" s="14"/>
       <c r="C424" s="6"/>
@@ -5674,7 +5685,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B425" s="14"/>
       <c r="C425" s="6"/>
@@ -5682,7 +5693,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B426" s="14"/>
       <c r="C426" s="6"/>
@@ -5690,7 +5701,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B427" s="14"/>
       <c r="C427" s="6"/>
@@ -5698,7 +5709,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B428" s="14"/>
       <c r="C428" s="6"/>
@@ -5706,7 +5717,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B429" s="14"/>
       <c r="C429" s="6"/>
@@ -5714,7 +5725,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B430" s="14"/>
       <c r="C430" s="6"/>
@@ -5722,7 +5733,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B431" s="14"/>
       <c r="C431" s="6"/>
@@ -5730,7 +5741,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B432" s="14"/>
       <c r="C432" s="6"/>
@@ -5738,7 +5749,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B433" s="14"/>
       <c r="C433" s="6"/>
@@ -5746,7 +5757,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B434" s="14"/>
       <c r="C434" s="6"/>
@@ -5754,7 +5765,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B435" s="14"/>
       <c r="C435" s="6"/>
@@ -5762,7 +5773,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B436" s="14"/>
       <c r="C436" s="6"/>
@@ -5770,7 +5781,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B437" s="14"/>
       <c r="C437" s="6"/>
@@ -5778,7 +5789,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B438" s="14"/>
       <c r="C438" s="6"/>
@@ -5786,7 +5797,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B439" s="14"/>
       <c r="C439" s="6"/>
@@ -5794,7 +5805,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B440" s="14"/>
       <c r="C440" s="6"/>
@@ -5802,7 +5813,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B441" s="14"/>
       <c r="C441" s="6"/>
@@ -5810,7 +5821,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B442" s="14"/>
       <c r="C442" s="6"/>
@@ -5818,7 +5829,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B443" s="14"/>
       <c r="C443" s="6"/>
@@ -5826,7 +5837,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B444" s="14"/>
       <c r="C444" s="6"/>
@@ -5834,7 +5845,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B445" s="14"/>
       <c r="C445" s="6"/>
@@ -5842,7 +5853,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B446" s="14"/>
       <c r="C446" s="6"/>
@@ -5850,7 +5861,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B447" s="14"/>
       <c r="C447" s="6"/>
@@ -5858,7 +5869,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B448" s="14"/>
       <c r="C448" s="6"/>
@@ -5866,7 +5877,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B449" s="14"/>
       <c r="C449" s="6"/>
@@ -5874,7 +5885,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B450" s="14"/>
       <c r="C450" s="6"/>
@@ -5882,7 +5893,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B451" s="14"/>
       <c r="C451" s="6"/>
@@ -5890,7 +5901,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B452" s="14"/>
       <c r="C452" s="6"/>
@@ -5898,7 +5909,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B453" s="14"/>
       <c r="C453" s="6"/>
@@ -5906,7 +5917,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B454" s="14"/>
       <c r="C454" s="6"/>
@@ -5914,7 +5925,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B455" s="14"/>
       <c r="C455" s="6"/>
@@ -5922,7 +5933,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B456" s="14"/>
       <c r="C456" s="6"/>
@@ -5930,7 +5941,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B457" s="14"/>
       <c r="C457" s="6"/>
@@ -5938,7 +5949,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B458" s="14"/>
       <c r="C458" s="6"/>
@@ -5946,7 +5957,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B459" s="14"/>
       <c r="C459" s="6"/>
@@ -5954,7 +5965,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B460" s="14"/>
       <c r="C460" s="6"/>
@@ -5962,7 +5973,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B461" s="14"/>
       <c r="C461" s="6"/>
@@ -5970,7 +5981,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B462" s="14"/>
       <c r="C462" s="6"/>
@@ -5978,7 +5989,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B463" s="14"/>
       <c r="C463" s="6"/>
@@ -5986,7 +5997,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B464" s="14"/>
       <c r="C464" s="6"/>
@@ -5994,7 +6005,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B465" s="14"/>
       <c r="C465" s="6"/>
@@ -6002,7 +6013,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B466" s="14"/>
       <c r="C466" s="6"/>
@@ -6010,7 +6021,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B467" s="14"/>
       <c r="C467" s="6"/>
@@ -6018,7 +6029,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B468" s="14"/>
       <c r="C468" s="6"/>
@@ -6026,7 +6037,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B469" s="14"/>
       <c r="C469" s="6"/>
@@ -6034,7 +6045,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B470" s="14"/>
       <c r="C470" s="6"/>
@@ -6042,7 +6053,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B471" s="14"/>
       <c r="C471" s="6"/>
@@ -6050,7 +6061,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B472" s="14"/>
       <c r="C472" s="6"/>
@@ -6058,7 +6069,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B473" s="14"/>
       <c r="C473" s="6"/>
@@ -6066,7 +6077,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B474" s="14"/>
       <c r="C474" s="6"/>
@@ -6074,7 +6085,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B475" s="14"/>
       <c r="C475" s="6"/>
@@ -6082,7 +6093,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B476" s="14"/>
       <c r="C476" s="6"/>
@@ -6090,7 +6101,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B477" s="14"/>
       <c r="C477" s="6"/>
@@ -6098,7 +6109,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B478" s="14"/>
       <c r="C478" s="6"/>
@@ -6106,7 +6117,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B479" s="14"/>
       <c r="C479" s="6"/>
@@ -6114,7 +6125,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B480" s="14"/>
       <c r="C480" s="6"/>
@@ -6122,7 +6133,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B481" s="14"/>
       <c r="C481" s="6"/>
@@ -6130,7 +6141,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B482" s="14"/>
       <c r="C482" s="6"/>
@@ -6138,7 +6149,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B483" s="14"/>
       <c r="C483" s="6"/>
@@ -6146,7 +6157,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B484" s="14"/>
       <c r="C484" s="6"/>
@@ -6154,7 +6165,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B485" s="14"/>
       <c r="C485" s="6"/>
@@ -6162,7 +6173,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B486" s="14"/>
       <c r="C486" s="6"/>
@@ -6170,7 +6181,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B487" s="14"/>
       <c r="C487" s="6"/>
@@ -6178,7 +6189,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B488" s="14"/>
       <c r="C488" s="6"/>
@@ -6186,7 +6197,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B489" s="14"/>
       <c r="C489" s="6"/>
@@ -6194,7 +6205,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B490" s="14"/>
       <c r="C490" s="6"/>
@@ -6202,7 +6213,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B491" s="14"/>
       <c r="C491" s="6"/>
@@ -6210,7 +6221,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B492" s="14"/>
       <c r="C492" s="6"/>
@@ -6218,7 +6229,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B493" s="14"/>
       <c r="C493" s="6"/>
@@ -6226,7 +6237,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B494" s="14"/>
       <c r="C494" s="6"/>
@@ -6234,7 +6245,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B495" s="14"/>
       <c r="C495" s="6"/>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="15" yWindow="645" windowWidth="23025" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="234">
   <si>
     <t>Netoge no Yome ga Ninki Idol datta</t>
   </si>
@@ -970,6 +965,27 @@
     <t>Danganronpa: Kibou no Gakuen to Zetsubou no Koukousei The Animation
 ダンガンロンパ 希望の学園と絶望の高校生 THE ANIMATION
 Danganronpa: Học viện Hy vọng và Học sinh của Tuyệt vọng – The Animation</t>
+  </si>
+  <si>
+    <t>Gorou Amamiya, một bác sĩ sản khoa, là fan của thần tượng Ai Hoshino. Anh bị sát hại bởi một fan cuồng khi Ai đến bệnh viện sinh con. Gorou tái sinh thành Aqua Hoshino – con trai của Ai. Cùng lúc, Sarina (bệnh nhân nhí của Gorou) cũng tái sinh thành Ruby Hoshino – em gái sinh đôi của Aqua. Ai Hoshino giấu việc làm mẹ để tiếp tục sự nghiệp thần tượng. Tuy nhiên, cô bị chính fan cuồng sát hại ngay trước mặt hai con nhỏ. Aqua nghi ngờ cha ruột là người đứng sau vụ việc và thề sẽ trả thù. Aqua gia nhập ngành giải trí để tiếp cận những người từng làm việc với Ai, nhằm lần ra danh tính cha ruột. Ruby cũng theo đuổi giấc mơ trở thành thần tượng như mẹ. Aqua tham gia bộ phim kể về cuộc đời Ai Hoshino, do Kaburagi thực hiện. Quá trình sản xuất phim giúp Aqua tiếp cận nhiều nhân vật từng gắn bó với Ai, từ đó thu thập thêm manh mối về cha ruột. Ruby phát hiện Aqua chính là Gorou tái sinh. Aqua xác định được cha ruột là Hikaru Kamiki – một diễn viên nổi tiếng, có vẻ ngoài hoàn hảo nhưng thực chất là kẻ nguy hiểm. Hắn từng có quan hệ với nhiều phụ nữ trong ngành giải trí, và có liên quan đến cái chết của Ai. Aqua dằn vặt giữa việc trả thù và bảo vệ những người yêu quý. Sau cùng Aqua cũng thu thập đủ bằng chứng để đối đầu với Hikaru Kamiki, Ruby cũng sẵn sàng đối mặt với sự thật và quá khứ đau thương.</t>
+  </si>
+  <si>
+    <t>Mikado Ryugamine chuyển đến Tokyo để tìm kiếm cuộc sống thú vị và nhập học cùng bạn thân Kida Masaomi. Thế giới ngầm của Ikebukuro – nơi tồn tại các băng nhóm, sinh vật siêu nhiên và những nhân vật kỳ quái. Celty là một Dullahan (hồn ma không đầu) đến từ Ireland, sống ở Ikebukuro để tìm lại chiếc đầu bị đánh cắp. Cô làm nghề giao hàng và sống cùng bác sĩ kỳ quái Shinra Kishitani – người yêu cô. Ba thế lực chính: Dollars, Khăn vàng, và Saika. Izaya Orihara – một tay môi giới thông tin, thao túng các thế lực để tạo ra hỗn loạn. Shizuo Heiwajima – người có sức mạnh ảo ma, thường đụng độ với Izaya. Izaya kích động mâu thuẫn giữa Dollars, Khăn vàng và Saika để tạo ra một cuộc chiến toàn diện. Kida từng là thủ lĩnh Khăn vàng, bị kéo trở lại thế giới bạo lực khi bạn gái cậu – Saki bị bắt cóc. Mikado, người sáng lập Dollars, phải đối mặt với sự thật về tổ chức mình tạo ra. Thanh kiếm Saika có khả năng “yêu” con người và điều khiển họ như tay sai. Anri Sonohara là người sở hữu Saika thật nhưng cô dùng nó để bảo vệ người khác. Mikado dần trở nên cực đoan, muốn “thanh lọc” Dollars khỏi những kẻ xấu, dẫn đến xung đột với bạn bè. Kida rời khỏi Ikebukuro sau khi giải cứu Saki. Anri tiếp tục sống âm thầm, giữ bí mật về Saika. Cuộc chiến giữa các thế lực kết thúc khi Celty lấy lại đầu và quyết định sống như một con người. Izaya bị đánh bại bởi Simon – người bán sushi – và biến mất khỏi thành phố. Mikado, sau khi bị thương nặng, được Shinra cứu sống và bắt đầu lại cuộc sống mới cùng Anri và Kida.</t>
+  </si>
+  <si>
+    <t>Glenn Litbeit là bác sĩ chuyên điều trị cho các cô gái quái vật. Trợ lý của anh là Saphentite “Sapphee” Neikes – một lamia (nửa người nửa rắn), người luôn âm thầm yêu Glenn. Glenn tiếp nhận nhiều ca bệnh kỳ lạ từ các chủng loài khác nhau. Mỗi ca bệnh đều gắn liền với câu chuyện cá nhân và văn hóa của từng loài. Nhiều bệnh nhân nữ có tình cảm với Glenn, tạo nên những tình huống hài hước và ghen tuông, đặc biệt từ Sapphee. Glenn luôn giữ thái độ chuyên nghiệp, nhưng đôi lúc cũng bị cuốn vào cảm xúc. Một số thế lực không muốn sự hòa hợp giữa các loài, âm mưu gây rối tại Lindworm. Glenn vô tình bị cuốn vào các cuộc tranh chấp, nhưng vẫn giữ vững lý tưởng chữa bệnh và kết nối mọi người. Glenn từng là học trò của bác sĩ nổi tiếng và mang trong mình lý tưởng chữa bệnh không phân biệt chủng loài. Sapphee là con gái của một gia đình quý tộc lamia, từng được hứa hôn với Glenn từ nhỏ. Glenn tiếp tục công việc tại phòng khám, ngày càng được tin tưởng bởi cả con người và quái vật. Mối quan hệ giữa Glenn và Sapphee tiến triển nhẹ nhàng, nhưng chưa có kết luận rõ ràng.</t>
+  </si>
+  <si>
+    <t>Càng xem càng rối não lên drop từ ss3</t>
+  </si>
+  <si>
+    <t>Drop từ tập 7-8 gì đó</t>
+  </si>
+  <si>
+    <t>Hanabi Yasuraoka yêu thầy giáo Narumi Kanai – người từng là hàng xóm thời thơ ấu. Mugi Awaya yêu cô giáo Akane Minagawa – người từng là gia sư. Vì cả hai đều không thể có được người mình yêu, Hanabi và Mugi quyết định hẹn hò giả để lấp đầy khoảng trống cô đơn. Hanabi và Mugi cam kết không yêu nhau thật sự, chỉ dùng nhau để xoa dịu nỗi đau. Họ cho phép nhau theo đuổi người mình yêu đơn phương, nhưng vẫn giữ mối quan hệ thể xác. Akane là cô giáo quyến rũ, thích chơi đùa với tình cảm người khác. Cô biết Mugi yêu mình nhưng vẫn tán tỉnh Narumi – người Hanabi yêu. Akane trở thành trung tâm của sự ghen tuông và tổn thương. Hanabi thử yêu người khác như Sanae (bạn gái cùng lớp) và một chàng trai khác, nhưng đều không thành. Cô nhận ra mình đang chạy trốn cảm xúc thật và không thể lấp đầy khoảng trống bằng sự thay thế. Mugi có cơ hội ở bên Akane, nhưng nhận ra cô không thể yêu ai thật lòng. Akane bắt đầu thay đổi khi Narumi tỏ ra chân thành và muốn kết hôn với cô. Hanabi và Mugi quyết định chia tay, chấm dứt mối quan hệ giả tạo. Cả hai chấp nhận rằng tình yêu không phải lúc nào cũng được đáp lại. Hanabi chọn bước tiếp một mình, trưởng thành từ những tổn thương.</t>
+  </si>
+  <si>
+    <t>Sếch trá hình kèm bệnh hoạn nên drop từ tập 4</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1202,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1326,7 +1342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1540,7 +1556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1548,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1560,7 +1576,8 @@
     <col min="2" max="2" width="69.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
     <col min="4" max="4" width="96.75" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="2"/>
+    <col min="5" max="5" width="8.75" style="3"/>
+    <col min="6" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3053,7 +3070,7 @@
       </c>
       <c r="D112" s="12"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113" s="6" t="s">
         <v>76</v>
       </c>
@@ -3065,7 +3082,7 @@
       </c>
       <c r="D113" s="12"/>
     </row>
-    <row r="114" spans="1:4" ht="47.25">
+    <row r="114" spans="1:5" ht="47.25">
       <c r="A114" s="6" t="s">
         <v>76</v>
       </c>
@@ -3077,7 +3094,7 @@
       </c>
       <c r="D114" s="12"/>
     </row>
-    <row r="115" spans="1:4" ht="47.25">
+    <row r="115" spans="1:5" ht="47.25">
       <c r="A115" s="6" t="s">
         <v>76</v>
       </c>
@@ -3089,7 +3106,7 @@
       </c>
       <c r="D115" s="12"/>
     </row>
-    <row r="116" spans="1:4" ht="47.25">
+    <row r="116" spans="1:5" ht="47.25">
       <c r="A116" s="6" t="s">
         <v>76</v>
       </c>
@@ -3101,37 +3118,43 @@
       </c>
       <c r="D116" s="12"/>
     </row>
-    <row r="117" spans="1:4" ht="47.25">
+    <row r="117" spans="1:5" ht="47.25">
       <c r="A117" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C117" s="6"/>
+      <c r="C117" s="6">
+        <v>2009</v>
+      </c>
       <c r="D117" s="12"/>
     </row>
-    <row r="118" spans="1:4" ht="47.25">
+    <row r="118" spans="1:5" ht="47.25">
       <c r="A118" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C118" s="6"/>
+      <c r="C118" s="6">
+        <v>2011</v>
+      </c>
       <c r="D118" s="12"/>
     </row>
-    <row r="119" spans="1:4" ht="47.25">
+    <row r="119" spans="1:5" ht="47.25">
       <c r="A119" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C119" s="6"/>
+      <c r="C119" s="6">
+        <v>2006</v>
+      </c>
       <c r="D119" s="12"/>
     </row>
-    <row r="120" spans="1:4" ht="47.25">
+    <row r="120" spans="1:5" ht="47.25">
       <c r="A120" s="6" t="s">
         <v>76</v>
       </c>
@@ -3143,7 +3166,7 @@
       </c>
       <c r="D120" s="12"/>
     </row>
-    <row r="121" spans="1:4" ht="47.25">
+    <row r="121" spans="1:5" ht="47.25">
       <c r="A121" s="6" t="s">
         <v>76</v>
       </c>
@@ -3155,7 +3178,7 @@
       </c>
       <c r="D121" s="12"/>
     </row>
-    <row r="122" spans="1:4" ht="47.25">
+    <row r="122" spans="1:5" ht="47.25">
       <c r="A122" s="6" t="s">
         <v>76</v>
       </c>
@@ -3167,7 +3190,7 @@
       </c>
       <c r="D122" s="12"/>
     </row>
-    <row r="123" spans="1:4" ht="47.25">
+    <row r="123" spans="1:5" ht="47.25">
       <c r="A123" s="6" t="s">
         <v>76</v>
       </c>
@@ -3179,7 +3202,7 @@
       </c>
       <c r="D123" s="12"/>
     </row>
-    <row r="124" spans="1:4" ht="47.25">
+    <row r="124" spans="1:5" ht="47.25">
       <c r="A124" s="6" t="s">
         <v>76</v>
       </c>
@@ -3191,7 +3214,7 @@
       </c>
       <c r="D124" s="12"/>
     </row>
-    <row r="125" spans="1:4" ht="47.25">
+    <row r="125" spans="1:5" ht="47.25">
       <c r="A125" s="6" t="s">
         <v>76</v>
       </c>
@@ -3203,9 +3226,9 @@
       </c>
       <c r="D125" s="12"/>
     </row>
-    <row r="126" spans="1:4" ht="47.25">
+    <row r="126" spans="1:5" ht="165.75" customHeight="1">
       <c r="A126" s="6" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>210</v>
@@ -3213,9 +3236,14 @@
       <c r="C126" s="6">
         <v>2016</v>
       </c>
-      <c r="D126" s="12"/>
-    </row>
-    <row r="127" spans="1:4" ht="94.5">
+      <c r="D126" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="97.5" customHeight="1">
       <c r="A127" s="6" t="s">
         <v>7</v>
       </c>
@@ -3229,7 +3257,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="31.5">
+    <row r="128" spans="1:5" ht="31.5">
       <c r="A128" s="6" t="s">
         <v>76</v>
       </c>
@@ -3241,7 +3269,7 @@
       </c>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:4" ht="31.5">
+    <row r="129" spans="1:5" ht="31.5">
       <c r="A129" s="6" t="s">
         <v>76</v>
       </c>
@@ -3253,7 +3281,7 @@
       </c>
       <c r="D129" s="12"/>
     </row>
-    <row r="130" spans="1:4" ht="110.25">
+    <row r="130" spans="1:5" ht="110.25">
       <c r="A130" s="6" t="s">
         <v>7</v>
       </c>
@@ -3267,7 +3295,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="31.5">
+    <row r="131" spans="1:5" ht="31.5">
       <c r="A131" s="6" t="s">
         <v>76</v>
       </c>
@@ -3279,7 +3307,7 @@
       </c>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:4" ht="31.5">
+    <row r="132" spans="1:5" ht="225" customHeight="1">
       <c r="A132" s="6" t="s">
         <v>8</v>
       </c>
@@ -3289,9 +3317,14 @@
       <c r="C132" s="6">
         <v>2004</v>
       </c>
-      <c r="D132" s="12"/>
-    </row>
-    <row r="133" spans="1:4" ht="47.25">
+      <c r="D132" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="47.25">
       <c r="A133" s="6" t="s">
         <v>76</v>
       </c>
@@ -3303,9 +3336,9 @@
       </c>
       <c r="D133" s="12"/>
     </row>
-    <row r="134" spans="1:4" ht="47.25">
+    <row r="134" spans="1:5" ht="192.75" customHeight="1">
       <c r="A134" s="6" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>211</v>
@@ -3313,11 +3346,13 @@
       <c r="C134" s="6">
         <v>2020</v>
       </c>
-      <c r="D134" s="12"/>
-    </row>
-    <row r="135" spans="1:4" ht="47.25">
+      <c r="D134" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="184.5" customHeight="1">
       <c r="A135" s="6" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>212</v>
@@ -3325,9 +3360,14 @@
       <c r="C135" s="6">
         <v>2012</v>
       </c>
-      <c r="D135" s="12"/>
-    </row>
-    <row r="136" spans="1:4" ht="31.5">
+      <c r="D135" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="31.5">
       <c r="A136" s="6" t="s">
         <v>76</v>
       </c>
@@ -3339,7 +3379,7 @@
       </c>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:4" ht="47.25">
+    <row r="137" spans="1:5" ht="47.25">
       <c r="A137" s="6" t="s">
         <v>76</v>
       </c>
@@ -3351,7 +3391,7 @@
       </c>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:4" ht="47.25">
+    <row r="138" spans="1:5" ht="47.25">
       <c r="A138" s="6" t="s">
         <v>76</v>
       </c>
@@ -3363,7 +3403,7 @@
       </c>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:4" ht="47.25">
+    <row r="139" spans="1:5" ht="47.25">
       <c r="A139" s="6" t="s">
         <v>76</v>
       </c>
@@ -3375,7 +3415,7 @@
       </c>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:4" ht="47.25">
+    <row r="140" spans="1:5" ht="47.25">
       <c r="A140" s="6" t="s">
         <v>76</v>
       </c>
@@ -3387,7 +3427,7 @@
       </c>
       <c r="D140" s="12"/>
     </row>
-    <row r="141" spans="1:4" ht="47.25">
+    <row r="141" spans="1:5" ht="47.25">
       <c r="A141" s="6" t="s">
         <v>76</v>
       </c>
@@ -3399,7 +3439,7 @@
       </c>
       <c r="D141" s="12"/>
     </row>
-    <row r="142" spans="1:4" ht="31.5">
+    <row r="142" spans="1:5" ht="31.5">
       <c r="A142" s="6" t="s">
         <v>76</v>
       </c>
@@ -3411,7 +3451,7 @@
       </c>
       <c r="D142" s="12"/>
     </row>
-    <row r="143" spans="1:4" ht="47.25">
+    <row r="143" spans="1:5" ht="47.25">
       <c r="A143" s="6" t="s">
         <v>76</v>
       </c>
@@ -3423,7 +3463,7 @@
       </c>
       <c r="D143" s="12"/>
     </row>
-    <row r="144" spans="1:4" ht="47.25">
+    <row r="144" spans="1:5" ht="47.25">
       <c r="A144" s="6" t="s">
         <v>76</v>
       </c>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="237">
   <si>
     <t>Netoge no Yome ga Ninki Idol datta</t>
   </si>
@@ -976,9 +976,6 @@
     <t>Glenn Litbeit là bác sĩ chuyên điều trị cho các cô gái quái vật. Trợ lý của anh là Saphentite “Sapphee” Neikes – một lamia (nửa người nửa rắn), người luôn âm thầm yêu Glenn. Glenn tiếp nhận nhiều ca bệnh kỳ lạ từ các chủng loài khác nhau. Mỗi ca bệnh đều gắn liền với câu chuyện cá nhân và văn hóa của từng loài. Nhiều bệnh nhân nữ có tình cảm với Glenn, tạo nên những tình huống hài hước và ghen tuông, đặc biệt từ Sapphee. Glenn luôn giữ thái độ chuyên nghiệp, nhưng đôi lúc cũng bị cuốn vào cảm xúc. Một số thế lực không muốn sự hòa hợp giữa các loài, âm mưu gây rối tại Lindworm. Glenn vô tình bị cuốn vào các cuộc tranh chấp, nhưng vẫn giữ vững lý tưởng chữa bệnh và kết nối mọi người. Glenn từng là học trò của bác sĩ nổi tiếng và mang trong mình lý tưởng chữa bệnh không phân biệt chủng loài. Sapphee là con gái của một gia đình quý tộc lamia, từng được hứa hôn với Glenn từ nhỏ. Glenn tiếp tục công việc tại phòng khám, ngày càng được tin tưởng bởi cả con người và quái vật. Mối quan hệ giữa Glenn và Sapphee tiến triển nhẹ nhàng, nhưng chưa có kết luận rõ ràng.</t>
   </si>
   <si>
-    <t>Càng xem càng rối não lên drop từ ss3</t>
-  </si>
-  <si>
     <t>Drop từ tập 7-8 gì đó</t>
   </si>
   <si>
@@ -986,6 +983,18 @@
   </si>
   <si>
     <t>Sếch trá hình kèm bệnh hoạn nên drop từ tập 4</t>
+  </si>
+  <si>
+    <t>Đã rất cố gắng rồi nhưng drop ngay tập 4</t>
+  </si>
+  <si>
+    <t>Guri là một thiên thần tình yêu sở hữu cuốn sổ "Kiss Note", có thể khiến hai người yêu nhau nếu tên họ được viết vào đó và họ hôn nhau. Cô vô tình viết tên của Seiji Aino và chính mình, buộc họ phải trở thành một cặp nếu không Guri sẽ chết. Seiji vốn là một học sinh bình thường, nhưng sau khi bị Guri kéo vào chuyện tình cảm, cậu còn bị Yuki Aino (em gái) và Akane Hiyama (bạn cùng lớp, yandere) theo đuổi. Akane là một nhân vật cực kỳ ghen tuông và bạo lực, tạo nên nhiều tình huống hài hước và nguy hiểm. Dù là thiên thần tình yêu, Guri không hiểu rõ về tình yêu thực sự và bắt đầu hành trình học hỏi cảm xúc con người. Cô dần phát triển tình cảm thật sự với Seiji. Thêm vào đó là các tình huống kỳ quái như chiến đấu, bảo vệ thế giới. Các nhân vật trải qua nhiều mâu thuẫn, hiểu lầm và cạnh tranh tình cảm. Seiji dần nhận ra tình cảm của mình dành cho Guri, trong khi Guri phải đối mặt với cảm xúc thật sự thay vì chỉ làm nhiệm vụ ??????????????</t>
+  </si>
+  <si>
+    <t>Chưa ra full ss3</t>
+  </si>
+  <si>
+    <t>Drop từ ss3</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1211,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1566,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -2474,7 +2483,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="68.25" customHeight="1">
+    <row r="65" spans="1:5" ht="68.25" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>7</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="65.25" customHeight="1">
+    <row r="66" spans="1:5" ht="65.25" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>7</v>
       </c>
@@ -2502,7 +2511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="81.75" customHeight="1">
+    <row r="67" spans="1:5" ht="81.75" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>7</v>
       </c>
@@ -2516,7 +2525,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="67.5" customHeight="1">
+    <row r="68" spans="1:5" ht="67.5" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>7</v>
       </c>
@@ -2530,7 +2539,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="82.5" customHeight="1">
+    <row r="69" spans="1:5" ht="82.5" customHeight="1">
       <c r="A69" s="6" t="s">
         <v>7</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="65.25" customHeight="1">
+    <row r="70" spans="1:5" ht="65.25" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5" ht="31.5">
       <c r="A71" s="6" t="s">
         <v>8</v>
       </c>
@@ -2569,8 +2578,11 @@
         <v>2022</v>
       </c>
       <c r="D71" s="12"/>
-    </row>
-    <row r="72" spans="1:4" ht="70.5" customHeight="1">
+      <c r="E71" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="70.5" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>7</v>
       </c>
@@ -2584,7 +2596,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="80.25" customHeight="1">
+    <row r="73" spans="1:5" ht="80.25" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>7</v>
       </c>
@@ -2598,7 +2610,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="67.5" customHeight="1">
+    <row r="74" spans="1:5" ht="67.5" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2624,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="64.5" customHeight="1">
+    <row r="75" spans="1:5" ht="64.5" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="6" t="s">
         <v>76</v>
       </c>
@@ -2636,7 +2648,7 @@
       <c r="C76" s="6"/>
       <c r="D76" s="12"/>
     </row>
-    <row r="77" spans="1:4" ht="47.25">
+    <row r="77" spans="1:5" ht="47.25">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -2648,7 +2660,7 @@
       </c>
       <c r="D77" s="12"/>
     </row>
-    <row r="78" spans="1:4" ht="63">
+    <row r="78" spans="1:5" ht="63">
       <c r="A78" s="6" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="47.25">
+    <row r="79" spans="1:5" ht="149.25" customHeight="1">
       <c r="A79" s="6" t="s">
         <v>8</v>
       </c>
@@ -2672,9 +2684,14 @@
       <c r="C79" s="6">
         <v>2012</v>
       </c>
-      <c r="D79" s="12"/>
-    </row>
-    <row r="80" spans="1:4" ht="47.25">
+      <c r="D79" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="47.25">
       <c r="A80" s="6" t="s">
         <v>76</v>
       </c>
@@ -2688,7 +2705,7 @@
     </row>
     <row r="81" spans="1:4" ht="47.25">
       <c r="A81" s="6" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>173</v>
@@ -3216,7 +3233,7 @@
     </row>
     <row r="125" spans="1:5" ht="47.25">
       <c r="A125" s="6" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>209</v>
@@ -3240,7 +3257,7 @@
         <v>229</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="97.5" customHeight="1">
@@ -3321,7 +3338,7 @@
         <v>228</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="47.25">
@@ -3361,10 +3378,10 @@
         <v>2012</v>
       </c>
       <c r="D135" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="31.5">

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="15" yWindow="645" windowWidth="23025" windowHeight="11595"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="240">
   <si>
     <t>Netoge no Yome ga Ninki Idol datta</t>
   </si>
@@ -995,6 +1000,15 @@
   </si>
   <si>
     <t>Drop từ ss3</t>
+  </si>
+  <si>
+    <t>Nagatoro gặp Senpai tại thư viện, nơi cô phát hiện ra anh đang vẽ manga. Cô bắt đầu trêu chọc anh một cách táo bạo nhưng không ác ý. Senpai ban đầu cảm thấy khó chịu, nhưng dần dần anh bắt đầu quen với sự hiện diện của Nagatoro và cảm thấy cô mang lại động lực cho mình. Nagatoro thể hiện sự quan tâm thật sự, dù vẫn tiếp tục trêu chọc Senpai. Cô bảo vệ anh khỏi những người khác và giúp anh tự tin hơn. Senpai bắt đầu thay đổi, trở nên mạnh mẽ hơn, dám đối mặt với thử thách và thể hiện bản thân qua nghệ thuật. Tình cảm giữa hai người phát triển, dù chưa rõ ràng, nhưng có nhiều khoảnh khắc ngọt ngào và ghen tuông từ cả hai phía. Sau đó xuất hiện thêm các nhân vật phụ như Gamo-chan, Yoshi và Sakura – bạn của Nagatoro, cùng với "Buchou" – đàn chị câu lạc bộ mỹ thuật. Senpai đối mặt với nguy cơ mất câu lạc bộ mỹ thuật, nhưng Nagatoro giúp anh chiến đấu để giữ lại không gian sáng tạo của mình. Nagatoro bắt đầu thể hiện cảm xúc rõ ràng hơn, đôi khi ghen khi Senpai thân thiết với người khác. Cả hai có những khoảnh khắc riêng tư, như đi chơi cùng nhau, chăm sóc nhau khi bị bệnh, và dần thừa nhận tình cảm. Chấm hết.</t>
+  </si>
+  <si>
+    <t>Alice chuyển đến trường Ishinomori, nơi cô nghe tin đồn kỳ lạ về một học sinh tên "Judas" – người từng ngồi ở chỗ của cô – bị giết bởi một trong bốn "người vợ" của mình. Bị bạn bè xa lánh và bắt nạt, Alice tò mò về vụ án và bắt đầu điều tra. Cô gặp Hana, một cô gái sống gần đó, từng là bạn thân của "Judas". Hana hiện đang sống khép kín sau một biến cố trong quá khứ. Cả hai cùng nhau khám phá vụ án, nhưng càng điều tra, họ càng nhận ra rằng "vụ sát nhân" chỉ là một chuỗi hiểu lầm và tin đồn thổi phồng. Trong quá trình điều tra, Alice và Hana dần trở nên thân thiết, chia sẻ những tổn thương và niềm vui tuổi học trò. Phim kết thúc bằng sự hòa giải, khi Hana dần mở lòng và Alice tìm được chỗ đứng trong môi trường mới.</t>
+  </si>
+  <si>
+    <t>Nhân vật chính là Hojo Saito, người thừa kế của tập đoàn lớn "Hojo Group". Cậu là một học sinh trung học điển trai, nghiêm túc và có phần lạnh lùng. Saito thường xuyên xung đột với Sakuramori Akane, một cô bạn cùng lớp hoạt bát nhưng hay gây sự với cậu. Hai người không ưa gì nhau và luôn tranh cãi. Biến cố xảy ra khi ông nội của Saito – chủ tịch tập đoàn – ép cậu phải kết hôn với Akane, con gái của một gia đình có mối quan hệ thân thiết với Hojo Group, để củng cố liên minh kinh doanh. Dù miễn cưỡng, cả hai buộc phải sống chung như vợ chồng**, trong khi vẫn phải giữ bí mật với bạn bè ở trường. Từ những va chạm ban đầu, họ dần hiểu nhau hơn qua những tình huống dở khóc dở cười trong cuộc sống chung?? Tình cảm giữa họ phát triển một cách tự nhiên, từ ghét bỏ sang cảm thông, rồi dần nảy sinh tình yêu thật sự.</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1225,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1575,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -2765,7 +2779,7 @@
     </row>
     <row r="86" spans="1:4" ht="47.25">
       <c r="A86" s="6" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>177</v>
@@ -2835,9 +2849,9 @@
       </c>
       <c r="D91" s="12"/>
     </row>
-    <row r="92" spans="1:4" ht="47.25">
+    <row r="92" spans="1:4" ht="129" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>181</v>
@@ -2845,11 +2859,13 @@
       <c r="C92" s="6">
         <v>2020</v>
       </c>
-      <c r="D92" s="12"/>
-    </row>
-    <row r="93" spans="1:4" ht="47.25">
+      <c r="D92" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="94.5">
       <c r="A93" s="6" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>182</v>
@@ -2857,7 +2873,9 @@
       <c r="C93" s="6">
         <v>2015</v>
       </c>
-      <c r="D93" s="12"/>
+      <c r="D93" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="47.25">
       <c r="A94" s="6" t="s">
@@ -3231,9 +3249,9 @@
       </c>
       <c r="D124" s="12"/>
     </row>
-    <row r="125" spans="1:5" ht="47.25">
+    <row r="125" spans="1:5" ht="177.75" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>209</v>
@@ -3241,7 +3259,9 @@
       <c r="C125" s="6">
         <v>2017</v>
       </c>
-      <c r="D125" s="12"/>
+      <c r="D125" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="165.75" customHeight="1">
       <c r="A126" s="6" t="s">

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -24,36 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="239">
   <si>
     <t>Netoge no Yome ga Ninki Idol datta</t>
   </si>
   <si>
-    <t xml:space="preserve">Clannad </t>
-  </si>
-  <si>
     <t>Steins;Gate Movie: Fuka Ryouiki no Déjà vu</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
     <t>Just Because</t>
   </si>
   <si>
-    <t>Wind Breaker</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
     <t>☑</t>
   </si>
   <si>
     <t>☐</t>
-  </si>
-  <si>
-    <t>Code Geass</t>
   </si>
   <si>
     <t>Isekai Nonbiri Nouka
@@ -996,9 +981,6 @@
     <t>Guri là một thiên thần tình yêu sở hữu cuốn sổ "Kiss Note", có thể khiến hai người yêu nhau nếu tên họ được viết vào đó và họ hôn nhau. Cô vô tình viết tên của Seiji Aino và chính mình, buộc họ phải trở thành một cặp nếu không Guri sẽ chết. Seiji vốn là một học sinh bình thường, nhưng sau khi bị Guri kéo vào chuyện tình cảm, cậu còn bị Yuki Aino (em gái) và Akane Hiyama (bạn cùng lớp, yandere) theo đuổi. Akane là một nhân vật cực kỳ ghen tuông và bạo lực, tạo nên nhiều tình huống hài hước và nguy hiểm. Dù là thiên thần tình yêu, Guri không hiểu rõ về tình yêu thực sự và bắt đầu hành trình học hỏi cảm xúc con người. Cô dần phát triển tình cảm thật sự với Seiji. Thêm vào đó là các tình huống kỳ quái như chiến đấu, bảo vệ thế giới. Các nhân vật trải qua nhiều mâu thuẫn, hiểu lầm và cạnh tranh tình cảm. Seiji dần nhận ra tình cảm của mình dành cho Guri, trong khi Guri phải đối mặt với cảm xúc thật sự thay vì chỉ làm nhiệm vụ ??????????????</t>
   </si>
   <si>
-    <t>Chưa ra full ss3</t>
-  </si>
-  <si>
     <t>Drop từ ss3</t>
   </si>
   <si>
@@ -1009,6 +991,26 @@
   </si>
   <si>
     <t>Nhân vật chính là Hojo Saito, người thừa kế của tập đoàn lớn "Hojo Group". Cậu là một học sinh trung học điển trai, nghiêm túc và có phần lạnh lùng. Saito thường xuyên xung đột với Sakuramori Akane, một cô bạn cùng lớp hoạt bát nhưng hay gây sự với cậu. Hai người không ưa gì nhau và luôn tranh cãi. Biến cố xảy ra khi ông nội của Saito – chủ tịch tập đoàn – ép cậu phải kết hôn với Akane, con gái của một gia đình có mối quan hệ thân thiết với Hojo Group, để củng cố liên minh kinh doanh. Dù miễn cưỡng, cả hai buộc phải sống chung như vợ chồng**, trong khi vẫn phải giữ bí mật với bạn bè ở trường. Từ những va chạm ban đầu, họ dần hiểu nhau hơn qua những tình huống dở khóc dở cười trong cuộc sống chung?? Tình cảm giữa họ phát triển một cách tự nhiên, từ ghét bỏ sang cảm thông, rồi dần nảy sinh tình yêu thật sự.</t>
+  </si>
+  <si>
+    <t>Orange
+オレンジ</t>
+  </si>
+  <si>
+    <t>Spy x Family
+スパイファミリー</t>
+  </si>
+  <si>
+    <t>Wind Breaker
+ウインドブレイカー</t>
+  </si>
+  <si>
+    <t>Clannad 
+クラナド</t>
+  </si>
+  <si>
+    <t>Code Geass
+コードギアス 反逆のルルーシュ</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1054,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,6 +1076,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,11 +1162,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,7 +1233,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1606,1068 +1614,1067 @@
     <row r="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6">
         <v>2016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="117.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>2015</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="6">
         <v>2018</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>2017</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
         <v>2017</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6">
         <v>2002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6">
         <v>2013</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="146.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6">
         <v>2011</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="162" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6">
         <v>2011</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="147.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6">
         <v>2020</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="114.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6">
         <v>2018</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="146.25" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>2021</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="163.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6">
         <v>2018</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="101.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6">
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6">
         <v>2013</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6">
         <v>2013</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="116.25" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6">
         <v>2016</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="143.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="6">
         <v>1999</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="111" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="6">
         <v>1984</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="131.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C21" s="6">
         <v>1994</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="103.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C22" s="6">
         <v>1990</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="83.25" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6">
         <v>1969</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" s="6">
         <v>2019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="98.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6">
         <v>2005</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="98.25" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6">
         <v>2018</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="83.25" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27" s="6">
         <v>2015</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C28" s="6">
         <v>2003</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="114.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C29" s="6">
         <v>2008</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="97.5" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30" s="6">
         <v>2019</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="68.25" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C31" s="6">
         <v>2018</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="98.25" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C32" s="6">
         <v>2013</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="66.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6">
         <v>2018</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="67.5" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" s="6">
         <v>2011</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="68.25" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C35" s="6">
         <v>2017</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="80.25" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C36" s="6">
         <v>2001</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="84" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6">
         <v>2007</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="81.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6">
         <v>1998</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="83.25" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6">
         <v>2012</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="66" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C40" s="6">
         <v>2014</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="63">
       <c r="A41" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C41" s="6">
         <v>1987</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C42" s="6">
         <v>1981</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="68.25" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C43" s="6">
         <v>2013</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="69.75" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C44" s="6">
         <v>2011</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="81.75" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C45" s="6">
         <v>2004</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="68.25" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C46" s="6">
         <v>1989</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="67.5" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C47" s="6">
         <v>1982</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="83.25" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C48" s="6">
         <v>2016</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C49" s="6">
         <v>2013</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="83.25" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C50" s="6">
         <v>1984</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="66" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C51" s="6">
         <v>2002</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="68.25" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C52" s="6">
         <v>1988</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="69.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C53" s="6">
         <v>1996</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="65.25" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C54" s="6">
         <v>1975</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="88.5" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C55" s="6">
         <v>1980</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="83.25" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="C56" s="6">
         <v>2004</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="65.25" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C57" s="6">
         <v>2020</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="68.25" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C58" s="6">
         <v>2009</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.5" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C59" s="6">
         <v>2013</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C60" s="6">
         <v>2016</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C61" s="6">
         <v>2015</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="71.25" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C62" s="6">
         <v>2018</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="81" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C63" s="6">
         <v>2015</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="72.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C64" s="6">
         <v>2019</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="68.25" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C65" s="6">
         <v>2011</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="65.25" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C66" s="6">
         <v>2012</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="81.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C67" s="6">
         <v>2005</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="67.5" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C68" s="6">
         <v>2006</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="82.5" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C69" s="6">
         <v>2014</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="65.25" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="C70" s="6">
         <v>2021</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="31.5">
       <c r="A71" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="C71" s="6">
         <v>2022</v>
       </c>
       <c r="D71" s="12"/>
-      <c r="E71" s="3" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="72" spans="1:5" ht="70.5" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C72" s="6">
         <v>2019</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="80.25" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C73" s="6">
         <v>2002</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="67.5" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C74" s="6">
         <v>2015</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="64.5" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C75" s="6">
         <v>2010</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="31.5">
       <c r="A76" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2012</v>
+      </c>
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:5" ht="47.25">
       <c r="A77" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C77" s="6">
         <v>2012</v>
@@ -2676,41 +2683,41 @@
     </row>
     <row r="78" spans="1:5" ht="63">
       <c r="A78" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C78" s="6">
         <v>2011</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="149.25" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C79" s="6">
         <v>2012</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="47.25">
       <c r="A80" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C80" s="6">
         <v>2006</v>
@@ -2719,22 +2726,22 @@
     </row>
     <row r="81" spans="1:4" ht="47.25">
       <c r="A81" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C81" s="6">
         <v>2008</v>
       </c>
       <c r="D81" s="12"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="31.5">
       <c r="A82" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="C82" s="6">
         <v>2006</v>
@@ -2743,10 +2750,10 @@
     </row>
     <row r="83" spans="1:4" ht="47.25">
       <c r="A83" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C83" s="6">
         <v>2016</v>
@@ -2755,10 +2762,10 @@
     </row>
     <row r="84" spans="1:4" ht="47.25">
       <c r="A84" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C84" s="6">
         <v>2007</v>
@@ -2767,10 +2774,10 @@
     </row>
     <row r="85" spans="1:4" ht="47.25">
       <c r="A85" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C85" s="6">
         <v>2012</v>
@@ -2779,10 +2786,10 @@
     </row>
     <row r="86" spans="1:4" ht="47.25">
       <c r="A86" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C86" s="6">
         <v>2009</v>
@@ -2791,10 +2798,10 @@
     </row>
     <row r="87" spans="1:4" ht="47.25">
       <c r="A87" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C87" s="6">
         <v>2013</v>
@@ -2803,10 +2810,10 @@
     </row>
     <row r="88" spans="1:4" ht="47.25">
       <c r="A88" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C88" s="6">
         <v>2017</v>
@@ -2815,10 +2822,10 @@
     </row>
     <row r="89" spans="1:4" ht="31.5">
       <c r="A89" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C89" s="6">
         <v>2019</v>
@@ -2827,10 +2834,10 @@
     </row>
     <row r="90" spans="1:4" ht="47.25">
       <c r="A90" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C90" s="6">
         <v>1979</v>
@@ -2839,10 +2846,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" s="6">
         <v>2017</v>
@@ -2851,38 +2858,38 @@
     </row>
     <row r="92" spans="1:4" ht="129" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C92" s="6">
         <v>2020</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="94.5">
       <c r="A93" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C93" s="6">
         <v>2015</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="47.25">
       <c r="A94" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C94" s="6">
         <v>2007</v>
@@ -2891,10 +2898,10 @@
     </row>
     <row r="95" spans="1:4" ht="47.25">
       <c r="A95" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C95" s="6">
         <v>2012</v>
@@ -2903,10 +2910,10 @@
     </row>
     <row r="96" spans="1:4" ht="47.25">
       <c r="A96" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C96" s="6">
         <v>2015</v>
@@ -2915,10 +2922,10 @@
     </row>
     <row r="97" spans="1:4" ht="47.25">
       <c r="A97" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C97" s="6">
         <v>1986</v>
@@ -2927,10 +2934,10 @@
     </row>
     <row r="98" spans="1:4" ht="47.25">
       <c r="A98" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C98" s="6">
         <v>2016</v>
@@ -2939,10 +2946,10 @@
     </row>
     <row r="99" spans="1:4" ht="47.25">
       <c r="A99" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C99" s="6">
         <v>2019</v>
@@ -2951,10 +2958,10 @@
     </row>
     <row r="100" spans="1:4" ht="47.25">
       <c r="A100" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C100" s="6">
         <v>2017</v>
@@ -2963,10 +2970,10 @@
     </row>
     <row r="101" spans="1:4" ht="47.25">
       <c r="A101" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C101" s="6">
         <v>2016</v>
@@ -2975,7 +2982,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>0</v>
@@ -2987,10 +2994,10 @@
     </row>
     <row r="103" spans="1:4" ht="47.25">
       <c r="A103" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C103" s="6">
         <v>2017</v>
@@ -2999,10 +3006,10 @@
     </row>
     <row r="104" spans="1:4" ht="47.25">
       <c r="A104" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C104" s="6">
         <v>2019</v>
@@ -3011,10 +3018,10 @@
     </row>
     <row r="105" spans="1:4" ht="47.25">
       <c r="A105" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C105" s="6">
         <v>2019</v>
@@ -3023,10 +3030,10 @@
     </row>
     <row r="106" spans="1:4" ht="47.25">
       <c r="A106" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C106" s="6">
         <v>2020</v>
@@ -3035,10 +3042,10 @@
     </row>
     <row r="107" spans="1:4" ht="47.25">
       <c r="A107" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C107" s="6">
         <v>2013</v>
@@ -3047,10 +3054,10 @@
     </row>
     <row r="108" spans="1:4" ht="47.25">
       <c r="A108" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C108" s="6">
         <v>2007</v>
@@ -3059,10 +3066,10 @@
     </row>
     <row r="109" spans="1:4" ht="47.25">
       <c r="A109" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C109" s="6">
         <v>2017</v>
@@ -3071,10 +3078,10 @@
     </row>
     <row r="110" spans="1:4" ht="47.25">
       <c r="A110" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C110" s="6">
         <v>2022</v>
@@ -3083,10 +3090,10 @@
     </row>
     <row r="111" spans="1:4" ht="47.25">
       <c r="A111" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C111" s="6">
         <v>1998</v>
@@ -3095,10 +3102,10 @@
     </row>
     <row r="112" spans="1:4" ht="47.25">
       <c r="A112" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C112" s="6">
         <v>2010</v>
@@ -3107,10 +3114,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" s="6">
         <v>2013</v>
@@ -3119,10 +3126,10 @@
     </row>
     <row r="114" spans="1:5" ht="47.25">
       <c r="A114" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C114" s="6">
         <v>2015</v>
@@ -3131,10 +3138,10 @@
     </row>
     <row r="115" spans="1:5" ht="47.25">
       <c r="A115" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C115" s="6">
         <v>2016</v>
@@ -3143,10 +3150,10 @@
     </row>
     <row r="116" spans="1:5" ht="47.25">
       <c r="A116" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C116" s="6">
         <v>2010</v>
@@ -3155,10 +3162,10 @@
     </row>
     <row r="117" spans="1:5" ht="47.25">
       <c r="A117" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C117" s="6">
         <v>2009</v>
@@ -3167,10 +3174,10 @@
     </row>
     <row r="118" spans="1:5" ht="47.25">
       <c r="A118" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C118" s="6">
         <v>2011</v>
@@ -3179,10 +3186,10 @@
     </row>
     <row r="119" spans="1:5" ht="47.25">
       <c r="A119" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C119" s="6">
         <v>2006</v>
@@ -3191,10 +3198,10 @@
     </row>
     <row r="120" spans="1:5" ht="47.25">
       <c r="A120" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C120" s="6">
         <v>2023</v>
@@ -3203,10 +3210,10 @@
     </row>
     <row r="121" spans="1:5" ht="47.25">
       <c r="A121" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C121" s="6">
         <v>2008</v>
@@ -3215,10 +3222,10 @@
     </row>
     <row r="122" spans="1:5" ht="47.25">
       <c r="A122" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C122" s="6">
         <v>2005</v>
@@ -3227,10 +3234,10 @@
     </row>
     <row r="123" spans="1:5" ht="47.25">
       <c r="A123" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C123" s="6">
         <v>2019</v>
@@ -3239,10 +3246,10 @@
     </row>
     <row r="124" spans="1:5" ht="47.25">
       <c r="A124" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C124" s="6">
         <v>2014</v>
@@ -3251,55 +3258,55 @@
     </row>
     <row r="125" spans="1:5" ht="177.75" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C125" s="6">
         <v>2017</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="165.75" customHeight="1">
       <c r="A126" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C126" s="6">
         <v>2016</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="97.5" customHeight="1">
       <c r="A127" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C127" s="6">
         <v>2014</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="31.5">
       <c r="A128" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C128" s="6">
         <v>2008</v>
@@ -3308,10 +3315,10 @@
     </row>
     <row r="129" spans="1:5" ht="31.5">
       <c r="A129" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C129" s="6">
         <v>2005</v>
@@ -3320,24 +3327,24 @@
     </row>
     <row r="130" spans="1:5" ht="110.25">
       <c r="A130" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C130" s="6">
         <v>2010</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="31.5">
       <c r="A131" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C131" s="6">
         <v>2005</v>
@@ -3346,27 +3353,27 @@
     </row>
     <row r="132" spans="1:5" ht="225" customHeight="1">
       <c r="A132" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C132" s="6">
         <v>2004</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="47.25">
       <c r="A133" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C133" s="6">
         <v>2013</v>
@@ -3375,41 +3382,41 @@
     </row>
     <row r="134" spans="1:5" ht="192.75" customHeight="1">
       <c r="A134" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C134" s="6">
         <v>2020</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="184.5" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="180" customHeight="1">
       <c r="A135" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C135" s="6">
         <v>2012</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="31.5">
       <c r="A136" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C136" s="6">
         <v>2009</v>
@@ -3418,10 +3425,10 @@
     </row>
     <row r="137" spans="1:5" ht="47.25">
       <c r="A137" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C137" s="6">
         <v>2015</v>
@@ -3430,10 +3437,10 @@
     </row>
     <row r="138" spans="1:5" ht="47.25">
       <c r="A138" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C138" s="6">
         <v>2009</v>
@@ -3442,10 +3449,10 @@
     </row>
     <row r="139" spans="1:5" ht="47.25">
       <c r="A139" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C139" s="6">
         <v>2004</v>
@@ -3454,10 +3461,10 @@
     </row>
     <row r="140" spans="1:5" ht="47.25">
       <c r="A140" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C140" s="6">
         <v>2001</v>
@@ -3466,10 +3473,10 @@
     </row>
     <row r="141" spans="1:5" ht="47.25">
       <c r="A141" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C141" s="6">
         <v>1999</v>
@@ -3478,10 +3485,10 @@
     </row>
     <row r="142" spans="1:5" ht="31.5">
       <c r="A142" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C142" s="6">
         <v>1998</v>
@@ -3490,10 +3497,10 @@
     </row>
     <row r="143" spans="1:5" ht="47.25">
       <c r="A143" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C143" s="6">
         <v>1998</v>
@@ -3502,10 +3509,10 @@
     </row>
     <row r="144" spans="1:5" ht="47.25">
       <c r="A144" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C144" s="6">
         <v>2001</v>
@@ -3514,10 +3521,10 @@
     </row>
     <row r="145" spans="1:4" ht="31.5">
       <c r="A145" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C145" s="6">
         <v>2006</v>
@@ -3526,10 +3533,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C146" s="6">
         <v>2003</v>
@@ -3538,2793 +3545,2793 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B147" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B147" s="13"/>
       <c r="C147" s="6"/>
       <c r="D147" s="12"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B148" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B148" s="13"/>
       <c r="C148" s="6"/>
       <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B149" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B149" s="13"/>
       <c r="C149" s="6"/>
       <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B150" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B150" s="13"/>
       <c r="C150" s="6"/>
       <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B151" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B151" s="13"/>
       <c r="C151" s="6"/>
       <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B152" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B152" s="13"/>
       <c r="C152" s="6"/>
       <c r="D152" s="12"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B153" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B153" s="13"/>
       <c r="C153" s="6"/>
       <c r="D153" s="12"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B154" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B154" s="13"/>
       <c r="C154" s="6"/>
       <c r="D154" s="12"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B155" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B155" s="13"/>
       <c r="C155" s="6"/>
       <c r="D155" s="12"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B156" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B156" s="13"/>
       <c r="C156" s="6"/>
       <c r="D156" s="12"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B157" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B157" s="13"/>
       <c r="C157" s="6"/>
       <c r="D157" s="12"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B158" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B158" s="13"/>
       <c r="C158" s="6"/>
       <c r="D158" s="12"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B159" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B159" s="13"/>
       <c r="C159" s="6"/>
       <c r="D159" s="12"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B160" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B160" s="13"/>
       <c r="C160" s="6"/>
       <c r="D160" s="12"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B161" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B161" s="13"/>
       <c r="C161" s="6"/>
       <c r="D161" s="12"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B162" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B162" s="13"/>
       <c r="C162" s="6"/>
       <c r="D162" s="12"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B163" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B163" s="13"/>
       <c r="C163" s="6"/>
       <c r="D163" s="12"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B164" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B164" s="13"/>
       <c r="C164" s="6"/>
       <c r="D164" s="12"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B165" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B165" s="13"/>
       <c r="C165" s="6"/>
       <c r="D165" s="12"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B166" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B166" s="13"/>
       <c r="C166" s="6"/>
       <c r="D166" s="12"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B167" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B167" s="13"/>
       <c r="C167" s="6"/>
       <c r="D167" s="12"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B168" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B168" s="13"/>
       <c r="C168" s="6"/>
       <c r="D168" s="12"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B169" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B169" s="13"/>
       <c r="C169" s="6"/>
       <c r="D169" s="12"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B170" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B170" s="13"/>
       <c r="C170" s="6"/>
       <c r="D170" s="12"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B171" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B171" s="13"/>
       <c r="C171" s="6"/>
       <c r="D171" s="12"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B172" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B172" s="13"/>
       <c r="C172" s="6"/>
       <c r="D172" s="12"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B173" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B173" s="13"/>
       <c r="C173" s="6"/>
       <c r="D173" s="12"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B174" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B174" s="13"/>
       <c r="C174" s="6"/>
       <c r="D174" s="12"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B175" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B175" s="13"/>
       <c r="C175" s="6"/>
       <c r="D175" s="12"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B176" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B176" s="13"/>
       <c r="C176" s="6"/>
       <c r="D176" s="12"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B177" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B177" s="13"/>
       <c r="C177" s="6"/>
       <c r="D177" s="12"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B178" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B178" s="13"/>
       <c r="C178" s="6"/>
       <c r="D178" s="12"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B179" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B179" s="13"/>
       <c r="C179" s="6"/>
       <c r="D179" s="12"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B180" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B180" s="13"/>
       <c r="C180" s="6"/>
       <c r="D180" s="12"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B181" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B181" s="13"/>
       <c r="C181" s="6"/>
       <c r="D181" s="12"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B182" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B182" s="13"/>
       <c r="C182" s="6"/>
       <c r="D182" s="12"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B183" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B183" s="13"/>
       <c r="C183" s="6"/>
       <c r="D183" s="12"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B184" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B184" s="13"/>
       <c r="C184" s="6"/>
       <c r="D184" s="12"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B185" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B185" s="13"/>
       <c r="C185" s="6"/>
       <c r="D185" s="12"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B186" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B186" s="13"/>
       <c r="C186" s="6"/>
       <c r="D186" s="12"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B187" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B187" s="13"/>
       <c r="C187" s="6"/>
       <c r="D187" s="12"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B188" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B188" s="13"/>
       <c r="C188" s="6"/>
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B189" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B189" s="13"/>
       <c r="C189" s="6"/>
       <c r="D189" s="12"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B190" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B190" s="13"/>
       <c r="C190" s="6"/>
       <c r="D190" s="12"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B191" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B191" s="13"/>
       <c r="C191" s="6"/>
       <c r="D191" s="12"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B192" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B192" s="13"/>
       <c r="C192" s="6"/>
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B193" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B193" s="13"/>
       <c r="C193" s="6"/>
       <c r="D193" s="12"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B194" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B194" s="13"/>
       <c r="C194" s="6"/>
       <c r="D194" s="12"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B195" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B195" s="13"/>
       <c r="C195" s="6"/>
       <c r="D195" s="12"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B196" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B196" s="13"/>
       <c r="C196" s="6"/>
       <c r="D196" s="12"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B197" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B197" s="13"/>
       <c r="C197" s="6"/>
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B198" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B198" s="13"/>
       <c r="C198" s="6"/>
       <c r="D198" s="12"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B199" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B199" s="13"/>
       <c r="C199" s="6"/>
       <c r="D199" s="12"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B200" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B200" s="13"/>
       <c r="C200" s="6"/>
       <c r="D200" s="12"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B201" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B201" s="13"/>
       <c r="C201" s="6"/>
       <c r="D201" s="12"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B202" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B202" s="13"/>
       <c r="C202" s="6"/>
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B203" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B203" s="13"/>
       <c r="C203" s="6"/>
       <c r="D203" s="12"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B204" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B204" s="13"/>
       <c r="C204" s="6"/>
       <c r="D204" s="12"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B205" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B205" s="13"/>
       <c r="C205" s="6"/>
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B206" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B206" s="13"/>
       <c r="C206" s="6"/>
       <c r="D206" s="12"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B207" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B207" s="13"/>
       <c r="C207" s="6"/>
       <c r="D207" s="12"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B208" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B208" s="13"/>
       <c r="C208" s="6"/>
       <c r="D208" s="12"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B209" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B209" s="13"/>
       <c r="C209" s="6"/>
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B210" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B210" s="13"/>
       <c r="C210" s="6"/>
       <c r="D210" s="12"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B211" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B211" s="13"/>
       <c r="C211" s="6"/>
       <c r="D211" s="12"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B212" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B212" s="13"/>
       <c r="C212" s="6"/>
       <c r="D212" s="12"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B213" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B213" s="13"/>
       <c r="C213" s="6"/>
       <c r="D213" s="12"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B214" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B214" s="13"/>
       <c r="C214" s="6"/>
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B215" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B215" s="13"/>
       <c r="C215" s="6"/>
       <c r="D215" s="12"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B216" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B216" s="13"/>
       <c r="C216" s="6"/>
       <c r="D216" s="12"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B217" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B217" s="13"/>
       <c r="C217" s="6"/>
       <c r="D217" s="12"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B218" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B218" s="13"/>
       <c r="C218" s="6"/>
       <c r="D218" s="12"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B219" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B219" s="13"/>
       <c r="C219" s="6"/>
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B220" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B220" s="13"/>
       <c r="C220" s="6"/>
       <c r="D220" s="12"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B221" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B221" s="13"/>
       <c r="C221" s="6"/>
       <c r="D221" s="12"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B222" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B222" s="13"/>
       <c r="C222" s="6"/>
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B223" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B223" s="13"/>
       <c r="C223" s="6"/>
       <c r="D223" s="12"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B224" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B224" s="13"/>
       <c r="C224" s="6"/>
       <c r="D224" s="12"/>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B225" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B225" s="13"/>
       <c r="C225" s="6"/>
       <c r="D225" s="12"/>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B226" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B226" s="13"/>
       <c r="C226" s="6"/>
       <c r="D226" s="12"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B227" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B227" s="13"/>
       <c r="C227" s="6"/>
       <c r="D227" s="12"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B228" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B228" s="13"/>
       <c r="C228" s="6"/>
       <c r="D228" s="12"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B229" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B229" s="13"/>
       <c r="C229" s="6"/>
       <c r="D229" s="12"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B230" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B230" s="13"/>
       <c r="C230" s="6"/>
       <c r="D230" s="12"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B231" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B231" s="13"/>
       <c r="C231" s="6"/>
       <c r="D231" s="12"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B232" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B232" s="13"/>
       <c r="C232" s="6"/>
       <c r="D232" s="12"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B233" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B233" s="13"/>
       <c r="C233" s="6"/>
       <c r="D233" s="12"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B234" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B234" s="13"/>
       <c r="C234" s="6"/>
       <c r="D234" s="12"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B235" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B235" s="13"/>
       <c r="C235" s="6"/>
       <c r="D235" s="12"/>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B236" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B236" s="13"/>
       <c r="C236" s="6"/>
       <c r="D236" s="12"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B237" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B237" s="13"/>
       <c r="C237" s="6"/>
       <c r="D237" s="12"/>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B238" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B238" s="13"/>
       <c r="C238" s="6"/>
       <c r="D238" s="12"/>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B239" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B239" s="13"/>
       <c r="C239" s="6"/>
       <c r="D239" s="12"/>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B240" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B240" s="13"/>
       <c r="C240" s="6"/>
       <c r="D240" s="12"/>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B241" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B241" s="13"/>
       <c r="C241" s="6"/>
       <c r="D241" s="12"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B242" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B242" s="13"/>
       <c r="C242" s="6"/>
       <c r="D242" s="12"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B243" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B243" s="13"/>
       <c r="C243" s="6"/>
       <c r="D243" s="12"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B244" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B244" s="13"/>
       <c r="C244" s="6"/>
       <c r="D244" s="12"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B245" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B245" s="13"/>
       <c r="C245" s="6"/>
       <c r="D245" s="12"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B246" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B246" s="13"/>
       <c r="C246" s="6"/>
       <c r="D246" s="12"/>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B247" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B247" s="13"/>
       <c r="C247" s="6"/>
       <c r="D247" s="12"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B248" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B248" s="13"/>
       <c r="C248" s="6"/>
       <c r="D248" s="12"/>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B249" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B249" s="13"/>
       <c r="C249" s="6"/>
       <c r="D249" s="12"/>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B250" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B250" s="13"/>
       <c r="C250" s="6"/>
       <c r="D250" s="12"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B251" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B251" s="13"/>
       <c r="C251" s="6"/>
       <c r="D251" s="12"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B252" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B252" s="13"/>
       <c r="C252" s="6"/>
       <c r="D252" s="12"/>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B253" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B253" s="13"/>
       <c r="C253" s="6"/>
       <c r="D253" s="12"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B254" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B254" s="13"/>
       <c r="C254" s="6"/>
       <c r="D254" s="12"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B255" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B255" s="13"/>
       <c r="C255" s="6"/>
       <c r="D255" s="12"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B256" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B256" s="13"/>
       <c r="C256" s="6"/>
       <c r="D256" s="12"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B257" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B257" s="13"/>
       <c r="C257" s="6"/>
       <c r="D257" s="12"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B258" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B258" s="13"/>
       <c r="C258" s="6"/>
       <c r="D258" s="12"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B259" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B259" s="13"/>
       <c r="C259" s="6"/>
       <c r="D259" s="12"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B260" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B260" s="13"/>
       <c r="C260" s="6"/>
       <c r="D260" s="12"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B261" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B261" s="13"/>
       <c r="C261" s="6"/>
       <c r="D261" s="12"/>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B262" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B262" s="13"/>
       <c r="C262" s="6"/>
       <c r="D262" s="12"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B263" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B263" s="13"/>
       <c r="C263" s="6"/>
       <c r="D263" s="12"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B264" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B264" s="13"/>
       <c r="C264" s="6"/>
       <c r="D264" s="12"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B265" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B265" s="13"/>
       <c r="C265" s="6"/>
       <c r="D265" s="12"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B266" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B266" s="13"/>
       <c r="C266" s="6"/>
       <c r="D266" s="12"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B267" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B267" s="13"/>
       <c r="C267" s="6"/>
       <c r="D267" s="12"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B268" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B268" s="13"/>
       <c r="C268" s="6"/>
       <c r="D268" s="12"/>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B269" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B269" s="13"/>
       <c r="C269" s="6"/>
       <c r="D269" s="12"/>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B270" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B270" s="13"/>
       <c r="C270" s="6"/>
       <c r="D270" s="12"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B271" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B271" s="13"/>
       <c r="C271" s="6"/>
       <c r="D271" s="12"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B272" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B272" s="13"/>
       <c r="C272" s="6"/>
       <c r="D272" s="12"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B273" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B273" s="13"/>
       <c r="C273" s="6"/>
       <c r="D273" s="12"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B274" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B274" s="13"/>
       <c r="C274" s="6"/>
       <c r="D274" s="12"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B275" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B275" s="13"/>
       <c r="C275" s="6"/>
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B276" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B276" s="13"/>
       <c r="C276" s="6"/>
       <c r="D276" s="12"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B277" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B277" s="13"/>
       <c r="C277" s="6"/>
       <c r="D277" s="12"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B278" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B278" s="13"/>
       <c r="C278" s="6"/>
       <c r="D278" s="12"/>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B279" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B279" s="13"/>
       <c r="C279" s="6"/>
       <c r="D279" s="12"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B280" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B280" s="13"/>
       <c r="C280" s="6"/>
       <c r="D280" s="12"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B281" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B281" s="13"/>
       <c r="C281" s="6"/>
       <c r="D281" s="12"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B282" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B282" s="13"/>
       <c r="C282" s="6"/>
       <c r="D282" s="12"/>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B283" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B283" s="13"/>
       <c r="C283" s="6"/>
       <c r="D283" s="12"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B284" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B284" s="13"/>
       <c r="C284" s="6"/>
       <c r="D284" s="12"/>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B285" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B285" s="13"/>
       <c r="C285" s="6"/>
       <c r="D285" s="12"/>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B286" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B286" s="13"/>
       <c r="C286" s="6"/>
       <c r="D286" s="12"/>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B287" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B287" s="13"/>
       <c r="C287" s="6"/>
       <c r="D287" s="12"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B288" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B288" s="13"/>
       <c r="C288" s="6"/>
       <c r="D288" s="12"/>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B289" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B289" s="13"/>
       <c r="C289" s="6"/>
       <c r="D289" s="12"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B290" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B290" s="13"/>
       <c r="C290" s="6"/>
       <c r="D290" s="12"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B291" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B291" s="13"/>
       <c r="C291" s="6"/>
       <c r="D291" s="12"/>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B292" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B292" s="13"/>
       <c r="C292" s="6"/>
       <c r="D292" s="12"/>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B293" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B293" s="13"/>
       <c r="C293" s="6"/>
       <c r="D293" s="12"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B294" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B294" s="13"/>
       <c r="C294" s="6"/>
       <c r="D294" s="12"/>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B295" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B295" s="13"/>
       <c r="C295" s="6"/>
       <c r="D295" s="12"/>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B296" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B296" s="13"/>
       <c r="C296" s="6"/>
       <c r="D296" s="12"/>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B297" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B297" s="13"/>
       <c r="C297" s="6"/>
       <c r="D297" s="12"/>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B298" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B298" s="13"/>
       <c r="C298" s="6"/>
       <c r="D298" s="12"/>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B299" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B299" s="13"/>
       <c r="C299" s="6"/>
       <c r="D299" s="12"/>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B300" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B300" s="13"/>
       <c r="C300" s="6"/>
       <c r="D300" s="12"/>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B301" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B301" s="13"/>
       <c r="C301" s="6"/>
       <c r="D301" s="12"/>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B302" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B302" s="13"/>
       <c r="C302" s="6"/>
       <c r="D302" s="12"/>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B303" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B303" s="13"/>
       <c r="C303" s="6"/>
       <c r="D303" s="12"/>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B304" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B304" s="13"/>
       <c r="C304" s="6"/>
       <c r="D304" s="12"/>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B305" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B305" s="13"/>
       <c r="C305" s="6"/>
       <c r="D305" s="12"/>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B306" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B306" s="13"/>
       <c r="C306" s="6"/>
       <c r="D306" s="12"/>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B307" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B307" s="13"/>
       <c r="C307" s="6"/>
       <c r="D307" s="12"/>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B308" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B308" s="13"/>
       <c r="C308" s="6"/>
       <c r="D308" s="12"/>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B309" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B309" s="13"/>
       <c r="C309" s="6"/>
       <c r="D309" s="12"/>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B310" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B310" s="13"/>
       <c r="C310" s="6"/>
       <c r="D310" s="12"/>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B311" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B311" s="13"/>
       <c r="C311" s="6"/>
       <c r="D311" s="12"/>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B312" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B312" s="13"/>
       <c r="C312" s="6"/>
       <c r="D312" s="12"/>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B313" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B313" s="13"/>
       <c r="C313" s="6"/>
       <c r="D313" s="12"/>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B314" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B314" s="13"/>
       <c r="C314" s="6"/>
       <c r="D314" s="12"/>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B315" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B315" s="13"/>
       <c r="C315" s="6"/>
       <c r="D315" s="12"/>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B316" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B316" s="13"/>
       <c r="C316" s="6"/>
       <c r="D316" s="12"/>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B317" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B317" s="13"/>
       <c r="C317" s="6"/>
       <c r="D317" s="12"/>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B318" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B318" s="13"/>
       <c r="C318" s="6"/>
       <c r="D318" s="12"/>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B319" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B319" s="13"/>
       <c r="C319" s="6"/>
       <c r="D319" s="12"/>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B320" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B320" s="13"/>
       <c r="C320" s="6"/>
       <c r="D320" s="12"/>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B321" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B321" s="13"/>
       <c r="C321" s="6"/>
       <c r="D321" s="12"/>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B322" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B322" s="13"/>
       <c r="C322" s="6"/>
       <c r="D322" s="12"/>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B323" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B323" s="13"/>
       <c r="C323" s="6"/>
       <c r="D323" s="12"/>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B324" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B324" s="13"/>
       <c r="C324" s="6"/>
       <c r="D324" s="12"/>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B325" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B325" s="13"/>
       <c r="C325" s="6"/>
       <c r="D325" s="12"/>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B326" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B326" s="13"/>
       <c r="C326" s="6"/>
       <c r="D326" s="12"/>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B327" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B327" s="13"/>
       <c r="C327" s="6"/>
       <c r="D327" s="12"/>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B328" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B328" s="13"/>
       <c r="C328" s="6"/>
       <c r="D328" s="12"/>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B329" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B329" s="13"/>
       <c r="C329" s="6"/>
       <c r="D329" s="12"/>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B330" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B330" s="13"/>
       <c r="C330" s="6"/>
       <c r="D330" s="12"/>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B331" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B331" s="13"/>
       <c r="C331" s="6"/>
       <c r="D331" s="12"/>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B332" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B332" s="13"/>
       <c r="C332" s="6"/>
       <c r="D332" s="12"/>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B333" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B333" s="13"/>
       <c r="C333" s="6"/>
       <c r="D333" s="12"/>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B334" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B334" s="13"/>
       <c r="C334" s="6"/>
       <c r="D334" s="12"/>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B335" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B335" s="13"/>
       <c r="C335" s="6"/>
       <c r="D335" s="12"/>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B336" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B336" s="13"/>
       <c r="C336" s="6"/>
       <c r="D336" s="12"/>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B337" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B337" s="13"/>
       <c r="C337" s="6"/>
       <c r="D337" s="12"/>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B338" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B338" s="13"/>
       <c r="C338" s="6"/>
       <c r="D338" s="12"/>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B339" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B339" s="13"/>
       <c r="C339" s="6"/>
       <c r="D339" s="12"/>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B340" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B340" s="13"/>
       <c r="C340" s="6"/>
       <c r="D340" s="12"/>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B341" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B341" s="13"/>
       <c r="C341" s="6"/>
       <c r="D341" s="12"/>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B342" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B342" s="13"/>
       <c r="C342" s="6"/>
       <c r="D342" s="12"/>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B343" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B343" s="13"/>
       <c r="C343" s="6"/>
       <c r="D343" s="12"/>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B344" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B344" s="13"/>
       <c r="C344" s="6"/>
       <c r="D344" s="12"/>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B345" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B345" s="13"/>
       <c r="C345" s="6"/>
       <c r="D345" s="12"/>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B346" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B346" s="13"/>
       <c r="C346" s="6"/>
       <c r="D346" s="12"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B347" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B347" s="13"/>
       <c r="C347" s="6"/>
       <c r="D347" s="12"/>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B348" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B348" s="13"/>
       <c r="C348" s="6"/>
       <c r="D348" s="12"/>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B349" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B349" s="13"/>
       <c r="C349" s="6"/>
       <c r="D349" s="12"/>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B350" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B350" s="13"/>
       <c r="C350" s="6"/>
       <c r="D350" s="12"/>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B351" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B351" s="13"/>
       <c r="C351" s="6"/>
       <c r="D351" s="12"/>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B352" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B352" s="13"/>
       <c r="C352" s="6"/>
       <c r="D352" s="12"/>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B353" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B353" s="13"/>
       <c r="C353" s="6"/>
       <c r="D353" s="12"/>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B354" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B354" s="13"/>
       <c r="C354" s="6"/>
       <c r="D354" s="12"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B355" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B355" s="13"/>
       <c r="C355" s="6"/>
       <c r="D355" s="12"/>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B356" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B356" s="13"/>
       <c r="C356" s="6"/>
       <c r="D356" s="12"/>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B357" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B357" s="13"/>
       <c r="C357" s="6"/>
       <c r="D357" s="12"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B358" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B358" s="13"/>
       <c r="C358" s="6"/>
       <c r="D358" s="12"/>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B359" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B359" s="13"/>
       <c r="C359" s="6"/>
       <c r="D359" s="12"/>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B360" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B360" s="13"/>
       <c r="C360" s="6"/>
       <c r="D360" s="12"/>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B361" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B361" s="13"/>
       <c r="C361" s="6"/>
       <c r="D361" s="12"/>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B362" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B362" s="13"/>
       <c r="C362" s="6"/>
       <c r="D362" s="12"/>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B363" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B363" s="13"/>
       <c r="C363" s="6"/>
       <c r="D363" s="12"/>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B364" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B364" s="13"/>
       <c r="C364" s="6"/>
       <c r="D364" s="12"/>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B365" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B365" s="13"/>
       <c r="C365" s="6"/>
       <c r="D365" s="12"/>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B366" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B366" s="13"/>
       <c r="C366" s="6"/>
       <c r="D366" s="12"/>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B367" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B367" s="13"/>
       <c r="C367" s="6"/>
       <c r="D367" s="12"/>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B368" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B368" s="13"/>
       <c r="C368" s="6"/>
       <c r="D368" s="12"/>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B369" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B369" s="13"/>
       <c r="C369" s="6"/>
       <c r="D369" s="12"/>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B370" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B370" s="13"/>
       <c r="C370" s="6"/>
       <c r="D370" s="12"/>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B371" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B371" s="13"/>
       <c r="C371" s="6"/>
       <c r="D371" s="12"/>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B372" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B372" s="13"/>
       <c r="C372" s="6"/>
       <c r="D372" s="12"/>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B373" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B373" s="13"/>
       <c r="C373" s="6"/>
       <c r="D373" s="12"/>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B374" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B374" s="13"/>
       <c r="C374" s="6"/>
       <c r="D374" s="12"/>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B375" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B375" s="13"/>
       <c r="C375" s="6"/>
       <c r="D375" s="12"/>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B376" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B376" s="13"/>
       <c r="C376" s="6"/>
       <c r="D376" s="12"/>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B377" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B377" s="13"/>
       <c r="C377" s="6"/>
       <c r="D377" s="12"/>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B378" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B378" s="13"/>
       <c r="C378" s="6"/>
       <c r="D378" s="12"/>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B379" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B379" s="13"/>
       <c r="C379" s="6"/>
       <c r="D379" s="12"/>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B380" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B380" s="13"/>
       <c r="C380" s="6"/>
       <c r="D380" s="12"/>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B381" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B381" s="13"/>
       <c r="C381" s="6"/>
       <c r="D381" s="12"/>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B382" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B382" s="13"/>
       <c r="C382" s="6"/>
       <c r="D382" s="12"/>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B383" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B383" s="13"/>
       <c r="C383" s="6"/>
       <c r="D383" s="12"/>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B384" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B384" s="13"/>
       <c r="C384" s="6"/>
       <c r="D384" s="12"/>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B385" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B385" s="13"/>
       <c r="C385" s="6"/>
       <c r="D385" s="12"/>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B386" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B386" s="13"/>
       <c r="C386" s="6"/>
       <c r="D386" s="12"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B387" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B387" s="13"/>
       <c r="C387" s="6"/>
       <c r="D387" s="12"/>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B388" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B388" s="13"/>
       <c r="C388" s="6"/>
       <c r="D388" s="12"/>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B389" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B389" s="13"/>
       <c r="C389" s="6"/>
       <c r="D389" s="12"/>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B390" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B390" s="13"/>
       <c r="C390" s="6"/>
       <c r="D390" s="12"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B391" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B391" s="13"/>
       <c r="C391" s="6"/>
       <c r="D391" s="12"/>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B392" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B392" s="13"/>
       <c r="C392" s="6"/>
       <c r="D392" s="12"/>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B393" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B393" s="13"/>
       <c r="C393" s="6"/>
       <c r="D393" s="12"/>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B394" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B394" s="13"/>
       <c r="C394" s="6"/>
       <c r="D394" s="12"/>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B395" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B395" s="13"/>
       <c r="C395" s="6"/>
       <c r="D395" s="12"/>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B396" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B396" s="13"/>
       <c r="C396" s="6"/>
       <c r="D396" s="12"/>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B397" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B397" s="13"/>
       <c r="C397" s="6"/>
       <c r="D397" s="12"/>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B398" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B398" s="13"/>
       <c r="C398" s="6"/>
       <c r="D398" s="12"/>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B399" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B399" s="13"/>
       <c r="C399" s="6"/>
       <c r="D399" s="12"/>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B400" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B400" s="13"/>
       <c r="C400" s="6"/>
       <c r="D400" s="12"/>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B401" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B401" s="13"/>
       <c r="C401" s="6"/>
       <c r="D401" s="12"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B402" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B402" s="13"/>
       <c r="C402" s="6"/>
       <c r="D402" s="12"/>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B403" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B403" s="13"/>
       <c r="C403" s="6"/>
       <c r="D403" s="12"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B404" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B404" s="13"/>
       <c r="C404" s="6"/>
       <c r="D404" s="12"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B405" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B405" s="13"/>
       <c r="C405" s="6"/>
       <c r="D405" s="12"/>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B406" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B406" s="13"/>
       <c r="C406" s="6"/>
       <c r="D406" s="12"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B407" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B407" s="13"/>
       <c r="C407" s="6"/>
       <c r="D407" s="12"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B408" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B408" s="13"/>
       <c r="C408" s="6"/>
       <c r="D408" s="12"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B409" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B409" s="13"/>
       <c r="C409" s="6"/>
       <c r="D409" s="12"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B410" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B410" s="13"/>
       <c r="C410" s="6"/>
       <c r="D410" s="12"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B411" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B411" s="13"/>
       <c r="C411" s="6"/>
       <c r="D411" s="12"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B412" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B412" s="13"/>
       <c r="C412" s="6"/>
       <c r="D412" s="12"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B413" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B413" s="13"/>
       <c r="C413" s="6"/>
       <c r="D413" s="12"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B414" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B414" s="13"/>
       <c r="C414" s="6"/>
       <c r="D414" s="12"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B415" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B415" s="13"/>
       <c r="C415" s="6"/>
       <c r="D415" s="12"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B416" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B416" s="13"/>
       <c r="C416" s="6"/>
       <c r="D416" s="12"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B417" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B417" s="13"/>
       <c r="C417" s="6"/>
       <c r="D417" s="12"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B418" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B418" s="13"/>
       <c r="C418" s="6"/>
       <c r="D418" s="12"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B419" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B419" s="13"/>
       <c r="C419" s="6"/>
       <c r="D419" s="12"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B420" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B420" s="13"/>
       <c r="C420" s="6"/>
       <c r="D420" s="12"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B421" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B421" s="13"/>
       <c r="C421" s="6"/>
       <c r="D421" s="12"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B422" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B422" s="13"/>
       <c r="C422" s="6"/>
       <c r="D422" s="12"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B423" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B423" s="13"/>
       <c r="C423" s="6"/>
       <c r="D423" s="12"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B424" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B424" s="13"/>
       <c r="C424" s="6"/>
       <c r="D424" s="12"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B425" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B425" s="13"/>
       <c r="C425" s="6"/>
       <c r="D425" s="12"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B426" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B426" s="13"/>
       <c r="C426" s="6"/>
       <c r="D426" s="12"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B427" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B427" s="13"/>
       <c r="C427" s="6"/>
       <c r="D427" s="12"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B428" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B428" s="13"/>
       <c r="C428" s="6"/>
       <c r="D428" s="12"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B429" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B429" s="13"/>
       <c r="C429" s="6"/>
       <c r="D429" s="12"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B430" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B430" s="13"/>
       <c r="C430" s="6"/>
       <c r="D430" s="12"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B431" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B431" s="13"/>
       <c r="C431" s="6"/>
       <c r="D431" s="12"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B432" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B432" s="13"/>
       <c r="C432" s="6"/>
       <c r="D432" s="12"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B433" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B433" s="13"/>
       <c r="C433" s="6"/>
       <c r="D433" s="12"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B434" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B434" s="13"/>
       <c r="C434" s="6"/>
       <c r="D434" s="12"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B435" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B435" s="13"/>
       <c r="C435" s="6"/>
       <c r="D435" s="12"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B436" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B436" s="13"/>
       <c r="C436" s="6"/>
       <c r="D436" s="12"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B437" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B437" s="13"/>
       <c r="C437" s="6"/>
       <c r="D437" s="12"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B438" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B438" s="13"/>
       <c r="C438" s="6"/>
       <c r="D438" s="12"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B439" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B439" s="13"/>
       <c r="C439" s="6"/>
       <c r="D439" s="12"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B440" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B440" s="13"/>
       <c r="C440" s="6"/>
       <c r="D440" s="12"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B441" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B441" s="13"/>
       <c r="C441" s="6"/>
       <c r="D441" s="12"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B442" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B442" s="13"/>
       <c r="C442" s="6"/>
       <c r="D442" s="12"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B443" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B443" s="13"/>
       <c r="C443" s="6"/>
       <c r="D443" s="12"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B444" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B444" s="13"/>
       <c r="C444" s="6"/>
       <c r="D444" s="12"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B445" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B445" s="13"/>
       <c r="C445" s="6"/>
       <c r="D445" s="12"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B446" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B446" s="13"/>
       <c r="C446" s="6"/>
       <c r="D446" s="12"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B447" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B447" s="13"/>
       <c r="C447" s="6"/>
       <c r="D447" s="12"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B448" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B448" s="13"/>
       <c r="C448" s="6"/>
       <c r="D448" s="12"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B449" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B449" s="13"/>
       <c r="C449" s="6"/>
       <c r="D449" s="12"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B450" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B450" s="13"/>
       <c r="C450" s="6"/>
       <c r="D450" s="12"/>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B451" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B451" s="13"/>
       <c r="C451" s="6"/>
       <c r="D451" s="12"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B452" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B452" s="13"/>
       <c r="C452" s="6"/>
       <c r="D452" s="12"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B453" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B453" s="13"/>
       <c r="C453" s="6"/>
       <c r="D453" s="12"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B454" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B454" s="13"/>
       <c r="C454" s="6"/>
       <c r="D454" s="12"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B455" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B455" s="13"/>
       <c r="C455" s="6"/>
       <c r="D455" s="12"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B456" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B456" s="13"/>
       <c r="C456" s="6"/>
       <c r="D456" s="12"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B457" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B457" s="13"/>
       <c r="C457" s="6"/>
       <c r="D457" s="12"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B458" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B458" s="13"/>
       <c r="C458" s="6"/>
       <c r="D458" s="12"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B459" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B459" s="13"/>
       <c r="C459" s="6"/>
       <c r="D459" s="12"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B460" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B460" s="13"/>
       <c r="C460" s="6"/>
       <c r="D460" s="12"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B461" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B461" s="13"/>
       <c r="C461" s="6"/>
       <c r="D461" s="12"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B462" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B462" s="13"/>
       <c r="C462" s="6"/>
       <c r="D462" s="12"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B463" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B463" s="13"/>
       <c r="C463" s="6"/>
       <c r="D463" s="12"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B464" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B464" s="13"/>
       <c r="C464" s="6"/>
       <c r="D464" s="12"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B465" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B465" s="13"/>
       <c r="C465" s="6"/>
       <c r="D465" s="12"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B466" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B466" s="13"/>
       <c r="C466" s="6"/>
       <c r="D466" s="12"/>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B467" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B467" s="13"/>
       <c r="C467" s="6"/>
       <c r="D467" s="12"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B468" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B468" s="13"/>
       <c r="C468" s="6"/>
       <c r="D468" s="12"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B469" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B469" s="13"/>
       <c r="C469" s="6"/>
       <c r="D469" s="12"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B470" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B470" s="13"/>
       <c r="C470" s="6"/>
       <c r="D470" s="12"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B471" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B471" s="13"/>
       <c r="C471" s="6"/>
       <c r="D471" s="12"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B472" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B472" s="13"/>
       <c r="C472" s="6"/>
       <c r="D472" s="12"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B473" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B473" s="13"/>
       <c r="C473" s="6"/>
       <c r="D473" s="12"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B474" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B474" s="13"/>
       <c r="C474" s="6"/>
       <c r="D474" s="12"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B475" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B475" s="13"/>
       <c r="C475" s="6"/>
       <c r="D475" s="12"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B476" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B476" s="13"/>
       <c r="C476" s="6"/>
       <c r="D476" s="12"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B477" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B477" s="13"/>
       <c r="C477" s="6"/>
       <c r="D477" s="12"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B478" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B478" s="13"/>
       <c r="C478" s="6"/>
       <c r="D478" s="12"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B479" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B479" s="13"/>
       <c r="C479" s="6"/>
       <c r="D479" s="12"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B480" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B480" s="13"/>
       <c r="C480" s="6"/>
       <c r="D480" s="12"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B481" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B481" s="13"/>
       <c r="C481" s="6"/>
       <c r="D481" s="12"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B482" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B482" s="13"/>
       <c r="C482" s="6"/>
       <c r="D482" s="12"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B483" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B483" s="13"/>
       <c r="C483" s="6"/>
       <c r="D483" s="12"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B484" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B484" s="13"/>
       <c r="C484" s="6"/>
       <c r="D484" s="12"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B485" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B485" s="13"/>
       <c r="C485" s="6"/>
       <c r="D485" s="12"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B486" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B486" s="13"/>
       <c r="C486" s="6"/>
       <c r="D486" s="12"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B487" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B487" s="13"/>
       <c r="C487" s="6"/>
       <c r="D487" s="12"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B488" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B488" s="13"/>
       <c r="C488" s="6"/>
       <c r="D488" s="12"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B489" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B489" s="13"/>
       <c r="C489" s="6"/>
       <c r="D489" s="12"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B490" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B490" s="13"/>
       <c r="C490" s="6"/>
       <c r="D490" s="12"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B491" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B491" s="13"/>
       <c r="C491" s="6"/>
       <c r="D491" s="12"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B492" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B492" s="13"/>
       <c r="C492" s="6"/>
       <c r="D492" s="12"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B493" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B493" s="13"/>
       <c r="C493" s="6"/>
       <c r="D493" s="12"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B494" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B494" s="13"/>
       <c r="C494" s="6"/>
       <c r="D494" s="12"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B495" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="B495" s="13"/>
       <c r="C495" s="6"/>
       <c r="D495" s="12"/>
     </row>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -29,12 +29,6 @@
     <t>Netoge no Yome ga Ninki Idol datta</t>
   </si>
   <si>
-    <t>Steins;Gate Movie: Fuka Ryouiki no Déjà vu</t>
-  </si>
-  <si>
-    <t>Just Because</t>
-  </si>
-  <si>
     <t>☑</t>
   </si>
   <si>
@@ -1011,6 +1005,14 @@
   <si>
     <t>Code Geass
 コードギアス 反逆のルルーシュ</t>
+  </si>
+  <si>
+    <t>Just Because
+ジャストビコーズ</t>
+  </si>
+  <si>
+    <t>Steins;Gate Movie: Fuka Ryouiki no Déjà vu
+劇場版 STEINS;GATE 負荷領域のデジャヴ</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1174,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1191,6 +1214,76 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1233,7 +1326,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1614,987 +1707,987 @@
     <row r="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="6">
         <v>2016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="117.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <v>2015</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6">
         <v>2018</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6">
         <v>2017</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6">
         <v>2017</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
         <v>2002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6">
         <v>2013</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="146.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6">
         <v>2011</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="162" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6">
         <v>2011</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="147.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6">
         <v>2020</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="114.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6">
         <v>2018</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="146.25" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6">
         <v>2021</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="163.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6">
         <v>2018</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="101.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6">
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="6">
         <v>2013</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="6">
         <v>2013</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="116.25" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="6">
         <v>2016</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="143.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6">
         <v>1999</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="111" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6">
         <v>1984</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="131.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6">
         <v>1994</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="103.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6">
         <v>1990</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="83.25" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="6">
         <v>1969</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="6">
         <v>2019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="98.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="6">
         <v>2005</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="98.25" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="6">
         <v>2018</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="83.25" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6">
         <v>2015</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6">
         <v>2003</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="114.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="6">
         <v>2008</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="97.5" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="6">
         <v>2019</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="68.25" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="6">
         <v>2018</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="98.25" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="6">
         <v>2013</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="66.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="6">
         <v>2018</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="67.5" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6">
         <v>2011</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="68.25" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="6">
         <v>2017</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="80.25" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="6">
         <v>2001</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="84" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="6">
         <v>2007</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="81.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="6">
         <v>1998</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="83.25" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="6">
         <v>2012</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="66" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="6">
         <v>2014</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="63">
       <c r="A41" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="6">
         <v>1987</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6">
         <v>1981</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="68.25" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="6">
         <v>2013</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="69.75" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="6">
         <v>2011</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="81.75" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="6">
         <v>2004</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="68.25" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" s="6">
         <v>1989</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="67.5" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" s="6">
         <v>1982</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="83.25" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="6">
         <v>2016</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C49" s="6">
         <v>2013</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="83.25" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" s="6">
         <v>1984</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="66" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C51" s="6">
         <v>2002</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="68.25" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C52" s="6">
         <v>1988</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="69.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" s="6">
         <v>1996</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="65.25" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" s="6">
         <v>1975</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="88.5" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" s="6">
         <v>1980</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="83.25" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C56" s="6">
         <v>2004</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="65.25" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C57" s="6">
         <v>2020</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="68.25" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C58" s="6">
         <v>2009</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.5" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C59" s="6">
         <v>2013</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C60" s="6">
         <v>2016</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C61" s="6">
         <v>2015</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="71.25" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C62" s="6">
         <v>2018</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="81" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63" s="6">
         <v>2015</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="72.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C64" s="6">
         <v>2019</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="68.25" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C65" s="6">
         <v>2011</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="65.25" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C66" s="6">
         <v>2012</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="81.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C67" s="6">
         <v>2005</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="67.5" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C68" s="6">
         <v>2006</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="82.5" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C69" s="6">
         <v>2014</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="65.25" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C70" s="6">
         <v>2021</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="31.5">
       <c r="A71" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C71" s="6">
         <v>2022</v>
@@ -2603,66 +2696,66 @@
     </row>
     <row r="72" spans="1:5" ht="70.5" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C72" s="6">
         <v>2019</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="80.25" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C73" s="6">
         <v>2002</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="67.5" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" s="6">
         <v>2015</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="64.5" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C75" s="6">
         <v>2010</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="31.5">
       <c r="A76" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C76" s="6">
         <v>2012</v>
@@ -2671,10 +2764,10 @@
     </row>
     <row r="77" spans="1:5" ht="47.25">
       <c r="A77" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="6">
         <v>2012</v>
@@ -2683,41 +2776,41 @@
     </row>
     <row r="78" spans="1:5" ht="63">
       <c r="A78" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C78" s="6">
         <v>2011</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="149.25" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" s="6">
         <v>2012</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="47.25">
       <c r="A80" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C80" s="6">
         <v>2006</v>
@@ -2726,10 +2819,10 @@
     </row>
     <row r="81" spans="1:4" ht="47.25">
       <c r="A81" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" s="6">
         <v>2008</v>
@@ -2738,10 +2831,10 @@
     </row>
     <row r="82" spans="1:4" ht="31.5">
       <c r="A82" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C82" s="6">
         <v>2006</v>
@@ -2750,10 +2843,10 @@
     </row>
     <row r="83" spans="1:4" ht="47.25">
       <c r="A83" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="6">
         <v>2016</v>
@@ -2762,10 +2855,10 @@
     </row>
     <row r="84" spans="1:4" ht="47.25">
       <c r="A84" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C84" s="6">
         <v>2007</v>
@@ -2774,10 +2867,10 @@
     </row>
     <row r="85" spans="1:4" ht="47.25">
       <c r="A85" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85" s="6">
         <v>2012</v>
@@ -2786,10 +2879,10 @@
     </row>
     <row r="86" spans="1:4" ht="47.25">
       <c r="A86" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86" s="6">
         <v>2009</v>
@@ -2798,10 +2891,10 @@
     </row>
     <row r="87" spans="1:4" ht="47.25">
       <c r="A87" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C87" s="6">
         <v>2013</v>
@@ -2810,10 +2903,10 @@
     </row>
     <row r="88" spans="1:4" ht="47.25">
       <c r="A88" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C88" s="6">
         <v>2017</v>
@@ -2822,10 +2915,10 @@
     </row>
     <row r="89" spans="1:4" ht="31.5">
       <c r="A89" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" s="6">
         <v>2019</v>
@@ -2834,22 +2927,22 @@
     </row>
     <row r="90" spans="1:4" ht="47.25">
       <c r="A90" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C90" s="6">
         <v>1979</v>
       </c>
       <c r="D90" s="12"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="31.5">
       <c r="A91" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="C91" s="6">
         <v>2017</v>
@@ -2858,38 +2951,38 @@
     </row>
     <row r="92" spans="1:4" ht="129" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C92" s="6">
         <v>2020</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="94.5">
       <c r="A93" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C93" s="6">
         <v>2015</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="47.25">
       <c r="A94" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C94" s="6">
         <v>2007</v>
@@ -2898,10 +2991,10 @@
     </row>
     <row r="95" spans="1:4" ht="47.25">
       <c r="A95" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C95" s="6">
         <v>2012</v>
@@ -2910,10 +3003,10 @@
     </row>
     <row r="96" spans="1:4" ht="47.25">
       <c r="A96" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C96" s="6">
         <v>2015</v>
@@ -2922,10 +3015,10 @@
     </row>
     <row r="97" spans="1:4" ht="47.25">
       <c r="A97" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C97" s="6">
         <v>1986</v>
@@ -2934,10 +3027,10 @@
     </row>
     <row r="98" spans="1:4" ht="47.25">
       <c r="A98" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C98" s="6">
         <v>2016</v>
@@ -2946,10 +3039,10 @@
     </row>
     <row r="99" spans="1:4" ht="47.25">
       <c r="A99" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C99" s="6">
         <v>2019</v>
@@ -2958,10 +3051,10 @@
     </row>
     <row r="100" spans="1:4" ht="47.25">
       <c r="A100" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C100" s="6">
         <v>2017</v>
@@ -2970,10 +3063,10 @@
     </row>
     <row r="101" spans="1:4" ht="47.25">
       <c r="A101" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C101" s="6">
         <v>2016</v>
@@ -2982,7 +3075,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>0</v>
@@ -2994,10 +3087,10 @@
     </row>
     <row r="103" spans="1:4" ht="47.25">
       <c r="A103" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C103" s="6">
         <v>2017</v>
@@ -3006,10 +3099,10 @@
     </row>
     <row r="104" spans="1:4" ht="47.25">
       <c r="A104" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C104" s="6">
         <v>2019</v>
@@ -3018,10 +3111,10 @@
     </row>
     <row r="105" spans="1:4" ht="47.25">
       <c r="A105" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C105" s="6">
         <v>2019</v>
@@ -3030,10 +3123,10 @@
     </row>
     <row r="106" spans="1:4" ht="47.25">
       <c r="A106" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C106" s="6">
         <v>2020</v>
@@ -3042,10 +3135,10 @@
     </row>
     <row r="107" spans="1:4" ht="47.25">
       <c r="A107" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C107" s="6">
         <v>2013</v>
@@ -3054,10 +3147,10 @@
     </row>
     <row r="108" spans="1:4" ht="47.25">
       <c r="A108" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C108" s="6">
         <v>2007</v>
@@ -3066,10 +3159,10 @@
     </row>
     <row r="109" spans="1:4" ht="47.25">
       <c r="A109" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C109" s="6">
         <v>2017</v>
@@ -3078,10 +3171,10 @@
     </row>
     <row r="110" spans="1:4" ht="47.25">
       <c r="A110" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C110" s="6">
         <v>2022</v>
@@ -3090,10 +3183,10 @@
     </row>
     <row r="111" spans="1:4" ht="47.25">
       <c r="A111" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C111" s="6">
         <v>1998</v>
@@ -3102,22 +3195,22 @@
     </row>
     <row r="112" spans="1:4" ht="47.25">
       <c r="A112" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C112" s="6">
         <v>2010</v>
       </c>
       <c r="D112" s="12"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="31.5">
       <c r="A113" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="C113" s="6">
         <v>2013</v>
@@ -3126,10 +3219,10 @@
     </row>
     <row r="114" spans="1:5" ht="47.25">
       <c r="A114" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C114" s="6">
         <v>2015</v>
@@ -3138,10 +3231,10 @@
     </row>
     <row r="115" spans="1:5" ht="47.25">
       <c r="A115" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C115" s="6">
         <v>2016</v>
@@ -3150,10 +3243,10 @@
     </row>
     <row r="116" spans="1:5" ht="47.25">
       <c r="A116" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C116" s="6">
         <v>2010</v>
@@ -3162,10 +3255,10 @@
     </row>
     <row r="117" spans="1:5" ht="47.25">
       <c r="A117" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C117" s="6">
         <v>2009</v>
@@ -3174,10 +3267,10 @@
     </row>
     <row r="118" spans="1:5" ht="47.25">
       <c r="A118" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C118" s="6">
         <v>2011</v>
@@ -3186,10 +3279,10 @@
     </row>
     <row r="119" spans="1:5" ht="47.25">
       <c r="A119" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C119" s="6">
         <v>2006</v>
@@ -3198,10 +3291,10 @@
     </row>
     <row r="120" spans="1:5" ht="47.25">
       <c r="A120" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C120" s="6">
         <v>2023</v>
@@ -3210,10 +3303,10 @@
     </row>
     <row r="121" spans="1:5" ht="47.25">
       <c r="A121" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C121" s="6">
         <v>2008</v>
@@ -3222,10 +3315,10 @@
     </row>
     <row r="122" spans="1:5" ht="47.25">
       <c r="A122" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C122" s="6">
         <v>2005</v>
@@ -3234,10 +3327,10 @@
     </row>
     <row r="123" spans="1:5" ht="47.25">
       <c r="A123" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C123" s="6">
         <v>2019</v>
@@ -3246,10 +3339,10 @@
     </row>
     <row r="124" spans="1:5" ht="47.25">
       <c r="A124" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C124" s="6">
         <v>2014</v>
@@ -3258,55 +3351,55 @@
     </row>
     <row r="125" spans="1:5" ht="177.75" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C125" s="6">
         <v>2017</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="165.75" customHeight="1">
       <c r="A126" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C126" s="6">
         <v>2016</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="97.5" customHeight="1">
       <c r="A127" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C127" s="6">
         <v>2014</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="31.5">
       <c r="A128" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C128" s="6">
         <v>2008</v>
@@ -3315,10 +3408,10 @@
     </row>
     <row r="129" spans="1:5" ht="31.5">
       <c r="A129" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C129" s="6">
         <v>2005</v>
@@ -3327,24 +3420,24 @@
     </row>
     <row r="130" spans="1:5" ht="110.25">
       <c r="A130" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C130" s="6">
         <v>2010</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="31.5">
       <c r="A131" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C131" s="6">
         <v>2005</v>
@@ -3353,27 +3446,27 @@
     </row>
     <row r="132" spans="1:5" ht="225" customHeight="1">
       <c r="A132" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C132" s="6">
         <v>2004</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="47.25">
       <c r="A133" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C133" s="6">
         <v>2013</v>
@@ -3382,41 +3475,41 @@
     </row>
     <row r="134" spans="1:5" ht="192.75" customHeight="1">
       <c r="A134" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C134" s="6">
         <v>2020</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="180" customHeight="1">
       <c r="A135" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C135" s="6">
         <v>2012</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="31.5">
       <c r="A136" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C136" s="6">
         <v>2009</v>
@@ -3425,10 +3518,10 @@
     </row>
     <row r="137" spans="1:5" ht="47.25">
       <c r="A137" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C137" s="6">
         <v>2015</v>
@@ -3437,10 +3530,10 @@
     </row>
     <row r="138" spans="1:5" ht="47.25">
       <c r="A138" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C138" s="6">
         <v>2009</v>
@@ -3449,10 +3542,10 @@
     </row>
     <row r="139" spans="1:5" ht="47.25">
       <c r="A139" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C139" s="6">
         <v>2004</v>
@@ -3461,10 +3554,10 @@
     </row>
     <row r="140" spans="1:5" ht="47.25">
       <c r="A140" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C140" s="6">
         <v>2001</v>
@@ -3473,10 +3566,10 @@
     </row>
     <row r="141" spans="1:5" ht="47.25">
       <c r="A141" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C141" s="6">
         <v>1999</v>
@@ -3485,10 +3578,10 @@
     </row>
     <row r="142" spans="1:5" ht="31.5">
       <c r="A142" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C142" s="6">
         <v>1998</v>
@@ -3497,10 +3590,10 @@
     </row>
     <row r="143" spans="1:5" ht="47.25">
       <c r="A143" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C143" s="6">
         <v>1998</v>
@@ -3509,10 +3602,10 @@
     </row>
     <row r="144" spans="1:5" ht="47.25">
       <c r="A144" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C144" s="6">
         <v>2001</v>
@@ -3521,10 +3614,10 @@
     </row>
     <row r="145" spans="1:4" ht="31.5">
       <c r="A145" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C145" s="6">
         <v>2006</v>
@@ -3533,10 +3626,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C146" s="6">
         <v>2003</v>
@@ -3545,7 +3638,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="6"/>
@@ -3553,7 +3646,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="6"/>
@@ -3561,7 +3654,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="6"/>
@@ -3569,7 +3662,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="6"/>
@@ -3577,7 +3670,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="6"/>
@@ -3585,7 +3678,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B152" s="13"/>
       <c r="C152" s="6"/>
@@ -3593,7 +3686,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="6"/>
@@ -3601,7 +3694,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B154" s="13"/>
       <c r="C154" s="6"/>
@@ -3609,7 +3702,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B155" s="13"/>
       <c r="C155" s="6"/>
@@ -3617,7 +3710,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="6"/>
@@ -3625,7 +3718,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="6"/>
@@ -3633,7 +3726,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="6"/>
@@ -3641,7 +3734,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="6"/>
@@ -3649,7 +3742,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="6"/>
@@ -3657,7 +3750,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B161" s="13"/>
       <c r="C161" s="6"/>
@@ -3665,7 +3758,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="6"/>
@@ -3673,7 +3766,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B163" s="13"/>
       <c r="C163" s="6"/>
@@ -3681,7 +3774,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="6"/>
@@ -3689,7 +3782,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B165" s="13"/>
       <c r="C165" s="6"/>
@@ -3697,7 +3790,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="6"/>
@@ -3705,7 +3798,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B167" s="13"/>
       <c r="C167" s="6"/>
@@ -3713,7 +3806,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="6"/>
@@ -3721,7 +3814,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="6"/>
@@ -3729,7 +3822,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B170" s="13"/>
       <c r="C170" s="6"/>
@@ -3737,7 +3830,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="6"/>
@@ -3745,7 +3838,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B172" s="13"/>
       <c r="C172" s="6"/>
@@ -3753,7 +3846,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B173" s="13"/>
       <c r="C173" s="6"/>
@@ -3761,7 +3854,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B174" s="13"/>
       <c r="C174" s="6"/>
@@ -3769,7 +3862,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B175" s="13"/>
       <c r="C175" s="6"/>
@@ -3777,7 +3870,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="6"/>
@@ -3785,7 +3878,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="6"/>
@@ -3793,7 +3886,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="6"/>
@@ -3801,7 +3894,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="6"/>
@@ -3809,7 +3902,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="6"/>
@@ -3817,7 +3910,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="6"/>
@@ -3825,7 +3918,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="6"/>
@@ -3833,7 +3926,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B183" s="13"/>
       <c r="C183" s="6"/>
@@ -3841,7 +3934,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B184" s="13"/>
       <c r="C184" s="6"/>
@@ -3849,7 +3942,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B185" s="13"/>
       <c r="C185" s="6"/>
@@ -3857,7 +3950,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="6"/>
@@ -3865,7 +3958,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="6"/>
@@ -3873,7 +3966,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B188" s="13"/>
       <c r="C188" s="6"/>
@@ -3881,7 +3974,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B189" s="13"/>
       <c r="C189" s="6"/>
@@ -3889,7 +3982,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B190" s="13"/>
       <c r="C190" s="6"/>
@@ -3897,7 +3990,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B191" s="13"/>
       <c r="C191" s="6"/>
@@ -3905,7 +3998,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B192" s="13"/>
       <c r="C192" s="6"/>
@@ -3913,7 +4006,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B193" s="13"/>
       <c r="C193" s="6"/>
@@ -3921,7 +4014,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="6"/>
@@ -3929,7 +4022,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B195" s="13"/>
       <c r="C195" s="6"/>
@@ -3937,7 +4030,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="6"/>
@@ -3945,7 +4038,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="6"/>
@@ -3953,7 +4046,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="6"/>
@@ -3961,7 +4054,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="6"/>
@@ -3969,7 +4062,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B200" s="13"/>
       <c r="C200" s="6"/>
@@ -3977,7 +4070,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B201" s="13"/>
       <c r="C201" s="6"/>
@@ -3985,7 +4078,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B202" s="13"/>
       <c r="C202" s="6"/>
@@ -3993,7 +4086,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B203" s="13"/>
       <c r="C203" s="6"/>
@@ -4001,7 +4094,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B204" s="13"/>
       <c r="C204" s="6"/>
@@ -4009,7 +4102,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="6"/>
@@ -4017,7 +4110,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B206" s="13"/>
       <c r="C206" s="6"/>
@@ -4025,7 +4118,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B207" s="13"/>
       <c r="C207" s="6"/>
@@ -4033,7 +4126,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B208" s="13"/>
       <c r="C208" s="6"/>
@@ -4041,7 +4134,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B209" s="13"/>
       <c r="C209" s="6"/>
@@ -4049,7 +4142,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B210" s="13"/>
       <c r="C210" s="6"/>
@@ -4057,7 +4150,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B211" s="13"/>
       <c r="C211" s="6"/>
@@ -4065,7 +4158,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B212" s="13"/>
       <c r="C212" s="6"/>
@@ -4073,7 +4166,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B213" s="13"/>
       <c r="C213" s="6"/>
@@ -4081,7 +4174,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="6"/>
@@ -4089,7 +4182,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B215" s="13"/>
       <c r="C215" s="6"/>
@@ -4097,7 +4190,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B216" s="13"/>
       <c r="C216" s="6"/>
@@ -4105,7 +4198,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B217" s="13"/>
       <c r="C217" s="6"/>
@@ -4113,7 +4206,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="6"/>
@@ -4121,7 +4214,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B219" s="13"/>
       <c r="C219" s="6"/>
@@ -4129,7 +4222,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B220" s="13"/>
       <c r="C220" s="6"/>
@@ -4137,7 +4230,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B221" s="13"/>
       <c r="C221" s="6"/>
@@ -4145,7 +4238,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="6"/>
@@ -4153,7 +4246,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B223" s="13"/>
       <c r="C223" s="6"/>
@@ -4161,7 +4254,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B224" s="13"/>
       <c r="C224" s="6"/>
@@ -4169,7 +4262,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B225" s="13"/>
       <c r="C225" s="6"/>
@@ -4177,7 +4270,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B226" s="13"/>
       <c r="C226" s="6"/>
@@ -4185,7 +4278,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B227" s="13"/>
       <c r="C227" s="6"/>
@@ -4193,7 +4286,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B228" s="13"/>
       <c r="C228" s="6"/>
@@ -4201,7 +4294,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B229" s="13"/>
       <c r="C229" s="6"/>
@@ -4209,7 +4302,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B230" s="13"/>
       <c r="C230" s="6"/>
@@ -4217,7 +4310,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B231" s="13"/>
       <c r="C231" s="6"/>
@@ -4225,7 +4318,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B232" s="13"/>
       <c r="C232" s="6"/>
@@ -4233,7 +4326,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B233" s="13"/>
       <c r="C233" s="6"/>
@@ -4241,7 +4334,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B234" s="13"/>
       <c r="C234" s="6"/>
@@ -4249,7 +4342,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="6"/>
@@ -4257,7 +4350,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B236" s="13"/>
       <c r="C236" s="6"/>
@@ -4265,7 +4358,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B237" s="13"/>
       <c r="C237" s="6"/>
@@ -4273,7 +4366,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B238" s="13"/>
       <c r="C238" s="6"/>
@@ -4281,7 +4374,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B239" s="13"/>
       <c r="C239" s="6"/>
@@ -4289,7 +4382,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B240" s="13"/>
       <c r="C240" s="6"/>
@@ -4297,7 +4390,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B241" s="13"/>
       <c r="C241" s="6"/>
@@ -4305,7 +4398,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B242" s="13"/>
       <c r="C242" s="6"/>
@@ -4313,7 +4406,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B243" s="13"/>
       <c r="C243" s="6"/>
@@ -4321,7 +4414,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B244" s="13"/>
       <c r="C244" s="6"/>
@@ -4329,7 +4422,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B245" s="13"/>
       <c r="C245" s="6"/>
@@ -4337,7 +4430,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B246" s="13"/>
       <c r="C246" s="6"/>
@@ -4345,7 +4438,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B247" s="13"/>
       <c r="C247" s="6"/>
@@ -4353,7 +4446,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B248" s="13"/>
       <c r="C248" s="6"/>
@@ -4361,7 +4454,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B249" s="13"/>
       <c r="C249" s="6"/>
@@ -4369,7 +4462,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B250" s="13"/>
       <c r="C250" s="6"/>
@@ -4377,7 +4470,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B251" s="13"/>
       <c r="C251" s="6"/>
@@ -4385,7 +4478,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B252" s="13"/>
       <c r="C252" s="6"/>
@@ -4393,7 +4486,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B253" s="13"/>
       <c r="C253" s="6"/>
@@ -4401,7 +4494,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B254" s="13"/>
       <c r="C254" s="6"/>
@@ -4409,7 +4502,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B255" s="13"/>
       <c r="C255" s="6"/>
@@ -4417,7 +4510,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B256" s="13"/>
       <c r="C256" s="6"/>
@@ -4425,7 +4518,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B257" s="13"/>
       <c r="C257" s="6"/>
@@ -4433,7 +4526,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B258" s="13"/>
       <c r="C258" s="6"/>
@@ -4441,7 +4534,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B259" s="13"/>
       <c r="C259" s="6"/>
@@ -4449,7 +4542,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B260" s="13"/>
       <c r="C260" s="6"/>
@@ -4457,7 +4550,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B261" s="13"/>
       <c r="C261" s="6"/>
@@ -4465,7 +4558,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B262" s="13"/>
       <c r="C262" s="6"/>
@@ -4473,7 +4566,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B263" s="13"/>
       <c r="C263" s="6"/>
@@ -4481,7 +4574,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B264" s="13"/>
       <c r="C264" s="6"/>
@@ -4489,7 +4582,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B265" s="13"/>
       <c r="C265" s="6"/>
@@ -4497,7 +4590,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B266" s="13"/>
       <c r="C266" s="6"/>
@@ -4505,7 +4598,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B267" s="13"/>
       <c r="C267" s="6"/>
@@ -4513,7 +4606,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B268" s="13"/>
       <c r="C268" s="6"/>
@@ -4521,7 +4614,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B269" s="13"/>
       <c r="C269" s="6"/>
@@ -4529,7 +4622,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B270" s="13"/>
       <c r="C270" s="6"/>
@@ -4537,7 +4630,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B271" s="13"/>
       <c r="C271" s="6"/>
@@ -4545,7 +4638,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B272" s="13"/>
       <c r="C272" s="6"/>
@@ -4553,7 +4646,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B273" s="13"/>
       <c r="C273" s="6"/>
@@ -4561,7 +4654,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B274" s="13"/>
       <c r="C274" s="6"/>
@@ -4569,7 +4662,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B275" s="13"/>
       <c r="C275" s="6"/>
@@ -4577,7 +4670,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B276" s="13"/>
       <c r="C276" s="6"/>
@@ -4585,7 +4678,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B277" s="13"/>
       <c r="C277" s="6"/>
@@ -4593,7 +4686,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B278" s="13"/>
       <c r="C278" s="6"/>
@@ -4601,7 +4694,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B279" s="13"/>
       <c r="C279" s="6"/>
@@ -4609,7 +4702,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B280" s="13"/>
       <c r="C280" s="6"/>
@@ -4617,7 +4710,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B281" s="13"/>
       <c r="C281" s="6"/>
@@ -4625,7 +4718,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B282" s="13"/>
       <c r="C282" s="6"/>
@@ -4633,7 +4726,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B283" s="13"/>
       <c r="C283" s="6"/>
@@ -4641,7 +4734,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B284" s="13"/>
       <c r="C284" s="6"/>
@@ -4649,7 +4742,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B285" s="13"/>
       <c r="C285" s="6"/>
@@ -4657,7 +4750,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B286" s="13"/>
       <c r="C286" s="6"/>
@@ -4665,7 +4758,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B287" s="13"/>
       <c r="C287" s="6"/>
@@ -4673,7 +4766,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B288" s="13"/>
       <c r="C288" s="6"/>
@@ -4681,7 +4774,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B289" s="13"/>
       <c r="C289" s="6"/>
@@ -4689,7 +4782,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B290" s="13"/>
       <c r="C290" s="6"/>
@@ -4697,7 +4790,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B291" s="13"/>
       <c r="C291" s="6"/>
@@ -4705,7 +4798,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B292" s="13"/>
       <c r="C292" s="6"/>
@@ -4713,7 +4806,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B293" s="13"/>
       <c r="C293" s="6"/>
@@ -4721,7 +4814,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B294" s="13"/>
       <c r="C294" s="6"/>
@@ -4729,7 +4822,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B295" s="13"/>
       <c r="C295" s="6"/>
@@ -4737,7 +4830,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B296" s="13"/>
       <c r="C296" s="6"/>
@@ -4745,7 +4838,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B297" s="13"/>
       <c r="C297" s="6"/>
@@ -4753,7 +4846,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B298" s="13"/>
       <c r="C298" s="6"/>
@@ -4761,7 +4854,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B299" s="13"/>
       <c r="C299" s="6"/>
@@ -4769,7 +4862,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B300" s="13"/>
       <c r="C300" s="6"/>
@@ -4777,7 +4870,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B301" s="13"/>
       <c r="C301" s="6"/>
@@ -4785,7 +4878,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B302" s="13"/>
       <c r="C302" s="6"/>
@@ -4793,7 +4886,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B303" s="13"/>
       <c r="C303" s="6"/>
@@ -4801,7 +4894,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B304" s="13"/>
       <c r="C304" s="6"/>
@@ -4809,7 +4902,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B305" s="13"/>
       <c r="C305" s="6"/>
@@ -4817,7 +4910,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B306" s="13"/>
       <c r="C306" s="6"/>
@@ -4825,7 +4918,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B307" s="13"/>
       <c r="C307" s="6"/>
@@ -4833,7 +4926,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B308" s="13"/>
       <c r="C308" s="6"/>
@@ -4841,7 +4934,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B309" s="13"/>
       <c r="C309" s="6"/>
@@ -4849,7 +4942,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B310" s="13"/>
       <c r="C310" s="6"/>
@@ -4857,7 +4950,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B311" s="13"/>
       <c r="C311" s="6"/>
@@ -4865,7 +4958,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B312" s="13"/>
       <c r="C312" s="6"/>
@@ -4873,7 +4966,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B313" s="13"/>
       <c r="C313" s="6"/>
@@ -4881,7 +4974,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B314" s="13"/>
       <c r="C314" s="6"/>
@@ -4889,7 +4982,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B315" s="13"/>
       <c r="C315" s="6"/>
@@ -4897,7 +4990,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B316" s="13"/>
       <c r="C316" s="6"/>
@@ -4905,7 +4998,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B317" s="13"/>
       <c r="C317" s="6"/>
@@ -4913,7 +5006,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B318" s="13"/>
       <c r="C318" s="6"/>
@@ -4921,7 +5014,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B319" s="13"/>
       <c r="C319" s="6"/>
@@ -4929,7 +5022,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B320" s="13"/>
       <c r="C320" s="6"/>
@@ -4937,7 +5030,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B321" s="13"/>
       <c r="C321" s="6"/>
@@ -4945,7 +5038,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B322" s="13"/>
       <c r="C322" s="6"/>
@@ -4953,7 +5046,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B323" s="13"/>
       <c r="C323" s="6"/>
@@ -4961,7 +5054,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B324" s="13"/>
       <c r="C324" s="6"/>
@@ -4969,7 +5062,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B325" s="13"/>
       <c r="C325" s="6"/>
@@ -4977,7 +5070,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B326" s="13"/>
       <c r="C326" s="6"/>
@@ -4985,7 +5078,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B327" s="13"/>
       <c r="C327" s="6"/>
@@ -4993,7 +5086,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B328" s="13"/>
       <c r="C328" s="6"/>
@@ -5001,7 +5094,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B329" s="13"/>
       <c r="C329" s="6"/>
@@ -5009,7 +5102,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B330" s="13"/>
       <c r="C330" s="6"/>
@@ -5017,7 +5110,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B331" s="13"/>
       <c r="C331" s="6"/>
@@ -5025,7 +5118,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B332" s="13"/>
       <c r="C332" s="6"/>
@@ -5033,7 +5126,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B333" s="13"/>
       <c r="C333" s="6"/>
@@ -5041,7 +5134,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B334" s="13"/>
       <c r="C334" s="6"/>
@@ -5049,7 +5142,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B335" s="13"/>
       <c r="C335" s="6"/>
@@ -5057,7 +5150,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B336" s="13"/>
       <c r="C336" s="6"/>
@@ -5065,7 +5158,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B337" s="13"/>
       <c r="C337" s="6"/>
@@ -5073,7 +5166,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B338" s="13"/>
       <c r="C338" s="6"/>
@@ -5081,7 +5174,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B339" s="13"/>
       <c r="C339" s="6"/>
@@ -5089,7 +5182,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B340" s="13"/>
       <c r="C340" s="6"/>
@@ -5097,7 +5190,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B341" s="13"/>
       <c r="C341" s="6"/>
@@ -5105,7 +5198,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B342" s="13"/>
       <c r="C342" s="6"/>
@@ -5113,7 +5206,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B343" s="13"/>
       <c r="C343" s="6"/>
@@ -5121,7 +5214,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B344" s="13"/>
       <c r="C344" s="6"/>
@@ -5129,7 +5222,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B345" s="13"/>
       <c r="C345" s="6"/>
@@ -5137,7 +5230,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B346" s="13"/>
       <c r="C346" s="6"/>
@@ -5145,7 +5238,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B347" s="13"/>
       <c r="C347" s="6"/>
@@ -5153,7 +5246,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B348" s="13"/>
       <c r="C348" s="6"/>
@@ -5161,7 +5254,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B349" s="13"/>
       <c r="C349" s="6"/>
@@ -5169,7 +5262,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B350" s="13"/>
       <c r="C350" s="6"/>
@@ -5177,7 +5270,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B351" s="13"/>
       <c r="C351" s="6"/>
@@ -5185,7 +5278,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B352" s="13"/>
       <c r="C352" s="6"/>
@@ -5193,7 +5286,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B353" s="13"/>
       <c r="C353" s="6"/>
@@ -5201,7 +5294,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B354" s="13"/>
       <c r="C354" s="6"/>
@@ -5209,7 +5302,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B355" s="13"/>
       <c r="C355" s="6"/>
@@ -5217,7 +5310,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B356" s="13"/>
       <c r="C356" s="6"/>
@@ -5225,7 +5318,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B357" s="13"/>
       <c r="C357" s="6"/>
@@ -5233,7 +5326,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B358" s="13"/>
       <c r="C358" s="6"/>
@@ -5241,7 +5334,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B359" s="13"/>
       <c r="C359" s="6"/>
@@ -5249,7 +5342,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B360" s="13"/>
       <c r="C360" s="6"/>
@@ -5257,7 +5350,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B361" s="13"/>
       <c r="C361" s="6"/>
@@ -5265,7 +5358,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B362" s="13"/>
       <c r="C362" s="6"/>
@@ -5273,7 +5366,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B363" s="13"/>
       <c r="C363" s="6"/>
@@ -5281,7 +5374,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B364" s="13"/>
       <c r="C364" s="6"/>
@@ -5289,7 +5382,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B365" s="13"/>
       <c r="C365" s="6"/>
@@ -5297,7 +5390,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B366" s="13"/>
       <c r="C366" s="6"/>
@@ -5305,7 +5398,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B367" s="13"/>
       <c r="C367" s="6"/>
@@ -5313,7 +5406,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B368" s="13"/>
       <c r="C368" s="6"/>
@@ -5321,7 +5414,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B369" s="13"/>
       <c r="C369" s="6"/>
@@ -5329,7 +5422,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B370" s="13"/>
       <c r="C370" s="6"/>
@@ -5337,7 +5430,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B371" s="13"/>
       <c r="C371" s="6"/>
@@ -5345,7 +5438,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B372" s="13"/>
       <c r="C372" s="6"/>
@@ -5353,7 +5446,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B373" s="13"/>
       <c r="C373" s="6"/>
@@ -5361,7 +5454,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B374" s="13"/>
       <c r="C374" s="6"/>
@@ -5369,7 +5462,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B375" s="13"/>
       <c r="C375" s="6"/>
@@ -5377,7 +5470,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B376" s="13"/>
       <c r="C376" s="6"/>
@@ -5385,7 +5478,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B377" s="13"/>
       <c r="C377" s="6"/>
@@ -5393,7 +5486,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B378" s="13"/>
       <c r="C378" s="6"/>
@@ -5401,7 +5494,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B379" s="13"/>
       <c r="C379" s="6"/>
@@ -5409,7 +5502,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B380" s="13"/>
       <c r="C380" s="6"/>
@@ -5417,7 +5510,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B381" s="13"/>
       <c r="C381" s="6"/>
@@ -5425,7 +5518,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B382" s="13"/>
       <c r="C382" s="6"/>
@@ -5433,7 +5526,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B383" s="13"/>
       <c r="C383" s="6"/>
@@ -5441,7 +5534,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B384" s="13"/>
       <c r="C384" s="6"/>
@@ -5449,7 +5542,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B385" s="13"/>
       <c r="C385" s="6"/>
@@ -5457,7 +5550,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B386" s="13"/>
       <c r="C386" s="6"/>
@@ -5465,7 +5558,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B387" s="13"/>
       <c r="C387" s="6"/>
@@ -5473,7 +5566,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B388" s="13"/>
       <c r="C388" s="6"/>
@@ -5481,7 +5574,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B389" s="13"/>
       <c r="C389" s="6"/>
@@ -5489,7 +5582,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B390" s="13"/>
       <c r="C390" s="6"/>
@@ -5497,7 +5590,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B391" s="13"/>
       <c r="C391" s="6"/>
@@ -5505,7 +5598,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B392" s="13"/>
       <c r="C392" s="6"/>
@@ -5513,7 +5606,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B393" s="13"/>
       <c r="C393" s="6"/>
@@ -5521,7 +5614,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B394" s="13"/>
       <c r="C394" s="6"/>
@@ -5529,7 +5622,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B395" s="13"/>
       <c r="C395" s="6"/>
@@ -5537,7 +5630,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B396" s="13"/>
       <c r="C396" s="6"/>
@@ -5545,7 +5638,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B397" s="13"/>
       <c r="C397" s="6"/>
@@ -5553,7 +5646,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B398" s="13"/>
       <c r="C398" s="6"/>
@@ -5561,7 +5654,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B399" s="13"/>
       <c r="C399" s="6"/>
@@ -5569,7 +5662,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B400" s="13"/>
       <c r="C400" s="6"/>
@@ -5577,7 +5670,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B401" s="13"/>
       <c r="C401" s="6"/>
@@ -5585,7 +5678,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B402" s="13"/>
       <c r="C402" s="6"/>
@@ -5593,7 +5686,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B403" s="13"/>
       <c r="C403" s="6"/>
@@ -5601,7 +5694,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B404" s="13"/>
       <c r="C404" s="6"/>
@@ -5609,7 +5702,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B405" s="13"/>
       <c r="C405" s="6"/>
@@ -5617,7 +5710,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B406" s="13"/>
       <c r="C406" s="6"/>
@@ -5625,7 +5718,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B407" s="13"/>
       <c r="C407" s="6"/>
@@ -5633,7 +5726,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B408" s="13"/>
       <c r="C408" s="6"/>
@@ -5641,7 +5734,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B409" s="13"/>
       <c r="C409" s="6"/>
@@ -5649,7 +5742,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B410" s="13"/>
       <c r="C410" s="6"/>
@@ -5657,7 +5750,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B411" s="13"/>
       <c r="C411" s="6"/>
@@ -5665,7 +5758,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B412" s="13"/>
       <c r="C412" s="6"/>
@@ -5673,7 +5766,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B413" s="13"/>
       <c r="C413" s="6"/>
@@ -5681,7 +5774,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B414" s="13"/>
       <c r="C414" s="6"/>
@@ -5689,7 +5782,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B415" s="13"/>
       <c r="C415" s="6"/>
@@ -5697,7 +5790,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B416" s="13"/>
       <c r="C416" s="6"/>
@@ -5705,7 +5798,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B417" s="13"/>
       <c r="C417" s="6"/>
@@ -5713,7 +5806,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B418" s="13"/>
       <c r="C418" s="6"/>
@@ -5721,7 +5814,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B419" s="13"/>
       <c r="C419" s="6"/>
@@ -5729,7 +5822,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B420" s="13"/>
       <c r="C420" s="6"/>
@@ -5737,7 +5830,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B421" s="13"/>
       <c r="C421" s="6"/>
@@ -5745,7 +5838,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B422" s="13"/>
       <c r="C422" s="6"/>
@@ -5753,7 +5846,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B423" s="13"/>
       <c r="C423" s="6"/>
@@ -5761,7 +5854,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B424" s="13"/>
       <c r="C424" s="6"/>
@@ -5769,7 +5862,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B425" s="13"/>
       <c r="C425" s="6"/>
@@ -5777,7 +5870,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B426" s="13"/>
       <c r="C426" s="6"/>
@@ -5785,7 +5878,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B427" s="13"/>
       <c r="C427" s="6"/>
@@ -5793,7 +5886,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B428" s="13"/>
       <c r="C428" s="6"/>
@@ -5801,7 +5894,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B429" s="13"/>
       <c r="C429" s="6"/>
@@ -5809,7 +5902,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B430" s="13"/>
       <c r="C430" s="6"/>
@@ -5817,7 +5910,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B431" s="13"/>
       <c r="C431" s="6"/>
@@ -5825,7 +5918,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B432" s="13"/>
       <c r="C432" s="6"/>
@@ -5833,7 +5926,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B433" s="13"/>
       <c r="C433" s="6"/>
@@ -5841,7 +5934,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B434" s="13"/>
       <c r="C434" s="6"/>
@@ -5849,7 +5942,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B435" s="13"/>
       <c r="C435" s="6"/>
@@ -5857,7 +5950,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B436" s="13"/>
       <c r="C436" s="6"/>
@@ -5865,7 +5958,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B437" s="13"/>
       <c r="C437" s="6"/>
@@ -5873,7 +5966,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B438" s="13"/>
       <c r="C438" s="6"/>
@@ -5881,7 +5974,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B439" s="13"/>
       <c r="C439" s="6"/>
@@ -5889,7 +5982,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B440" s="13"/>
       <c r="C440" s="6"/>
@@ -5897,7 +5990,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B441" s="13"/>
       <c r="C441" s="6"/>
@@ -5905,7 +5998,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B442" s="13"/>
       <c r="C442" s="6"/>
@@ -5913,7 +6006,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B443" s="13"/>
       <c r="C443" s="6"/>
@@ -5921,7 +6014,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B444" s="13"/>
       <c r="C444" s="6"/>
@@ -5929,7 +6022,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B445" s="13"/>
       <c r="C445" s="6"/>
@@ -5937,7 +6030,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B446" s="13"/>
       <c r="C446" s="6"/>
@@ -5945,7 +6038,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B447" s="13"/>
       <c r="C447" s="6"/>
@@ -5953,7 +6046,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B448" s="13"/>
       <c r="C448" s="6"/>
@@ -5961,7 +6054,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B449" s="13"/>
       <c r="C449" s="6"/>
@@ -5969,7 +6062,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B450" s="13"/>
       <c r="C450" s="6"/>
@@ -5977,7 +6070,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B451" s="13"/>
       <c r="C451" s="6"/>
@@ -5985,7 +6078,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B452" s="13"/>
       <c r="C452" s="6"/>
@@ -5993,7 +6086,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B453" s="13"/>
       <c r="C453" s="6"/>
@@ -6001,7 +6094,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B454" s="13"/>
       <c r="C454" s="6"/>
@@ -6009,7 +6102,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B455" s="13"/>
       <c r="C455" s="6"/>
@@ -6017,7 +6110,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B456" s="13"/>
       <c r="C456" s="6"/>
@@ -6025,7 +6118,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B457" s="13"/>
       <c r="C457" s="6"/>
@@ -6033,7 +6126,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B458" s="13"/>
       <c r="C458" s="6"/>
@@ -6041,7 +6134,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B459" s="13"/>
       <c r="C459" s="6"/>
@@ -6049,7 +6142,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B460" s="13"/>
       <c r="C460" s="6"/>
@@ -6057,7 +6150,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B461" s="13"/>
       <c r="C461" s="6"/>
@@ -6065,7 +6158,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B462" s="13"/>
       <c r="C462" s="6"/>
@@ -6073,7 +6166,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B463" s="13"/>
       <c r="C463" s="6"/>
@@ -6081,7 +6174,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B464" s="13"/>
       <c r="C464" s="6"/>
@@ -6089,7 +6182,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B465" s="13"/>
       <c r="C465" s="6"/>
@@ -6097,7 +6190,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B466" s="13"/>
       <c r="C466" s="6"/>
@@ -6105,7 +6198,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B467" s="13"/>
       <c r="C467" s="6"/>
@@ -6113,7 +6206,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B468" s="13"/>
       <c r="C468" s="6"/>
@@ -6121,7 +6214,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B469" s="13"/>
       <c r="C469" s="6"/>
@@ -6129,7 +6222,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B470" s="13"/>
       <c r="C470" s="6"/>
@@ -6137,7 +6230,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B471" s="13"/>
       <c r="C471" s="6"/>
@@ -6145,7 +6238,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B472" s="13"/>
       <c r="C472" s="6"/>
@@ -6153,7 +6246,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B473" s="13"/>
       <c r="C473" s="6"/>
@@ -6161,7 +6254,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B474" s="13"/>
       <c r="C474" s="6"/>
@@ -6169,7 +6262,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B475" s="13"/>
       <c r="C475" s="6"/>
@@ -6177,7 +6270,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B476" s="13"/>
       <c r="C476" s="6"/>
@@ -6185,7 +6278,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B477" s="13"/>
       <c r="C477" s="6"/>
@@ -6193,7 +6286,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B478" s="13"/>
       <c r="C478" s="6"/>
@@ -6201,7 +6294,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B479" s="13"/>
       <c r="C479" s="6"/>
@@ -6209,7 +6302,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B480" s="13"/>
       <c r="C480" s="6"/>
@@ -6217,7 +6310,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B481" s="13"/>
       <c r="C481" s="6"/>
@@ -6225,7 +6318,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B482" s="13"/>
       <c r="C482" s="6"/>
@@ -6233,7 +6326,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B483" s="13"/>
       <c r="C483" s="6"/>
@@ -6241,7 +6334,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B484" s="13"/>
       <c r="C484" s="6"/>
@@ -6249,7 +6342,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B485" s="13"/>
       <c r="C485" s="6"/>
@@ -6257,7 +6350,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B486" s="13"/>
       <c r="C486" s="6"/>
@@ -6265,7 +6358,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B487" s="13"/>
       <c r="C487" s="6"/>
@@ -6273,7 +6366,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B488" s="13"/>
       <c r="C488" s="6"/>
@@ -6281,7 +6374,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B489" s="13"/>
       <c r="C489" s="6"/>
@@ -6289,7 +6382,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B490" s="13"/>
       <c r="C490" s="6"/>
@@ -6297,7 +6390,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B491" s="13"/>
       <c r="C491" s="6"/>
@@ -6305,7 +6398,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B492" s="13"/>
       <c r="C492" s="6"/>
@@ -6313,7 +6406,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B493" s="13"/>
       <c r="C493" s="6"/>
@@ -6321,7 +6414,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B494" s="13"/>
       <c r="C494" s="6"/>
@@ -6329,7 +6422,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B495" s="13"/>
       <c r="C495" s="6"/>
@@ -6339,14 +6432,25 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:C495">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$A2="☑"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>$A2="☐"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>$A2="⮽"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D495">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$A2="⮽"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$A2="☐"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$A2="☑"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="241">
   <si>
     <t>Netoge no Yome ga Ninki Idol datta</t>
   </si>
@@ -418,42 +418,12 @@
 Barakamon </t>
   </si>
   <si>
-    <t>Kể về Machio Hiraku – một người đàn ông chết vì bệnh được Thần cho tái sinh ở thế giới khác cùng công cụ nông nghiệp vạn năng. Anh chỉ muốn sống yên bình nên chọn làm nông giữa rừng, rồi dần dần lập nên “Làng Đại Cây”, nơi quy tụ elf, ma tộc, thiên sứ, rồng, và cả dàn harem toàn gái xinh. Câu chuyện xoay quanh cuộc sống điền viên, mở rộng làng, dựng nhà, chăn nuôi, rồi vô tình biến cộng đồng nhỏ ấy thành một thế lực mạnh khiến các vương quốc phải dè chừng. Tuy nhiên,nhân vật chính gần như toàn năng vô hạn, không hề có giới hạn sức mạnh hay xung đột nội tâm. Một công cụ nông nghiệp mà có thể chặt rồng, xây lâu đài, khoan giếng, cày ruộng, và… chiến đấu được thì nghe đã thấy sai sai. Làng của anh chỉ vài chục người nhưng trong vài chương đã trở thành trung tâm thương mại, quân sự và công nghệ của cả thế giới, mà chẳng ai thắc mắc chuyện cung ứng, dân số hay hậu cần. Các nhân vật phụ, nhất là dàn harem, cứ xuất hiện ngẫu nhiên như “NPC spawn sai code”: toàn gái đẹp, mạnh vô lý, đến ở rồi mất hút. Ngoài ra, mạch truyện không có cao trào: xung đột chính trị được giải quyết trong… một bữa ăn, chiến tranh kết thúc chỉ vì “hiểu lầm nhỏ”, và ai gặp Hiraku cũng lập tức quý anh như người nhà. Thế giới được mô tả rộng lớn nhưng không có chiều sâu, các khái niệm về ma pháp, thần thánh hay sinh thái gần như chỉ mang tính trang trí.</t>
-  </si>
-  <si>
-    <t>Kể về Shinomiya Kaguya và Shirogane Miyuki, hai học sinh thiên tài trong hội học sinh trường Shuchiin. Cả hai đều có tình cảm với nhau nhưng quá kiêu hãnh để thổ lộ trước, nên họ biến chuyện tình thành “cuộc chiến trí tuệ”, ai khiến đối phương tỏ tình trước sẽ là người chiến thắng. Từ đó, hàng loạt tình huống dở khóc dở cười xảy ra khi họ tìm cách gài nhau qua những chuyện nhỏ nhặt như mời đi chơi, tặng quà hay nói lời cảm ơn. Xung quanh họ là các thành viên hội học sinh khác như Fujiwara, Ishigami và Iino, những người thường vô tình phá hỏng hoặc làm rối thêm mọi kế hoạch. Về sau, câu chuyện mở rộng ra ngoài phạm vi hội học sinh, cho thấy cả quá khứ, gia đình và bước tiến trong mối quan hệ của Kaguya và Miyuki khi họ dần tiến gần đến việc thừa nhận tình cảm thật sự.</t>
-  </si>
-  <si>
-    <t>Kể về Gojo Wakana, một nam sinh nhút nhát đam mê làm búp bê Hina, và Kitagawa Marin, cô bạn cùng lớp năng động, yêu thích cosplay. Khi Marin tình cờ phát hiện Gojo có tài may vá, cô nhờ cậu giúp làm trang phục cosplay cho mình. Từ đó, cả hai bắt đầu gắn bó qua những dự án cosplay khác nhau. Trong quá trình cùng nhau chuẩn bị, thử đồ và tham gia sự kiện, Gojo dần vượt qua mặc cảm bản thân, còn Marin cũng ngày càng thân thiết và nảy sinh tình cảm với cậu. Câu chuyện xoay quanh quá trình họ cùng phát triển — vừa trong sở thích cosplay, vừa trong mối quan hệ giữa hai người.</t>
-  </si>
-  <si>
-    <t>Kể về Uesugi Fuutarou, một học sinh xuất sắc nhưng nghèo, tình cờ được thuê làm gia sư cho năm chị em sinh năm nhà Nakano: Ichika – chị cả chín chắn nhưng hay giấu cảm xúc; Nino – bướng bỉnh, mạnh mẽ; Miku – trầm lặng, yêu lịch sử; Yotsuba – năng động, tốt bụng; và Itsuki – nghiêm túc, hơi vụng về. Ban đầu cả năm đều phản đối việc học, đặc biệt là Nino, nhưng dần dần họ bị thuyết phục bởi sự kiên trì và chân thành của Fuutarou. Qua quá trình cùng nhau học tập, đi dã ngoại, tham gia lễ hội và vượt qua những hiểu lầm, từng người trong số họ bắt đầu nảy sinh tình cảm với Fuutarou. Cậu cũng dần hiểu rõ từng chị em, giúp họ tìm ra con đường riêng. Câu chuyện kéo dài đến lúc họ tốt nghiệp, và trong tương lai, Fuutarou kết hôn với một trong năm người — cô dâu giấu mặt ấy được tiết lộ ở phần kết là Yotsuba, người luôn âm thầm ủng hộ và là mối liên kết giữa tất cả.</t>
-  </si>
-  <si>
-    <t>Kể về Yoshida, một nhân viên văn phòng bình thường vừa thất tình sau khi bị cấp trên từ chối. Trong lúc say rượu trên đường về, anh gặp Ogiwara Sayu, một nữ sinh trung học bỏ nhà, không có chỗ ở. Sau một hồi nói chuyện, Yoshida quyết định cho Sayu tá túc tại căn hộ của mình, nhưng không động chạm hay lợi dụng cô, chỉ yêu cầu cô giúp việc nhà để đổi lại chỗ ở. Thời gian sống chung, Sayu dần bộc lộ quá khứ bị gia đình lạnh nhạt và phải lang thang từ nhà này sang nhà khác, trong khi Yoshida giúp cô học cách sống độc lập và lấy lại niềm tin vào bản thân. Cả hai cùng trải qua nhiều tình huống dở khóc dở cười, đối mặt với sự nghi ngờ từ người xung quanh và dần hiểu rõ cảm xúc của nhau. Cuối cùng, Yoshida khuyên Sayu trở về nhà, đối mặt với cha mẹ và quá khứ của mình, còn anh quay lại cuộc sống bình thường, mang theo những kỷ niệm về quãng thời gian ngắn ngủi nhưng đầy ý nghĩa giữa hai người.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Năm 2022, một game thực tế ảo mang tên Sword Art Online ra mắt, cho phép người chơi hoàn toàn nhập vai vào thế giới ảo bằng thiết bị NerveGear. Tuy nhiên, hàng ngàn người nhanh chóng phát hiện họ không thể thoát ra khỏi game — nhà sáng tạo Kayaba Akihiko tuyên bố rằng ai chết trong game thì cũng chết ngoài đời. Nhân vật chính Kirito, một trong những người chơi beta test, quyết định chiến đấu một mình để sống sót và hoàn thành 100 tầng của pháo đài Aincrad. Trong hành trình ấy, anh gặp Asuna — một kiếm sĩ tài năng, cùng nhau họ chiến đấu, yêu nhau và trở thành cặp đôi mạnh nhất trong SAO. Sau khi đánh bại Kayaba, cả hai được giải thoát. Tuy nhiên, câu chuyện chưa kết thúc. Kirito tiếp tục bị lôi kéo vào các thế giới ảo khác như Alfheim Online (thế giới tiên tộc), Gun Gale Online (thế giới súng đạn), rồi Underworld — nơi chứa đựng bí mật của trí tuệ nhân tạo và chiến tranh ảo. </t>
-  </si>
-  <si>
-    <t>Câu chuyện diễn ra tại thành phố mê cung Orario, nơi con người cùng các vị thần chung sống, và dưới lòng đất là Dungeon — mê cung đầy quái vật, nơi các mạo hiểm giả chiến đấu để thu thập tinh thể và trở nên mạnh hơn. Nhân vật chính là Bell Cranel, một chàng trai trẻ ngây ngô, gia nhập Hestia Familia – tổ chức nhỏ chỉ có duy nhất mình cậu và nữ thần Hestia. Bell mơ ước trở thành anh hùng, nhưng ban đầu chỉ là một mạo hiểm giả yếu ớt. Trong một lần bị quái vật tấn công, cậu được nữ kiếm sĩ mạnh mẽ Ais Wallenstein cứu, từ đó nảy sinh tình cảm và quyết tâm mạnh lên để sánh ngang với cô. Nhờ ý chí và khả năng phát triển đặc biệt (Fast Growth), Bell nhanh chóng trưởng thành vượt trội, thu hút sự chú ý của nhiều người và cả các vị thần. Cùng Hestia, bạn bè mới, và đồng minh từ nhiều Familia khác, cậu đối mặt với vô số thử thách trong Dungeon — từ quái vật khủng khiếp đến những âm mưu giữa các vị thần.</t>
-  </si>
-  <si>
-    <t>Tóm tắt (dùng AI đại đại đi, còn đâu tự mà nhớ)</t>
-  </si>
-  <si>
     <t>Câu chuyện xoay quanh Arima Kousei, một thần đồng piano từng nổi tiếng từ nhỏ nhưng sau khi mẹ qua đời, cậu rơi vào khủng hoảng tâm lý, không thể nghe thấy tiếng đàn của chính mình. Kousei sống tẻ nhạt, chỉ lặp lại những ngày tháng vô nghĩa bên hai người bạn thời thơ ấu là Tsubaki và Watari. Mọi thứ thay đổi khi cậu gặp Miyazono Kaori, một nữ nghệ sĩ violin tràn đầy sức sống, tự do và có phần nổi loạn. Kaori kéo Kousei trở lại thế giới âm nhạc bằng cách ép cậu cùng biểu diễn trong các buổi thi, khiến cậu dần đối diện lại với nỗi đau và ký ức về mẹ. Khi Kousei bắt đầu lấy lại đam mê và cảm xúc trong âm nhạc, Kaori bất ngờ ngã bệnh nặng. Dù vậy, cô vẫn giấu đi, tiếp tục sống vui tươi và truyền cảm hứng cho cậu đến tận phút cuối. Sau khi Kaori qua đời trong ca phẫu thuật, Kousei nhận được bức thư cô để lại, trong đó cô thú nhận rằng từ lâu đã biết mình sắp chết và rằng “lời nói dối tháng Tư” chính là việc cô giả vờ thích Watari — trong khi người cô thực sự yêu chính là Kousei.</t>
   </si>
   <si>
     <t>Nhân vật chính là Yoshioka Futaba, một cô gái từng đáng yêu và được nhiều bạn nam để ý ở trung học cơ sở. Tuy nhiên, vì bị các bạn nữ ghen ghét, cô quyết định thay đổi bản thân khi lên cấp ba — trở nên thô lỗ, ồn ào để không còn bị ghét nữa. Một ngày, Futaba tình cờ gặp lại Tanaka Kou, mối tình đầu thời trung học, người từng biến mất không lời từ biệt sau kỳ nghỉ hè. Cậu giờ đây mang họ khác – Mabuchi Kou – và tính cách cũng thay đổi: lạnh lùng, xa cách và có phần u sầu. Futaba cố gắng tiếp cận lại Kou, trong khi cậu cũng dần để lộ những vết thương tinh thần do cái chết của mẹ và sự cô lập với gia đình. Cả hai cùng gia nhập nhóm bạn mới, nơi họ học cách mở lòng, tha thứ cho quá khứ và tìm lại cảm xúc đã mất. Dù tình cảm giữa Futaba và Kou tiến triển chậm chạp, họ vẫn luôn bị kéo lại với nhau giữa những hiểu lầm, sự do dự và cả nỗi sợ bị tổn thương lần nữa. Câu chuyện khép lại với hình ảnh hai người dần vượt qua quá khứ, học cách trưởng thành và chấp nhận rằng “thanh xuân” – dù dang dở – vẫn là quãng thời gian quý giá nhất trong đời.</t>
   </si>
   <si>
-    <t>Câu chuyện xoay quanh Masachika Kuze, một nam sinh trung học có vẻ ngoài lười biếng và thờ ơ, nhưng thực ra rất thông minh và tinh tế. Cậu ngồi cạnh Alyssa Mikhailovna Kujo, thường được gọi là Alya, cô gái mang hai dòng máu Nga – Nhật nổi bật với vẻ đẹp lạnh lùng, thành tích học tập xuất sắc và được nhiều người hâm mộ trong trường. Alya thường nói vài câu bằng tiếng Nga khi nói chuyện với Kuze, tin rằng cậu không hiểu, trong khi thực tế Kuze lại biết tiếng Nga và hiểu toàn bộ những lời cô nói — kể cả những câu cô buột miệng bày tỏ tình cảm với cậu. Từ đó, mối quan hệ giữa hai người trở nên vi diệu: bên ngoài là cặp bạn học “lạnh – lười”, nhưng bên trong là chuỗi những hiểu lầm ngọt ngào, trêu đùa và những khoảnh khắc lặng lẽ rung động. Kuze dần được hé lộ có quá khứ gia đình phức tạp và từng là học sinh ưu tú, còn Alya thì che giấu sự cô đơn và áp lực do kỳ vọng của người khác.</t>
-  </si>
-  <si>
-    <t>Nhân vật chính là Amane Fujimiya, một nam sinh sống một mình trong căn hộ nhỏ. Căn hộ kế bên là Mahiru Shiina, cô gái nổi tiếng ở trường, xinh đẹp, giỏi giang, được mệnh danh là “Thiên sứ”. Tuy học cùng trường, hai người hầu như không giao tiếp cho đến một ngày mưa, khi Amane thấy Mahiru ngồi một mình dưới mưa và cho cô mượn ô. Từ đó, họ bắt đầu quen biết. Mahiru phát hiện Amane sống bừa bộn, nên thường sang giúp dọn dẹp, nấu ăn, và chăm sóc cậu. Ban đầu cả hai giữ khoảng cách, nhưng dần dần, mối quan hệ giữa họ trở nên ấm áp và thân thiết hơn. Mahiru bộc lộ một khía cạnh dễ thương, yếu đuối phía sau vẻ hoàn hảo, còn Amane cũng dần vượt qua sự tự ti của mình để mở lòng với cô.</t>
-  </si>
-  <si>
     <t>Sau khi cha của Yuuta Asamura và mẹ của Saki Ayase tái hôn, cả hai — vốn là học sinh trung học — đột ngột trở thành anh em “trên danh nghĩa” và phải sống chung dưới một mái nhà. Không có quan hệ huyết thống, họ buộc phải học cách cư xử sao cho đúng mực, tránh gây hiểu lầm hay vượt quá giới hạn. Yuuta là kiểu người điềm đạm, có phần khép kín do từng chứng kiến hôn nhân đổ vỡ của cha mẹ. Saki lại là cô gái lạnh lùng, lý trí, luôn giữ khoảng cách vì từng bị tổn thương bởi sự thiếu tin tưởng trong gia đình cũ. Ban đầu, họ giữ thái độ xã giao cứng nhắc, tránh xung đột và không can thiệp vào đời sống riêng của nhau. Thế nhưng, qua thời gian chung sống, họ dần hiểu hơn về nỗi cô đơn và sự bất an của đối phương. Những hành động nhỏ — như cùng ăn cơm, giúp nhau học tập, hay quan tâm khi người kia ốm — khiến bầu không khí trong nhà ấm áp hơn, dù cả hai luôn phải kiềm chế cảm xúc nảy sinh.</t>
   </si>
   <si>
@@ -557,9 +527,6 @@
   </si>
   <si>
     <t xml:space="preserve">Câu chuyện xoay quanh Guts, một chiến binh cô độc mang thanh kiếm khổng lồ, và hành trình của anh trong thời kỳ chiến tranh loạn lạc. Guts gia nhập Đội quân Diều hâu do Griffith lãnh đạo — một người có tham vọng lớn và sức hút kỳ lạ. Tình bạn giữa Guts và Griffith dần biến thành bi kịch khi Griffith sẵn sàng hy sinh tất cả để đạt được quyền lực tối thượng. </t>
-  </si>
-  <si>
-    <t>Câu chuyện xoay quanh Hoshigami Eiji, một thiếu niên từng ước thế giới bị hủy diệt — và điều đó đã xảy ra. Trong thế giới nơi những người có “Order” (năng lực siêu nhiên dựa trên điều ước) tồn tại, Eiji bị cuốn vào cuộc chiến giữa các Order khác và tổ chức bí ẩn muốn kiểm soát thế giới. Với năng lực thao túng mọi thứ trong phạm vi kiểm soát, Eiji phải đối mặt với sự thật về quá khứ, trách nhiệm và những âm mưu đen tối?</t>
   </si>
   <si>
     <t>Tác phẩm theo chân Tatsumi, một chàng trai trẻ rời quê lên thủ đô để kiếm tiền giúp làng. Sau khi chứng kiến sự thối nát của giới quý tộc, cậu gia nhập Night Raid, một nhóm sát thủ cách mạng chuyên tiêu diệt những kẻ độc ác. Tại đây, Tatsumi gặp Akame, một nữ kiếm sĩ lạnh lùng nhưng chính nghĩa. Câu chuyện là hành trình chiến đấu chống lại chế độ độc tài, với nhiều trận chiến khốc liệt và cái chết đầy bi kịch.</t>
@@ -1013,6 +980,45 @@
   <si>
     <t>Steins;Gate Movie: Fuka Ryouiki no Déjà vu
 劇場版 STEINS;GATE 負荷領域のデジャヴ</t>
+  </si>
+  <si>
+    <t>Hàng loạt người nhận được năng lực “Order” dựa trên điều ước của mình. Eiji khi còn nhỏ được hỏi về điều ước, cậu ước khiến thế giới bị phá hủy, dẫn đến thảm họa lớn. Eiji sống yên lặng, tránh sử dụng Order vì mặc cảm là người gây ra thảm họa. Cậu học ở trường bình thường, tiếp tục cuộc sống hàng ngày nhưng luôn bị bóng dáng quá khứ ám ảnh. Các người dùng Order khác bắt đầu xuất hiện, trong đó có Rin, người theo dõi và thử thách Eiji. Một số xung đột nhỏ xảy ra, Eiji buộc phải dùng sức mạnh để bảo vệ bản thân và người thân. Sena, chị gái của Eiji, bị cuốn vào âm mưu và nguy hiểm liên quan đến Order. Đây là động lực chính khiến Eiji phải ra tay và tham gia vào các sự kiện lớn. Eiji phát hiện ra các tổ chức, chính phủ và nhóm người dùng Order lợi dụng sức mạnh cho mục đích chính trị, chiến tranh. Các âm mưu dần lộ diện, cho thấy sức mạnh Order không chỉ cá nhân mà có thể thay đổi thế giới. Quá trình tìm hiểu hé lộ một số bí mật về Đại Phá Hủy, về cha mẹ Eiji, và về bản thân Eiji. Eiji nhận ra cậu có thể sử dụng Order để thay đổi tình hình hiện tại. Eiji tham gia trực tiếp các trận chiến chống lại những người dùng Order xấu và các mối nguy hiểm khác, phải lựa chọn giữa việc dùng sức mạnh để hủy diệt hay bảo vệ người thân. Eiji bảo vệ được người thân, đối mặt với hậu quả của điều ước và nhận ra rằng sức mạnh đi kèm trách nhiệm, và hành động hôm nay quyết định tương lai.</t>
+  </si>
+  <si>
+    <t>Hiraku Machio sau thời gian dài bệnh nặng chết đi, được một vị thần ban cho cơ hội sống lại và chuyển sinh sang một thế giới khác để thực hiện mong muốn: làm nông và sống yên bình. Khi tới thế giới mới, Hiraku được trao nông cụ toàn năng bởi thần, và được đặt vào khu rừng đầy quái vật để bắt đầu đời sống nông nghiệp từ con số không. Hiraku khai hoang, chặt cây, cày đất, trồng cây; quá trình này giúp anh dần mở rộng đất đai và năng lực sống sót trong môi trường khắc nghiệt. Dần dần, nhiều loài và chủng tộc khác (vampire, elf, thiên thần, rồng…) đến sống chung hoặc gia nhập “ngôi làng” mà Hiraku hình thành, khiến nông trại của anh mở rộng thành một cộng đồng. Ngôi làng phát triển thêm các cơ cấu: những người mới nhập cư, tổ chức công việc, tương tác giữa các chủng tộc và Hiraku ngày càng trở thành “người đứng đầu” hay “làng trưởng” trong cộng đồng đó. Câu chuyện tiếp diễn với các thử thách: từ việc bảo vệ nông trại, thiết lập quan hệ giữa các thành viên, mở rộng sản xuất, cho đến việc phát triển khu đất thành một nơi ổn định, hòa nhập giữa các chủng tộc khác nhau.</t>
+  </si>
+  <si>
+    <t>Ở trường trung học Shuchiin Academy, Kaguya Shinomiya là phó hội học sinh, gia đình giàu có. Miyuki Shirogane là chủ tịch hội học sinh, học sinh hàng đầu. Cả hai đều có tình cảm với nhau nhưng vì “ai thổ lộ trước là thua” nên họ bắt đầu một “cuộc chiến trí não” để khiến người kia thổ lộ trước. Hàng loạt “chiến lược” và trò chơi tâm lý diễn ra giữa Kaguya và Miyuki, rồi sau đó mở rộng mối quan hệ và các nhân vật phụ xuất hiện như Chika Fujiwara, Yu Ishigami, Miko Iino tham gia vào hội học sinh và câu chuyện, mỗi người có drama riêng nhưng vẫn xoay quanh “chiến tranh tình cảm / trí tuệ”. Dần dần họ vượt qua trò chơi “ai tỏ tình trước là thua”, bắt đầu chấp nhận tình cảm thật. Đồng thời, câu chuyện mở rộng : không chỉ là trò chơi giữa hai người, mà cả gia đình Kaguya, tương lai của Miyuki, vị thế xã hội và các vấn đề trưởng thành cũng xuất hiện. Sau khi học sinh kết thúc giai đoạn trung học, câu chuyện mở rộng ra thành giai đoạn đời sống sau đó: công việc, sự nghiệp, trách nhiệm của gia đình, kết nối tình cảm được thử thách nhiều hơn.</t>
+  </si>
+  <si>
+    <t>Gojo Wakana, một nam sinh trung học thích làm búp bê Hina (búp bê truyền thống Nhật Bản), sống kín đáo, ít bạn vì sở thích “khác người” khiến cậu từng bị chê cười khi còn nhỏ. Kitagawa Marin, cô bạn cùng lớp yêu thích cosplay. Một ngày, Marin tình cờ phát hiện Gojo biết may vá và làm quần áo khi cậu đang sử dụng máy khâu ở phòng học. Marin nhờ Gojo giúp làm trang phục cosplay. Gojo dốc sức may bộ trang phục đầu tiên cho Marin. Khi Marin mặc thử và tham gia sự kiện cosplay, cả hai trở nên thân thiết hơn. Marin tiếp tục nhờ Gojo làm các bộ đồ cho nhiều nhân vật khác nhau. Qua mỗi lần chuẩn bị, họ hiểu nhau hơn và dần nảy sinh tình cảm. Gojo bắt đầu nhận ra tình cảm của mình dành cho Marin, còn Marin thì nhận thấy cô rung động trước sự tận tâm và chân thành của Gojo. Nhiều tình huống đời thường xen kẽ: đi mua vải, đi sự kiện cosplay, chụp ảnh, và những khoảnh khắc gần gũi khiến cả hai xấu hổ. Marin và Gojo cùng trải qua mùa hè, họ đi xem pháo hoa, nói chuyện về ước mơ, công việc và tương lai. Marin thể hiện rõ tình cảm của mình, còn Gojo dần mở lòng hơn về bản thân.</t>
+  </si>
+  <si>
+    <t>Uesugi Fuutarou, học sinh nghèo nhưng học giỏi, được thuê làm gia sư riêng cho 5 chị em sinh năm nhà Nakano: Ichika, Nino, Miku, Yotsuba, Itsuki. Ban đầu, cả 5 đều không thích học, và ghét Fuutarou vì thấy cậu nghiêm túc, khó gần. Fuutarou dần cố gắng tìm cách tiếp cận, giúp từng người học tốt hơn, tạo mối quan hệ thân thiết. Dần dần, mỗi cô gái có những tình huống riêng khiến họ bắt đầu tin tưởng Fuutarou: Ichika - chị cả, diễn viên, trưởng thành nhưng giấu nhiều lo lắng. Nino - ban đầu ghét Fuutarou nhất, sau lại trở thành người yêu mạnh mẽ và thẳng thắn. Miku - yêu Fuutarou sớm nhất, nhưng nhút nhát, thích lịch sử samurai. Yotsuba - luôn vui vẻ, tốt bụng, giúp đỡ mọi người. Itsuki - nghiêm túc, cứng đầu, ban đầu coi Fuutarou như kẻ phiền phức. Hé lộ rằng Fuutarou từng gặp một trong năm chị em khi còn nhỏ — cô bé mặc kimono và cùng cậu đi tham quan Kyoto. Nhiều kỳ thi, chuyến đi học, lễ hội văn hóa... giúp Fuutarou và năm chị em hiểu nhau hơn. Các chị em dần nảy sinh tình cảm với Fuutarou, nhưng mỗi người đều muốn tôn trọng tình cảm của nhau. Fuutarou nhớ lại quá khứ: cô bé năm xưa ở Kyoto là Yotsuba. Cô chính là người đầu tiên gặp cậu, khởi đầu cho toàn bộ câu chuyện. Cả 5 chị em đều từng rung động với Fuutarou, nhưng cuối cùng, chỉ Yotsuba được Fuutarou chọn. Dù vậy, các chị em còn lại đều chấp nhận kết quả và tiếp tục sống hòa thuận. Truyện kết thúc bằng đám cưới của Fuutarou và Yotsuba, khép lại câu chuyện tình giữa 6 người.</t>
+  </si>
+  <si>
+    <t>Yoshida, một nhân viên văn phòng 26 tuổi, tỏ tình với cấp trên Gotou-san, nhưng bị từ chối. Trong tâm trạng chán nản, Yoshida uống rượu say và lang thang trên đường về. Trên đường, Yoshida gặp Ogiwara Sayu, một nữ sinh trung học bỏ nhà đi. Sayu đề nghị ở nhờ nhà Yoshida và sẵn sàng “đổi thân” để được ở lại, nhưng Yoshida từ chối và chỉ cho cô ngủ lại vì thương hại và lo lắng. Yoshida để Sayu ở lại nhà, nhưng đặt ra quy tắc nghiêm ngặt: Không làm chuyện không đúng và Sayu phải giúp việc nhà để “trả tiền trọ”. Hai người bắt đầu sống cùng nhau, hình thành mối quan hệ giống anh em / cha con hơn là tình yêu. Sayu kể dần quá khứ: cô bị mẹ ghét bỏ, gặp nhiều người đàn ông khi bỏ nhà đi, và sống nhờ bằng cách “đổi tình lấy chỗ ngủ”. Yoshida sốc, nhưng không ghét bỏ cô — thay vào đó, khuyên cô tự trân trọng bản thân và học cách sống độc lập. Gotou-san (cấp trên) bắt đầu quan tâm đến Yoshida, còn Mishima, đồng nghiệp, cũng có tình cảm với anh. Tuy nhiên, Yoshida vẫn giữ vững lập trường: bảo vệ Sayu và không làm gì sai trái dù nhiều người hiểu lầm. Quá khứ bỏ nhà của Sayu bị lộ. Anh trai Sayu tìm đến Yoshida, yêu cầu cô trở về Hokkaido để đối mặt với gia đình. Yoshida đưa Sayu về nhà, giúp cô đối thoại với mẹ, và giúp hai mẹ con hòa giải phần nào. Sau khi giải quyết mọi chuyện, Sayu tạm biệt Yoshida và bắt đầu cuộc sống mới ở Hokkaido. Yoshida trở lại với công việc thường ngày, nhớ về Sayu như một người đã giúp anh thay đổi cách nhìn về cuộc sống và tình cảm.</t>
+  </si>
+  <si>
+    <t>Năm 2022, trò chơi thực tế ảo toàn thân “Sword Art Online” (SAO) ra mắt. Người chơi sử dụng thiết bị NerveGear để đăng nhập vào thế giới ảo. Kirigaya Kazuto (Kirito) là một trong những người chơi thử nghiệm. Cuộc chiến sinh tồn trong SAO được bắt đầu. Kirito chọn chơi một mình (solo) để sinh tồn. Cậu dần trở thành người chơi mạnh hàng đầu. Gặp Asuna Yuuki, nữ kiếm sĩ mạnh mẽ của guild “Knights of the Blood”. Hai người trở thành đồng đội rồi người yêu, cùng nhau chiến đấu vượt qua các tầng. Sau khi đánh bại Kayaba Akihiko ở tầng 75, SAO chấm dứt và người chơi được giải thoát. Sau khi thoát khỏi SAO, Kirito biết Asuna chưa tỉnh lại. Cậu phát hiện cô đang bị giam trong game mới ALfheim Online, do Sugou Nobuyuki (hiện là kẻ phản diện) điều khiển. Kirito cùng Leafa (em họ Suguha) tiến vào ALO để cứu Asuna. Cuối cùng Kirito đánh bại Sugou, giải cứu Asuna thành công. Kirito được chính phủ mời điều tra vụ “Death Gun” — người chơi chết thật ngoài đời sau khi bị bắn trong game GGO. Trong GGO, Kirito gặp Shinon (Shino Asada). Cả hai hợp tác trong giải đấu “Bullet of Bullets”, và phát hiện thủ phạm là cựu thành viên SAO. Họ tiêu diệt Death Gun và phá giải bí ẩn. Asuna, người gặp Yuuki Konno, một cô gái mắc bệnh nan y. Yuuki là người mạnh nhất trong ALO, tạo chiêu “Mother’s Rosario”. Sau khi Yuuki qua đời, Asuna kế thừa kỹ năng của cô và trưởng thành hơn. Kirito tham gia dự án Alicization của tập đoàn Rath, thử nghiệm AI có ý thức (Fluctlight). Cậu bị mắc kẹt trong thế giới ảo Underworld. Tại đây, Kirito kết bạn với Eugeo và Alice. Cuộc chiến chống lại Administrator và lực lượng Dark Territory nổ ra. Eugeo hy sinh, Kirito rơi vào trạng thái hôn mê, rồi cuối cùng cùng Alice đánh bại kẻ thù, giải cứu Underworld. Kirito tỉnh lại ở thế giới thực. Dự án Underworld được cứu, Alice đến thế giới thật. Câu chuyện khép lại khi Kirito và Asuna tiếp tục sống bên nhau, chuẩn bị cho tương lai mới.</t>
+  </si>
+  <si>
+    <t>Câu chuyện diễn ra ở thành phố Orario, nơi có Dungeon (mê cung) khổng lồ dưới lòng đất. Con người chiến đấu với quái vật để kiếm tiền và sức mạnh, mỗi người được ban phước bởi một vị thần tạo nên các “Familia” (gia tộc). Bell Cranel, một tân mạo hiểm giả trẻ, tham gia Hestia Familia, vốn chỉ có một mình cậu và nữ thần Hestia. Trong lần đầu vào Dungeon, Bell bị quái vật tấn công và được Ais Wallenstein (nữ kiếm sĩ mạnh của Loki Familia) cứu. Bell bị ấn tượng mạnh và quyết tâm trở nên mạnh hơn để theo kịp cô. Hestia hỗ trợ Bell, giúp cậu luyện tập, chiến đấu, và dần mạnh lên nhờ kỹ năng hiếm “Realist Grit” – giúp tăng trưởng cực nhanh. Bell kết bạn với Liliruca Arde (Lili), một supporter (hỗ trợ) từng bị đồng đội cũ lợi dụng. Sau đó cậu nhận nuôi Wiene, một quái vật biết nói, gây xung đột giữa loài người và monster. Hestia Familia dần có thêm thành viên mới, trở thành một nhóm thực thụ. Bell và đồng đội chiến đấu ở các tầng sâu hơn của Dungeon, đối mặt với quái vật mạnh, dungeon floor boss, và các nhóm khác. Cậu nhiều lần vượt giới hạn bản thân, khiến các familia khác chú ý. Cuộc chiến với Apollo Familia nổ ra, Hestia Familia thắng, giành quyền và đất đai riêng. Bell gặp Xenos, nhóm quái vật biết nói, và cố gắng bảo vệ họ khỏi sự truy đuổi của con người. Mâu thuẫn giữa các Familia leo thang khi Bell bảo vệ quái vật, dẫn đến xung đột lớn với các vị thần và adventurer khác. Bell bị xem là phản bội, nhưng vẫn kiên định với niềm tin “mọi sinh vật đều đáng sống”. Các arc sau đi sâu vào tầng ẩn của Dungeon – nơi quái vật cực mạnh và có bí mật về thế giới. Bell và đồng đội chiến đấu với các quái vật cổ xưa, sinh tồn trong tầng sâu, cứu nhau khỏi hiểm nguy. Bell tiếp tục phát triển thành một mạo hiểm giả cấp cao, được công nhận bởi cả bạn và thù.</t>
+  </si>
+  <si>
+    <t>Học sinh trung học Kuze Masachika ngồi cạnh trong lớp là Alya – con lai Nga-Nhật, tóc bạc, học lực cao, vẻ ngoài nổi bật và trông rất “khó gần”. Alya thường nhìn Masachika với ánh mắt lạnh lùng trong lớp, vì cậu hay ngủ gật, thiếu nghiêm túc – trong khi cô luôn rất mẫu mực.  Thực ra Alya thỉnh thoảng lẩm bẩm bằng tiếng Nga về Masachika. Masachika nghe được Alya nói bằng tiếng Nga nhưng giả vờ không hiểu để... được nhìn thấy cảnh Alya yếu lòng, “đắm chìm” khi cô nói tiếng Nga một mình. Alya không biết Masachika hiểu được tiếng Nga. Alya và Masachika sau đó cùng tham gia các hoạt động học đường: học tập, học sinh hội, cạnh tranh, giải quyết vấn đề lớp học – mối quan hệ giữa họ phát triển từ “cạnh bàn học” đến gần gũi hơn. Câu chuyện xoay quanh việc Alya cố dấu cảm xúc của mình (bằng cách nói tiếng Nga lúc lỡ lời) và Masachika giữ im lặng nhưng thực sự biết – tạo nên tình huống “đôi hiểu nhau mà không thừa nhận”.</t>
+  </si>
+  <si>
+    <t>Nhân vật chính Amane-kun, một học sinh/nam sinh bình thường, sống gần một cô gái bí ẩn và xinh đẹp là Mahiru-san, được mọi người gọi là “Thiên thần hàng xóm”. Mahiru-san có vẻ ngoài hoàn hảo và tính cách dịu dàng, nhưng lại thỉnh thoảng xen vào cuộc sống của Amane theo cách hơi áp đảo, như dọn dẹp nhà cửa, nấu ăn giúp, hay chăm sóc cậu. Ban đầu Amane cố gắng tự lập và giữ khoảng cách, nhưng Mahiru-san liên tục “can thiệp” khiến cậu dần phụ thuộc vào cô, bỏ qua một số trách nhiệm của bản thân. Mahiru-san không hề tỏ tình hay ép buộc, nhưng bằng sự quan tâm thường nhật, cậu dần mất đi thói quen tự chủ, trở nên lười biếng và dễ bị “dắt mũi” trong đời sống thường ngày. Mối quan hệ phát triển theo hướng hài hước và đời thường, với các tình huống Amane bị Mahiru-san làm phiền hoặc bất ngờ bởi hành động ngọt ngào/thiên thần của cô. Câu chuyện xoay quanh sự thay đổi dần dần của Amane, từ một người bình thường, tự lập, thành một “dame ningen” (người vô năng/lười biếng) do ảnh hưởng của Mahiru-san, mà vẫn giữ tình cảm và mối quan hệ gần gũi với cô.</t>
+  </si>
+  <si>
+    <t>Trường tư thục Seikyou là nơi tồn tại nhiều truyền thuyết huyền bí, đặc biệt là về một hồn ma nữ tên Kanoe Yūko, người đã chết cách đây 60 năm trong tầng hầm của tòa nhà cũ. Niiya Teiichi, một học sinh mới, tình cờ gặp Yūko và là người duy nhất có thể nhìn thấy cô. Họ cùng nhau thành lập Câu lạc bộ điều tra hiện tượng siêu nhiên để tìm hiểu về cái chết của Yūko và những bí ẩn trong trường. Khám phá quá khứ của Yūko: Cô không nhớ lý do mình chết, và qua các cuộc điều tra, Teiichi phát hiện Yūko từng bị hiến tế trong một nghi lễ trừ tà sai lầm do hiểu lầm và mê tín. Một phần ký ức đau khổ của Yūko tách ra thành một thực thể khác – “Yūko bóng tối”, đại diện cho nỗi đau và oán hận của cô. Hòa nhập hai bản thể: Teiichi giúp Yūko đối mặt với quá khứ, chấp nhận nỗi đau và hợp nhất hai bản thể, giúp cô tìm lại ký ức và sự thanh thản. Tình yêu giữa người và ma: Mối quan hệ giữa Teiichi và Yūko phát triển từ tò mò đến tình yêu sâu sắc, dù biết rằng họ thuộc về hai thế giới khác nhau. Sau khi hoàn thành tâm nguyện, Yūko bắt đầu biến mất. Tuy nhiên, trong khoảnh khắc cuối cùng, cô chọn ở lại bên Teiichi, thể hiện sức mạnh của tình yêu vượt qua ranh giới sinh tử.</t>
+  </si>
+  <si>
+    <t>Naho Takamiya, một nữ sinh trung học, nhận được một bức thư từ chính mình trong tương lai 10 năm sau. Bức thư cảnh báo cô về những hối tiếc trong quá khứ và yêu cầu cô thay đổi một số hành động để cứu Kakeru Naruse, một học sinh mới sẽ chuyển đến lớp cô. Kakeru mang trong mình nỗi đau mất mẹ, người đã tự tử ngay sau ngày đầu tiên anh đến trường mới. Trong tương lai, Kakeru cũng sẽ tự tử vì cảm giác tội lỗi và cô đơn. Naho và nhóm bạn (Suwa, Takako, Azusa, Hagita) cùng nhau cố gắng thay đổi các sự kiện để giúp Kakeru vượt qua nỗi đau. Naho dần phát triển tình cảm với Kakeru, nhưng cô cũng biết rằng trong tương lai, cô sẽ kết hôn với Suwa – người luôn âm thầm ủng hộ cô và hy sinh vì hạnh phúc của cả hai. Suwa cũng nhận được thư từ tương lai và quyết định giúp Naho đến với Kakeru, dù biết điều đó có thể thay đổi tương lai của mình. Nhóm bạn cùng nhau tạo ra những kỷ niệm đẹp cho Kakeru, giúp anh cảm thấy được yêu thương và không còn cô đơn. Vào ngày định mệnh, họ ngăn chặn thành công vụ tai nạn xe đạp mà lẽ ra sẽ cướp đi mạng sống của Kakeru. Anime kết thúc với hình ảnh Kakeru vẫn sống, và nhóm bạn cùng nhau nhìn về tương lai với hy vọng.</t>
+  </si>
+  <si>
+    <t>Tóm tắt</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1180,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1185,7 +1254,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1214,76 +1283,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1326,7 +1325,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1713,10 +1712,10 @@
         <v>71</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="213" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="159.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1727,10 +1726,10 @@
         <v>2016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="117.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="160.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1741,10 +1740,10 @@
         <v>2015</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="99.75" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="160.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1755,10 +1754,10 @@
         <v>2018</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="136.5" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="222" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1769,10 +1768,10 @@
         <v>2017</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="150.75" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="227.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1783,10 +1782,10 @@
         <v>2017</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="135.75" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="288.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1797,10 +1796,10 @@
         <v>2002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="150" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="255" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1811,10 +1810,10 @@
         <v>2013</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="146.25" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="149.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>2011</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="162" customHeight="1">
@@ -1839,7 +1838,7 @@
         <v>2011</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="147.75" customHeight="1">
@@ -1853,10 +1852,10 @@
         <v>2020</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="114.75" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="164.25" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>2018</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>92</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="146.25" customHeight="1">
@@ -1881,7 +1880,7 @@
         <v>2021</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="163.5" customHeight="1">
@@ -1895,7 +1894,7 @@
         <v>2018</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="101.25" customHeight="1">
@@ -1909,7 +1908,7 @@
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" customHeight="1">
@@ -1923,7 +1922,7 @@
         <v>2013</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" customHeight="1">
@@ -1937,7 +1936,7 @@
         <v>2013</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="116.25" customHeight="1">
@@ -1951,7 +1950,7 @@
         <v>2016</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="143.25" customHeight="1">
@@ -1965,7 +1964,7 @@
         <v>1999</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="111" customHeight="1">
@@ -1979,7 +1978,7 @@
         <v>1984</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="131.25" customHeight="1">
@@ -1993,7 +1992,7 @@
         <v>1994</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="103.5" customHeight="1">
@@ -2007,7 +2006,7 @@
         <v>1990</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="83.25" customHeight="1">
@@ -2021,7 +2020,7 @@
         <v>1969</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" customHeight="1">
@@ -2035,7 +2034,7 @@
         <v>2019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="98.25" customHeight="1">
@@ -2049,7 +2048,7 @@
         <v>2005</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="98.25" customHeight="1">
@@ -2063,7 +2062,7 @@
         <v>2018</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="83.25" customHeight="1">
@@ -2077,7 +2076,7 @@
         <v>2015</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1">
@@ -2091,7 +2090,7 @@
         <v>2003</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="114.75" customHeight="1">
@@ -2105,7 +2104,7 @@
         <v>2008</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="97.5" customHeight="1">
@@ -2119,7 +2118,7 @@
         <v>2019</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="68.25" customHeight="1">
@@ -2133,7 +2132,7 @@
         <v>2018</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="98.25" customHeight="1">
@@ -2147,7 +2146,7 @@
         <v>2013</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="66.75" customHeight="1">
@@ -2161,7 +2160,7 @@
         <v>2018</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="67.5" customHeight="1">
@@ -2175,7 +2174,7 @@
         <v>2011</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="68.25" customHeight="1">
@@ -2189,7 +2188,7 @@
         <v>2017</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="80.25" customHeight="1">
@@ -2203,7 +2202,7 @@
         <v>2001</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="84" customHeight="1">
@@ -2217,7 +2216,7 @@
         <v>2007</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="81.75" customHeight="1">
@@ -2231,7 +2230,7 @@
         <v>1998</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="83.25" customHeight="1">
@@ -2245,7 +2244,7 @@
         <v>2012</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="66" customHeight="1">
@@ -2259,7 +2258,7 @@
         <v>2014</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="63">
@@ -2273,7 +2272,7 @@
         <v>1987</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" customHeight="1">
@@ -2287,7 +2286,7 @@
         <v>1981</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="68.25" customHeight="1">
@@ -2301,7 +2300,7 @@
         <v>2013</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="69.75" customHeight="1">
@@ -2315,7 +2314,7 @@
         <v>2011</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="81.75" customHeight="1">
@@ -2329,7 +2328,7 @@
         <v>2004</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="68.25" customHeight="1">
@@ -2343,7 +2342,7 @@
         <v>1989</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="67.5" customHeight="1">
@@ -2357,7 +2356,7 @@
         <v>1982</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="83.25" customHeight="1">
@@ -2371,7 +2370,7 @@
         <v>2016</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" customHeight="1">
@@ -2385,7 +2384,7 @@
         <v>2013</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="83.25" customHeight="1">
@@ -2399,7 +2398,7 @@
         <v>1984</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="66" customHeight="1">
@@ -2413,7 +2412,7 @@
         <v>2002</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="68.25" customHeight="1">
@@ -2427,7 +2426,7 @@
         <v>1988</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="69.75" customHeight="1">
@@ -2441,7 +2440,7 @@
         <v>1996</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="65.25" customHeight="1">
@@ -2455,7 +2454,7 @@
         <v>1975</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="88.5" customHeight="1">
@@ -2469,7 +2468,7 @@
         <v>1980</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="83.25" customHeight="1">
@@ -2477,13 +2476,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C56" s="6">
         <v>2004</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="65.25" customHeight="1">
@@ -2497,7 +2496,7 @@
         <v>2020</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="68.25" customHeight="1">
@@ -2511,7 +2510,7 @@
         <v>2009</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.5" customHeight="1">
@@ -2525,7 +2524,7 @@
         <v>2013</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" customHeight="1">
@@ -2539,7 +2538,7 @@
         <v>2016</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54.75" customHeight="1">
@@ -2553,7 +2552,7 @@
         <v>2015</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="71.25" customHeight="1">
@@ -2567,7 +2566,7 @@
         <v>2018</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="81" customHeight="1">
@@ -2581,7 +2580,7 @@
         <v>2015</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="72.75" customHeight="1">
@@ -2595,7 +2594,7 @@
         <v>2019</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="68.25" customHeight="1">
@@ -2609,7 +2608,7 @@
         <v>2011</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="65.25" customHeight="1">
@@ -2623,7 +2622,7 @@
         <v>2012</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="81.75" customHeight="1">
@@ -2637,7 +2636,7 @@
         <v>2005</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="67.5" customHeight="1">
@@ -2651,7 +2650,7 @@
         <v>2006</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="82.5" customHeight="1">
@@ -2665,7 +2664,7 @@
         <v>2014</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="65.25" customHeight="1">
@@ -2673,13 +2672,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C70" s="6">
         <v>2021</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="31.5">
@@ -2687,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C71" s="6">
         <v>2022</v>
@@ -2705,7 +2704,7 @@
         <v>2019</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="80.25" customHeight="1">
@@ -2719,7 +2718,7 @@
         <v>2002</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="67.5" customHeight="1">
@@ -2733,7 +2732,7 @@
         <v>2015</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="64.5" customHeight="1">
@@ -2747,34 +2746,36 @@
         <v>2010</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="31.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="177.75" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C76" s="6">
         <v>2012</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="47.25">
       <c r="A77" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C77" s="6">
         <v>2012</v>
       </c>
       <c r="D77" s="12"/>
     </row>
-    <row r="78" spans="1:5" ht="63">
+    <row r="78" spans="1:5" ht="211.5" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>1</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>2011</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="149.25" customHeight="1">
@@ -2793,16 +2794,16 @@
         <v>2</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C79" s="6">
         <v>2012</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="47.25">
@@ -2810,7 +2811,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C80" s="6">
         <v>2006</v>
@@ -2822,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C81" s="6">
         <v>2008</v>
@@ -2834,7 +2835,7 @@
         <v>69</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C82" s="6">
         <v>2006</v>
@@ -2846,7 +2847,7 @@
         <v>69</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C83" s="6">
         <v>2016</v>
@@ -2858,7 +2859,7 @@
         <v>69</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C84" s="6">
         <v>2007</v>
@@ -2870,31 +2871,33 @@
         <v>69</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C85" s="6">
         <v>2012</v>
       </c>
       <c r="D85" s="12"/>
     </row>
-    <row r="86" spans="1:4" ht="47.25">
+    <row r="86" spans="1:4" ht="176.25" customHeight="1">
       <c r="A86" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C86" s="6">
         <v>2009</v>
       </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="47.25">
       <c r="A87" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C87" s="6">
         <v>2013</v>
@@ -2906,7 +2909,7 @@
         <v>69</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C88" s="6">
         <v>2017</v>
@@ -2918,7 +2921,7 @@
         <v>69</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C89" s="6">
         <v>2019</v>
@@ -2930,7 +2933,7 @@
         <v>69</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C90" s="6">
         <v>1979</v>
@@ -2942,7 +2945,7 @@
         <v>69</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C91" s="6">
         <v>2017</v>
@@ -2954,13 +2957,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C92" s="6">
         <v>2020</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="94.5">
@@ -2968,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C93" s="6">
         <v>2015</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="47.25">
@@ -2982,7 +2985,7 @@
         <v>69</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C94" s="6">
         <v>2007</v>
@@ -2994,7 +2997,7 @@
         <v>69</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C95" s="6">
         <v>2012</v>
@@ -3006,7 +3009,7 @@
         <v>69</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C96" s="6">
         <v>2015</v>
@@ -3018,7 +3021,7 @@
         <v>69</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C97" s="6">
         <v>1986</v>
@@ -3030,7 +3033,7 @@
         <v>69</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C98" s="6">
         <v>2016</v>
@@ -3042,7 +3045,7 @@
         <v>69</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C99" s="6">
         <v>2019</v>
@@ -3054,7 +3057,7 @@
         <v>69</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C100" s="6">
         <v>2017</v>
@@ -3066,7 +3069,7 @@
         <v>69</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C101" s="6">
         <v>2016</v>
@@ -3090,7 +3093,7 @@
         <v>69</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C103" s="6">
         <v>2017</v>
@@ -3102,7 +3105,7 @@
         <v>69</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C104" s="6">
         <v>2019</v>
@@ -3114,7 +3117,7 @@
         <v>69</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C105" s="6">
         <v>2019</v>
@@ -3126,7 +3129,7 @@
         <v>69</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C106" s="6">
         <v>2020</v>
@@ -3138,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C107" s="6">
         <v>2013</v>
@@ -3150,7 +3153,7 @@
         <v>69</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C108" s="6">
         <v>2007</v>
@@ -3162,7 +3165,7 @@
         <v>69</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C109" s="6">
         <v>2017</v>
@@ -3174,7 +3177,7 @@
         <v>69</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C110" s="6">
         <v>2022</v>
@@ -3186,7 +3189,7 @@
         <v>69</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C111" s="6">
         <v>1998</v>
@@ -3198,7 +3201,7 @@
         <v>69</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C112" s="6">
         <v>2010</v>
@@ -3210,7 +3213,7 @@
         <v>69</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C113" s="6">
         <v>2013</v>
@@ -3222,7 +3225,7 @@
         <v>69</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C114" s="6">
         <v>2015</v>
@@ -3234,7 +3237,7 @@
         <v>69</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C115" s="6">
         <v>2016</v>
@@ -3246,7 +3249,7 @@
         <v>69</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C116" s="6">
         <v>2010</v>
@@ -3258,7 +3261,7 @@
         <v>69</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C117" s="6">
         <v>2009</v>
@@ -3270,7 +3273,7 @@
         <v>69</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C118" s="6">
         <v>2011</v>
@@ -3282,7 +3285,7 @@
         <v>69</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C119" s="6">
         <v>2006</v>
@@ -3294,7 +3297,7 @@
         <v>69</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C120" s="6">
         <v>2023</v>
@@ -3306,7 +3309,7 @@
         <v>69</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C121" s="6">
         <v>2008</v>
@@ -3318,7 +3321,7 @@
         <v>69</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C122" s="6">
         <v>2005</v>
@@ -3330,7 +3333,7 @@
         <v>69</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C123" s="6">
         <v>2019</v>
@@ -3342,7 +3345,7 @@
         <v>69</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C124" s="6">
         <v>2014</v>
@@ -3354,13 +3357,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C125" s="6">
         <v>2017</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="165.75" customHeight="1">
@@ -3368,16 +3371,16 @@
         <v>2</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C126" s="6">
         <v>2016</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="97.5" customHeight="1">
@@ -3391,7 +3394,7 @@
         <v>2014</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="31.5">
@@ -3399,7 +3402,7 @@
         <v>69</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C128" s="6">
         <v>2008</v>
@@ -3411,7 +3414,7 @@
         <v>69</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C129" s="6">
         <v>2005</v>
@@ -3429,7 +3432,7 @@
         <v>2010</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="31.5">
@@ -3437,7 +3440,7 @@
         <v>69</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C131" s="6">
         <v>2005</v>
@@ -3449,16 +3452,16 @@
         <v>2</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C132" s="6">
         <v>2004</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="47.25">
@@ -3466,7 +3469,7 @@
         <v>69</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C133" s="6">
         <v>2013</v>
@@ -3478,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C134" s="6">
         <v>2020</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="180" customHeight="1">
@@ -3492,16 +3495,16 @@
         <v>2</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C135" s="6">
         <v>2012</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="31.5">
@@ -3509,7 +3512,7 @@
         <v>69</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C136" s="6">
         <v>2009</v>
@@ -3521,7 +3524,7 @@
         <v>69</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C137" s="6">
         <v>2015</v>
@@ -3533,7 +3536,7 @@
         <v>69</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C138" s="6">
         <v>2009</v>
@@ -3545,7 +3548,7 @@
         <v>69</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C139" s="6">
         <v>2004</v>
@@ -3557,7 +3560,7 @@
         <v>69</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C140" s="6">
         <v>2001</v>
@@ -3569,7 +3572,7 @@
         <v>69</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C141" s="6">
         <v>1999</v>
@@ -3581,7 +3584,7 @@
         <v>69</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C142" s="6">
         <v>1998</v>
@@ -3593,7 +3596,7 @@
         <v>69</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C143" s="6">
         <v>1998</v>
@@ -3605,7 +3608,7 @@
         <v>69</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C144" s="6">
         <v>2001</v>
@@ -3617,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C145" s="6">
         <v>2006</v>
@@ -6432,24 +6435,24 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:C495">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$A2="☑"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$A2="☐"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$A2="⮽"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D495">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$A2="⮽"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$A2="☐"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A2="☑"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="242">
   <si>
     <t>Netoge no Yome ga Ninki Idol datta</t>
   </si>
@@ -1019,6 +1019,9 @@
   </si>
   <si>
     <t>Tóm tắt</t>
+  </si>
+  <si>
+    <t>Sudou Kaname, một học sinh trung học vô tình bị cuốn vào một trò chơi điện thoại bí ẩn nơi người chơi phải chiến đấu đến chết bằng năng lực siêu nhiên gọi là Sigil. Sau khi chứng kiến cái chết của bạn thân, Kaname quyết tâm sống sót và phá hủy trò chơi. Trong quá trình chiến đấu, anh gặp Shuka Karino – một người chơi mạnh mẽ ban đầu là kẻ thù nhưng sau trở thành đồng minh và người yêu. Kaname cùng những người chơi có lý tưởng tương tự như Rein, Ryuji và Sui/Souta thành lập nhóm Sunset Ravens, đặt ra luật cấm chiến đấu vô nghĩa trong khu vực họ kiểm soát. Khi khám phá sâu hơn, Kaname phát hiện Darwin's Game là một thí nghiệm tiến hóa nhân loại do một tổ chức bí mật điều hành, với mục tiêu chọn ra người chiến thắng cuối cùng có quyền thay đổi thế giới. Trò chơi mở rộng ra nhiều khu vực với luật lệ riêng, dẫn đến những trận chiến quy mô lớn giữa các hội như Eighth, Danjou Boxing Club, Uroboros và Ace. Kaname dần trở thành thủ lĩnh chiến lược, đối đầu với tổ chức điều hành trò chơi trong trận chiến cuối cùng. Kết thúc cho thấy Kaname đã chấm dứt Darwin's Game, nhưng thế giới vẫn mang dấu vết của trò chơi, để lại một kết thúc mở đầy suy ngẫm về quyền lực, sinh tồn và sự lựa chọn của con người.</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1173,77 +1176,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1325,7 +1268,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1703,7 +1646,7 @@
     <col min="6" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>70</v>
@@ -1714,8 +1657,9 @@
       <c r="D1" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="159.75" customHeight="1">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="159.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1728,8 +1672,9 @@
       <c r="D2" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="160.5" customHeight="1">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="160.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1742,8 +1687,9 @@
       <c r="D3" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="160.5" customHeight="1">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="160.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1756,8 +1702,9 @@
       <c r="D4" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="222" customHeight="1">
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="222" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1770,8 +1717,9 @@
       <c r="D5" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="227.25" customHeight="1">
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="227.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1784,8 +1732,9 @@
       <c r="D6" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="288.75" customHeight="1">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="288.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1798,8 +1747,9 @@
       <c r="D7" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="255" customHeight="1">
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="255" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1812,8 +1762,9 @@
       <c r="D8" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="149.25" customHeight="1">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="149.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -1826,8 +1777,9 @@
       <c r="D9" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="162" customHeight="1">
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="162" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -1840,8 +1792,9 @@
       <c r="D10" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="147.75" customHeight="1">
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="147.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1854,8 +1807,9 @@
       <c r="D11" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="164.25" customHeight="1">
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="164.25" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1868,8 +1822,9 @@
       <c r="D12" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="146.25" customHeight="1">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="146.25" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1882,8 +1837,9 @@
       <c r="D13" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="163.5" customHeight="1">
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="163.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
@@ -1896,8 +1852,9 @@
       <c r="D14" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="101.25" customHeight="1">
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="101.25" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1910,8 +1867,9 @@
       <c r="D15" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="99" customHeight="1">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="99" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -1924,8 +1882,9 @@
       <c r="D16" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="99" customHeight="1">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="99" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1938,8 +1897,9 @@
       <c r="D17" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="116.25" customHeight="1">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="116.25" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
@@ -1952,8 +1912,9 @@
       <c r="D18" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="143.25" customHeight="1">
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="143.25" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
@@ -1966,8 +1927,9 @@
       <c r="D19" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="111" customHeight="1">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="111" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
@@ -1980,8 +1942,9 @@
       <c r="D20" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="131.25" customHeight="1">
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="131.25" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -1994,8 +1957,9 @@
       <c r="D21" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="103.5" customHeight="1">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="103.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
@@ -2008,8 +1972,9 @@
       <c r="D22" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="83.25" customHeight="1">
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="83.25" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
@@ -2022,8 +1987,9 @@
       <c r="D23" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="99" customHeight="1">
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="99" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -2036,8 +2002,9 @@
       <c r="D24" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="98.25" customHeight="1">
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="98.25" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
@@ -2050,8 +2017,9 @@
       <c r="D25" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="98.25" customHeight="1">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="98.25" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
@@ -2064,8 +2032,9 @@
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="83.25" customHeight="1">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="83.25" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
@@ -2078,8 +2047,9 @@
       <c r="D27" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="84" customHeight="1">
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="84" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>1</v>
       </c>
@@ -2092,8 +2062,9 @@
       <c r="D28" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="114.75" customHeight="1">
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="114.75" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -2106,8 +2077,9 @@
       <c r="D29" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="97.5" customHeight="1">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="97.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>1</v>
       </c>
@@ -2120,8 +2092,9 @@
       <c r="D30" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="68.25" customHeight="1">
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="68.25" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
@@ -2134,8 +2107,9 @@
       <c r="D31" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="98.25" customHeight="1">
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" ht="98.25" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
@@ -2148,8 +2122,9 @@
       <c r="D32" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="66.75" customHeight="1">
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="66.75" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>1</v>
       </c>
@@ -2162,8 +2137,9 @@
       <c r="D33" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="67.5" customHeight="1">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" ht="67.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -2176,8 +2152,9 @@
       <c r="D34" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="68.25" customHeight="1">
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" ht="68.25" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
@@ -2190,8 +2167,9 @@
       <c r="D35" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="80.25" customHeight="1">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" ht="80.25" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>1</v>
       </c>
@@ -2204,8 +2182,9 @@
       <c r="D36" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="84" customHeight="1">
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="84" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>1</v>
       </c>
@@ -2218,8 +2197,9 @@
       <c r="D37" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="81.75" customHeight="1">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="81.75" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>1</v>
       </c>
@@ -2232,8 +2212,9 @@
       <c r="D38" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="83.25" customHeight="1">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="83.25" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
@@ -2246,8 +2227,9 @@
       <c r="D39" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="66" customHeight="1">
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="66" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>1</v>
       </c>
@@ -2260,8 +2242,9 @@
       <c r="D40" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="63">
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" ht="63">
       <c r="A41" s="6" t="s">
         <v>1</v>
       </c>
@@ -2274,8 +2257,9 @@
       <c r="D41" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="82.5" customHeight="1">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="82.5" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>1</v>
       </c>
@@ -2288,8 +2272,9 @@
       <c r="D42" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="68.25" customHeight="1">
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" ht="68.25" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
@@ -2302,8 +2287,9 @@
       <c r="D43" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="69.75" customHeight="1">
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="69.75" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
@@ -2316,8 +2302,9 @@
       <c r="D44" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="81.75" customHeight="1">
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" ht="81.75" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>1</v>
       </c>
@@ -2330,8 +2317,9 @@
       <c r="D45" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="68.25" customHeight="1">
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" ht="68.25" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>1</v>
       </c>
@@ -2344,8 +2332,9 @@
       <c r="D46" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="67.5" customHeight="1">
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" ht="67.5" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
@@ -2358,8 +2347,9 @@
       <c r="D47" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="83.25" customHeight="1">
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" ht="83.25" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -2372,8 +2362,9 @@
       <c r="D48" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="82.5" customHeight="1">
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="82.5" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -2386,8 +2377,9 @@
       <c r="D49" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="83.25" customHeight="1">
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" ht="83.25" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
@@ -2400,8 +2392,9 @@
       <c r="D50" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="66" customHeight="1">
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" ht="66" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -2414,8 +2407,9 @@
       <c r="D51" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="68.25" customHeight="1">
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5" ht="68.25" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>1</v>
       </c>
@@ -2428,8 +2422,9 @@
       <c r="D52" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="69.75" customHeight="1">
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" ht="69.75" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>1</v>
       </c>
@@ -2442,8 +2437,9 @@
       <c r="D53" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="65.25" customHeight="1">
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="65.25" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>1</v>
       </c>
@@ -2456,8 +2452,9 @@
       <c r="D54" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="88.5" customHeight="1">
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" ht="88.5" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
@@ -2470,8 +2467,9 @@
       <c r="D55" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="83.25" customHeight="1">
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" ht="83.25" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
@@ -2484,8 +2482,9 @@
       <c r="D56" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="65.25" customHeight="1">
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" ht="65.25" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>1</v>
       </c>
@@ -2498,8 +2497,9 @@
       <c r="D57" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="68.25" customHeight="1">
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" ht="68.25" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>1</v>
       </c>
@@ -2512,8 +2512,9 @@
       <c r="D58" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="55.5" customHeight="1">
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="55.5" customHeight="1">
       <c r="A59" s="6" t="s">
         <v>1</v>
       </c>
@@ -2526,8 +2527,9 @@
       <c r="D59" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="66.75" customHeight="1">
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" ht="66.75" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>1</v>
       </c>
@@ -2540,8 +2542,9 @@
       <c r="D60" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="54.75" customHeight="1">
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" ht="54.75" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>1</v>
       </c>
@@ -2554,8 +2557,9 @@
       <c r="D61" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="71.25" customHeight="1">
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" ht="71.25" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
@@ -2568,8 +2572,9 @@
       <c r="D62" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="81" customHeight="1">
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" ht="81" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -2582,8 +2587,9 @@
       <c r="D63" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="72.75" customHeight="1">
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="72.75" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
@@ -2596,6 +2602,7 @@
       <c r="D64" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" ht="68.25" customHeight="1">
       <c r="A65" s="6" t="s">
@@ -2610,6 +2617,7 @@
       <c r="D65" s="5" t="s">
         <v>130</v>
       </c>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="65.25" customHeight="1">
       <c r="A66" s="6" t="s">
@@ -2624,6 +2632,7 @@
       <c r="D66" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" ht="81.75" customHeight="1">
       <c r="A67" s="6" t="s">
@@ -2638,6 +2647,7 @@
       <c r="D67" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" ht="67.5" customHeight="1">
       <c r="A68" s="6" t="s">
@@ -2652,6 +2662,7 @@
       <c r="D68" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" ht="82.5" customHeight="1">
       <c r="A69" s="6" t="s">
@@ -2666,6 +2677,7 @@
       <c r="D69" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5" ht="65.25" customHeight="1">
       <c r="A70" s="6" t="s">
@@ -2680,6 +2692,7 @@
       <c r="D70" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" ht="31.5">
       <c r="A71" s="6" t="s">
@@ -2692,6 +2705,7 @@
         <v>2022</v>
       </c>
       <c r="D71" s="12"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:5" ht="70.5" customHeight="1">
       <c r="A72" s="6" t="s">
@@ -2706,6 +2720,7 @@
       <c r="D72" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5" ht="80.25" customHeight="1">
       <c r="A73" s="6" t="s">
@@ -2720,6 +2735,7 @@
       <c r="D73" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5" ht="67.5" customHeight="1">
       <c r="A74" s="6" t="s">
@@ -2734,6 +2750,7 @@
       <c r="D74" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="64.5" customHeight="1">
       <c r="A75" s="6" t="s">
@@ -2748,8 +2765,9 @@
       <c r="D75" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="177.75" customHeight="1">
+      <c r="E75" s="14"/>
+    </row>
+    <row r="76" spans="1:5" ht="160.5" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>1</v>
       </c>
@@ -2762,10 +2780,11 @@
       <c r="D76" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="47.25">
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" ht="173.25">
       <c r="A77" s="6" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>152</v>
@@ -2773,9 +2792,12 @@
       <c r="C77" s="6">
         <v>2012</v>
       </c>
-      <c r="D77" s="12"/>
-    </row>
-    <row r="78" spans="1:5" ht="211.5" customHeight="1">
+      <c r="D77" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" ht="195" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>1</v>
       </c>
@@ -2788,6 +2810,7 @@
       <c r="D78" s="5" t="s">
         <v>228</v>
       </c>
+      <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" ht="149.25" customHeight="1">
       <c r="A79" s="6" t="s">
@@ -2802,7 +2825,7 @@
       <c r="D79" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="15" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2817,8 +2840,9 @@
         <v>2006</v>
       </c>
       <c r="D80" s="12"/>
-    </row>
-    <row r="81" spans="1:4" ht="47.25">
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" ht="47.25">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
@@ -2829,8 +2853,9 @@
         <v>2008</v>
       </c>
       <c r="D81" s="12"/>
-    </row>
-    <row r="82" spans="1:4" ht="31.5">
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:5" ht="31.5">
       <c r="A82" s="6" t="s">
         <v>69</v>
       </c>
@@ -2841,8 +2866,9 @@
         <v>2006</v>
       </c>
       <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="1:4" ht="47.25">
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" ht="47.25">
       <c r="A83" s="6" t="s">
         <v>69</v>
       </c>
@@ -2853,8 +2879,9 @@
         <v>2016</v>
       </c>
       <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="1:4" ht="47.25">
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" ht="47.25">
       <c r="A84" s="6" t="s">
         <v>69</v>
       </c>
@@ -2865,8 +2892,9 @@
         <v>2007</v>
       </c>
       <c r="D84" s="12"/>
-    </row>
-    <row r="85" spans="1:4" ht="47.25">
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5" ht="47.25">
       <c r="A85" s="6" t="s">
         <v>69</v>
       </c>
@@ -2877,8 +2905,9 @@
         <v>2012</v>
       </c>
       <c r="D85" s="12"/>
-    </row>
-    <row r="86" spans="1:4" ht="176.25" customHeight="1">
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="1:5" ht="176.25" customHeight="1">
       <c r="A86" s="6" t="s">
         <v>1</v>
       </c>
@@ -2891,8 +2920,9 @@
       <c r="D86" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="47.25">
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5" ht="47.25">
       <c r="A87" s="6" t="s">
         <v>69</v>
       </c>
@@ -2903,8 +2933,9 @@
         <v>2013</v>
       </c>
       <c r="D87" s="12"/>
-    </row>
-    <row r="88" spans="1:4" ht="47.25">
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" ht="47.25">
       <c r="A88" s="6" t="s">
         <v>69</v>
       </c>
@@ -2915,8 +2946,9 @@
         <v>2017</v>
       </c>
       <c r="D88" s="12"/>
-    </row>
-    <row r="89" spans="1:4" ht="31.5">
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:5" ht="31.5">
       <c r="A89" s="6" t="s">
         <v>69</v>
       </c>
@@ -2927,8 +2959,9 @@
         <v>2019</v>
       </c>
       <c r="D89" s="12"/>
-    </row>
-    <row r="90" spans="1:4" ht="47.25">
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:5" ht="47.25">
       <c r="A90" s="6" t="s">
         <v>69</v>
       </c>
@@ -2939,8 +2972,9 @@
         <v>1979</v>
       </c>
       <c r="D90" s="12"/>
-    </row>
-    <row r="91" spans="1:4" ht="31.5">
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:5" ht="31.5">
       <c r="A91" s="6" t="s">
         <v>69</v>
       </c>
@@ -2951,8 +2985,9 @@
         <v>2017</v>
       </c>
       <c r="D91" s="12"/>
-    </row>
-    <row r="92" spans="1:4" ht="129" customHeight="1">
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5" ht="117" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>1</v>
       </c>
@@ -2965,8 +3000,9 @@
       <c r="D92" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="94.5">
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" ht="94.5">
       <c r="A93" s="6" t="s">
         <v>1</v>
       </c>
@@ -2979,8 +3015,9 @@
       <c r="D93" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="47.25">
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" ht="47.25">
       <c r="A94" s="6" t="s">
         <v>69</v>
       </c>
@@ -2991,8 +3028,9 @@
         <v>2007</v>
       </c>
       <c r="D94" s="12"/>
-    </row>
-    <row r="95" spans="1:4" ht="47.25">
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" ht="47.25">
       <c r="A95" s="6" t="s">
         <v>69</v>
       </c>
@@ -3003,8 +3041,9 @@
         <v>2012</v>
       </c>
       <c r="D95" s="12"/>
-    </row>
-    <row r="96" spans="1:4" ht="47.25">
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" ht="47.25">
       <c r="A96" s="6" t="s">
         <v>69</v>
       </c>
@@ -3015,8 +3054,9 @@
         <v>2015</v>
       </c>
       <c r="D96" s="12"/>
-    </row>
-    <row r="97" spans="1:4" ht="47.25">
+      <c r="E96" s="14"/>
+    </row>
+    <row r="97" spans="1:5" ht="47.25">
       <c r="A97" s="6" t="s">
         <v>69</v>
       </c>
@@ -3027,8 +3067,9 @@
         <v>1986</v>
       </c>
       <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:4" ht="47.25">
+      <c r="E97" s="14"/>
+    </row>
+    <row r="98" spans="1:5" ht="47.25">
       <c r="A98" s="6" t="s">
         <v>69</v>
       </c>
@@ -3039,8 +3080,9 @@
         <v>2016</v>
       </c>
       <c r="D98" s="12"/>
-    </row>
-    <row r="99" spans="1:4" ht="47.25">
+      <c r="E98" s="14"/>
+    </row>
+    <row r="99" spans="1:5" ht="47.25">
       <c r="A99" s="6" t="s">
         <v>69</v>
       </c>
@@ -3051,8 +3093,9 @@
         <v>2019</v>
       </c>
       <c r="D99" s="12"/>
-    </row>
-    <row r="100" spans="1:4" ht="47.25">
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:5" ht="47.25">
       <c r="A100" s="6" t="s">
         <v>69</v>
       </c>
@@ -3063,8 +3106,9 @@
         <v>2017</v>
       </c>
       <c r="D100" s="12"/>
-    </row>
-    <row r="101" spans="1:4" ht="47.25">
+      <c r="E100" s="14"/>
+    </row>
+    <row r="101" spans="1:5" ht="47.25">
       <c r="A101" s="6" t="s">
         <v>69</v>
       </c>
@@ -3075,8 +3119,9 @@
         <v>2016</v>
       </c>
       <c r="D101" s="12"/>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="6" t="s">
         <v>69</v>
       </c>
@@ -3087,8 +3132,9 @@
         <v>2022</v>
       </c>
       <c r="D102" s="12"/>
-    </row>
-    <row r="103" spans="1:4" ht="47.25">
+      <c r="E102" s="14"/>
+    </row>
+    <row r="103" spans="1:5" ht="47.25">
       <c r="A103" s="6" t="s">
         <v>69</v>
       </c>
@@ -3099,8 +3145,9 @@
         <v>2017</v>
       </c>
       <c r="D103" s="12"/>
-    </row>
-    <row r="104" spans="1:4" ht="47.25">
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="1:5" ht="47.25">
       <c r="A104" s="6" t="s">
         <v>69</v>
       </c>
@@ -3111,8 +3158,9 @@
         <v>2019</v>
       </c>
       <c r="D104" s="12"/>
-    </row>
-    <row r="105" spans="1:4" ht="47.25">
+      <c r="E104" s="14"/>
+    </row>
+    <row r="105" spans="1:5" ht="47.25">
       <c r="A105" s="6" t="s">
         <v>69</v>
       </c>
@@ -3123,8 +3171,9 @@
         <v>2019</v>
       </c>
       <c r="D105" s="12"/>
-    </row>
-    <row r="106" spans="1:4" ht="47.25">
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="1:5" ht="47.25">
       <c r="A106" s="6" t="s">
         <v>69</v>
       </c>
@@ -3135,8 +3184,9 @@
         <v>2020</v>
       </c>
       <c r="D106" s="12"/>
-    </row>
-    <row r="107" spans="1:4" ht="47.25">
+      <c r="E106" s="14"/>
+    </row>
+    <row r="107" spans="1:5" ht="47.25">
       <c r="A107" s="6" t="s">
         <v>69</v>
       </c>
@@ -3147,8 +3197,9 @@
         <v>2013</v>
       </c>
       <c r="D107" s="12"/>
-    </row>
-    <row r="108" spans="1:4" ht="47.25">
+      <c r="E107" s="14"/>
+    </row>
+    <row r="108" spans="1:5" ht="47.25">
       <c r="A108" s="6" t="s">
         <v>69</v>
       </c>
@@ -3159,8 +3210,9 @@
         <v>2007</v>
       </c>
       <c r="D108" s="12"/>
-    </row>
-    <row r="109" spans="1:4" ht="47.25">
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="1:5" ht="47.25">
       <c r="A109" s="6" t="s">
         <v>69</v>
       </c>
@@ -3171,8 +3223,9 @@
         <v>2017</v>
       </c>
       <c r="D109" s="12"/>
-    </row>
-    <row r="110" spans="1:4" ht="47.25">
+      <c r="E109" s="14"/>
+    </row>
+    <row r="110" spans="1:5" ht="47.25">
       <c r="A110" s="6" t="s">
         <v>69</v>
       </c>
@@ -3183,8 +3236,9 @@
         <v>2022</v>
       </c>
       <c r="D110" s="12"/>
-    </row>
-    <row r="111" spans="1:4" ht="47.25">
+      <c r="E110" s="14"/>
+    </row>
+    <row r="111" spans="1:5" ht="47.25">
       <c r="A111" s="6" t="s">
         <v>69</v>
       </c>
@@ -3195,8 +3249,9 @@
         <v>1998</v>
       </c>
       <c r="D111" s="12"/>
-    </row>
-    <row r="112" spans="1:4" ht="47.25">
+      <c r="E111" s="14"/>
+    </row>
+    <row r="112" spans="1:5" ht="47.25">
       <c r="A112" s="6" t="s">
         <v>69</v>
       </c>
@@ -3207,6 +3262,7 @@
         <v>2010</v>
       </c>
       <c r="D112" s="12"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5" ht="31.5">
       <c r="A113" s="6" t="s">
@@ -3219,6 +3275,7 @@
         <v>2013</v>
       </c>
       <c r="D113" s="12"/>
+      <c r="E113" s="14"/>
     </row>
     <row r="114" spans="1:5" ht="47.25">
       <c r="A114" s="6" t="s">
@@ -3231,6 +3288,7 @@
         <v>2015</v>
       </c>
       <c r="D114" s="12"/>
+      <c r="E114" s="14"/>
     </row>
     <row r="115" spans="1:5" ht="47.25">
       <c r="A115" s="6" t="s">
@@ -3243,6 +3301,7 @@
         <v>2016</v>
       </c>
       <c r="D115" s="12"/>
+      <c r="E115" s="14"/>
     </row>
     <row r="116" spans="1:5" ht="47.25">
       <c r="A116" s="6" t="s">
@@ -3255,6 +3314,7 @@
         <v>2010</v>
       </c>
       <c r="D116" s="12"/>
+      <c r="E116" s="14"/>
     </row>
     <row r="117" spans="1:5" ht="47.25">
       <c r="A117" s="6" t="s">
@@ -3267,6 +3327,7 @@
         <v>2009</v>
       </c>
       <c r="D117" s="12"/>
+      <c r="E117" s="14"/>
     </row>
     <row r="118" spans="1:5" ht="47.25">
       <c r="A118" s="6" t="s">
@@ -3279,6 +3340,7 @@
         <v>2011</v>
       </c>
       <c r="D118" s="12"/>
+      <c r="E118" s="14"/>
     </row>
     <row r="119" spans="1:5" ht="47.25">
       <c r="A119" s="6" t="s">
@@ -3291,6 +3353,7 @@
         <v>2006</v>
       </c>
       <c r="D119" s="12"/>
+      <c r="E119" s="14"/>
     </row>
     <row r="120" spans="1:5" ht="47.25">
       <c r="A120" s="6" t="s">
@@ -3303,6 +3366,7 @@
         <v>2023</v>
       </c>
       <c r="D120" s="12"/>
+      <c r="E120" s="14"/>
     </row>
     <row r="121" spans="1:5" ht="47.25">
       <c r="A121" s="6" t="s">
@@ -3315,6 +3379,7 @@
         <v>2008</v>
       </c>
       <c r="D121" s="12"/>
+      <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5" ht="47.25">
       <c r="A122" s="6" t="s">
@@ -3327,6 +3392,7 @@
         <v>2005</v>
       </c>
       <c r="D122" s="12"/>
+      <c r="E122" s="14"/>
     </row>
     <row r="123" spans="1:5" ht="47.25">
       <c r="A123" s="6" t="s">
@@ -3339,6 +3405,7 @@
         <v>2019</v>
       </c>
       <c r="D123" s="12"/>
+      <c r="E123" s="14"/>
     </row>
     <row r="124" spans="1:5" ht="47.25">
       <c r="A124" s="6" t="s">
@@ -3351,8 +3418,9 @@
         <v>2014</v>
       </c>
       <c r="D124" s="12"/>
-    </row>
-    <row r="125" spans="1:5" ht="177.75" customHeight="1">
+      <c r="E124" s="14"/>
+    </row>
+    <row r="125" spans="1:5" ht="161.25" customHeight="1">
       <c r="A125" s="6" t="s">
         <v>1</v>
       </c>
@@ -3365,6 +3433,7 @@
       <c r="D125" s="5" t="s">
         <v>218</v>
       </c>
+      <c r="E125" s="14"/>
     </row>
     <row r="126" spans="1:5" ht="165.75" customHeight="1">
       <c r="A126" s="6" t="s">
@@ -3379,7 +3448,7 @@
       <c r="D126" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" s="15" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3396,6 +3465,7 @@
       <c r="D127" s="5" t="s">
         <v>145</v>
       </c>
+      <c r="E127" s="14"/>
     </row>
     <row r="128" spans="1:5" ht="31.5">
       <c r="A128" s="6" t="s">
@@ -3408,6 +3478,7 @@
         <v>2008</v>
       </c>
       <c r="D128" s="12"/>
+      <c r="E128" s="14"/>
     </row>
     <row r="129" spans="1:5" ht="31.5">
       <c r="A129" s="6" t="s">
@@ -3420,6 +3491,7 @@
         <v>2005</v>
       </c>
       <c r="D129" s="12"/>
+      <c r="E129" s="14"/>
     </row>
     <row r="130" spans="1:5" ht="110.25">
       <c r="A130" s="6" t="s">
@@ -3434,6 +3506,7 @@
       <c r="D130" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" ht="31.5">
       <c r="A131" s="6" t="s">
@@ -3446,6 +3519,7 @@
         <v>2005</v>
       </c>
       <c r="D131" s="12"/>
+      <c r="E131" s="14"/>
     </row>
     <row r="132" spans="1:5" ht="225" customHeight="1">
       <c r="A132" s="6" t="s">
@@ -3460,7 +3534,7 @@
       <c r="D132" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="15" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3475,6 +3549,7 @@
         <v>2013</v>
       </c>
       <c r="D133" s="12"/>
+      <c r="E133" s="14"/>
     </row>
     <row r="134" spans="1:5" ht="192.75" customHeight="1">
       <c r="A134" s="6" t="s">
@@ -3489,6 +3564,7 @@
       <c r="D134" s="5" t="s">
         <v>209</v>
       </c>
+      <c r="E134" s="14"/>
     </row>
     <row r="135" spans="1:5" ht="180" customHeight="1">
       <c r="A135" s="6" t="s">
@@ -3503,7 +3579,7 @@
       <c r="D135" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E135" s="15" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3518,6 +3594,7 @@
         <v>2009</v>
       </c>
       <c r="D136" s="12"/>
+      <c r="E136" s="14"/>
     </row>
     <row r="137" spans="1:5" ht="47.25">
       <c r="A137" s="6" t="s">
@@ -3530,6 +3607,7 @@
         <v>2015</v>
       </c>
       <c r="D137" s="12"/>
+      <c r="E137" s="14"/>
     </row>
     <row r="138" spans="1:5" ht="47.25">
       <c r="A138" s="6" t="s">
@@ -3542,6 +3620,7 @@
         <v>2009</v>
       </c>
       <c r="D138" s="12"/>
+      <c r="E138" s="14"/>
     </row>
     <row r="139" spans="1:5" ht="47.25">
       <c r="A139" s="6" t="s">
@@ -3554,6 +3633,7 @@
         <v>2004</v>
       </c>
       <c r="D139" s="12"/>
+      <c r="E139" s="14"/>
     </row>
     <row r="140" spans="1:5" ht="47.25">
       <c r="A140" s="6" t="s">
@@ -3566,6 +3646,7 @@
         <v>2001</v>
       </c>
       <c r="D140" s="12"/>
+      <c r="E140" s="14"/>
     </row>
     <row r="141" spans="1:5" ht="47.25">
       <c r="A141" s="6" t="s">
@@ -3578,6 +3659,7 @@
         <v>1999</v>
       </c>
       <c r="D141" s="12"/>
+      <c r="E141" s="14"/>
     </row>
     <row r="142" spans="1:5" ht="31.5">
       <c r="A142" s="6" t="s">
@@ -3590,6 +3672,7 @@
         <v>1998</v>
       </c>
       <c r="D142" s="12"/>
+      <c r="E142" s="14"/>
     </row>
     <row r="143" spans="1:5" ht="47.25">
       <c r="A143" s="6" t="s">
@@ -3602,6 +3685,7 @@
         <v>1998</v>
       </c>
       <c r="D143" s="12"/>
+      <c r="E143" s="14"/>
     </row>
     <row r="144" spans="1:5" ht="47.25">
       <c r="A144" s="6" t="s">
@@ -3614,8 +3698,9 @@
         <v>2001</v>
       </c>
       <c r="D144" s="12"/>
-    </row>
-    <row r="145" spans="1:4" ht="31.5">
+      <c r="E144" s="14"/>
+    </row>
+    <row r="145" spans="1:5" ht="31.5">
       <c r="A145" s="6" t="s">
         <v>69</v>
       </c>
@@ -3626,8 +3711,9 @@
         <v>2006</v>
       </c>
       <c r="D145" s="12"/>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" s="14"/>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="6" t="s">
         <v>69</v>
       </c>
@@ -3638,2821 +3724,3171 @@
         <v>2003</v>
       </c>
       <c r="D146" s="12"/>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" s="14"/>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="6"/>
       <c r="D147" s="12"/>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" s="14"/>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="6"/>
       <c r="D148" s="12"/>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" s="14"/>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="6"/>
       <c r="D149" s="12"/>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" s="14"/>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="6"/>
       <c r="D150" s="12"/>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" s="14"/>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="6"/>
       <c r="D151" s="12"/>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" s="14"/>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B152" s="13"/>
       <c r="C152" s="6"/>
       <c r="D152" s="12"/>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" s="14"/>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="6"/>
       <c r="D153" s="12"/>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" s="14"/>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B154" s="13"/>
       <c r="C154" s="6"/>
       <c r="D154" s="12"/>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" s="14"/>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B155" s="13"/>
       <c r="C155" s="6"/>
       <c r="D155" s="12"/>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" s="14"/>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="6"/>
       <c r="D156" s="12"/>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" s="14"/>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="6"/>
       <c r="D157" s="12"/>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" s="14"/>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="6"/>
       <c r="D158" s="12"/>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" s="14"/>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="6"/>
       <c r="D159" s="12"/>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" s="14"/>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="6"/>
       <c r="D160" s="12"/>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" s="14"/>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B161" s="13"/>
       <c r="C161" s="6"/>
       <c r="D161" s="12"/>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" s="14"/>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="6"/>
       <c r="D162" s="12"/>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" s="14"/>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="13"/>
       <c r="C163" s="6"/>
       <c r="D163" s="12"/>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" s="14"/>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="6"/>
       <c r="D164" s="12"/>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" s="14"/>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B165" s="13"/>
       <c r="C165" s="6"/>
       <c r="D165" s="12"/>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" s="14"/>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="6"/>
       <c r="D166" s="12"/>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" s="14"/>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B167" s="13"/>
       <c r="C167" s="6"/>
       <c r="D167" s="12"/>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" s="14"/>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="6"/>
       <c r="D168" s="12"/>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" s="14"/>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="6"/>
       <c r="D169" s="12"/>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" s="14"/>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B170" s="13"/>
       <c r="C170" s="6"/>
       <c r="D170" s="12"/>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" s="14"/>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="6"/>
       <c r="D171" s="12"/>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" s="14"/>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B172" s="13"/>
       <c r="C172" s="6"/>
       <c r="D172" s="12"/>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" s="14"/>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B173" s="13"/>
       <c r="C173" s="6"/>
       <c r="D173" s="12"/>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" s="14"/>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B174" s="13"/>
       <c r="C174" s="6"/>
       <c r="D174" s="12"/>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" s="14"/>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B175" s="13"/>
       <c r="C175" s="6"/>
       <c r="D175" s="12"/>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" s="14"/>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="6"/>
       <c r="D176" s="12"/>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" s="14"/>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="6"/>
       <c r="D177" s="12"/>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" s="14"/>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="6"/>
       <c r="D178" s="12"/>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" s="14"/>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="6"/>
       <c r="D179" s="12"/>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" s="14"/>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="6"/>
       <c r="D180" s="12"/>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" s="14"/>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="6"/>
       <c r="D181" s="12"/>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" s="14"/>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="6"/>
       <c r="D182" s="12"/>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" s="14"/>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B183" s="13"/>
       <c r="C183" s="6"/>
       <c r="D183" s="12"/>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" s="14"/>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B184" s="13"/>
       <c r="C184" s="6"/>
       <c r="D184" s="12"/>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184" s="14"/>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B185" s="13"/>
       <c r="C185" s="6"/>
       <c r="D185" s="12"/>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" s="14"/>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="6"/>
       <c r="D186" s="12"/>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" s="14"/>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="6"/>
       <c r="D187" s="12"/>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" s="14"/>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B188" s="13"/>
       <c r="C188" s="6"/>
       <c r="D188" s="12"/>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188" s="14"/>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B189" s="13"/>
       <c r="C189" s="6"/>
       <c r="D189" s="12"/>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" s="14"/>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B190" s="13"/>
       <c r="C190" s="6"/>
       <c r="D190" s="12"/>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" s="14"/>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B191" s="13"/>
       <c r="C191" s="6"/>
       <c r="D191" s="12"/>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" s="14"/>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B192" s="13"/>
       <c r="C192" s="6"/>
       <c r="D192" s="12"/>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" s="14"/>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B193" s="13"/>
       <c r="C193" s="6"/>
       <c r="D193" s="12"/>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" s="14"/>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="6"/>
       <c r="D194" s="12"/>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" s="14"/>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B195" s="13"/>
       <c r="C195" s="6"/>
       <c r="D195" s="12"/>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" s="14"/>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="6"/>
       <c r="D196" s="12"/>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" s="14"/>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="6"/>
       <c r="D197" s="12"/>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" s="14"/>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="6"/>
       <c r="D198" s="12"/>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" s="14"/>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="6"/>
       <c r="D199" s="12"/>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199" s="14"/>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B200" s="13"/>
       <c r="C200" s="6"/>
       <c r="D200" s="12"/>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200" s="14"/>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B201" s="13"/>
       <c r="C201" s="6"/>
       <c r="D201" s="12"/>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201" s="14"/>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B202" s="13"/>
       <c r="C202" s="6"/>
       <c r="D202" s="12"/>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202" s="14"/>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B203" s="13"/>
       <c r="C203" s="6"/>
       <c r="D203" s="12"/>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203" s="14"/>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B204" s="13"/>
       <c r="C204" s="6"/>
       <c r="D204" s="12"/>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204" s="14"/>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="6"/>
       <c r="D205" s="12"/>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205" s="14"/>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B206" s="13"/>
       <c r="C206" s="6"/>
       <c r="D206" s="12"/>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206" s="14"/>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B207" s="13"/>
       <c r="C207" s="6"/>
       <c r="D207" s="12"/>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207" s="14"/>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B208" s="13"/>
       <c r="C208" s="6"/>
       <c r="D208" s="12"/>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208" s="14"/>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B209" s="13"/>
       <c r="C209" s="6"/>
       <c r="D209" s="12"/>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209" s="14"/>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B210" s="13"/>
       <c r="C210" s="6"/>
       <c r="D210" s="12"/>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210" s="14"/>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B211" s="13"/>
       <c r="C211" s="6"/>
       <c r="D211" s="12"/>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211" s="14"/>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B212" s="13"/>
       <c r="C212" s="6"/>
       <c r="D212" s="12"/>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212" s="14"/>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B213" s="13"/>
       <c r="C213" s="6"/>
       <c r="D213" s="12"/>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213" s="14"/>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="6"/>
       <c r="D214" s="12"/>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214" s="14"/>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B215" s="13"/>
       <c r="C215" s="6"/>
       <c r="D215" s="12"/>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215" s="14"/>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B216" s="13"/>
       <c r="C216" s="6"/>
       <c r="D216" s="12"/>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216" s="14"/>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B217" s="13"/>
       <c r="C217" s="6"/>
       <c r="D217" s="12"/>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217" s="14"/>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="6"/>
       <c r="D218" s="12"/>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218" s="14"/>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B219" s="13"/>
       <c r="C219" s="6"/>
       <c r="D219" s="12"/>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219" s="14"/>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B220" s="13"/>
       <c r="C220" s="6"/>
       <c r="D220" s="12"/>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220" s="14"/>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B221" s="13"/>
       <c r="C221" s="6"/>
       <c r="D221" s="12"/>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221" s="14"/>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="6"/>
       <c r="D222" s="12"/>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222" s="14"/>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B223" s="13"/>
       <c r="C223" s="6"/>
       <c r="D223" s="12"/>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223" s="14"/>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B224" s="13"/>
       <c r="C224" s="6"/>
       <c r="D224" s="12"/>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224" s="14"/>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B225" s="13"/>
       <c r="C225" s="6"/>
       <c r="D225" s="12"/>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225" s="14"/>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B226" s="13"/>
       <c r="C226" s="6"/>
       <c r="D226" s="12"/>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226" s="14"/>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B227" s="13"/>
       <c r="C227" s="6"/>
       <c r="D227" s="12"/>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227" s="14"/>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B228" s="13"/>
       <c r="C228" s="6"/>
       <c r="D228" s="12"/>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228" s="14"/>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B229" s="13"/>
       <c r="C229" s="6"/>
       <c r="D229" s="12"/>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229" s="14"/>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B230" s="13"/>
       <c r="C230" s="6"/>
       <c r="D230" s="12"/>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230" s="14"/>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B231" s="13"/>
       <c r="C231" s="6"/>
       <c r="D231" s="12"/>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231" s="14"/>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B232" s="13"/>
       <c r="C232" s="6"/>
       <c r="D232" s="12"/>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232" s="14"/>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B233" s="13"/>
       <c r="C233" s="6"/>
       <c r="D233" s="12"/>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233" s="14"/>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B234" s="13"/>
       <c r="C234" s="6"/>
       <c r="D234" s="12"/>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="E234" s="14"/>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="6"/>
       <c r="D235" s="12"/>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="E235" s="14"/>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B236" s="13"/>
       <c r="C236" s="6"/>
       <c r="D236" s="12"/>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236" s="14"/>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B237" s="13"/>
       <c r="C237" s="6"/>
       <c r="D237" s="12"/>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237" s="14"/>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B238" s="13"/>
       <c r="C238" s="6"/>
       <c r="D238" s="12"/>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238" s="14"/>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B239" s="13"/>
       <c r="C239" s="6"/>
       <c r="D239" s="12"/>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="E239" s="14"/>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B240" s="13"/>
       <c r="C240" s="6"/>
       <c r="D240" s="12"/>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240" s="14"/>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B241" s="13"/>
       <c r="C241" s="6"/>
       <c r="D241" s="12"/>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241" s="14"/>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B242" s="13"/>
       <c r="C242" s="6"/>
       <c r="D242" s="12"/>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242" s="14"/>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B243" s="13"/>
       <c r="C243" s="6"/>
       <c r="D243" s="12"/>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="E243" s="14"/>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B244" s="13"/>
       <c r="C244" s="6"/>
       <c r="D244" s="12"/>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="E244" s="14"/>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B245" s="13"/>
       <c r="C245" s="6"/>
       <c r="D245" s="12"/>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="E245" s="14"/>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B246" s="13"/>
       <c r="C246" s="6"/>
       <c r="D246" s="12"/>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="E246" s="14"/>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B247" s="13"/>
       <c r="C247" s="6"/>
       <c r="D247" s="12"/>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="E247" s="14"/>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B248" s="13"/>
       <c r="C248" s="6"/>
       <c r="D248" s="12"/>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="E248" s="14"/>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B249" s="13"/>
       <c r="C249" s="6"/>
       <c r="D249" s="12"/>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="E249" s="14"/>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B250" s="13"/>
       <c r="C250" s="6"/>
       <c r="D250" s="12"/>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="E250" s="14"/>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B251" s="13"/>
       <c r="C251" s="6"/>
       <c r="D251" s="12"/>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="E251" s="14"/>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B252" s="13"/>
       <c r="C252" s="6"/>
       <c r="D252" s="12"/>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="E252" s="14"/>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B253" s="13"/>
       <c r="C253" s="6"/>
       <c r="D253" s="12"/>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="E253" s="14"/>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B254" s="13"/>
       <c r="C254" s="6"/>
       <c r="D254" s="12"/>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="E254" s="14"/>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B255" s="13"/>
       <c r="C255" s="6"/>
       <c r="D255" s="12"/>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="E255" s="14"/>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B256" s="13"/>
       <c r="C256" s="6"/>
       <c r="D256" s="12"/>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="E256" s="14"/>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B257" s="13"/>
       <c r="C257" s="6"/>
       <c r="D257" s="12"/>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="E257" s="14"/>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B258" s="13"/>
       <c r="C258" s="6"/>
       <c r="D258" s="12"/>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="E258" s="14"/>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B259" s="13"/>
       <c r="C259" s="6"/>
       <c r="D259" s="12"/>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="E259" s="14"/>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B260" s="13"/>
       <c r="C260" s="6"/>
       <c r="D260" s="12"/>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="E260" s="14"/>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B261" s="13"/>
       <c r="C261" s="6"/>
       <c r="D261" s="12"/>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="E261" s="14"/>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B262" s="13"/>
       <c r="C262" s="6"/>
       <c r="D262" s="12"/>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="E262" s="14"/>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B263" s="13"/>
       <c r="C263" s="6"/>
       <c r="D263" s="12"/>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="E263" s="14"/>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B264" s="13"/>
       <c r="C264" s="6"/>
       <c r="D264" s="12"/>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="E264" s="14"/>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B265" s="13"/>
       <c r="C265" s="6"/>
       <c r="D265" s="12"/>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="E265" s="14"/>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B266" s="13"/>
       <c r="C266" s="6"/>
       <c r="D266" s="12"/>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="E266" s="14"/>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B267" s="13"/>
       <c r="C267" s="6"/>
       <c r="D267" s="12"/>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="E267" s="14"/>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B268" s="13"/>
       <c r="C268" s="6"/>
       <c r="D268" s="12"/>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="E268" s="14"/>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B269" s="13"/>
       <c r="C269" s="6"/>
       <c r="D269" s="12"/>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="E269" s="14"/>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B270" s="13"/>
       <c r="C270" s="6"/>
       <c r="D270" s="12"/>
-    </row>
-    <row r="271" spans="1:4">
+      <c r="E270" s="14"/>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B271" s="13"/>
       <c r="C271" s="6"/>
       <c r="D271" s="12"/>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="E271" s="14"/>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B272" s="13"/>
       <c r="C272" s="6"/>
       <c r="D272" s="12"/>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272" s="14"/>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B273" s="13"/>
       <c r="C273" s="6"/>
       <c r="D273" s="12"/>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="E273" s="14"/>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B274" s="13"/>
       <c r="C274" s="6"/>
       <c r="D274" s="12"/>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="E274" s="14"/>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B275" s="13"/>
       <c r="C275" s="6"/>
       <c r="D275" s="12"/>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="E275" s="14"/>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B276" s="13"/>
       <c r="C276" s="6"/>
       <c r="D276" s="12"/>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="E276" s="14"/>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B277" s="13"/>
       <c r="C277" s="6"/>
       <c r="D277" s="12"/>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="E277" s="14"/>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B278" s="13"/>
       <c r="C278" s="6"/>
       <c r="D278" s="12"/>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="E278" s="14"/>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B279" s="13"/>
       <c r="C279" s="6"/>
       <c r="D279" s="12"/>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="E279" s="14"/>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B280" s="13"/>
       <c r="C280" s="6"/>
       <c r="D280" s="12"/>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="E280" s="14"/>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B281" s="13"/>
       <c r="C281" s="6"/>
       <c r="D281" s="12"/>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="E281" s="14"/>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B282" s="13"/>
       <c r="C282" s="6"/>
       <c r="D282" s="12"/>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="E282" s="14"/>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B283" s="13"/>
       <c r="C283" s="6"/>
       <c r="D283" s="12"/>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="E283" s="14"/>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B284" s="13"/>
       <c r="C284" s="6"/>
       <c r="D284" s="12"/>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="E284" s="14"/>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B285" s="13"/>
       <c r="C285" s="6"/>
       <c r="D285" s="12"/>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="E285" s="14"/>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B286" s="13"/>
       <c r="C286" s="6"/>
       <c r="D286" s="12"/>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="E286" s="14"/>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B287" s="13"/>
       <c r="C287" s="6"/>
       <c r="D287" s="12"/>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="E287" s="14"/>
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B288" s="13"/>
       <c r="C288" s="6"/>
       <c r="D288" s="12"/>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="E288" s="14"/>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B289" s="13"/>
       <c r="C289" s="6"/>
       <c r="D289" s="12"/>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="E289" s="14"/>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B290" s="13"/>
       <c r="C290" s="6"/>
       <c r="D290" s="12"/>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="E290" s="14"/>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B291" s="13"/>
       <c r="C291" s="6"/>
       <c r="D291" s="12"/>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="E291" s="14"/>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B292" s="13"/>
       <c r="C292" s="6"/>
       <c r="D292" s="12"/>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="E292" s="14"/>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B293" s="13"/>
       <c r="C293" s="6"/>
       <c r="D293" s="12"/>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="E293" s="14"/>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B294" s="13"/>
       <c r="C294" s="6"/>
       <c r="D294" s="12"/>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="E294" s="14"/>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B295" s="13"/>
       <c r="C295" s="6"/>
       <c r="D295" s="12"/>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="E295" s="14"/>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B296" s="13"/>
       <c r="C296" s="6"/>
       <c r="D296" s="12"/>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="E296" s="14"/>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B297" s="13"/>
       <c r="C297" s="6"/>
       <c r="D297" s="12"/>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="E297" s="14"/>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B298" s="13"/>
       <c r="C298" s="6"/>
       <c r="D298" s="12"/>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="E298" s="14"/>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B299" s="13"/>
       <c r="C299" s="6"/>
       <c r="D299" s="12"/>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="E299" s="14"/>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B300" s="13"/>
       <c r="C300" s="6"/>
       <c r="D300" s="12"/>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="E300" s="14"/>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B301" s="13"/>
       <c r="C301" s="6"/>
       <c r="D301" s="12"/>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="E301" s="14"/>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B302" s="13"/>
       <c r="C302" s="6"/>
       <c r="D302" s="12"/>
-    </row>
-    <row r="303" spans="1:4">
+      <c r="E302" s="14"/>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B303" s="13"/>
       <c r="C303" s="6"/>
       <c r="D303" s="12"/>
-    </row>
-    <row r="304" spans="1:4">
+      <c r="E303" s="14"/>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B304" s="13"/>
       <c r="C304" s="6"/>
       <c r="D304" s="12"/>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="E304" s="14"/>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B305" s="13"/>
       <c r="C305" s="6"/>
       <c r="D305" s="12"/>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="E305" s="14"/>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B306" s="13"/>
       <c r="C306" s="6"/>
       <c r="D306" s="12"/>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="E306" s="14"/>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B307" s="13"/>
       <c r="C307" s="6"/>
       <c r="D307" s="12"/>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="E307" s="14"/>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B308" s="13"/>
       <c r="C308" s="6"/>
       <c r="D308" s="12"/>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="E308" s="14"/>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B309" s="13"/>
       <c r="C309" s="6"/>
       <c r="D309" s="12"/>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="E309" s="14"/>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B310" s="13"/>
       <c r="C310" s="6"/>
       <c r="D310" s="12"/>
-    </row>
-    <row r="311" spans="1:4">
+      <c r="E310" s="14"/>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B311" s="13"/>
       <c r="C311" s="6"/>
       <c r="D311" s="12"/>
-    </row>
-    <row r="312" spans="1:4">
+      <c r="E311" s="14"/>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B312" s="13"/>
       <c r="C312" s="6"/>
       <c r="D312" s="12"/>
-    </row>
-    <row r="313" spans="1:4">
+      <c r="E312" s="14"/>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B313" s="13"/>
       <c r="C313" s="6"/>
       <c r="D313" s="12"/>
-    </row>
-    <row r="314" spans="1:4">
+      <c r="E313" s="14"/>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B314" s="13"/>
       <c r="C314" s="6"/>
       <c r="D314" s="12"/>
-    </row>
-    <row r="315" spans="1:4">
+      <c r="E314" s="14"/>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B315" s="13"/>
       <c r="C315" s="6"/>
       <c r="D315" s="12"/>
-    </row>
-    <row r="316" spans="1:4">
+      <c r="E315" s="14"/>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B316" s="13"/>
       <c r="C316" s="6"/>
       <c r="D316" s="12"/>
-    </row>
-    <row r="317" spans="1:4">
+      <c r="E316" s="14"/>
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B317" s="13"/>
       <c r="C317" s="6"/>
       <c r="D317" s="12"/>
-    </row>
-    <row r="318" spans="1:4">
+      <c r="E317" s="14"/>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B318" s="13"/>
       <c r="C318" s="6"/>
       <c r="D318" s="12"/>
-    </row>
-    <row r="319" spans="1:4">
+      <c r="E318" s="14"/>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B319" s="13"/>
       <c r="C319" s="6"/>
       <c r="D319" s="12"/>
-    </row>
-    <row r="320" spans="1:4">
+      <c r="E319" s="14"/>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B320" s="13"/>
       <c r="C320" s="6"/>
       <c r="D320" s="12"/>
-    </row>
-    <row r="321" spans="1:4">
+      <c r="E320" s="14"/>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B321" s="13"/>
       <c r="C321" s="6"/>
       <c r="D321" s="12"/>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="E321" s="14"/>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B322" s="13"/>
       <c r="C322" s="6"/>
       <c r="D322" s="12"/>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="E322" s="14"/>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B323" s="13"/>
       <c r="C323" s="6"/>
       <c r="D323" s="12"/>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="E323" s="14"/>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B324" s="13"/>
       <c r="C324" s="6"/>
       <c r="D324" s="12"/>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="E324" s="14"/>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B325" s="13"/>
       <c r="C325" s="6"/>
       <c r="D325" s="12"/>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="E325" s="14"/>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B326" s="13"/>
       <c r="C326" s="6"/>
       <c r="D326" s="12"/>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="E326" s="14"/>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B327" s="13"/>
       <c r="C327" s="6"/>
       <c r="D327" s="12"/>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="E327" s="14"/>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B328" s="13"/>
       <c r="C328" s="6"/>
       <c r="D328" s="12"/>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="E328" s="14"/>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B329" s="13"/>
       <c r="C329" s="6"/>
       <c r="D329" s="12"/>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="E329" s="14"/>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B330" s="13"/>
       <c r="C330" s="6"/>
       <c r="D330" s="12"/>
-    </row>
-    <row r="331" spans="1:4">
+      <c r="E330" s="14"/>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B331" s="13"/>
       <c r="C331" s="6"/>
       <c r="D331" s="12"/>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="E331" s="14"/>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B332" s="13"/>
       <c r="C332" s="6"/>
       <c r="D332" s="12"/>
-    </row>
-    <row r="333" spans="1:4">
+      <c r="E332" s="14"/>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B333" s="13"/>
       <c r="C333" s="6"/>
       <c r="D333" s="12"/>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="E333" s="14"/>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B334" s="13"/>
       <c r="C334" s="6"/>
       <c r="D334" s="12"/>
-    </row>
-    <row r="335" spans="1:4">
+      <c r="E334" s="14"/>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B335" s="13"/>
       <c r="C335" s="6"/>
       <c r="D335" s="12"/>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="E335" s="14"/>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B336" s="13"/>
       <c r="C336" s="6"/>
       <c r="D336" s="12"/>
-    </row>
-    <row r="337" spans="1:4">
+      <c r="E336" s="14"/>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B337" s="13"/>
       <c r="C337" s="6"/>
       <c r="D337" s="12"/>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="E337" s="14"/>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B338" s="13"/>
       <c r="C338" s="6"/>
       <c r="D338" s="12"/>
-    </row>
-    <row r="339" spans="1:4">
+      <c r="E338" s="14"/>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B339" s="13"/>
       <c r="C339" s="6"/>
       <c r="D339" s="12"/>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="E339" s="14"/>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B340" s="13"/>
       <c r="C340" s="6"/>
       <c r="D340" s="12"/>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="E340" s="14"/>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B341" s="13"/>
       <c r="C341" s="6"/>
       <c r="D341" s="12"/>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="E341" s="14"/>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B342" s="13"/>
       <c r="C342" s="6"/>
       <c r="D342" s="12"/>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="E342" s="14"/>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B343" s="13"/>
       <c r="C343" s="6"/>
       <c r="D343" s="12"/>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="E343" s="14"/>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B344" s="13"/>
       <c r="C344" s="6"/>
       <c r="D344" s="12"/>
-    </row>
-    <row r="345" spans="1:4">
+      <c r="E344" s="14"/>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B345" s="13"/>
       <c r="C345" s="6"/>
       <c r="D345" s="12"/>
-    </row>
-    <row r="346" spans="1:4">
+      <c r="E345" s="14"/>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B346" s="13"/>
       <c r="C346" s="6"/>
       <c r="D346" s="12"/>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="E346" s="14"/>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B347" s="13"/>
       <c r="C347" s="6"/>
       <c r="D347" s="12"/>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="E347" s="14"/>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B348" s="13"/>
       <c r="C348" s="6"/>
       <c r="D348" s="12"/>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="E348" s="14"/>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B349" s="13"/>
       <c r="C349" s="6"/>
       <c r="D349" s="12"/>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="E349" s="14"/>
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B350" s="13"/>
       <c r="C350" s="6"/>
       <c r="D350" s="12"/>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="E350" s="14"/>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B351" s="13"/>
       <c r="C351" s="6"/>
       <c r="D351" s="12"/>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="E351" s="14"/>
+    </row>
+    <row r="352" spans="1:5">
       <c r="A352" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B352" s="13"/>
       <c r="C352" s="6"/>
       <c r="D352" s="12"/>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="E352" s="14"/>
+    </row>
+    <row r="353" spans="1:5">
       <c r="A353" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B353" s="13"/>
       <c r="C353" s="6"/>
       <c r="D353" s="12"/>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="E353" s="14"/>
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B354" s="13"/>
       <c r="C354" s="6"/>
       <c r="D354" s="12"/>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="E354" s="14"/>
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B355" s="13"/>
       <c r="C355" s="6"/>
       <c r="D355" s="12"/>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="E355" s="14"/>
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B356" s="13"/>
       <c r="C356" s="6"/>
       <c r="D356" s="12"/>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="E356" s="14"/>
+    </row>
+    <row r="357" spans="1:5">
       <c r="A357" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B357" s="13"/>
       <c r="C357" s="6"/>
       <c r="D357" s="12"/>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="E357" s="14"/>
+    </row>
+    <row r="358" spans="1:5">
       <c r="A358" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B358" s="13"/>
       <c r="C358" s="6"/>
       <c r="D358" s="12"/>
-    </row>
-    <row r="359" spans="1:4">
+      <c r="E358" s="14"/>
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B359" s="13"/>
       <c r="C359" s="6"/>
       <c r="D359" s="12"/>
-    </row>
-    <row r="360" spans="1:4">
+      <c r="E359" s="14"/>
+    </row>
+    <row r="360" spans="1:5">
       <c r="A360" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B360" s="13"/>
       <c r="C360" s="6"/>
       <c r="D360" s="12"/>
-    </row>
-    <row r="361" spans="1:4">
+      <c r="E360" s="14"/>
+    </row>
+    <row r="361" spans="1:5">
       <c r="A361" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B361" s="13"/>
       <c r="C361" s="6"/>
       <c r="D361" s="12"/>
-    </row>
-    <row r="362" spans="1:4">
+      <c r="E361" s="14"/>
+    </row>
+    <row r="362" spans="1:5">
       <c r="A362" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B362" s="13"/>
       <c r="C362" s="6"/>
       <c r="D362" s="12"/>
-    </row>
-    <row r="363" spans="1:4">
+      <c r="E362" s="14"/>
+    </row>
+    <row r="363" spans="1:5">
       <c r="A363" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B363" s="13"/>
       <c r="C363" s="6"/>
       <c r="D363" s="12"/>
-    </row>
-    <row r="364" spans="1:4">
+      <c r="E363" s="14"/>
+    </row>
+    <row r="364" spans="1:5">
       <c r="A364" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B364" s="13"/>
       <c r="C364" s="6"/>
       <c r="D364" s="12"/>
-    </row>
-    <row r="365" spans="1:4">
+      <c r="E364" s="14"/>
+    </row>
+    <row r="365" spans="1:5">
       <c r="A365" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B365" s="13"/>
       <c r="C365" s="6"/>
       <c r="D365" s="12"/>
-    </row>
-    <row r="366" spans="1:4">
+      <c r="E365" s="14"/>
+    </row>
+    <row r="366" spans="1:5">
       <c r="A366" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B366" s="13"/>
       <c r="C366" s="6"/>
       <c r="D366" s="12"/>
-    </row>
-    <row r="367" spans="1:4">
+      <c r="E366" s="14"/>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B367" s="13"/>
       <c r="C367" s="6"/>
       <c r="D367" s="12"/>
-    </row>
-    <row r="368" spans="1:4">
+      <c r="E367" s="14"/>
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B368" s="13"/>
       <c r="C368" s="6"/>
       <c r="D368" s="12"/>
-    </row>
-    <row r="369" spans="1:4">
+      <c r="E368" s="14"/>
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B369" s="13"/>
       <c r="C369" s="6"/>
       <c r="D369" s="12"/>
-    </row>
-    <row r="370" spans="1:4">
+      <c r="E369" s="14"/>
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B370" s="13"/>
       <c r="C370" s="6"/>
       <c r="D370" s="12"/>
-    </row>
-    <row r="371" spans="1:4">
+      <c r="E370" s="14"/>
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B371" s="13"/>
       <c r="C371" s="6"/>
       <c r="D371" s="12"/>
-    </row>
-    <row r="372" spans="1:4">
+      <c r="E371" s="14"/>
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B372" s="13"/>
       <c r="C372" s="6"/>
       <c r="D372" s="12"/>
-    </row>
-    <row r="373" spans="1:4">
+      <c r="E372" s="14"/>
+    </row>
+    <row r="373" spans="1:5">
       <c r="A373" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B373" s="13"/>
       <c r="C373" s="6"/>
       <c r="D373" s="12"/>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="E373" s="14"/>
+    </row>
+    <row r="374" spans="1:5">
       <c r="A374" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B374" s="13"/>
       <c r="C374" s="6"/>
       <c r="D374" s="12"/>
-    </row>
-    <row r="375" spans="1:4">
+      <c r="E374" s="14"/>
+    </row>
+    <row r="375" spans="1:5">
       <c r="A375" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B375" s="13"/>
       <c r="C375" s="6"/>
       <c r="D375" s="12"/>
-    </row>
-    <row r="376" spans="1:4">
+      <c r="E375" s="14"/>
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B376" s="13"/>
       <c r="C376" s="6"/>
       <c r="D376" s="12"/>
-    </row>
-    <row r="377" spans="1:4">
+      <c r="E376" s="14"/>
+    </row>
+    <row r="377" spans="1:5">
       <c r="A377" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B377" s="13"/>
       <c r="C377" s="6"/>
       <c r="D377" s="12"/>
-    </row>
-    <row r="378" spans="1:4">
+      <c r="E377" s="14"/>
+    </row>
+    <row r="378" spans="1:5">
       <c r="A378" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B378" s="13"/>
       <c r="C378" s="6"/>
       <c r="D378" s="12"/>
-    </row>
-    <row r="379" spans="1:4">
+      <c r="E378" s="14"/>
+    </row>
+    <row r="379" spans="1:5">
       <c r="A379" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B379" s="13"/>
       <c r="C379" s="6"/>
       <c r="D379" s="12"/>
-    </row>
-    <row r="380" spans="1:4">
+      <c r="E379" s="14"/>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B380" s="13"/>
       <c r="C380" s="6"/>
       <c r="D380" s="12"/>
-    </row>
-    <row r="381" spans="1:4">
+      <c r="E380" s="14"/>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B381" s="13"/>
       <c r="C381" s="6"/>
       <c r="D381" s="12"/>
-    </row>
-    <row r="382" spans="1:4">
+      <c r="E381" s="14"/>
+    </row>
+    <row r="382" spans="1:5">
       <c r="A382" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B382" s="13"/>
       <c r="C382" s="6"/>
       <c r="D382" s="12"/>
-    </row>
-    <row r="383" spans="1:4">
+      <c r="E382" s="14"/>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B383" s="13"/>
       <c r="C383" s="6"/>
       <c r="D383" s="12"/>
-    </row>
-    <row r="384" spans="1:4">
+      <c r="E383" s="14"/>
+    </row>
+    <row r="384" spans="1:5">
       <c r="A384" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B384" s="13"/>
       <c r="C384" s="6"/>
       <c r="D384" s="12"/>
-    </row>
-    <row r="385" spans="1:4">
+      <c r="E384" s="14"/>
+    </row>
+    <row r="385" spans="1:5">
       <c r="A385" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B385" s="13"/>
       <c r="C385" s="6"/>
       <c r="D385" s="12"/>
-    </row>
-    <row r="386" spans="1:4">
+      <c r="E385" s="14"/>
+    </row>
+    <row r="386" spans="1:5">
       <c r="A386" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B386" s="13"/>
       <c r="C386" s="6"/>
       <c r="D386" s="12"/>
-    </row>
-    <row r="387" spans="1:4">
+      <c r="E386" s="14"/>
+    </row>
+    <row r="387" spans="1:5">
       <c r="A387" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B387" s="13"/>
       <c r="C387" s="6"/>
       <c r="D387" s="12"/>
-    </row>
-    <row r="388" spans="1:4">
+      <c r="E387" s="14"/>
+    </row>
+    <row r="388" spans="1:5">
       <c r="A388" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B388" s="13"/>
       <c r="C388" s="6"/>
       <c r="D388" s="12"/>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="E388" s="14"/>
+    </row>
+    <row r="389" spans="1:5">
       <c r="A389" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B389" s="13"/>
       <c r="C389" s="6"/>
       <c r="D389" s="12"/>
-    </row>
-    <row r="390" spans="1:4">
+      <c r="E389" s="14"/>
+    </row>
+    <row r="390" spans="1:5">
       <c r="A390" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B390" s="13"/>
       <c r="C390" s="6"/>
       <c r="D390" s="12"/>
-    </row>
-    <row r="391" spans="1:4">
+      <c r="E390" s="14"/>
+    </row>
+    <row r="391" spans="1:5">
       <c r="A391" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B391" s="13"/>
       <c r="C391" s="6"/>
       <c r="D391" s="12"/>
-    </row>
-    <row r="392" spans="1:4">
+      <c r="E391" s="14"/>
+    </row>
+    <row r="392" spans="1:5">
       <c r="A392" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B392" s="13"/>
       <c r="C392" s="6"/>
       <c r="D392" s="12"/>
-    </row>
-    <row r="393" spans="1:4">
+      <c r="E392" s="14"/>
+    </row>
+    <row r="393" spans="1:5">
       <c r="A393" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B393" s="13"/>
       <c r="C393" s="6"/>
       <c r="D393" s="12"/>
-    </row>
-    <row r="394" spans="1:4">
+      <c r="E393" s="14"/>
+    </row>
+    <row r="394" spans="1:5">
       <c r="A394" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B394" s="13"/>
       <c r="C394" s="6"/>
       <c r="D394" s="12"/>
-    </row>
-    <row r="395" spans="1:4">
+      <c r="E394" s="14"/>
+    </row>
+    <row r="395" spans="1:5">
       <c r="A395" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B395" s="13"/>
       <c r="C395" s="6"/>
       <c r="D395" s="12"/>
-    </row>
-    <row r="396" spans="1:4">
+      <c r="E395" s="14"/>
+    </row>
+    <row r="396" spans="1:5">
       <c r="A396" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B396" s="13"/>
       <c r="C396" s="6"/>
       <c r="D396" s="12"/>
-    </row>
-    <row r="397" spans="1:4">
+      <c r="E396" s="14"/>
+    </row>
+    <row r="397" spans="1:5">
       <c r="A397" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B397" s="13"/>
       <c r="C397" s="6"/>
       <c r="D397" s="12"/>
-    </row>
-    <row r="398" spans="1:4">
+      <c r="E397" s="14"/>
+    </row>
+    <row r="398" spans="1:5">
       <c r="A398" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B398" s="13"/>
       <c r="C398" s="6"/>
       <c r="D398" s="12"/>
-    </row>
-    <row r="399" spans="1:4">
+      <c r="E398" s="14"/>
+    </row>
+    <row r="399" spans="1:5">
       <c r="A399" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B399" s="13"/>
       <c r="C399" s="6"/>
       <c r="D399" s="12"/>
-    </row>
-    <row r="400" spans="1:4">
+      <c r="E399" s="14"/>
+    </row>
+    <row r="400" spans="1:5">
       <c r="A400" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B400" s="13"/>
       <c r="C400" s="6"/>
       <c r="D400" s="12"/>
-    </row>
-    <row r="401" spans="1:4">
+      <c r="E400" s="14"/>
+    </row>
+    <row r="401" spans="1:5">
       <c r="A401" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B401" s="13"/>
       <c r="C401" s="6"/>
       <c r="D401" s="12"/>
-    </row>
-    <row r="402" spans="1:4">
+      <c r="E401" s="14"/>
+    </row>
+    <row r="402" spans="1:5">
       <c r="A402" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B402" s="13"/>
       <c r="C402" s="6"/>
       <c r="D402" s="12"/>
-    </row>
-    <row r="403" spans="1:4">
+      <c r="E402" s="14"/>
+    </row>
+    <row r="403" spans="1:5">
       <c r="A403" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B403" s="13"/>
       <c r="C403" s="6"/>
       <c r="D403" s="12"/>
-    </row>
-    <row r="404" spans="1:4">
+      <c r="E403" s="14"/>
+    </row>
+    <row r="404" spans="1:5">
       <c r="A404" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B404" s="13"/>
       <c r="C404" s="6"/>
       <c r="D404" s="12"/>
-    </row>
-    <row r="405" spans="1:4">
+      <c r="E404" s="14"/>
+    </row>
+    <row r="405" spans="1:5">
       <c r="A405" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B405" s="13"/>
       <c r="C405" s="6"/>
       <c r="D405" s="12"/>
-    </row>
-    <row r="406" spans="1:4">
+      <c r="E405" s="14"/>
+    </row>
+    <row r="406" spans="1:5">
       <c r="A406" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B406" s="13"/>
       <c r="C406" s="6"/>
       <c r="D406" s="12"/>
-    </row>
-    <row r="407" spans="1:4">
+      <c r="E406" s="14"/>
+    </row>
+    <row r="407" spans="1:5">
       <c r="A407" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B407" s="13"/>
       <c r="C407" s="6"/>
       <c r="D407" s="12"/>
-    </row>
-    <row r="408" spans="1:4">
+      <c r="E407" s="14"/>
+    </row>
+    <row r="408" spans="1:5">
       <c r="A408" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B408" s="13"/>
       <c r="C408" s="6"/>
       <c r="D408" s="12"/>
-    </row>
-    <row r="409" spans="1:4">
+      <c r="E408" s="14"/>
+    </row>
+    <row r="409" spans="1:5">
       <c r="A409" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B409" s="13"/>
       <c r="C409" s="6"/>
       <c r="D409" s="12"/>
-    </row>
-    <row r="410" spans="1:4">
+      <c r="E409" s="14"/>
+    </row>
+    <row r="410" spans="1:5">
       <c r="A410" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B410" s="13"/>
       <c r="C410" s="6"/>
       <c r="D410" s="12"/>
-    </row>
-    <row r="411" spans="1:4">
+      <c r="E410" s="14"/>
+    </row>
+    <row r="411" spans="1:5">
       <c r="A411" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B411" s="13"/>
       <c r="C411" s="6"/>
       <c r="D411" s="12"/>
-    </row>
-    <row r="412" spans="1:4">
+      <c r="E411" s="14"/>
+    </row>
+    <row r="412" spans="1:5">
       <c r="A412" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B412" s="13"/>
       <c r="C412" s="6"/>
       <c r="D412" s="12"/>
-    </row>
-    <row r="413" spans="1:4">
+      <c r="E412" s="14"/>
+    </row>
+    <row r="413" spans="1:5">
       <c r="A413" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B413" s="13"/>
       <c r="C413" s="6"/>
       <c r="D413" s="12"/>
-    </row>
-    <row r="414" spans="1:4">
+      <c r="E413" s="14"/>
+    </row>
+    <row r="414" spans="1:5">
       <c r="A414" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B414" s="13"/>
       <c r="C414" s="6"/>
       <c r="D414" s="12"/>
-    </row>
-    <row r="415" spans="1:4">
+      <c r="E414" s="14"/>
+    </row>
+    <row r="415" spans="1:5">
       <c r="A415" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B415" s="13"/>
       <c r="C415" s="6"/>
       <c r="D415" s="12"/>
-    </row>
-    <row r="416" spans="1:4">
+      <c r="E415" s="14"/>
+    </row>
+    <row r="416" spans="1:5">
       <c r="A416" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B416" s="13"/>
       <c r="C416" s="6"/>
       <c r="D416" s="12"/>
-    </row>
-    <row r="417" spans="1:4">
+      <c r="E416" s="14"/>
+    </row>
+    <row r="417" spans="1:5">
       <c r="A417" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B417" s="13"/>
       <c r="C417" s="6"/>
       <c r="D417" s="12"/>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="E417" s="14"/>
+    </row>
+    <row r="418" spans="1:5">
       <c r="A418" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B418" s="13"/>
       <c r="C418" s="6"/>
       <c r="D418" s="12"/>
-    </row>
-    <row r="419" spans="1:4">
+      <c r="E418" s="14"/>
+    </row>
+    <row r="419" spans="1:5">
       <c r="A419" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B419" s="13"/>
       <c r="C419" s="6"/>
       <c r="D419" s="12"/>
-    </row>
-    <row r="420" spans="1:4">
+      <c r="E419" s="14"/>
+    </row>
+    <row r="420" spans="1:5">
       <c r="A420" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B420" s="13"/>
       <c r="C420" s="6"/>
       <c r="D420" s="12"/>
-    </row>
-    <row r="421" spans="1:4">
+      <c r="E420" s="14"/>
+    </row>
+    <row r="421" spans="1:5">
       <c r="A421" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B421" s="13"/>
       <c r="C421" s="6"/>
       <c r="D421" s="12"/>
-    </row>
-    <row r="422" spans="1:4">
+      <c r="E421" s="14"/>
+    </row>
+    <row r="422" spans="1:5">
       <c r="A422" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B422" s="13"/>
       <c r="C422" s="6"/>
       <c r="D422" s="12"/>
-    </row>
-    <row r="423" spans="1:4">
+      <c r="E422" s="14"/>
+    </row>
+    <row r="423" spans="1:5">
       <c r="A423" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B423" s="13"/>
       <c r="C423" s="6"/>
       <c r="D423" s="12"/>
-    </row>
-    <row r="424" spans="1:4">
+      <c r="E423" s="14"/>
+    </row>
+    <row r="424" spans="1:5">
       <c r="A424" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B424" s="13"/>
       <c r="C424" s="6"/>
       <c r="D424" s="12"/>
-    </row>
-    <row r="425" spans="1:4">
+      <c r="E424" s="14"/>
+    </row>
+    <row r="425" spans="1:5">
       <c r="A425" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B425" s="13"/>
       <c r="C425" s="6"/>
       <c r="D425" s="12"/>
-    </row>
-    <row r="426" spans="1:4">
+      <c r="E425" s="14"/>
+    </row>
+    <row r="426" spans="1:5">
       <c r="A426" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B426" s="13"/>
       <c r="C426" s="6"/>
       <c r="D426" s="12"/>
-    </row>
-    <row r="427" spans="1:4">
+      <c r="E426" s="14"/>
+    </row>
+    <row r="427" spans="1:5">
       <c r="A427" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B427" s="13"/>
       <c r="C427" s="6"/>
       <c r="D427" s="12"/>
-    </row>
-    <row r="428" spans="1:4">
+      <c r="E427" s="14"/>
+    </row>
+    <row r="428" spans="1:5">
       <c r="A428" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B428" s="13"/>
       <c r="C428" s="6"/>
       <c r="D428" s="12"/>
-    </row>
-    <row r="429" spans="1:4">
+      <c r="E428" s="14"/>
+    </row>
+    <row r="429" spans="1:5">
       <c r="A429" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B429" s="13"/>
       <c r="C429" s="6"/>
       <c r="D429" s="12"/>
-    </row>
-    <row r="430" spans="1:4">
+      <c r="E429" s="14"/>
+    </row>
+    <row r="430" spans="1:5">
       <c r="A430" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B430" s="13"/>
       <c r="C430" s="6"/>
       <c r="D430" s="12"/>
-    </row>
-    <row r="431" spans="1:4">
+      <c r="E430" s="14"/>
+    </row>
+    <row r="431" spans="1:5">
       <c r="A431" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B431" s="13"/>
       <c r="C431" s="6"/>
       <c r="D431" s="12"/>
-    </row>
-    <row r="432" spans="1:4">
+      <c r="E431" s="14"/>
+    </row>
+    <row r="432" spans="1:5">
       <c r="A432" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B432" s="13"/>
       <c r="C432" s="6"/>
       <c r="D432" s="12"/>
-    </row>
-    <row r="433" spans="1:4">
+      <c r="E432" s="14"/>
+    </row>
+    <row r="433" spans="1:5">
       <c r="A433" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B433" s="13"/>
       <c r="C433" s="6"/>
       <c r="D433" s="12"/>
-    </row>
-    <row r="434" spans="1:4">
+      <c r="E433" s="14"/>
+    </row>
+    <row r="434" spans="1:5">
       <c r="A434" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B434" s="13"/>
       <c r="C434" s="6"/>
       <c r="D434" s="12"/>
-    </row>
-    <row r="435" spans="1:4">
+      <c r="E434" s="14"/>
+    </row>
+    <row r="435" spans="1:5">
       <c r="A435" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B435" s="13"/>
       <c r="C435" s="6"/>
       <c r="D435" s="12"/>
-    </row>
-    <row r="436" spans="1:4">
+      <c r="E435" s="14"/>
+    </row>
+    <row r="436" spans="1:5">
       <c r="A436" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B436" s="13"/>
       <c r="C436" s="6"/>
       <c r="D436" s="12"/>
-    </row>
-    <row r="437" spans="1:4">
+      <c r="E436" s="14"/>
+    </row>
+    <row r="437" spans="1:5">
       <c r="A437" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B437" s="13"/>
       <c r="C437" s="6"/>
       <c r="D437" s="12"/>
-    </row>
-    <row r="438" spans="1:4">
+      <c r="E437" s="14"/>
+    </row>
+    <row r="438" spans="1:5">
       <c r="A438" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B438" s="13"/>
       <c r="C438" s="6"/>
       <c r="D438" s="12"/>
-    </row>
-    <row r="439" spans="1:4">
+      <c r="E438" s="14"/>
+    </row>
+    <row r="439" spans="1:5">
       <c r="A439" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B439" s="13"/>
       <c r="C439" s="6"/>
       <c r="D439" s="12"/>
-    </row>
-    <row r="440" spans="1:4">
+      <c r="E439" s="14"/>
+    </row>
+    <row r="440" spans="1:5">
       <c r="A440" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B440" s="13"/>
       <c r="C440" s="6"/>
       <c r="D440" s="12"/>
-    </row>
-    <row r="441" spans="1:4">
+      <c r="E440" s="14"/>
+    </row>
+    <row r="441" spans="1:5">
       <c r="A441" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B441" s="13"/>
       <c r="C441" s="6"/>
       <c r="D441" s="12"/>
-    </row>
-    <row r="442" spans="1:4">
+      <c r="E441" s="14"/>
+    </row>
+    <row r="442" spans="1:5">
       <c r="A442" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B442" s="13"/>
       <c r="C442" s="6"/>
       <c r="D442" s="12"/>
-    </row>
-    <row r="443" spans="1:4">
+      <c r="E442" s="14"/>
+    </row>
+    <row r="443" spans="1:5">
       <c r="A443" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B443" s="13"/>
       <c r="C443" s="6"/>
       <c r="D443" s="12"/>
-    </row>
-    <row r="444" spans="1:4">
+      <c r="E443" s="14"/>
+    </row>
+    <row r="444" spans="1:5">
       <c r="A444" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B444" s="13"/>
       <c r="C444" s="6"/>
       <c r="D444" s="12"/>
-    </row>
-    <row r="445" spans="1:4">
+      <c r="E444" s="14"/>
+    </row>
+    <row r="445" spans="1:5">
       <c r="A445" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B445" s="13"/>
       <c r="C445" s="6"/>
       <c r="D445" s="12"/>
-    </row>
-    <row r="446" spans="1:4">
+      <c r="E445" s="14"/>
+    </row>
+    <row r="446" spans="1:5">
       <c r="A446" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B446" s="13"/>
       <c r="C446" s="6"/>
       <c r="D446" s="12"/>
-    </row>
-    <row r="447" spans="1:4">
+      <c r="E446" s="14"/>
+    </row>
+    <row r="447" spans="1:5">
       <c r="A447" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B447" s="13"/>
       <c r="C447" s="6"/>
       <c r="D447" s="12"/>
-    </row>
-    <row r="448" spans="1:4">
+      <c r="E447" s="14"/>
+    </row>
+    <row r="448" spans="1:5">
       <c r="A448" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B448" s="13"/>
       <c r="C448" s="6"/>
       <c r="D448" s="12"/>
-    </row>
-    <row r="449" spans="1:4">
+      <c r="E448" s="14"/>
+    </row>
+    <row r="449" spans="1:5">
       <c r="A449" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B449" s="13"/>
       <c r="C449" s="6"/>
       <c r="D449" s="12"/>
-    </row>
-    <row r="450" spans="1:4">
+      <c r="E449" s="14"/>
+    </row>
+    <row r="450" spans="1:5">
       <c r="A450" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B450" s="13"/>
       <c r="C450" s="6"/>
       <c r="D450" s="12"/>
-    </row>
-    <row r="451" spans="1:4">
+      <c r="E450" s="14"/>
+    </row>
+    <row r="451" spans="1:5">
       <c r="A451" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B451" s="13"/>
       <c r="C451" s="6"/>
       <c r="D451" s="12"/>
-    </row>
-    <row r="452" spans="1:4">
+      <c r="E451" s="14"/>
+    </row>
+    <row r="452" spans="1:5">
       <c r="A452" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B452" s="13"/>
       <c r="C452" s="6"/>
       <c r="D452" s="12"/>
-    </row>
-    <row r="453" spans="1:4">
+      <c r="E452" s="14"/>
+    </row>
+    <row r="453" spans="1:5">
       <c r="A453" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B453" s="13"/>
       <c r="C453" s="6"/>
       <c r="D453" s="12"/>
-    </row>
-    <row r="454" spans="1:4">
+      <c r="E453" s="14"/>
+    </row>
+    <row r="454" spans="1:5">
       <c r="A454" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B454" s="13"/>
       <c r="C454" s="6"/>
       <c r="D454" s="12"/>
-    </row>
-    <row r="455" spans="1:4">
+      <c r="E454" s="14"/>
+    </row>
+    <row r="455" spans="1:5">
       <c r="A455" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B455" s="13"/>
       <c r="C455" s="6"/>
       <c r="D455" s="12"/>
-    </row>
-    <row r="456" spans="1:4">
+      <c r="E455" s="14"/>
+    </row>
+    <row r="456" spans="1:5">
       <c r="A456" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B456" s="13"/>
       <c r="C456" s="6"/>
       <c r="D456" s="12"/>
-    </row>
-    <row r="457" spans="1:4">
+      <c r="E456" s="14"/>
+    </row>
+    <row r="457" spans="1:5">
       <c r="A457" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B457" s="13"/>
       <c r="C457" s="6"/>
       <c r="D457" s="12"/>
-    </row>
-    <row r="458" spans="1:4">
+      <c r="E457" s="14"/>
+    </row>
+    <row r="458" spans="1:5">
       <c r="A458" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B458" s="13"/>
       <c r="C458" s="6"/>
       <c r="D458" s="12"/>
-    </row>
-    <row r="459" spans="1:4">
+      <c r="E458" s="14"/>
+    </row>
+    <row r="459" spans="1:5">
       <c r="A459" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B459" s="13"/>
       <c r="C459" s="6"/>
       <c r="D459" s="12"/>
-    </row>
-    <row r="460" spans="1:4">
+      <c r="E459" s="14"/>
+    </row>
+    <row r="460" spans="1:5">
       <c r="A460" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B460" s="13"/>
       <c r="C460" s="6"/>
       <c r="D460" s="12"/>
-    </row>
-    <row r="461" spans="1:4">
+      <c r="E460" s="14"/>
+    </row>
+    <row r="461" spans="1:5">
       <c r="A461" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B461" s="13"/>
       <c r="C461" s="6"/>
       <c r="D461" s="12"/>
-    </row>
-    <row r="462" spans="1:4">
+      <c r="E461" s="14"/>
+    </row>
+    <row r="462" spans="1:5">
       <c r="A462" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B462" s="13"/>
       <c r="C462" s="6"/>
       <c r="D462" s="12"/>
-    </row>
-    <row r="463" spans="1:4">
+      <c r="E462" s="14"/>
+    </row>
+    <row r="463" spans="1:5">
       <c r="A463" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B463" s="13"/>
       <c r="C463" s="6"/>
       <c r="D463" s="12"/>
-    </row>
-    <row r="464" spans="1:4">
+      <c r="E463" s="14"/>
+    </row>
+    <row r="464" spans="1:5">
       <c r="A464" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B464" s="13"/>
       <c r="C464" s="6"/>
       <c r="D464" s="12"/>
-    </row>
-    <row r="465" spans="1:4">
+      <c r="E464" s="14"/>
+    </row>
+    <row r="465" spans="1:5">
       <c r="A465" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B465" s="13"/>
       <c r="C465" s="6"/>
       <c r="D465" s="12"/>
-    </row>
-    <row r="466" spans="1:4">
+      <c r="E465" s="14"/>
+    </row>
+    <row r="466" spans="1:5">
       <c r="A466" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B466" s="13"/>
       <c r="C466" s="6"/>
       <c r="D466" s="12"/>
-    </row>
-    <row r="467" spans="1:4">
+      <c r="E466" s="14"/>
+    </row>
+    <row r="467" spans="1:5">
       <c r="A467" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B467" s="13"/>
       <c r="C467" s="6"/>
       <c r="D467" s="12"/>
-    </row>
-    <row r="468" spans="1:4">
+      <c r="E467" s="14"/>
+    </row>
+    <row r="468" spans="1:5">
       <c r="A468" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B468" s="13"/>
       <c r="C468" s="6"/>
       <c r="D468" s="12"/>
-    </row>
-    <row r="469" spans="1:4">
+      <c r="E468" s="14"/>
+    </row>
+    <row r="469" spans="1:5">
       <c r="A469" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B469" s="13"/>
       <c r="C469" s="6"/>
       <c r="D469" s="12"/>
-    </row>
-    <row r="470" spans="1:4">
+      <c r="E469" s="14"/>
+    </row>
+    <row r="470" spans="1:5">
       <c r="A470" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B470" s="13"/>
       <c r="C470" s="6"/>
       <c r="D470" s="12"/>
-    </row>
-    <row r="471" spans="1:4">
+      <c r="E470" s="14"/>
+    </row>
+    <row r="471" spans="1:5">
       <c r="A471" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B471" s="13"/>
       <c r="C471" s="6"/>
       <c r="D471" s="12"/>
-    </row>
-    <row r="472" spans="1:4">
+      <c r="E471" s="14"/>
+    </row>
+    <row r="472" spans="1:5">
       <c r="A472" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B472" s="13"/>
       <c r="C472" s="6"/>
       <c r="D472" s="12"/>
-    </row>
-    <row r="473" spans="1:4">
+      <c r="E472" s="14"/>
+    </row>
+    <row r="473" spans="1:5">
       <c r="A473" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B473" s="13"/>
       <c r="C473" s="6"/>
       <c r="D473" s="12"/>
-    </row>
-    <row r="474" spans="1:4">
+      <c r="E473" s="14"/>
+    </row>
+    <row r="474" spans="1:5">
       <c r="A474" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B474" s="13"/>
       <c r="C474" s="6"/>
       <c r="D474" s="12"/>
-    </row>
-    <row r="475" spans="1:4">
+      <c r="E474" s="14"/>
+    </row>
+    <row r="475" spans="1:5">
       <c r="A475" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B475" s="13"/>
       <c r="C475" s="6"/>
       <c r="D475" s="12"/>
-    </row>
-    <row r="476" spans="1:4">
+      <c r="E475" s="14"/>
+    </row>
+    <row r="476" spans="1:5">
       <c r="A476" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B476" s="13"/>
       <c r="C476" s="6"/>
       <c r="D476" s="12"/>
-    </row>
-    <row r="477" spans="1:4">
+      <c r="E476" s="14"/>
+    </row>
+    <row r="477" spans="1:5">
       <c r="A477" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B477" s="13"/>
       <c r="C477" s="6"/>
       <c r="D477" s="12"/>
-    </row>
-    <row r="478" spans="1:4">
+      <c r="E477" s="14"/>
+    </row>
+    <row r="478" spans="1:5">
       <c r="A478" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B478" s="13"/>
       <c r="C478" s="6"/>
       <c r="D478" s="12"/>
-    </row>
-    <row r="479" spans="1:4">
+      <c r="E478" s="14"/>
+    </row>
+    <row r="479" spans="1:5">
       <c r="A479" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B479" s="13"/>
       <c r="C479" s="6"/>
       <c r="D479" s="12"/>
-    </row>
-    <row r="480" spans="1:4">
+      <c r="E479" s="14"/>
+    </row>
+    <row r="480" spans="1:5">
       <c r="A480" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B480" s="13"/>
       <c r="C480" s="6"/>
       <c r="D480" s="12"/>
-    </row>
-    <row r="481" spans="1:4">
+      <c r="E480" s="14"/>
+    </row>
+    <row r="481" spans="1:5">
       <c r="A481" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B481" s="13"/>
       <c r="C481" s="6"/>
       <c r="D481" s="12"/>
-    </row>
-    <row r="482" spans="1:4">
+      <c r="E481" s="14"/>
+    </row>
+    <row r="482" spans="1:5">
       <c r="A482" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B482" s="13"/>
       <c r="C482" s="6"/>
       <c r="D482" s="12"/>
-    </row>
-    <row r="483" spans="1:4">
+      <c r="E482" s="14"/>
+    </row>
+    <row r="483" spans="1:5">
       <c r="A483" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B483" s="13"/>
       <c r="C483" s="6"/>
       <c r="D483" s="12"/>
-    </row>
-    <row r="484" spans="1:4">
+      <c r="E483" s="14"/>
+    </row>
+    <row r="484" spans="1:5">
       <c r="A484" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B484" s="13"/>
       <c r="C484" s="6"/>
       <c r="D484" s="12"/>
-    </row>
-    <row r="485" spans="1:4">
+      <c r="E484" s="14"/>
+    </row>
+    <row r="485" spans="1:5">
       <c r="A485" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B485" s="13"/>
       <c r="C485" s="6"/>
       <c r="D485" s="12"/>
-    </row>
-    <row r="486" spans="1:4">
+      <c r="E485" s="14"/>
+    </row>
+    <row r="486" spans="1:5">
       <c r="A486" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B486" s="13"/>
       <c r="C486" s="6"/>
       <c r="D486" s="12"/>
-    </row>
-    <row r="487" spans="1:4">
+      <c r="E486" s="14"/>
+    </row>
+    <row r="487" spans="1:5">
       <c r="A487" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B487" s="13"/>
       <c r="C487" s="6"/>
       <c r="D487" s="12"/>
-    </row>
-    <row r="488" spans="1:4">
+      <c r="E487" s="14"/>
+    </row>
+    <row r="488" spans="1:5">
       <c r="A488" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B488" s="13"/>
       <c r="C488" s="6"/>
       <c r="D488" s="12"/>
-    </row>
-    <row r="489" spans="1:4">
+      <c r="E488" s="14"/>
+    </row>
+    <row r="489" spans="1:5">
       <c r="A489" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B489" s="13"/>
       <c r="C489" s="6"/>
       <c r="D489" s="12"/>
-    </row>
-    <row r="490" spans="1:4">
+      <c r="E489" s="14"/>
+    </row>
+    <row r="490" spans="1:5">
       <c r="A490" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B490" s="13"/>
       <c r="C490" s="6"/>
       <c r="D490" s="12"/>
-    </row>
-    <row r="491" spans="1:4">
+      <c r="E490" s="14"/>
+    </row>
+    <row r="491" spans="1:5">
       <c r="A491" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B491" s="13"/>
       <c r="C491" s="6"/>
       <c r="D491" s="12"/>
-    </row>
-    <row r="492" spans="1:4">
+      <c r="E491" s="14"/>
+    </row>
+    <row r="492" spans="1:5">
       <c r="A492" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B492" s="13"/>
       <c r="C492" s="6"/>
       <c r="D492" s="12"/>
-    </row>
-    <row r="493" spans="1:4">
+      <c r="E492" s="14"/>
+    </row>
+    <row r="493" spans="1:5">
       <c r="A493" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B493" s="13"/>
       <c r="C493" s="6"/>
       <c r="D493" s="12"/>
-    </row>
-    <row r="494" spans="1:4">
+      <c r="E493" s="14"/>
+    </row>
+    <row r="494" spans="1:5">
       <c r="A494" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B494" s="13"/>
       <c r="C494" s="6"/>
       <c r="D494" s="12"/>
-    </row>
-    <row r="495" spans="1:4">
+      <c r="E494" s="14"/>
+    </row>
+    <row r="495" spans="1:5">
       <c r="A495" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B495" s="13"/>
       <c r="C495" s="6"/>
       <c r="D495" s="12"/>
+      <c r="E495" s="14"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:C495">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$A2="☑"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>$A2="☐"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$A2="⮽"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D495">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A2="⮽"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A2="☐"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2="☑"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662CF07B-B627-4572-A916-8DD117B20294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="645" windowWidth="23025" windowHeight="11595"/>
+    <workbookView xWindow="12" yWindow="648" windowWidth="23028" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="264">
   <si>
     <t>Netoge no Yome ga Ninki Idol datta</t>
   </si>
@@ -361,9 +362,6 @@
 Khoảnh khắc vàng (quý giá)</t>
   </si>
   <si>
-    <t>Texhnolyze</t>
-  </si>
-  <si>
     <t>⮽</t>
   </si>
   <si>
@@ -1022,23 +1020,93 @@
   </si>
   <si>
     <t>Sudou Kaname, một học sinh trung học vô tình bị cuốn vào một trò chơi điện thoại bí ẩn nơi người chơi phải chiến đấu đến chết bằng năng lực siêu nhiên gọi là Sigil. Sau khi chứng kiến cái chết của bạn thân, Kaname quyết tâm sống sót và phá hủy trò chơi. Trong quá trình chiến đấu, anh gặp Shuka Karino – một người chơi mạnh mẽ ban đầu là kẻ thù nhưng sau trở thành đồng minh và người yêu. Kaname cùng những người chơi có lý tưởng tương tự như Rein, Ryuji và Sui/Souta thành lập nhóm Sunset Ravens, đặt ra luật cấm chiến đấu vô nghĩa trong khu vực họ kiểm soát. Khi khám phá sâu hơn, Kaname phát hiện Darwin's Game là một thí nghiệm tiến hóa nhân loại do một tổ chức bí mật điều hành, với mục tiêu chọn ra người chiến thắng cuối cùng có quyền thay đổi thế giới. Trò chơi mở rộng ra nhiều khu vực với luật lệ riêng, dẫn đến những trận chiến quy mô lớn giữa các hội như Eighth, Danjou Boxing Club, Uroboros và Ace. Kaname dần trở thành thủ lĩnh chiến lược, đối đầu với tổ chức điều hành trò chơi trong trận chiến cuối cùng. Kết thúc cho thấy Kaname đã chấm dứt Darwin's Game, nhưng thế giới vẫn mang dấu vết của trò chơi, để lại một kết thúc mở đầy suy ngẫm về quyền lực, sinh tồn và sự lựa chọn của con người.</t>
+  </si>
+  <si>
+    <t>Texhnolyze là công nghệ thay thế bộ phận cơ thể bằng máy móc, ban đầu dùng để cứu sống hoặc tăng cường sức mạnh. Tuy nhiên, càng Texhnolyze hóa, con người càng mất đi cảm xúc, nhân tính và khả năng kết nối. Nó là biểu tượng cho sự tha hóa và phi nhân hóa trong xã hội hiện đại. Ichise là một võ sĩ ngầm ở thành phố Lux, Ichise bị trừng phạt tàn bạo vì chống đối. Anh mất cả tay và chân. Tiến sĩ Eriko Kamata cứu Ichise bằng cách gắn công nghệ Texhnolyze — bộ phận máy móc thay thế cơ thể người. Ichise bị cuốn vào cuộc chiến giữa các phe phái ở Lux, đặc biệt là Organo — tổ chức kiểm soát thành phố bằng Texhnolyze. Sau đó, Ichise gặp Ran, một cô bé có khả năng nhìn thấy tương lai. Cô cảnh báo về sự sụp đổ sắp tới của Lux. Yoshii đến từ “tầng trên” (Overground), giả vờ muốn giúp Lux nhưng thực chất kích động chiến tranh giữa các phe. Organo, Salvation Union và Class lao vào xung đột. Thành phố chìm trong hỗn loạn, giết chóc và tuyệt vọng. Công nghệ Texhnolyze trở nên phổ biến nhưng cũng khiến con người mất nhân tính. Một số người trở thành “người máy” hoàn toàn. Ran bị giết trong quá trình hỗn loạn, khiến Ichise mất đi người duy nhất anh gắn bó. Các phe bị tiêu diệt, dân cư chết dần. Thành phố trở thành nơi hoang tàn không còn sự sống. Ichise sống sót nhưng cô độc, không còn ai để nói chuyện. Anh ngồi trong bóng tối, bất động, khi Lux hoàn toàn im lặng.</t>
+  </si>
+  <si>
+    <t>Texhnolyze
+テクノライズ</t>
+  </si>
+  <si>
+    <t>Shin Sekai Yori</t>
+  </si>
+  <si>
+    <t>Koi to Uso</t>
+  </si>
+  <si>
+    <t>Masamune-kun no Revenge</t>
+  </si>
+  <si>
+    <t>Shinmai Maou no Testament</t>
+  </si>
+  <si>
+    <t>Domestic na Kanojo</t>
+  </si>
+  <si>
+    <t>White Album 2</t>
+  </si>
+  <si>
+    <t>ef: A Tale of Memories.</t>
+  </si>
+  <si>
+    <t>Re:Zero kara Hajimeru Isekai Seikatsu</t>
+  </si>
+  <si>
+    <t>Akatsuki no Yona</t>
+  </si>
+  <si>
+    <t>Akagami no Shirayuki-hime</t>
+  </si>
+  <si>
+    <t>Toradora!</t>
+  </si>
+  <si>
+    <t>ef: A Tale of Melodies.</t>
+  </si>
+  <si>
+    <t>Ore Monogatari!!</t>
+  </si>
+  <si>
+    <t>Kareshi Kanojo no Jijou (His and Her Circumstances)</t>
+  </si>
+  <si>
+    <t>Tonari no Kaibutsu-kun</t>
+  </si>
+  <si>
+    <t>Bokura wa Minna Kawaisou</t>
+  </si>
+  <si>
+    <t>Hiiro no Kakera</t>
+  </si>
+  <si>
+    <t>Kaze no Stigma</t>
+  </si>
+  <si>
+    <t>Phantom: Requiem for the Phantom</t>
+  </si>
+  <si>
+    <t>Hatenkou Yuugi (Dazzle)</t>
+  </si>
+  <si>
+    <t>Mahoutsukai no Yome (The Ancient Magus' Bride)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1046,7 +1114,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Display"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -1063,6 +1131,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1137,7 +1212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1182,29 +1257,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1268,7 +1332,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,37 +1693,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="96.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="3"/>
-    <col min="6" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.8984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="96.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="3"/>
+    <col min="6" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="159.75" customHeight="1">
+    <row r="2" spans="1:5" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1670,11 +1734,11 @@
         <v>2016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="160.5" customHeight="1">
+    <row r="3" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1685,11 +1749,11 @@
         <v>2015</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="160.5" customHeight="1">
+    <row r="4" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1700,11 +1764,11 @@
         <v>2018</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" ht="222" customHeight="1">
+    <row r="5" spans="1:5" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1715,11 +1779,11 @@
         <v>2017</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="227.25" customHeight="1">
+    <row r="6" spans="1:5" ht="227.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1730,11 +1794,11 @@
         <v>2017</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" ht="288.75" customHeight="1">
+    <row r="7" spans="1:5" ht="288.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1745,11 +1809,11 @@
         <v>2002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" ht="255" customHeight="1">
+    <row r="8" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1760,11 +1824,11 @@
         <v>2013</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" ht="149.25" customHeight="1">
+    <row r="9" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -1775,11 +1839,11 @@
         <v>2011</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" ht="162" customHeight="1">
+    <row r="10" spans="1:5" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -1790,11 +1854,11 @@
         <v>2011</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" ht="147.75" customHeight="1">
+    <row r="11" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1805,11 +1869,11 @@
         <v>2020</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="164.25" customHeight="1">
+    <row r="12" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1820,11 +1884,11 @@
         <v>2018</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="146.25" customHeight="1">
+    <row r="13" spans="1:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1835,11 +1899,11 @@
         <v>2021</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" ht="163.5" customHeight="1">
+    <row r="14" spans="1:5" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
@@ -1850,11 +1914,11 @@
         <v>2018</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" ht="101.25" customHeight="1">
+    <row r="15" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1865,11 +1929,11 @@
         <v>2019</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" ht="99" customHeight="1">
+    <row r="16" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -1880,11 +1944,11 @@
         <v>2013</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="99" customHeight="1">
+    <row r="17" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1895,11 +1959,11 @@
         <v>2013</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" ht="116.25" customHeight="1">
+    <row r="18" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
@@ -1910,26 +1974,26 @@
         <v>2016</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" ht="143.25" customHeight="1">
+    <row r="19" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="6">
         <v>1999</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5" ht="111" customHeight="1">
+    <row r="20" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
@@ -1940,56 +2004,56 @@
         <v>1984</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" ht="131.25" customHeight="1">
+    <row r="21" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="6">
         <v>1994</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" ht="103.5" customHeight="1">
+    <row r="22" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6">
         <v>1990</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="83.25" customHeight="1">
+    <row r="23" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6">
         <v>1969</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" ht="99" customHeight="1">
+    <row r="24" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -2000,11 +2064,11 @@
         <v>2019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="98.25" customHeight="1">
+    <row r="25" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
@@ -2015,11 +2079,11 @@
         <v>2005</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="98.25" customHeight="1">
+    <row r="26" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
@@ -2030,11 +2094,11 @@
         <v>2018</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="83.25" customHeight="1">
+    <row r="27" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
@@ -2045,11 +2109,11 @@
         <v>2015</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="84" customHeight="1">
+    <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>1</v>
       </c>
@@ -2060,11 +2124,11 @@
         <v>2003</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="114.75" customHeight="1">
+    <row r="29" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -2075,11 +2139,11 @@
         <v>2008</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="97.5" customHeight="1">
+    <row r="30" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>1</v>
       </c>
@@ -2090,11 +2154,11 @@
         <v>2019</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" ht="68.25" customHeight="1">
+    <row r="31" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
@@ -2105,11 +2169,11 @@
         <v>2018</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" ht="98.25" customHeight="1">
+    <row r="32" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
@@ -2120,11 +2184,11 @@
         <v>2013</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" ht="66.75" customHeight="1">
+    <row r="33" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>1</v>
       </c>
@@ -2135,11 +2199,11 @@
         <v>2018</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:5" ht="67.5" customHeight="1">
+    <row r="34" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -2150,11 +2214,11 @@
         <v>2011</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" ht="68.25" customHeight="1">
+    <row r="35" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
@@ -2165,11 +2229,11 @@
         <v>2017</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" ht="80.25" customHeight="1">
+    <row r="36" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>1</v>
       </c>
@@ -2180,11 +2244,11 @@
         <v>2001</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:5" ht="84" customHeight="1">
+    <row r="37" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>1</v>
       </c>
@@ -2195,11 +2259,11 @@
         <v>2007</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="1:5" ht="81.75" customHeight="1">
+    <row r="38" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>1</v>
       </c>
@@ -2210,11 +2274,11 @@
         <v>1998</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" ht="83.25" customHeight="1">
+    <row r="39" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
@@ -2225,11 +2289,11 @@
         <v>2012</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" ht="66" customHeight="1">
+    <row r="40" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>1</v>
       </c>
@@ -2240,26 +2304,26 @@
         <v>2014</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="1:5" ht="63">
+    <row r="41" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="6">
         <v>1987</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" ht="82.5" customHeight="1">
+    <row r="42" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>1</v>
       </c>
@@ -2270,26 +2334,26 @@
         <v>1981</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" ht="68.25" customHeight="1">
+    <row r="43" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="6">
         <v>2013</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="69.75" customHeight="1">
+    <row r="44" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
@@ -2300,11 +2364,11 @@
         <v>2011</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" ht="81.75" customHeight="1">
+    <row r="45" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>1</v>
       </c>
@@ -2315,11 +2379,11 @@
         <v>2004</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" ht="68.25" customHeight="1">
+    <row r="46" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>1</v>
       </c>
@@ -2330,11 +2394,11 @@
         <v>1989</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="67.5" customHeight="1">
+    <row r="47" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
@@ -2345,11 +2409,11 @@
         <v>1982</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" ht="83.25" customHeight="1">
+    <row r="48" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -2360,11 +2424,11 @@
         <v>2016</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" ht="82.5" customHeight="1">
+    <row r="49" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -2375,11 +2439,11 @@
         <v>2013</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" ht="83.25" customHeight="1">
+    <row r="50" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
@@ -2390,11 +2454,11 @@
         <v>1984</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" ht="66" customHeight="1">
+    <row r="51" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -2405,11 +2469,11 @@
         <v>2002</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E51" s="14"/>
     </row>
-    <row r="52" spans="1:5" ht="68.25" customHeight="1">
+    <row r="52" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>1</v>
       </c>
@@ -2420,26 +2484,26 @@
         <v>1988</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="1:5" ht="69.75" customHeight="1">
+    <row r="53" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="6">
         <v>1996</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="1:5" ht="65.25" customHeight="1">
+    <row r="54" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>1</v>
       </c>
@@ -2450,41 +2514,41 @@
         <v>1975</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5" ht="88.5" customHeight="1">
+    <row r="55" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="6">
         <v>1980</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="1:5" ht="83.25" customHeight="1">
+    <row r="56" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C56" s="6">
         <v>2004</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:5" ht="65.25" customHeight="1">
+    <row r="57" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>1</v>
       </c>
@@ -2495,26 +2559,26 @@
         <v>2020</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="1:5" ht="68.25" customHeight="1">
+    <row r="58" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="6">
         <v>2009</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5" ht="55.5" customHeight="1">
+    <row r="59" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>1</v>
       </c>
@@ -2525,11 +2589,11 @@
         <v>2013</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="1:5" ht="66.75" customHeight="1">
+    <row r="60" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>1</v>
       </c>
@@ -2540,11 +2604,11 @@
         <v>2016</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" ht="54.75" customHeight="1">
+    <row r="61" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>1</v>
       </c>
@@ -2555,11 +2619,11 @@
         <v>2015</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" s="14"/>
     </row>
-    <row r="62" spans="1:5" ht="71.25" customHeight="1">
+    <row r="62" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
@@ -2570,11 +2634,11 @@
         <v>2018</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5" ht="81" customHeight="1">
+    <row r="63" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -2585,11 +2649,11 @@
         <v>2015</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="1:5" ht="72.75" customHeight="1">
+    <row r="64" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
@@ -2600,11 +2664,11 @@
         <v>2019</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" ht="68.25" customHeight="1">
+    <row r="65" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>1</v>
       </c>
@@ -2615,11 +2679,11 @@
         <v>2011</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" s="14"/>
     </row>
-    <row r="66" spans="1:5" ht="65.25" customHeight="1">
+    <row r="66" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>1</v>
       </c>
@@ -2630,11 +2694,11 @@
         <v>2012</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="1:5" ht="81.75" customHeight="1">
+    <row r="67" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>1</v>
       </c>
@@ -2645,11 +2709,11 @@
         <v>2005</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E67" s="14"/>
     </row>
-    <row r="68" spans="1:5" ht="67.5" customHeight="1">
+    <row r="68" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>1</v>
       </c>
@@ -2660,11 +2724,11 @@
         <v>2006</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="1:5" ht="82.5" customHeight="1">
+    <row r="69" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
@@ -2675,31 +2739,31 @@
         <v>2014</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E69" s="14"/>
     </row>
-    <row r="70" spans="1:5" ht="65.25" customHeight="1">
+    <row r="70" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C70" s="6">
         <v>2021</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5" ht="31.5">
+    <row r="71" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C71" s="6">
         <v>2022</v>
@@ -2707,7 +2771,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="14"/>
     </row>
-    <row r="72" spans="1:5" ht="70.5" customHeight="1">
+    <row r="72" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>1</v>
       </c>
@@ -2718,11 +2782,11 @@
         <v>2019</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:5" ht="80.25" customHeight="1">
+    <row r="73" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>1</v>
       </c>
@@ -2733,11 +2797,11 @@
         <v>2002</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E73" s="14"/>
     </row>
-    <row r="74" spans="1:5" ht="67.5" customHeight="1">
+    <row r="74" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -2748,11 +2812,11 @@
         <v>2015</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" ht="64.5" customHeight="1">
+    <row r="75" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>1</v>
       </c>
@@ -2763,41 +2827,41 @@
         <v>2010</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E75" s="14"/>
     </row>
-    <row r="76" spans="1:5" ht="160.5" customHeight="1">
+    <row r="76" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C76" s="6">
         <v>2012</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E76" s="14"/>
     </row>
-    <row r="77" spans="1:5" ht="173.25">
+    <row r="77" spans="1:5" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" s="6">
         <v>2012</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E77" s="14"/>
     </row>
-    <row r="78" spans="1:5" ht="195" customHeight="1">
+    <row r="78" spans="1:5" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>1</v>
       </c>
@@ -2808,33 +2872,33 @@
         <v>2011</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E78" s="14"/>
     </row>
-    <row r="79" spans="1:5" ht="149.25" customHeight="1">
+    <row r="79" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="6">
         <v>2012</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="47.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="6">
         <v>2006</v>
@@ -2842,12 +2906,12 @@
       <c r="D80" s="12"/>
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="1:5" ht="47.25">
+    <row r="81" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81" s="6">
         <v>2008</v>
@@ -2855,12 +2919,12 @@
       <c r="D81" s="12"/>
       <c r="E81" s="14"/>
     </row>
-    <row r="82" spans="1:5" ht="31.5">
+    <row r="82" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C82" s="6">
         <v>2006</v>
@@ -2868,12 +2932,12 @@
       <c r="D82" s="12"/>
       <c r="E82" s="14"/>
     </row>
-    <row r="83" spans="1:5" ht="47.25">
+    <row r="83" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" s="6">
         <v>2016</v>
@@ -2881,12 +2945,12 @@
       <c r="D83" s="12"/>
       <c r="E83" s="14"/>
     </row>
-    <row r="84" spans="1:5" ht="47.25">
+    <row r="84" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="6">
         <v>2007</v>
@@ -2894,12 +2958,12 @@
       <c r="D84" s="12"/>
       <c r="E84" s="14"/>
     </row>
-    <row r="85" spans="1:5" ht="47.25">
+    <row r="85" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="6">
         <v>2012</v>
@@ -2907,27 +2971,27 @@
       <c r="D85" s="12"/>
       <c r="E85" s="14"/>
     </row>
-    <row r="86" spans="1:5" ht="176.25" customHeight="1">
+    <row r="86" spans="1:5" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C86" s="6">
         <v>2009</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E86" s="14"/>
     </row>
-    <row r="87" spans="1:5" ht="47.25">
+    <row r="87" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C87" s="6">
         <v>2013</v>
@@ -2935,12 +2999,12 @@
       <c r="D87" s="12"/>
       <c r="E87" s="14"/>
     </row>
-    <row r="88" spans="1:5" ht="47.25">
+    <row r="88" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88" s="6">
         <v>2017</v>
@@ -2948,12 +3012,12 @@
       <c r="D88" s="12"/>
       <c r="E88" s="14"/>
     </row>
-    <row r="89" spans="1:5" ht="31.5">
+    <row r="89" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C89" s="6">
         <v>2019</v>
@@ -2961,12 +3025,12 @@
       <c r="D89" s="12"/>
       <c r="E89" s="14"/>
     </row>
-    <row r="90" spans="1:5" ht="47.25">
+    <row r="90" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" s="6">
         <v>1979</v>
@@ -2974,12 +3038,12 @@
       <c r="D90" s="12"/>
       <c r="E90" s="14"/>
     </row>
-    <row r="91" spans="1:5" ht="31.5">
+    <row r="91" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C91" s="6">
         <v>2017</v>
@@ -2987,42 +3051,42 @@
       <c r="D91" s="12"/>
       <c r="E91" s="14"/>
     </row>
-    <row r="92" spans="1:5" ht="117" customHeight="1">
+    <row r="92" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" s="6">
         <v>2020</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E92" s="14"/>
     </row>
-    <row r="93" spans="1:5" ht="94.5">
+    <row r="93" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="6">
         <v>2015</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" s="14"/>
     </row>
-    <row r="94" spans="1:5" ht="47.25">
+    <row r="94" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" s="6">
         <v>2007</v>
@@ -3030,12 +3094,12 @@
       <c r="D94" s="12"/>
       <c r="E94" s="14"/>
     </row>
-    <row r="95" spans="1:5" ht="47.25">
+    <row r="95" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C95" s="6">
         <v>2012</v>
@@ -3043,12 +3107,12 @@
       <c r="D95" s="12"/>
       <c r="E95" s="14"/>
     </row>
-    <row r="96" spans="1:5" ht="47.25">
+    <row r="96" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C96" s="6">
         <v>2015</v>
@@ -3056,12 +3120,12 @@
       <c r="D96" s="12"/>
       <c r="E96" s="14"/>
     </row>
-    <row r="97" spans="1:5" ht="47.25">
+    <row r="97" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C97" s="6">
         <v>1986</v>
@@ -3069,12 +3133,12 @@
       <c r="D97" s="12"/>
       <c r="E97" s="14"/>
     </row>
-    <row r="98" spans="1:5" ht="47.25">
+    <row r="98" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" s="6">
         <v>2016</v>
@@ -3082,12 +3146,12 @@
       <c r="D98" s="12"/>
       <c r="E98" s="14"/>
     </row>
-    <row r="99" spans="1:5" ht="47.25">
+    <row r="99" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C99" s="6">
         <v>2019</v>
@@ -3095,12 +3159,12 @@
       <c r="D99" s="12"/>
       <c r="E99" s="14"/>
     </row>
-    <row r="100" spans="1:5" ht="47.25">
+    <row r="100" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C100" s="6">
         <v>2017</v>
@@ -3108,12 +3172,12 @@
       <c r="D100" s="12"/>
       <c r="E100" s="14"/>
     </row>
-    <row r="101" spans="1:5" ht="47.25">
+    <row r="101" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C101" s="6">
         <v>2016</v>
@@ -3121,9 +3185,9 @@
       <c r="D101" s="12"/>
       <c r="E101" s="14"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>0</v>
@@ -3134,12 +3198,12 @@
       <c r="D102" s="12"/>
       <c r="E102" s="14"/>
     </row>
-    <row r="103" spans="1:5" ht="47.25">
+    <row r="103" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C103" s="6">
         <v>2017</v>
@@ -3147,12 +3211,12 @@
       <c r="D103" s="12"/>
       <c r="E103" s="14"/>
     </row>
-    <row r="104" spans="1:5" ht="47.25">
+    <row r="104" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C104" s="6">
         <v>2019</v>
@@ -3160,12 +3224,12 @@
       <c r="D104" s="12"/>
       <c r="E104" s="14"/>
     </row>
-    <row r="105" spans="1:5" ht="47.25">
+    <row r="105" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C105" s="6">
         <v>2019</v>
@@ -3173,12 +3237,12 @@
       <c r="D105" s="12"/>
       <c r="E105" s="14"/>
     </row>
-    <row r="106" spans="1:5" ht="47.25">
+    <row r="106" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C106" s="6">
         <v>2020</v>
@@ -3186,12 +3250,12 @@
       <c r="D106" s="12"/>
       <c r="E106" s="14"/>
     </row>
-    <row r="107" spans="1:5" ht="47.25">
+    <row r="107" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C107" s="6">
         <v>2013</v>
@@ -3199,12 +3263,12 @@
       <c r="D107" s="12"/>
       <c r="E107" s="14"/>
     </row>
-    <row r="108" spans="1:5" ht="47.25">
+    <row r="108" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C108" s="6">
         <v>2007</v>
@@ -3212,12 +3276,12 @@
       <c r="D108" s="12"/>
       <c r="E108" s="14"/>
     </row>
-    <row r="109" spans="1:5" ht="47.25">
+    <row r="109" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C109" s="6">
         <v>2017</v>
@@ -3225,12 +3289,12 @@
       <c r="D109" s="12"/>
       <c r="E109" s="14"/>
     </row>
-    <row r="110" spans="1:5" ht="47.25">
+    <row r="110" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C110" s="6">
         <v>2022</v>
@@ -3238,12 +3302,12 @@
       <c r="D110" s="12"/>
       <c r="E110" s="14"/>
     </row>
-    <row r="111" spans="1:5" ht="47.25">
+    <row r="111" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C111" s="6">
         <v>1998</v>
@@ -3251,12 +3315,12 @@
       <c r="D111" s="12"/>
       <c r="E111" s="14"/>
     </row>
-    <row r="112" spans="1:5" ht="47.25">
+    <row r="112" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C112" s="6">
         <v>2010</v>
@@ -3264,12 +3328,12 @@
       <c r="D112" s="12"/>
       <c r="E112" s="14"/>
     </row>
-    <row r="113" spans="1:5" ht="31.5">
+    <row r="113" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C113" s="6">
         <v>2013</v>
@@ -3277,12 +3341,12 @@
       <c r="D113" s="12"/>
       <c r="E113" s="14"/>
     </row>
-    <row r="114" spans="1:5" ht="47.25">
+    <row r="114" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C114" s="6">
         <v>2015</v>
@@ -3290,12 +3354,12 @@
       <c r="D114" s="12"/>
       <c r="E114" s="14"/>
     </row>
-    <row r="115" spans="1:5" ht="47.25">
+    <row r="115" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C115" s="6">
         <v>2016</v>
@@ -3303,12 +3367,12 @@
       <c r="D115" s="12"/>
       <c r="E115" s="14"/>
     </row>
-    <row r="116" spans="1:5" ht="47.25">
+    <row r="116" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C116" s="6">
         <v>2010</v>
@@ -3316,12 +3380,12 @@
       <c r="D116" s="12"/>
       <c r="E116" s="14"/>
     </row>
-    <row r="117" spans="1:5" ht="47.25">
+    <row r="117" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C117" s="6">
         <v>2009</v>
@@ -3329,12 +3393,12 @@
       <c r="D117" s="12"/>
       <c r="E117" s="14"/>
     </row>
-    <row r="118" spans="1:5" ht="47.25">
+    <row r="118" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C118" s="6">
         <v>2011</v>
@@ -3342,12 +3406,12 @@
       <c r="D118" s="12"/>
       <c r="E118" s="14"/>
     </row>
-    <row r="119" spans="1:5" ht="47.25">
+    <row r="119" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C119" s="6">
         <v>2006</v>
@@ -3355,12 +3419,12 @@
       <c r="D119" s="12"/>
       <c r="E119" s="14"/>
     </row>
-    <row r="120" spans="1:5" ht="47.25">
+    <row r="120" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C120" s="6">
         <v>2023</v>
@@ -3368,12 +3432,12 @@
       <c r="D120" s="12"/>
       <c r="E120" s="14"/>
     </row>
-    <row r="121" spans="1:5" ht="47.25">
+    <row r="121" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C121" s="6">
         <v>2008</v>
@@ -3381,12 +3445,12 @@
       <c r="D121" s="12"/>
       <c r="E121" s="14"/>
     </row>
-    <row r="122" spans="1:5" ht="47.25">
+    <row r="122" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C122" s="6">
         <v>2005</v>
@@ -3394,12 +3458,12 @@
       <c r="D122" s="12"/>
       <c r="E122" s="14"/>
     </row>
-    <row r="123" spans="1:5" ht="47.25">
+    <row r="123" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C123" s="6">
         <v>2019</v>
@@ -3407,12 +3471,12 @@
       <c r="D123" s="12"/>
       <c r="E123" s="14"/>
     </row>
-    <row r="124" spans="1:5" ht="47.25">
+    <row r="124" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C124" s="6">
         <v>2014</v>
@@ -3420,39 +3484,39 @@
       <c r="D124" s="12"/>
       <c r="E124" s="14"/>
     </row>
-    <row r="125" spans="1:5" ht="161.25" customHeight="1">
+    <row r="125" spans="1:5" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C125" s="6">
         <v>2017</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E125" s="14"/>
     </row>
-    <row r="126" spans="1:5" ht="165.75" customHeight="1">
+    <row r="126" spans="1:5" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C126" s="6">
         <v>2016</v>
       </c>
       <c r="D126" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E126" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E126" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="97.5" customHeight="1">
+    </row>
+    <row r="127" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>1</v>
       </c>
@@ -3463,16 +3527,16 @@
         <v>2014</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E127" s="14"/>
     </row>
-    <row r="128" spans="1:5" ht="31.5">
+    <row r="128" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C128" s="6">
         <v>2008</v>
@@ -3480,12 +3544,12 @@
       <c r="D128" s="12"/>
       <c r="E128" s="14"/>
     </row>
-    <row r="129" spans="1:5" ht="31.5">
+    <row r="129" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C129" s="6">
         <v>2005</v>
@@ -3493,7 +3557,7 @@
       <c r="D129" s="12"/>
       <c r="E129" s="14"/>
     </row>
-    <row r="130" spans="1:5" ht="110.25">
+    <row r="130" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>1</v>
       </c>
@@ -3504,16 +3568,16 @@
         <v>2010</v>
       </c>
       <c r="D130" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="14"/>
+    </row>
+    <row r="131" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="E130" s="14"/>
-    </row>
-    <row r="131" spans="1:5" ht="31.5">
-      <c r="A131" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="C131" s="6">
         <v>2005</v>
@@ -3521,29 +3585,29 @@
       <c r="D131" s="12"/>
       <c r="E131" s="14"/>
     </row>
-    <row r="132" spans="1:5" ht="225" customHeight="1">
+    <row r="132" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C132" s="6">
         <v>2004</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="47.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C133" s="6">
         <v>2013</v>
@@ -3551,44 +3615,44 @@
       <c r="D133" s="12"/>
       <c r="E133" s="14"/>
     </row>
-    <row r="134" spans="1:5" ht="192.75" customHeight="1">
+    <row r="134" spans="1:5" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C134" s="6">
         <v>2020</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E134" s="14"/>
     </row>
-    <row r="135" spans="1:5" ht="180" customHeight="1">
+    <row r="135" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C135" s="6">
         <v>2012</v>
       </c>
       <c r="D135" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E135" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E135" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="31.5">
+    </row>
+    <row r="136" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C136" s="6">
         <v>2009</v>
@@ -3596,12 +3660,12 @@
       <c r="D136" s="12"/>
       <c r="E136" s="14"/>
     </row>
-    <row r="137" spans="1:5" ht="47.25">
+    <row r="137" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C137" s="6">
         <v>2015</v>
@@ -3609,12 +3673,12 @@
       <c r="D137" s="12"/>
       <c r="E137" s="14"/>
     </row>
-    <row r="138" spans="1:5" ht="47.25">
+    <row r="138" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C138" s="6">
         <v>2009</v>
@@ -3622,12 +3686,12 @@
       <c r="D138" s="12"/>
       <c r="E138" s="14"/>
     </row>
-    <row r="139" spans="1:5" ht="47.25">
+    <row r="139" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C139" s="6">
         <v>2004</v>
@@ -3635,12 +3699,12 @@
       <c r="D139" s="12"/>
       <c r="E139" s="14"/>
     </row>
-    <row r="140" spans="1:5" ht="47.25">
+    <row r="140" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C140" s="6">
         <v>2001</v>
@@ -3648,12 +3712,12 @@
       <c r="D140" s="12"/>
       <c r="E140" s="14"/>
     </row>
-    <row r="141" spans="1:5" ht="47.25">
+    <row r="141" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C141" s="6">
         <v>1999</v>
@@ -3661,12 +3725,12 @@
       <c r="D141" s="12"/>
       <c r="E141" s="14"/>
     </row>
-    <row r="142" spans="1:5" ht="31.5">
+    <row r="142" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C142" s="6">
         <v>1998</v>
@@ -3674,12 +3738,12 @@
       <c r="D142" s="12"/>
       <c r="E142" s="14"/>
     </row>
-    <row r="143" spans="1:5" ht="47.25">
+    <row r="143" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C143" s="6">
         <v>1998</v>
@@ -3687,12 +3751,12 @@
       <c r="D143" s="12"/>
       <c r="E143" s="14"/>
     </row>
-    <row r="144" spans="1:5" ht="47.25">
+    <row r="144" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C144" s="6">
         <v>2001</v>
@@ -3700,12 +3764,12 @@
       <c r="D144" s="12"/>
       <c r="E144" s="14"/>
     </row>
-    <row r="145" spans="1:5" ht="31.5">
+    <row r="145" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C145" s="6">
         <v>2006</v>
@@ -3713,3154 +3777,3198 @@
       <c r="D145" s="12"/>
       <c r="E145" s="14"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="199.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="C146" s="6">
         <v>2003</v>
       </c>
-      <c r="D146" s="12"/>
+      <c r="D146" s="16" t="s">
+        <v>241</v>
+      </c>
       <c r="E146" s="14"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B147" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>243</v>
+      </c>
       <c r="C147" s="6"/>
       <c r="D147" s="12"/>
       <c r="E147" s="14"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B148" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>244</v>
+      </c>
       <c r="C148" s="6"/>
       <c r="D148" s="12"/>
       <c r="E148" s="14"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B149" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="C149" s="6"/>
       <c r="D149" s="12"/>
       <c r="E149" s="14"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B150" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>246</v>
+      </c>
       <c r="C150" s="6"/>
       <c r="D150" s="12"/>
       <c r="E150" s="14"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B151" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>247</v>
+      </c>
       <c r="C151" s="6"/>
       <c r="D151" s="12"/>
       <c r="E151" s="14"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B152" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="C152" s="6"/>
       <c r="D152" s="12"/>
       <c r="E152" s="14"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B153" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>249</v>
+      </c>
       <c r="C153" s="6"/>
       <c r="D153" s="12"/>
       <c r="E153" s="14"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B154" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>250</v>
+      </c>
       <c r="C154" s="6"/>
       <c r="D154" s="12"/>
       <c r="E154" s="14"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B155" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>251</v>
+      </c>
       <c r="C155" s="6"/>
       <c r="D155" s="12"/>
       <c r="E155" s="14"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B156" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>252</v>
+      </c>
       <c r="C156" s="6"/>
       <c r="D156" s="12"/>
       <c r="E156" s="14"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B157" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>253</v>
+      </c>
       <c r="C157" s="6"/>
       <c r="D157" s="12"/>
       <c r="E157" s="14"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B158" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="C158" s="6"/>
       <c r="D158" s="12"/>
       <c r="E158" s="14"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B159" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="C159" s="6"/>
       <c r="D159" s="12"/>
       <c r="E159" s="14"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B160" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>256</v>
+      </c>
       <c r="C160" s="6"/>
       <c r="D160" s="12"/>
       <c r="E160" s="14"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B161" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="C161" s="6"/>
       <c r="D161" s="12"/>
       <c r="E161" s="14"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B162" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="C162" s="6"/>
       <c r="D162" s="12"/>
       <c r="E162" s="14"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B163" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="C163" s="6"/>
       <c r="D163" s="12"/>
       <c r="E163" s="14"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B164" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>260</v>
+      </c>
       <c r="C164" s="6"/>
       <c r="D164" s="12"/>
       <c r="E164" s="14"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B165" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="C165" s="6"/>
       <c r="D165" s="12"/>
       <c r="E165" s="14"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B166" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>262</v>
+      </c>
       <c r="C166" s="6"/>
       <c r="D166" s="12"/>
       <c r="E166" s="14"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B167" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="C167" s="6"/>
       <c r="D167" s="12"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="6"/>
       <c r="D168" s="12"/>
       <c r="E168" s="14"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="6"/>
       <c r="D169" s="12"/>
       <c r="E169" s="14"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B170" s="13"/>
       <c r="C170" s="6"/>
       <c r="D170" s="12"/>
       <c r="E170" s="14"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="6"/>
       <c r="D171" s="12"/>
       <c r="E171" s="14"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B172" s="13"/>
       <c r="C172" s="6"/>
       <c r="D172" s="12"/>
       <c r="E172" s="14"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B173" s="13"/>
       <c r="C173" s="6"/>
       <c r="D173" s="12"/>
       <c r="E173" s="14"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B174" s="13"/>
       <c r="C174" s="6"/>
       <c r="D174" s="12"/>
       <c r="E174" s="14"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B175" s="13"/>
       <c r="C175" s="6"/>
       <c r="D175" s="12"/>
       <c r="E175" s="14"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="6"/>
       <c r="D176" s="12"/>
       <c r="E176" s="14"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="6"/>
       <c r="D177" s="12"/>
       <c r="E177" s="14"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="6"/>
       <c r="D178" s="12"/>
       <c r="E178" s="14"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="6"/>
       <c r="D179" s="12"/>
       <c r="E179" s="14"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="6"/>
       <c r="D180" s="12"/>
       <c r="E180" s="14"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="6"/>
       <c r="D181" s="12"/>
       <c r="E181" s="14"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="6"/>
       <c r="D182" s="12"/>
       <c r="E182" s="14"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B183" s="13"/>
       <c r="C183" s="6"/>
       <c r="D183" s="12"/>
       <c r="E183" s="14"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B184" s="13"/>
       <c r="C184" s="6"/>
       <c r="D184" s="12"/>
       <c r="E184" s="14"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B185" s="13"/>
       <c r="C185" s="6"/>
       <c r="D185" s="12"/>
       <c r="E185" s="14"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="6"/>
       <c r="D186" s="12"/>
       <c r="E186" s="14"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="6"/>
       <c r="D187" s="12"/>
       <c r="E187" s="14"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B188" s="13"/>
       <c r="C188" s="6"/>
       <c r="D188" s="12"/>
       <c r="E188" s="14"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B189" s="13"/>
       <c r="C189" s="6"/>
       <c r="D189" s="12"/>
       <c r="E189" s="14"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B190" s="13"/>
       <c r="C190" s="6"/>
       <c r="D190" s="12"/>
       <c r="E190" s="14"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B191" s="13"/>
       <c r="C191" s="6"/>
       <c r="D191" s="12"/>
       <c r="E191" s="14"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B192" s="13"/>
       <c r="C192" s="6"/>
       <c r="D192" s="12"/>
       <c r="E192" s="14"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B193" s="13"/>
       <c r="C193" s="6"/>
       <c r="D193" s="12"/>
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="6"/>
       <c r="D194" s="12"/>
       <c r="E194" s="14"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B195" s="13"/>
       <c r="C195" s="6"/>
       <c r="D195" s="12"/>
       <c r="E195" s="14"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="6"/>
       <c r="D196" s="12"/>
       <c r="E196" s="14"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="6"/>
       <c r="D197" s="12"/>
       <c r="E197" s="14"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="6"/>
       <c r="D198" s="12"/>
       <c r="E198" s="14"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="6"/>
       <c r="D199" s="12"/>
       <c r="E199" s="14"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B200" s="13"/>
       <c r="C200" s="6"/>
       <c r="D200" s="12"/>
       <c r="E200" s="14"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B201" s="13"/>
       <c r="C201" s="6"/>
       <c r="D201" s="12"/>
       <c r="E201" s="14"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B202" s="13"/>
       <c r="C202" s="6"/>
       <c r="D202" s="12"/>
       <c r="E202" s="14"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B203" s="13"/>
       <c r="C203" s="6"/>
       <c r="D203" s="12"/>
       <c r="E203" s="14"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B204" s="13"/>
       <c r="C204" s="6"/>
       <c r="D204" s="12"/>
       <c r="E204" s="14"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="6"/>
       <c r="D205" s="12"/>
       <c r="E205" s="14"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B206" s="13"/>
       <c r="C206" s="6"/>
       <c r="D206" s="12"/>
       <c r="E206" s="14"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B207" s="13"/>
       <c r="C207" s="6"/>
       <c r="D207" s="12"/>
       <c r="E207" s="14"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B208" s="13"/>
       <c r="C208" s="6"/>
       <c r="D208" s="12"/>
       <c r="E208" s="14"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B209" s="13"/>
       <c r="C209" s="6"/>
       <c r="D209" s="12"/>
       <c r="E209" s="14"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B210" s="13"/>
       <c r="C210" s="6"/>
       <c r="D210" s="12"/>
       <c r="E210" s="14"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B211" s="13"/>
       <c r="C211" s="6"/>
       <c r="D211" s="12"/>
       <c r="E211" s="14"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B212" s="13"/>
       <c r="C212" s="6"/>
       <c r="D212" s="12"/>
       <c r="E212" s="14"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B213" s="13"/>
       <c r="C213" s="6"/>
       <c r="D213" s="12"/>
       <c r="E213" s="14"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="6"/>
       <c r="D214" s="12"/>
       <c r="E214" s="14"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B215" s="13"/>
       <c r="C215" s="6"/>
       <c r="D215" s="12"/>
       <c r="E215" s="14"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B216" s="13"/>
       <c r="C216" s="6"/>
       <c r="D216" s="12"/>
       <c r="E216" s="14"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B217" s="13"/>
       <c r="C217" s="6"/>
       <c r="D217" s="12"/>
       <c r="E217" s="14"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="6"/>
       <c r="D218" s="12"/>
       <c r="E218" s="14"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B219" s="13"/>
       <c r="C219" s="6"/>
       <c r="D219" s="12"/>
       <c r="E219" s="14"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B220" s="13"/>
       <c r="C220" s="6"/>
       <c r="D220" s="12"/>
       <c r="E220" s="14"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B221" s="13"/>
       <c r="C221" s="6"/>
       <c r="D221" s="12"/>
       <c r="E221" s="14"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="6"/>
       <c r="D222" s="12"/>
       <c r="E222" s="14"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B223" s="13"/>
       <c r="C223" s="6"/>
       <c r="D223" s="12"/>
       <c r="E223" s="14"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B224" s="13"/>
       <c r="C224" s="6"/>
       <c r="D224" s="12"/>
       <c r="E224" s="14"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B225" s="13"/>
       <c r="C225" s="6"/>
       <c r="D225" s="12"/>
       <c r="E225" s="14"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B226" s="13"/>
       <c r="C226" s="6"/>
       <c r="D226" s="12"/>
       <c r="E226" s="14"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B227" s="13"/>
       <c r="C227" s="6"/>
       <c r="D227" s="12"/>
       <c r="E227" s="14"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B228" s="13"/>
       <c r="C228" s="6"/>
       <c r="D228" s="12"/>
       <c r="E228" s="14"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B229" s="13"/>
       <c r="C229" s="6"/>
       <c r="D229" s="12"/>
       <c r="E229" s="14"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B230" s="13"/>
       <c r="C230" s="6"/>
       <c r="D230" s="12"/>
       <c r="E230" s="14"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B231" s="13"/>
       <c r="C231" s="6"/>
       <c r="D231" s="12"/>
       <c r="E231" s="14"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B232" s="13"/>
       <c r="C232" s="6"/>
       <c r="D232" s="12"/>
       <c r="E232" s="14"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B233" s="13"/>
       <c r="C233" s="6"/>
       <c r="D233" s="12"/>
       <c r="E233" s="14"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B234" s="13"/>
       <c r="C234" s="6"/>
       <c r="D234" s="12"/>
       <c r="E234" s="14"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="6"/>
       <c r="D235" s="12"/>
       <c r="E235" s="14"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B236" s="13"/>
       <c r="C236" s="6"/>
       <c r="D236" s="12"/>
       <c r="E236" s="14"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B237" s="13"/>
       <c r="C237" s="6"/>
       <c r="D237" s="12"/>
       <c r="E237" s="14"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B238" s="13"/>
       <c r="C238" s="6"/>
       <c r="D238" s="12"/>
       <c r="E238" s="14"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B239" s="13"/>
       <c r="C239" s="6"/>
       <c r="D239" s="12"/>
       <c r="E239" s="14"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B240" s="13"/>
       <c r="C240" s="6"/>
       <c r="D240" s="12"/>
       <c r="E240" s="14"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B241" s="13"/>
       <c r="C241" s="6"/>
       <c r="D241" s="12"/>
       <c r="E241" s="14"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B242" s="13"/>
       <c r="C242" s="6"/>
       <c r="D242" s="12"/>
       <c r="E242" s="14"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B243" s="13"/>
       <c r="C243" s="6"/>
       <c r="D243" s="12"/>
       <c r="E243" s="14"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B244" s="13"/>
       <c r="C244" s="6"/>
       <c r="D244" s="12"/>
       <c r="E244" s="14"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B245" s="13"/>
       <c r="C245" s="6"/>
       <c r="D245" s="12"/>
       <c r="E245" s="14"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B246" s="13"/>
       <c r="C246" s="6"/>
       <c r="D246" s="12"/>
       <c r="E246" s="14"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B247" s="13"/>
       <c r="C247" s="6"/>
       <c r="D247" s="12"/>
       <c r="E247" s="14"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B248" s="13"/>
       <c r="C248" s="6"/>
       <c r="D248" s="12"/>
       <c r="E248" s="14"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B249" s="13"/>
       <c r="C249" s="6"/>
       <c r="D249" s="12"/>
       <c r="E249" s="14"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B250" s="13"/>
       <c r="C250" s="6"/>
       <c r="D250" s="12"/>
       <c r="E250" s="14"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B251" s="13"/>
       <c r="C251" s="6"/>
       <c r="D251" s="12"/>
       <c r="E251" s="14"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B252" s="13"/>
       <c r="C252" s="6"/>
       <c r="D252" s="12"/>
       <c r="E252" s="14"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B253" s="13"/>
       <c r="C253" s="6"/>
       <c r="D253" s="12"/>
       <c r="E253" s="14"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B254" s="13"/>
       <c r="C254" s="6"/>
       <c r="D254" s="12"/>
       <c r="E254" s="14"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B255" s="13"/>
       <c r="C255" s="6"/>
       <c r="D255" s="12"/>
       <c r="E255" s="14"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B256" s="13"/>
       <c r="C256" s="6"/>
       <c r="D256" s="12"/>
       <c r="E256" s="14"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B257" s="13"/>
       <c r="C257" s="6"/>
       <c r="D257" s="12"/>
       <c r="E257" s="14"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B258" s="13"/>
       <c r="C258" s="6"/>
       <c r="D258" s="12"/>
       <c r="E258" s="14"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B259" s="13"/>
       <c r="C259" s="6"/>
       <c r="D259" s="12"/>
       <c r="E259" s="14"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B260" s="13"/>
       <c r="C260" s="6"/>
       <c r="D260" s="12"/>
       <c r="E260" s="14"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B261" s="13"/>
       <c r="C261" s="6"/>
       <c r="D261" s="12"/>
       <c r="E261" s="14"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B262" s="13"/>
       <c r="C262" s="6"/>
       <c r="D262" s="12"/>
       <c r="E262" s="14"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B263" s="13"/>
       <c r="C263" s="6"/>
       <c r="D263" s="12"/>
       <c r="E263" s="14"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B264" s="13"/>
       <c r="C264" s="6"/>
       <c r="D264" s="12"/>
       <c r="E264" s="14"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B265" s="13"/>
       <c r="C265" s="6"/>
       <c r="D265" s="12"/>
       <c r="E265" s="14"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B266" s="13"/>
       <c r="C266" s="6"/>
       <c r="D266" s="12"/>
       <c r="E266" s="14"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B267" s="13"/>
       <c r="C267" s="6"/>
       <c r="D267" s="12"/>
       <c r="E267" s="14"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B268" s="13"/>
       <c r="C268" s="6"/>
       <c r="D268" s="12"/>
       <c r="E268" s="14"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B269" s="13"/>
       <c r="C269" s="6"/>
       <c r="D269" s="12"/>
       <c r="E269" s="14"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B270" s="13"/>
       <c r="C270" s="6"/>
       <c r="D270" s="12"/>
       <c r="E270" s="14"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B271" s="13"/>
       <c r="C271" s="6"/>
       <c r="D271" s="12"/>
       <c r="E271" s="14"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B272" s="13"/>
       <c r="C272" s="6"/>
       <c r="D272" s="12"/>
       <c r="E272" s="14"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B273" s="13"/>
       <c r="C273" s="6"/>
       <c r="D273" s="12"/>
       <c r="E273" s="14"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B274" s="13"/>
       <c r="C274" s="6"/>
       <c r="D274" s="12"/>
       <c r="E274" s="14"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B275" s="13"/>
       <c r="C275" s="6"/>
       <c r="D275" s="12"/>
       <c r="E275" s="14"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B276" s="13"/>
       <c r="C276" s="6"/>
       <c r="D276" s="12"/>
       <c r="E276" s="14"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B277" s="13"/>
       <c r="C277" s="6"/>
       <c r="D277" s="12"/>
       <c r="E277" s="14"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B278" s="13"/>
       <c r="C278" s="6"/>
       <c r="D278" s="12"/>
       <c r="E278" s="14"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B279" s="13"/>
       <c r="C279" s="6"/>
       <c r="D279" s="12"/>
       <c r="E279" s="14"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B280" s="13"/>
       <c r="C280" s="6"/>
       <c r="D280" s="12"/>
       <c r="E280" s="14"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B281" s="13"/>
       <c r="C281" s="6"/>
       <c r="D281" s="12"/>
       <c r="E281" s="14"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B282" s="13"/>
       <c r="C282" s="6"/>
       <c r="D282" s="12"/>
       <c r="E282" s="14"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B283" s="13"/>
       <c r="C283" s="6"/>
       <c r="D283" s="12"/>
       <c r="E283" s="14"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B284" s="13"/>
       <c r="C284" s="6"/>
       <c r="D284" s="12"/>
       <c r="E284" s="14"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B285" s="13"/>
       <c r="C285" s="6"/>
       <c r="D285" s="12"/>
       <c r="E285" s="14"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B286" s="13"/>
       <c r="C286" s="6"/>
       <c r="D286" s="12"/>
       <c r="E286" s="14"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B287" s="13"/>
       <c r="C287" s="6"/>
       <c r="D287" s="12"/>
       <c r="E287" s="14"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B288" s="13"/>
       <c r="C288" s="6"/>
       <c r="D288" s="12"/>
       <c r="E288" s="14"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B289" s="13"/>
       <c r="C289" s="6"/>
       <c r="D289" s="12"/>
       <c r="E289" s="14"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B290" s="13"/>
       <c r="C290" s="6"/>
       <c r="D290" s="12"/>
       <c r="E290" s="14"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B291" s="13"/>
       <c r="C291" s="6"/>
       <c r="D291" s="12"/>
       <c r="E291" s="14"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B292" s="13"/>
       <c r="C292" s="6"/>
       <c r="D292" s="12"/>
       <c r="E292" s="14"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B293" s="13"/>
       <c r="C293" s="6"/>
       <c r="D293" s="12"/>
       <c r="E293" s="14"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B294" s="13"/>
       <c r="C294" s="6"/>
       <c r="D294" s="12"/>
       <c r="E294" s="14"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B295" s="13"/>
       <c r="C295" s="6"/>
       <c r="D295" s="12"/>
       <c r="E295" s="14"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B296" s="13"/>
       <c r="C296" s="6"/>
       <c r="D296" s="12"/>
       <c r="E296" s="14"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B297" s="13"/>
       <c r="C297" s="6"/>
       <c r="D297" s="12"/>
       <c r="E297" s="14"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B298" s="13"/>
       <c r="C298" s="6"/>
       <c r="D298" s="12"/>
       <c r="E298" s="14"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B299" s="13"/>
       <c r="C299" s="6"/>
       <c r="D299" s="12"/>
       <c r="E299" s="14"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B300" s="13"/>
       <c r="C300" s="6"/>
       <c r="D300" s="12"/>
       <c r="E300" s="14"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B301" s="13"/>
       <c r="C301" s="6"/>
       <c r="D301" s="12"/>
       <c r="E301" s="14"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B302" s="13"/>
       <c r="C302" s="6"/>
       <c r="D302" s="12"/>
       <c r="E302" s="14"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B303" s="13"/>
       <c r="C303" s="6"/>
       <c r="D303" s="12"/>
       <c r="E303" s="14"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B304" s="13"/>
       <c r="C304" s="6"/>
       <c r="D304" s="12"/>
       <c r="E304" s="14"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B305" s="13"/>
       <c r="C305" s="6"/>
       <c r="D305" s="12"/>
       <c r="E305" s="14"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B306" s="13"/>
       <c r="C306" s="6"/>
       <c r="D306" s="12"/>
       <c r="E306" s="14"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B307" s="13"/>
       <c r="C307" s="6"/>
       <c r="D307" s="12"/>
       <c r="E307" s="14"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B308" s="13"/>
       <c r="C308" s="6"/>
       <c r="D308" s="12"/>
       <c r="E308" s="14"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B309" s="13"/>
       <c r="C309" s="6"/>
       <c r="D309" s="12"/>
       <c r="E309" s="14"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B310" s="13"/>
       <c r="C310" s="6"/>
       <c r="D310" s="12"/>
       <c r="E310" s="14"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B311" s="13"/>
       <c r="C311" s="6"/>
       <c r="D311" s="12"/>
       <c r="E311" s="14"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B312" s="13"/>
       <c r="C312" s="6"/>
       <c r="D312" s="12"/>
       <c r="E312" s="14"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B313" s="13"/>
       <c r="C313" s="6"/>
       <c r="D313" s="12"/>
       <c r="E313" s="14"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B314" s="13"/>
       <c r="C314" s="6"/>
       <c r="D314" s="12"/>
       <c r="E314" s="14"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B315" s="13"/>
       <c r="C315" s="6"/>
       <c r="D315" s="12"/>
       <c r="E315" s="14"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B316" s="13"/>
       <c r="C316" s="6"/>
       <c r="D316" s="12"/>
       <c r="E316" s="14"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B317" s="13"/>
       <c r="C317" s="6"/>
       <c r="D317" s="12"/>
       <c r="E317" s="14"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B318" s="13"/>
       <c r="C318" s="6"/>
       <c r="D318" s="12"/>
       <c r="E318" s="14"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B319" s="13"/>
       <c r="C319" s="6"/>
       <c r="D319" s="12"/>
       <c r="E319" s="14"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B320" s="13"/>
       <c r="C320" s="6"/>
       <c r="D320" s="12"/>
       <c r="E320" s="14"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B321" s="13"/>
       <c r="C321" s="6"/>
       <c r="D321" s="12"/>
       <c r="E321" s="14"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B322" s="13"/>
       <c r="C322" s="6"/>
       <c r="D322" s="12"/>
       <c r="E322" s="14"/>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B323" s="13"/>
       <c r="C323" s="6"/>
       <c r="D323" s="12"/>
       <c r="E323" s="14"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B324" s="13"/>
       <c r="C324" s="6"/>
       <c r="D324" s="12"/>
       <c r="E324" s="14"/>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B325" s="13"/>
       <c r="C325" s="6"/>
       <c r="D325" s="12"/>
       <c r="E325" s="14"/>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B326" s="13"/>
       <c r="C326" s="6"/>
       <c r="D326" s="12"/>
       <c r="E326" s="14"/>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B327" s="13"/>
       <c r="C327" s="6"/>
       <c r="D327" s="12"/>
       <c r="E327" s="14"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B328" s="13"/>
       <c r="C328" s="6"/>
       <c r="D328" s="12"/>
       <c r="E328" s="14"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B329" s="13"/>
       <c r="C329" s="6"/>
       <c r="D329" s="12"/>
       <c r="E329" s="14"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B330" s="13"/>
       <c r="C330" s="6"/>
       <c r="D330" s="12"/>
       <c r="E330" s="14"/>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B331" s="13"/>
       <c r="C331" s="6"/>
       <c r="D331" s="12"/>
       <c r="E331" s="14"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B332" s="13"/>
       <c r="C332" s="6"/>
       <c r="D332" s="12"/>
       <c r="E332" s="14"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B333" s="13"/>
       <c r="C333" s="6"/>
       <c r="D333" s="12"/>
       <c r="E333" s="14"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B334" s="13"/>
       <c r="C334" s="6"/>
       <c r="D334" s="12"/>
       <c r="E334" s="14"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B335" s="13"/>
       <c r="C335" s="6"/>
       <c r="D335" s="12"/>
       <c r="E335" s="14"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B336" s="13"/>
       <c r="C336" s="6"/>
       <c r="D336" s="12"/>
       <c r="E336" s="14"/>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B337" s="13"/>
       <c r="C337" s="6"/>
       <c r="D337" s="12"/>
       <c r="E337" s="14"/>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B338" s="13"/>
       <c r="C338" s="6"/>
       <c r="D338" s="12"/>
       <c r="E338" s="14"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B339" s="13"/>
       <c r="C339" s="6"/>
       <c r="D339" s="12"/>
       <c r="E339" s="14"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B340" s="13"/>
       <c r="C340" s="6"/>
       <c r="D340" s="12"/>
       <c r="E340" s="14"/>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B341" s="13"/>
       <c r="C341" s="6"/>
       <c r="D341" s="12"/>
       <c r="E341" s="14"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B342" s="13"/>
       <c r="C342" s="6"/>
       <c r="D342" s="12"/>
       <c r="E342" s="14"/>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B343" s="13"/>
       <c r="C343" s="6"/>
       <c r="D343" s="12"/>
       <c r="E343" s="14"/>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B344" s="13"/>
       <c r="C344" s="6"/>
       <c r="D344" s="12"/>
       <c r="E344" s="14"/>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B345" s="13"/>
       <c r="C345" s="6"/>
       <c r="D345" s="12"/>
       <c r="E345" s="14"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B346" s="13"/>
       <c r="C346" s="6"/>
       <c r="D346" s="12"/>
       <c r="E346" s="14"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B347" s="13"/>
       <c r="C347" s="6"/>
       <c r="D347" s="12"/>
       <c r="E347" s="14"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B348" s="13"/>
       <c r="C348" s="6"/>
       <c r="D348" s="12"/>
       <c r="E348" s="14"/>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B349" s="13"/>
       <c r="C349" s="6"/>
       <c r="D349" s="12"/>
       <c r="E349" s="14"/>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B350" s="13"/>
       <c r="C350" s="6"/>
       <c r="D350" s="12"/>
       <c r="E350" s="14"/>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B351" s="13"/>
       <c r="C351" s="6"/>
       <c r="D351" s="12"/>
       <c r="E351" s="14"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B352" s="13"/>
       <c r="C352" s="6"/>
       <c r="D352" s="12"/>
       <c r="E352" s="14"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B353" s="13"/>
       <c r="C353" s="6"/>
       <c r="D353" s="12"/>
       <c r="E353" s="14"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B354" s="13"/>
       <c r="C354" s="6"/>
       <c r="D354" s="12"/>
       <c r="E354" s="14"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B355" s="13"/>
       <c r="C355" s="6"/>
       <c r="D355" s="12"/>
       <c r="E355" s="14"/>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B356" s="13"/>
       <c r="C356" s="6"/>
       <c r="D356" s="12"/>
       <c r="E356" s="14"/>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B357" s="13"/>
       <c r="C357" s="6"/>
       <c r="D357" s="12"/>
       <c r="E357" s="14"/>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B358" s="13"/>
       <c r="C358" s="6"/>
       <c r="D358" s="12"/>
       <c r="E358" s="14"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B359" s="13"/>
       <c r="C359" s="6"/>
       <c r="D359" s="12"/>
       <c r="E359" s="14"/>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B360" s="13"/>
       <c r="C360" s="6"/>
       <c r="D360" s="12"/>
       <c r="E360" s="14"/>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B361" s="13"/>
       <c r="C361" s="6"/>
       <c r="D361" s="12"/>
       <c r="E361" s="14"/>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B362" s="13"/>
       <c r="C362" s="6"/>
       <c r="D362" s="12"/>
       <c r="E362" s="14"/>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B363" s="13"/>
       <c r="C363" s="6"/>
       <c r="D363" s="12"/>
       <c r="E363" s="14"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B364" s="13"/>
       <c r="C364" s="6"/>
       <c r="D364" s="12"/>
       <c r="E364" s="14"/>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B365" s="13"/>
       <c r="C365" s="6"/>
       <c r="D365" s="12"/>
       <c r="E365" s="14"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B366" s="13"/>
       <c r="C366" s="6"/>
       <c r="D366" s="12"/>
       <c r="E366" s="14"/>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B367" s="13"/>
       <c r="C367" s="6"/>
       <c r="D367" s="12"/>
       <c r="E367" s="14"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B368" s="13"/>
       <c r="C368" s="6"/>
       <c r="D368" s="12"/>
       <c r="E368" s="14"/>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B369" s="13"/>
       <c r="C369" s="6"/>
       <c r="D369" s="12"/>
       <c r="E369" s="14"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B370" s="13"/>
       <c r="C370" s="6"/>
       <c r="D370" s="12"/>
       <c r="E370" s="14"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B371" s="13"/>
       <c r="C371" s="6"/>
       <c r="D371" s="12"/>
       <c r="E371" s="14"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B372" s="13"/>
       <c r="C372" s="6"/>
       <c r="D372" s="12"/>
       <c r="E372" s="14"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B373" s="13"/>
       <c r="C373" s="6"/>
       <c r="D373" s="12"/>
       <c r="E373" s="14"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B374" s="13"/>
       <c r="C374" s="6"/>
       <c r="D374" s="12"/>
       <c r="E374" s="14"/>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B375" s="13"/>
       <c r="C375" s="6"/>
       <c r="D375" s="12"/>
       <c r="E375" s="14"/>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B376" s="13"/>
       <c r="C376" s="6"/>
       <c r="D376" s="12"/>
       <c r="E376" s="14"/>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B377" s="13"/>
       <c r="C377" s="6"/>
       <c r="D377" s="12"/>
       <c r="E377" s="14"/>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B378" s="13"/>
       <c r="C378" s="6"/>
       <c r="D378" s="12"/>
       <c r="E378" s="14"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B379" s="13"/>
       <c r="C379" s="6"/>
       <c r="D379" s="12"/>
       <c r="E379" s="14"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B380" s="13"/>
       <c r="C380" s="6"/>
       <c r="D380" s="12"/>
       <c r="E380" s="14"/>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B381" s="13"/>
       <c r="C381" s="6"/>
       <c r="D381" s="12"/>
       <c r="E381" s="14"/>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B382" s="13"/>
       <c r="C382" s="6"/>
       <c r="D382" s="12"/>
       <c r="E382" s="14"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B383" s="13"/>
       <c r="C383" s="6"/>
       <c r="D383" s="12"/>
       <c r="E383" s="14"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B384" s="13"/>
       <c r="C384" s="6"/>
       <c r="D384" s="12"/>
       <c r="E384" s="14"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B385" s="13"/>
       <c r="C385" s="6"/>
       <c r="D385" s="12"/>
       <c r="E385" s="14"/>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B386" s="13"/>
       <c r="C386" s="6"/>
       <c r="D386" s="12"/>
       <c r="E386" s="14"/>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B387" s="13"/>
       <c r="C387" s="6"/>
       <c r="D387" s="12"/>
       <c r="E387" s="14"/>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B388" s="13"/>
       <c r="C388" s="6"/>
       <c r="D388" s="12"/>
       <c r="E388" s="14"/>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B389" s="13"/>
       <c r="C389" s="6"/>
       <c r="D389" s="12"/>
       <c r="E389" s="14"/>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B390" s="13"/>
       <c r="C390" s="6"/>
       <c r="D390" s="12"/>
       <c r="E390" s="14"/>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B391" s="13"/>
       <c r="C391" s="6"/>
       <c r="D391" s="12"/>
       <c r="E391" s="14"/>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B392" s="13"/>
       <c r="C392" s="6"/>
       <c r="D392" s="12"/>
       <c r="E392" s="14"/>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B393" s="13"/>
       <c r="C393" s="6"/>
       <c r="D393" s="12"/>
       <c r="E393" s="14"/>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B394" s="13"/>
       <c r="C394" s="6"/>
       <c r="D394" s="12"/>
       <c r="E394" s="14"/>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B395" s="13"/>
       <c r="C395" s="6"/>
       <c r="D395" s="12"/>
       <c r="E395" s="14"/>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B396" s="13"/>
       <c r="C396" s="6"/>
       <c r="D396" s="12"/>
       <c r="E396" s="14"/>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B397" s="13"/>
       <c r="C397" s="6"/>
       <c r="D397" s="12"/>
       <c r="E397" s="14"/>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B398" s="13"/>
       <c r="C398" s="6"/>
       <c r="D398" s="12"/>
       <c r="E398" s="14"/>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B399" s="13"/>
       <c r="C399" s="6"/>
       <c r="D399" s="12"/>
       <c r="E399" s="14"/>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B400" s="13"/>
       <c r="C400" s="6"/>
       <c r="D400" s="12"/>
       <c r="E400" s="14"/>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B401" s="13"/>
       <c r="C401" s="6"/>
       <c r="D401" s="12"/>
       <c r="E401" s="14"/>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B402" s="13"/>
       <c r="C402" s="6"/>
       <c r="D402" s="12"/>
       <c r="E402" s="14"/>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B403" s="13"/>
       <c r="C403" s="6"/>
       <c r="D403" s="12"/>
       <c r="E403" s="14"/>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B404" s="13"/>
       <c r="C404" s="6"/>
       <c r="D404" s="12"/>
       <c r="E404" s="14"/>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B405" s="13"/>
       <c r="C405" s="6"/>
       <c r="D405" s="12"/>
       <c r="E405" s="14"/>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B406" s="13"/>
       <c r="C406" s="6"/>
       <c r="D406" s="12"/>
       <c r="E406" s="14"/>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B407" s="13"/>
       <c r="C407" s="6"/>
       <c r="D407" s="12"/>
       <c r="E407" s="14"/>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B408" s="13"/>
       <c r="C408" s="6"/>
       <c r="D408" s="12"/>
       <c r="E408" s="14"/>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B409" s="13"/>
       <c r="C409" s="6"/>
       <c r="D409" s="12"/>
       <c r="E409" s="14"/>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B410" s="13"/>
       <c r="C410" s="6"/>
       <c r="D410" s="12"/>
       <c r="E410" s="14"/>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B411" s="13"/>
       <c r="C411" s="6"/>
       <c r="D411" s="12"/>
       <c r="E411" s="14"/>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B412" s="13"/>
       <c r="C412" s="6"/>
       <c r="D412" s="12"/>
       <c r="E412" s="14"/>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B413" s="13"/>
       <c r="C413" s="6"/>
       <c r="D413" s="12"/>
       <c r="E413" s="14"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B414" s="13"/>
       <c r="C414" s="6"/>
       <c r="D414" s="12"/>
       <c r="E414" s="14"/>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B415" s="13"/>
       <c r="C415" s="6"/>
       <c r="D415" s="12"/>
       <c r="E415" s="14"/>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B416" s="13"/>
       <c r="C416" s="6"/>
       <c r="D416" s="12"/>
       <c r="E416" s="14"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B417" s="13"/>
       <c r="C417" s="6"/>
       <c r="D417" s="12"/>
       <c r="E417" s="14"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B418" s="13"/>
       <c r="C418" s="6"/>
       <c r="D418" s="12"/>
       <c r="E418" s="14"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B419" s="13"/>
       <c r="C419" s="6"/>
       <c r="D419" s="12"/>
       <c r="E419" s="14"/>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B420" s="13"/>
       <c r="C420" s="6"/>
       <c r="D420" s="12"/>
       <c r="E420" s="14"/>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B421" s="13"/>
       <c r="C421" s="6"/>
       <c r="D421" s="12"/>
       <c r="E421" s="14"/>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B422" s="13"/>
       <c r="C422" s="6"/>
       <c r="D422" s="12"/>
       <c r="E422" s="14"/>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B423" s="13"/>
       <c r="C423" s="6"/>
       <c r="D423" s="12"/>
       <c r="E423" s="14"/>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B424" s="13"/>
       <c r="C424" s="6"/>
       <c r="D424" s="12"/>
       <c r="E424" s="14"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B425" s="13"/>
       <c r="C425" s="6"/>
       <c r="D425" s="12"/>
       <c r="E425" s="14"/>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B426" s="13"/>
       <c r="C426" s="6"/>
       <c r="D426" s="12"/>
       <c r="E426" s="14"/>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B427" s="13"/>
       <c r="C427" s="6"/>
       <c r="D427" s="12"/>
       <c r="E427" s="14"/>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B428" s="13"/>
       <c r="C428" s="6"/>
       <c r="D428" s="12"/>
       <c r="E428" s="14"/>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B429" s="13"/>
       <c r="C429" s="6"/>
       <c r="D429" s="12"/>
       <c r="E429" s="14"/>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B430" s="13"/>
       <c r="C430" s="6"/>
       <c r="D430" s="12"/>
       <c r="E430" s="14"/>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B431" s="13"/>
       <c r="C431" s="6"/>
       <c r="D431" s="12"/>
       <c r="E431" s="14"/>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B432" s="13"/>
       <c r="C432" s="6"/>
       <c r="D432" s="12"/>
       <c r="E432" s="14"/>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B433" s="13"/>
       <c r="C433" s="6"/>
       <c r="D433" s="12"/>
       <c r="E433" s="14"/>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B434" s="13"/>
       <c r="C434" s="6"/>
       <c r="D434" s="12"/>
       <c r="E434" s="14"/>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B435" s="13"/>
       <c r="C435" s="6"/>
       <c r="D435" s="12"/>
       <c r="E435" s="14"/>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B436" s="13"/>
       <c r="C436" s="6"/>
       <c r="D436" s="12"/>
       <c r="E436" s="14"/>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B437" s="13"/>
       <c r="C437" s="6"/>
       <c r="D437" s="12"/>
       <c r="E437" s="14"/>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B438" s="13"/>
       <c r="C438" s="6"/>
       <c r="D438" s="12"/>
       <c r="E438" s="14"/>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B439" s="13"/>
       <c r="C439" s="6"/>
       <c r="D439" s="12"/>
       <c r="E439" s="14"/>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B440" s="13"/>
       <c r="C440" s="6"/>
       <c r="D440" s="12"/>
       <c r="E440" s="14"/>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B441" s="13"/>
       <c r="C441" s="6"/>
       <c r="D441" s="12"/>
       <c r="E441" s="14"/>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B442" s="13"/>
       <c r="C442" s="6"/>
       <c r="D442" s="12"/>
       <c r="E442" s="14"/>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B443" s="13"/>
       <c r="C443" s="6"/>
       <c r="D443" s="12"/>
       <c r="E443" s="14"/>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B444" s="13"/>
       <c r="C444" s="6"/>
       <c r="D444" s="12"/>
       <c r="E444" s="14"/>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B445" s="13"/>
       <c r="C445" s="6"/>
       <c r="D445" s="12"/>
       <c r="E445" s="14"/>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B446" s="13"/>
       <c r="C446" s="6"/>
       <c r="D446" s="12"/>
       <c r="E446" s="14"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B447" s="13"/>
       <c r="C447" s="6"/>
       <c r="D447" s="12"/>
       <c r="E447" s="14"/>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B448" s="13"/>
       <c r="C448" s="6"/>
       <c r="D448" s="12"/>
       <c r="E448" s="14"/>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B449" s="13"/>
       <c r="C449" s="6"/>
       <c r="D449" s="12"/>
       <c r="E449" s="14"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B450" s="13"/>
       <c r="C450" s="6"/>
       <c r="D450" s="12"/>
       <c r="E450" s="14"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B451" s="13"/>
       <c r="C451" s="6"/>
       <c r="D451" s="12"/>
       <c r="E451" s="14"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B452" s="13"/>
       <c r="C452" s="6"/>
       <c r="D452" s="12"/>
       <c r="E452" s="14"/>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B453" s="13"/>
       <c r="C453" s="6"/>
       <c r="D453" s="12"/>
       <c r="E453" s="14"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B454" s="13"/>
       <c r="C454" s="6"/>
       <c r="D454" s="12"/>
       <c r="E454" s="14"/>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B455" s="13"/>
       <c r="C455" s="6"/>
       <c r="D455" s="12"/>
       <c r="E455" s="14"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B456" s="13"/>
       <c r="C456" s="6"/>
       <c r="D456" s="12"/>
       <c r="E456" s="14"/>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B457" s="13"/>
       <c r="C457" s="6"/>
       <c r="D457" s="12"/>
       <c r="E457" s="14"/>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B458" s="13"/>
       <c r="C458" s="6"/>
       <c r="D458" s="12"/>
       <c r="E458" s="14"/>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B459" s="13"/>
       <c r="C459" s="6"/>
       <c r="D459" s="12"/>
       <c r="E459" s="14"/>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B460" s="13"/>
       <c r="C460" s="6"/>
       <c r="D460" s="12"/>
       <c r="E460" s="14"/>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B461" s="13"/>
       <c r="C461" s="6"/>
       <c r="D461" s="12"/>
       <c r="E461" s="14"/>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B462" s="13"/>
       <c r="C462" s="6"/>
       <c r="D462" s="12"/>
       <c r="E462" s="14"/>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B463" s="13"/>
       <c r="C463" s="6"/>
       <c r="D463" s="12"/>
       <c r="E463" s="14"/>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B464" s="13"/>
       <c r="C464" s="6"/>
       <c r="D464" s="12"/>
       <c r="E464" s="14"/>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B465" s="13"/>
       <c r="C465" s="6"/>
       <c r="D465" s="12"/>
       <c r="E465" s="14"/>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B466" s="13"/>
       <c r="C466" s="6"/>
       <c r="D466" s="12"/>
       <c r="E466" s="14"/>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B467" s="13"/>
       <c r="C467" s="6"/>
       <c r="D467" s="12"/>
       <c r="E467" s="14"/>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B468" s="13"/>
       <c r="C468" s="6"/>
       <c r="D468" s="12"/>
       <c r="E468" s="14"/>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B469" s="13"/>
       <c r="C469" s="6"/>
       <c r="D469" s="12"/>
       <c r="E469" s="14"/>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B470" s="13"/>
       <c r="C470" s="6"/>
       <c r="D470" s="12"/>
       <c r="E470" s="14"/>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B471" s="13"/>
       <c r="C471" s="6"/>
       <c r="D471" s="12"/>
       <c r="E471" s="14"/>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B472" s="13"/>
       <c r="C472" s="6"/>
       <c r="D472" s="12"/>
       <c r="E472" s="14"/>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B473" s="13"/>
       <c r="C473" s="6"/>
       <c r="D473" s="12"/>
       <c r="E473" s="14"/>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B474" s="13"/>
       <c r="C474" s="6"/>
       <c r="D474" s="12"/>
       <c r="E474" s="14"/>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B475" s="13"/>
       <c r="C475" s="6"/>
       <c r="D475" s="12"/>
       <c r="E475" s="14"/>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B476" s="13"/>
       <c r="C476" s="6"/>
       <c r="D476" s="12"/>
       <c r="E476" s="14"/>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B477" s="13"/>
       <c r="C477" s="6"/>
       <c r="D477" s="12"/>
       <c r="E477" s="14"/>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B478" s="13"/>
       <c r="C478" s="6"/>
       <c r="D478" s="12"/>
       <c r="E478" s="14"/>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B479" s="13"/>
       <c r="C479" s="6"/>
       <c r="D479" s="12"/>
       <c r="E479" s="14"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B480" s="13"/>
       <c r="C480" s="6"/>
       <c r="D480" s="12"/>
       <c r="E480" s="14"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B481" s="13"/>
       <c r="C481" s="6"/>
       <c r="D481" s="12"/>
       <c r="E481" s="14"/>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B482" s="13"/>
       <c r="C482" s="6"/>
       <c r="D482" s="12"/>
       <c r="E482" s="14"/>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B483" s="13"/>
       <c r="C483" s="6"/>
       <c r="D483" s="12"/>
       <c r="E483" s="14"/>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B484" s="13"/>
       <c r="C484" s="6"/>
       <c r="D484" s="12"/>
       <c r="E484" s="14"/>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B485" s="13"/>
       <c r="C485" s="6"/>
       <c r="D485" s="12"/>
       <c r="E485" s="14"/>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B486" s="13"/>
       <c r="C486" s="6"/>
       <c r="D486" s="12"/>
       <c r="E486" s="14"/>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B487" s="13"/>
       <c r="C487" s="6"/>
       <c r="D487" s="12"/>
       <c r="E487" s="14"/>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B488" s="13"/>
       <c r="C488" s="6"/>
       <c r="D488" s="12"/>
       <c r="E488" s="14"/>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B489" s="13"/>
       <c r="C489" s="6"/>
       <c r="D489" s="12"/>
       <c r="E489" s="14"/>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B490" s="13"/>
       <c r="C490" s="6"/>
       <c r="D490" s="12"/>
       <c r="E490" s="14"/>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B491" s="13"/>
       <c r="C491" s="6"/>
       <c r="D491" s="12"/>
       <c r="E491" s="14"/>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B492" s="13"/>
       <c r="C492" s="6"/>
       <c r="D492" s="12"/>
       <c r="E492" s="14"/>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B493" s="13"/>
       <c r="C493" s="6"/>
       <c r="D493" s="12"/>
       <c r="E493" s="14"/>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B494" s="13"/>
       <c r="C494" s="6"/>
       <c r="D494" s="12"/>
       <c r="E494" s="14"/>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B495" s="13"/>
       <c r="C495" s="6"/>
@@ -6871,32 +6979,26 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:C495">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$A2="☑"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$A2="☐"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$A2="⮽"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D495">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$A2="⮽"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$A2="☐"</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2="☑"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Xanh,Trắng"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"☑,☐,⮽"</formula1>
     </dataValidation>
   </dataValidations>

--- a/fullanime.xlsx
+++ b/fullanime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662CF07B-B627-4572-A916-8DD117B20294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="648" windowWidth="23028" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="645" windowWidth="23025" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,84 +1028,102 @@
 テクノライズ</t>
   </si>
   <si>
-    <t>Shin Sekai Yori</t>
-  </si>
-  <si>
-    <t>Koi to Uso</t>
-  </si>
-  <si>
-    <t>Masamune-kun no Revenge</t>
-  </si>
-  <si>
-    <t>Shinmai Maou no Testament</t>
-  </si>
-  <si>
-    <t>Domestic na Kanojo</t>
-  </si>
-  <si>
-    <t>White Album 2</t>
-  </si>
-  <si>
     <t>ef: A Tale of Memories.</t>
   </si>
   <si>
-    <t>Re:Zero kara Hajimeru Isekai Seikatsu</t>
-  </si>
-  <si>
-    <t>Akatsuki no Yona</t>
-  </si>
-  <si>
-    <t>Akagami no Shirayuki-hime</t>
-  </si>
-  <si>
-    <t>Toradora!</t>
-  </si>
-  <si>
     <t>ef: A Tale of Melodies.</t>
   </si>
   <si>
-    <t>Ore Monogatari!!</t>
-  </si>
-  <si>
-    <t>Kareshi Kanojo no Jijou (His and Her Circumstances)</t>
-  </si>
-  <si>
-    <t>Tonari no Kaibutsu-kun</t>
-  </si>
-  <si>
-    <t>Bokura wa Minna Kawaisou</t>
-  </si>
-  <si>
-    <t>Hiiro no Kakera</t>
-  </si>
-  <si>
-    <t>Kaze no Stigma</t>
-  </si>
-  <si>
     <t>Phantom: Requiem for the Phantom</t>
   </si>
   <si>
-    <t>Hatenkou Yuugi (Dazzle)</t>
-  </si>
-  <si>
-    <t>Mahoutsukai no Yome (The Ancient Magus' Bride)</t>
+    <t>Shin Sekai Yori
+新世界より</t>
+  </si>
+  <si>
+    <t>Koi to Uso
+恋と嘘</t>
+  </si>
+  <si>
+    <t>Masamune-kun no Revenge
+政宗くんのリベンジ</t>
+  </si>
+  <si>
+    <t>Shinmai Maou no Testament
+新妹魔王の契約者</t>
+  </si>
+  <si>
+    <t>Domestic na Kanojo
+ドメスティックな彼女</t>
+  </si>
+  <si>
+    <t>White Album
+ホワイトアルバム</t>
+  </si>
+  <si>
+    <t>Re:Zero kara Hajimeru Isekai Seikatsu
+ゼロから始める異世界生活</t>
+  </si>
+  <si>
+    <t>Akatsuki no Yona
+暁のヨナ</t>
+  </si>
+  <si>
+    <t>Akagami no Shirayuki-hime
+赤髪の白雪姫</t>
+  </si>
+  <si>
+    <t>Toradora!
+とらドラ</t>
+  </si>
+  <si>
+    <t>Ore Monogatari!!
+俺物語!!</t>
+  </si>
+  <si>
+    <t>Kareshi Kanojo no Jijou (His and Her Circumstances)
+彼氏彼女の事情</t>
+  </si>
+  <si>
+    <t>Tonari no Kaibutsu-kun
+となりの怪物くん</t>
+  </si>
+  <si>
+    <t>Bokura wa Minna Kawaisou
+僕らはみんな河合荘</t>
+  </si>
+  <si>
+    <t>Hiiro no Kakera
+緋色の欠片</t>
+  </si>
+  <si>
+    <t>Kaze no Stigma
+風のスティグマ</t>
+  </si>
+  <si>
+    <t>Hatenkou Yuugi (Dazzle)
+破天荒遊戯</t>
+  </si>
+  <si>
+    <t>Mahoutsukai no Yome (The Ancient Magus' Bride)
+魔法使いの嫁</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1114,7 +1131,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Aptos Display"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -1212,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,6 +1276,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,7 +1352,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644E30A2-838C-95D4-BBD4-9279D2D41428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,24 +1713,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.8984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="96.69921875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="3"/>
-    <col min="6" max="16384" width="8.69921875" style="2"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="96.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="3"/>
+    <col min="6" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>69</v>
@@ -1723,7 +1743,7 @@
       </c>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="159.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1758,7 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="160.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1773,7 @@
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="160.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1788,7 @@
       </c>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="222" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1783,7 +1803,7 @@
       </c>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="227.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="227.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1798,7 +1818,7 @@
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" ht="288.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="288.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +1833,7 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="255" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1828,7 +1848,7 @@
       </c>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="149.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -1843,7 +1863,7 @@
       </c>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="162" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1878,7 @@
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="147.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1873,7 +1893,7 @@
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="164.25" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1888,7 +1908,7 @@
       </c>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="146.25" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1903,7 +1923,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="163.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
@@ -1918,7 +1938,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="101.25" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1933,7 +1953,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="99" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -1948,7 +1968,7 @@
       </c>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="99" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +1983,7 @@
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="116.25" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
@@ -1978,7 +1998,7 @@
       </c>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="143.25" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
@@ -1993,7 +2013,7 @@
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="111" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
@@ -2008,7 +2028,7 @@
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="131.25" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -2023,7 +2043,7 @@
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="103.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2058,7 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="83.25" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2073,7 @@
       </c>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="99" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -2068,7 +2088,7 @@
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="98.25" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
@@ -2083,7 +2103,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="98.25" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
@@ -2098,7 +2118,7 @@
       </c>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="83.25" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2133,7 @@
       </c>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="84" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>1</v>
       </c>
@@ -2128,7 +2148,7 @@
       </c>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="114.75" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -2143,7 +2163,7 @@
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="97.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>1</v>
       </c>
@@ -2158,7 +2178,7 @@
       </c>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="68.25" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
@@ -2173,7 +2193,7 @@
       </c>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="98.25" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
@@ -2188,7 +2208,7 @@
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="66.75" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>1</v>
       </c>
@@ -2203,7 +2223,7 @@
       </c>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="67.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -2218,7 +2238,7 @@
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="68.25" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2253,7 @@
       </c>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="80.25" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>1</v>
       </c>
@@ -2248,7 +2268,7 @@
       </c>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="84" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>1</v>
       </c>
@@ -2263,7 +2283,7 @@
       </c>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="81.75" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>1</v>
       </c>
@@ -2278,7 +2298,7 @@
       </c>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="83.25" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
@@ -2293,7 +2313,7 @@
       </c>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="66" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2328,7 @@
       </c>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="63">
       <c r="A41" s="6" t="s">
         <v>1</v>
       </c>
@@ -2323,7 +2343,7 @@
       </c>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="82.5" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>1</v>
       </c>
@@ -2338,7 +2358,7 @@
       </c>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="68.25" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
@@ -2353,7 +2373,7 @@
       </c>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="69.75" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2388,7 @@
       </c>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="81.75" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>1</v>
       </c>
@@ -2383,7 +2403,7 @@
       </c>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="68.25" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>1</v>
       </c>
@@ -2398,7 +2418,7 @@
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="67.5" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
@@ -2413,7 +2433,7 @@
       </c>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="83.25" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -2428,7 +2448,7 @@
       </c>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="82.5" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -2443,7 +2463,7 @@
       </c>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="83.25" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2478,7 @@
       </c>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="66" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -2473,7 +2493,7 @@
       </c>
       <c r="E51" s="14"/>
     </row>
-    <row r="52" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="68.25" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>1</v>
       </c>
@@ -2488,7 +2508,7 @@
       </c>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="69.75" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>1</v>
       </c>
@@ -2503,7 +2523,7 @@
       </c>
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="65.25" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>1</v>
       </c>
@@ -2518,7 +2538,7 @@
       </c>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="88.5" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
@@ -2533,7 +2553,7 @@
       </c>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="83.25" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
@@ -2548,7 +2568,7 @@
       </c>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="65.25" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>1</v>
       </c>
@@ -2563,7 +2583,7 @@
       </c>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="68.25" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>1</v>
       </c>
@@ -2578,7 +2598,7 @@
       </c>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="55.5" customHeight="1">
       <c r="A59" s="6" t="s">
         <v>1</v>
       </c>
@@ -2593,7 +2613,7 @@
       </c>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="66.75" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +2628,7 @@
       </c>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="54.75" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>1</v>
       </c>
@@ -2623,7 +2643,7 @@
       </c>
       <c r="E61" s="14"/>
     </row>
-    <row r="62" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="71.25" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
@@ -2638,7 +2658,7 @@
       </c>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="81" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -2653,7 +2673,7 @@
       </c>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="72.75" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
@@ -2668,7 +2688,7 @@
       </c>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="68.25" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>1</v>
       </c>
@@ -2683,7 +2703,7 @@
       </c>
       <c r="E65" s="14"/>
     </row>
-    <row r="66" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="65.25" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>1</v>
       </c>
@@ -2698,7 +2718,7 @@
       </c>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="81.75" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>1</v>
       </c>
@@ -2713,7 +2733,7 @@
       </c>
       <c r="E67" s="14"/>
     </row>
-    <row r="68" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="67.5" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>1</v>
       </c>
@@ -2728,7 +2748,7 @@
       </c>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="82.5" customHeight="1">
       <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +2763,7 @@
       </c>
       <c r="E69" s="14"/>
     </row>
-    <row r="70" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="65.25" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>1</v>
       </c>
@@ -2758,7 +2778,7 @@
       </c>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="31.5">
       <c r="A71" s="6" t="s">
         <v>1</v>
       </c>
@@ -2771,7 +2791,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="14"/>
     </row>
-    <row r="72" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="70.5" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>1</v>
       </c>
@@ -2786,7 +2806,7 @@
       </c>
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="80.25" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>1</v>
       </c>
@@ -2801,7 +2821,7 @@
       </c>
       <c r="E73" s="14"/>
     </row>
-    <row r="74" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="67.5" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -2816,7 +2836,7 @@
       </c>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="64.5" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>1</v>
       </c>
@@ -2831,7 +2851,7 @@
       </c>
       <c r="E75" s="14"/>
     </row>
-    <row r="76" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="160.5" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>1</v>
       </c>
@@ -2846,7 +2866,7 @@
       </c>
       <c r="E76" s="14"/>
     </row>
-    <row r="77" spans="1:5" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="173.25">
       <c r="A77" s="6" t="s">
         <v>1</v>
       </c>
@@ -2861,7 +2881,7 @@
       </c>
       <c r="E77" s="14"/>
     </row>
-    <row r="78" spans="1:5" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="195" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>1</v>
       </c>
@@ -2876,7 +2896,7 @@
       </c>
       <c r="E78" s="14"/>
     </row>
-    <row r="79" spans="1:5" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="149.25" customHeight="1">
       <c r="A79" s="6" t="s">
         <v>2</v>
       </c>
@@ -2893,7 +2913,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="47.25">
       <c r="A80" s="6" t="s">
         <v>68</v>
       </c>
@@ -2906,7 +2926,7 @@
       <c r="D80" s="12"/>
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="47.25">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
@@ -2919,7 +2939,7 @@
       <c r="D81" s="12"/>
       <c r="E81" s="14"/>
     </row>
-    <row r="82" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="31.5">
       <c r="A82" s="6" t="s">
         <v>68</v>
       </c>
@@ -2932,7 +2952,7 @@
       <c r="D82" s="12"/>
       <c r="E82" s="14"/>
     </row>
-    <row r="83" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="47.25">
       <c r="A83" s="6" t="s">
         <v>68</v>
       </c>
@@ -2945,7 +2965,7 @@
       <c r="D83" s="12"/>
       <c r="E83" s="14"/>
     </row>
-    <row r="84" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="47.25">
       <c r="A84" s="6" t="s">
         <v>68</v>
       </c>
@@ -2958,7 +2978,7 @@
       <c r="D84" s="12"/>
       <c r="E84" s="14"/>
     </row>
-    <row r="85" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="47.25">
       <c r="A85" s="6" t="s">
         <v>68</v>
       </c>
@@ -2971,7 +2991,7 @@
       <c r="D85" s="12"/>
       <c r="E85" s="14"/>
     </row>
-    <row r="86" spans="1:5" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="176.25" customHeight="1">
       <c r="A86" s="6" t="s">
         <v>1</v>
       </c>
@@ -2986,7 +3006,7 @@
       </c>
       <c r="E86" s="14"/>
     </row>
-    <row r="87" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="47.25">
       <c r="A87" s="6" t="s">
         <v>68</v>
       </c>
@@ -2999,7 +3019,7 @@
       <c r="D87" s="12"/>
       <c r="E87" s="14"/>
     </row>
-    <row r="88" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="47.25">
       <c r="A88" s="6" t="s">
         <v>68</v>
       </c>
@@ -3012,7 +3032,7 @@
       <c r="D88" s="12"/>
       <c r="E88" s="14"/>
     </row>
-    <row r="89" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="31.5">
       <c r="A89" s="6" t="s">
         <v>68</v>
       </c>
@@ -3025,7 +3045,7 @@
       <c r="D89" s="12"/>
       <c r="E89" s="14"/>
     </row>
-    <row r="90" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="47.25">
       <c r="A90" s="6" t="s">
         <v>68</v>
       </c>
@@ -3038,7 +3058,7 @@
       <c r="D90" s="12"/>
       <c r="E90" s="14"/>
     </row>
-    <row r="91" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="31.5">
       <c r="A91" s="6" t="s">
         <v>68</v>
       </c>
@@ -3051,7 +3071,7 @@
       <c r="D91" s="12"/>
       <c r="E91" s="14"/>
     </row>
-    <row r="92" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="117" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>1</v>
       </c>
@@ -3066,7 +3086,7 @@
       </c>
       <c r="E92" s="14"/>
     </row>
-    <row r="93" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="94.5">
       <c r="A93" s="6" t="s">
         <v>1</v>
       </c>
@@ -3081,7 +3101,7 @@
       </c>
       <c r="E93" s="14"/>
     </row>
-    <row r="94" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="47.25">
       <c r="A94" s="6" t="s">
         <v>68</v>
       </c>
@@ -3094,7 +3114,7 @@
       <c r="D94" s="12"/>
       <c r="E94" s="14"/>
     </row>
-    <row r="95" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="47.25">
       <c r="A95" s="6" t="s">
         <v>68</v>
       </c>
@@ -3107,7 +3127,7 @@
       <c r="D95" s="12"/>
       <c r="E95" s="14"/>
     </row>
-    <row r="96" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="47.25">
       <c r="A96" s="6" t="s">
         <v>68</v>
       </c>
@@ -3120,7 +3140,7 @@
       <c r="D96" s="12"/>
       <c r="E96" s="14"/>
     </row>
-    <row r="97" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="47.25">
       <c r="A97" s="6" t="s">
         <v>68</v>
       </c>
@@ -3133,7 +3153,7 @@
       <c r="D97" s="12"/>
       <c r="E97" s="14"/>
     </row>
-    <row r="98" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="47.25">
       <c r="A98" s="6" t="s">
         <v>68</v>
       </c>
@@ -3146,7 +3166,7 @@
       <c r="D98" s="12"/>
       <c r="E98" s="14"/>
     </row>
-    <row r="99" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="47.25">
       <c r="A99" s="6" t="s">
         <v>68</v>
       </c>
@@ -3159,7 +3179,7 @@
       <c r="D99" s="12"/>
       <c r="E99" s="14"/>
     </row>
-    <row r="100" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="47.25">
       <c r="A100" s="6" t="s">
         <v>68</v>
       </c>
@@ -3172,7 +3192,7 @@
       <c r="D100" s="12"/>
       <c r="E100" s="14"/>
     </row>
-    <row r="101" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="47.25">
       <c r="A101" s="6" t="s">
         <v>68</v>
       </c>
@@ -3185,7 +3205,7 @@
       <c r="D101" s="12"/>
       <c r="E101" s="14"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="6" t="s">
         <v>68</v>
       </c>
@@ -3198,7 +3218,7 @@
       <c r="D102" s="12"/>
       <c r="E102" s="14"/>
     </row>
-    <row r="103" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="47.25">
       <c r="A103" s="6" t="s">
         <v>68</v>
       </c>
@@ -3211,7 +3231,7 @@
       <c r="D103" s="12"/>
       <c r="E103" s="14"/>
     </row>
-    <row r="104" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="47.25">
       <c r="A104" s="6" t="s">
         <v>68</v>
       </c>
@@ -3224,7 +3244,7 @@
       <c r="D104" s="12"/>
       <c r="E104" s="14"/>
     </row>
-    <row r="105" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="47.25">
       <c r="A105" s="6" t="s">
         <v>68</v>
       </c>
@@ -3237,7 +3257,7 @@
       <c r="D105" s="12"/>
       <c r="E105" s="14"/>
     </row>
-    <row r="106" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="47.25">
       <c r="A106" s="6" t="s">
         <v>68</v>
       </c>
@@ -3250,7 +3270,7 @@
       <c r="D106" s="12"/>
       <c r="E106" s="14"/>
     </row>
-    <row r="107" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="47.25">
       <c r="A107" s="6" t="s">
         <v>68</v>
       </c>
@@ -3263,7 +3283,7 @@
       <c r="D107" s="12"/>
       <c r="E107" s="14"/>
     </row>
-    <row r="108" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="47.25">
       <c r="A108" s="6" t="s">
         <v>68</v>
       </c>
@@ -3276,7 +3296,7 @@
       <c r="D108" s="12"/>
       <c r="E108" s="14"/>
     </row>
-    <row r="109" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="47.25">
       <c r="A109" s="6" t="s">
         <v>68</v>
       </c>
@@ -3289,7 +3309,7 @@
       <c r="D109" s="12"/>
       <c r="E109" s="14"/>
     </row>
-    <row r="110" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="47.25">
       <c r="A110" s="6" t="s">
         <v>68</v>
       </c>
@@ -3302,7 +3322,7 @@
       <c r="D110" s="12"/>
       <c r="E110" s="14"/>
     </row>
-    <row r="111" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="47.25">
       <c r="A111" s="6" t="s">
         <v>68</v>
       </c>
@@ -3315,7 +3335,7 @@
       <c r="D111" s="12"/>
       <c r="E111" s="14"/>
     </row>
-    <row r="112" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="47.25">
       <c r="A112" s="6" t="s">
         <v>68</v>
       </c>
@@ -3328,7 +3348,7 @@
       <c r="D112" s="12"/>
       <c r="E112" s="14"/>
     </row>
-    <row r="113" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="31.5">
       <c r="A113" s="6" t="s">
         <v>68</v>
       </c>
@@ -3341,7 +3361,7 @@
       <c r="D113" s="12"/>
       <c r="E113" s="14"/>
     </row>
-    <row r="114" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="47.25">
       <c r="A114" s="6" t="s">
         <v>68</v>
       </c>
@@ -3354,7 +3374,7 @@
       <c r="D114" s="12"/>
       <c r="E114" s="14"/>
     </row>
-    <row r="115" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="47.25">
       <c r="A115" s="6" t="s">
         <v>68</v>
       </c>
@@ -3367,7 +3387,7 @@
       <c r="D115" s="12"/>
       <c r="E115" s="14"/>
     </row>
-    <row r="116" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="47.25">
       <c r="A116" s="6" t="s">
         <v>68</v>
       </c>
@@ -3380,7 +3400,7 @@
       <c r="D116" s="12"/>
       <c r="E116" s="14"/>
     </row>
-    <row r="117" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="47.25">
       <c r="A117" s="6" t="s">
         <v>68</v>
       </c>
@@ -3393,7 +3413,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="14"/>
     </row>
-    <row r="118" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="47.25">
       <c r="A118" s="6" t="s">
         <v>68</v>
       </c>
@@ -3406,7 +3426,7 @@
       <c r="D118" s="12"/>
       <c r="E118" s="14"/>
     </row>
-    <row r="119" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="47.25">
       <c r="A119" s="6" t="s">
         <v>68</v>
       </c>
@@ -3419,7 +3439,7 @@
       <c r="D119" s="12"/>
       <c r="E119" s="14"/>
     </row>
-    <row r="120" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="47.25">
       <c r="A120" s="6" t="s">
         <v>68</v>
       </c>
@@ -3432,7 +3452,7 @@
       <c r="D120" s="12"/>
       <c r="E120" s="14"/>
     </row>
-    <row r="121" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="47.25">
       <c r="A121" s="6" t="s">
         <v>68</v>
       </c>
@@ -3445,7 +3465,7 @@
       <c r="D121" s="12"/>
       <c r="E121" s="14"/>
     </row>
-    <row r="122" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="47.25">
       <c r="A122" s="6" t="s">
         <v>68</v>
       </c>
@@ -3458,7 +3478,7 @@
       <c r="D122" s="12"/>
       <c r="E122" s="14"/>
     </row>
-    <row r="123" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="47.25">
       <c r="A123" s="6" t="s">
         <v>68</v>
       </c>
@@ -3471,7 +3491,7 @@
       <c r="D123" s="12"/>
       <c r="E123" s="14"/>
     </row>
-    <row r="124" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="47.25">
       <c r="A124" s="6" t="s">
         <v>68</v>
       </c>
@@ -3484,7 +3504,7 @@
       <c r="D124" s="12"/>
       <c r="E124" s="14"/>
     </row>
-    <row r="125" spans="1:5" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="161.25" customHeight="1">
       <c r="A125" s="6" t="s">
         <v>1</v>
       </c>
@@ -3499,7 +3519,7 @@
       </c>
       <c r="E125" s="14"/>
     </row>
-    <row r="126" spans="1:5" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="165.75" customHeight="1">
       <c r="A126" s="6" t="s">
         <v>2</v>
       </c>
@@ -3516,7 +3536,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="97.5" customHeight="1">
       <c r="A127" s="6" t="s">
         <v>1</v>
       </c>
@@ -3531,7 +3551,7 @@
       </c>
       <c r="E127" s="14"/>
     </row>
-    <row r="128" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="31.5">
       <c r="A128" s="6" t="s">
         <v>68</v>
       </c>
@@ -3544,7 +3564,7 @@
       <c r="D128" s="12"/>
       <c r="E128" s="14"/>
     </row>
-    <row r="129" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="31.5">
       <c r="A129" s="6" t="s">
         <v>68</v>
       </c>
@@ -3557,7 +3577,7 @@
       <c r="D129" s="12"/>
       <c r="E129" s="14"/>
     </row>
-    <row r="130" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="110.25">
       <c r="A130" s="6" t="s">
         <v>1</v>
       </c>
@@ -3572,7 +3592,7 @@
       </c>
       <c r="E130" s="14"/>
     </row>
-    <row r="131" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="31.5">
       <c r="A131" s="6" t="s">
         <v>68</v>
       </c>
@@ -3585,7 +3605,7 @@
       <c r="D131" s="12"/>
       <c r="E131" s="14"/>
     </row>
-    <row r="132" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="225" customHeight="1">
       <c r="A132" s="6" t="s">
         <v>2</v>
       </c>
@@ -3602,7 +3622,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="47.25">
       <c r="A133" s="6" t="s">
         <v>68</v>
       </c>
@@ -3615,7 +3635,7 @@
       <c r="D133" s="12"/>
       <c r="E133" s="14"/>
     </row>
-    <row r="134" spans="1:5" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="192.75" customHeight="1">
       <c r="A134" s="6" t="s">
         <v>1</v>
       </c>
@@ -3630,7 +3650,7 @@
       </c>
       <c r="E134" s="14"/>
     </row>
-    <row r="135" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="180" customHeight="1">
       <c r="A135" s="6" t="s">
         <v>2</v>
       </c>
@@ -3647,7 +3667,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="31.5">
       <c r="A136" s="6" t="s">
         <v>68</v>
       </c>
@@ -3660,7 +3680,7 @@
       <c r="D136" s="12"/>
       <c r="E136" s="14"/>
     </row>
-    <row r="137" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="47.25">
       <c r="A137" s="6" t="s">
         <v>68</v>
       </c>
@@ -3673,7 +3693,7 @@
       <c r="D137" s="12"/>
       <c r="E137" s="14"/>
     </row>
-    <row r="138" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="47.25">
       <c r="A138" s="6" t="s">
         <v>68</v>
       </c>
@@ -3686,7 +3706,7 @@
       <c r="D138" s="12"/>
       <c r="E138" s="14"/>
     </row>
-    <row r="139" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="47.25">
       <c r="A139" s="6" t="s">
         <v>68</v>
       </c>
@@ -3699,7 +3719,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="14"/>
     </row>
-    <row r="140" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="47.25">
       <c r="A140" s="6" t="s">
         <v>68</v>
       </c>
@@ -3712,7 +3732,7 @@
       <c r="D140" s="12"/>
       <c r="E140" s="14"/>
     </row>
-    <row r="141" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="47.25">
       <c r="A141" s="6" t="s">
         <v>68</v>
       </c>
@@ -3725,7 +3745,7 @@
       <c r="D141" s="12"/>
       <c r="E141" s="14"/>
     </row>
-    <row r="142" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="31.5">
       <c r="A142" s="6" t="s">
         <v>68</v>
       </c>
@@ -3738,7 +3758,7 @@
       <c r="D142" s="12"/>
       <c r="E142" s="14"/>
     </row>
-    <row r="143" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="47.25">
       <c r="A143" s="6" t="s">
         <v>68</v>
       </c>
@@ -3751,7 +3771,7 @@
       <c r="D143" s="12"/>
       <c r="E143" s="14"/>
     </row>
-    <row r="144" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="47.25">
       <c r="A144" s="6" t="s">
         <v>68</v>
       </c>
@@ -3764,7 +3784,7 @@
       <c r="D144" s="12"/>
       <c r="E144" s="14"/>
     </row>
-    <row r="145" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="31.5">
       <c r="A145" s="6" t="s">
         <v>68</v>
       </c>
@@ -3777,7 +3797,7 @@
       <c r="D145" s="12"/>
       <c r="E145" s="14"/>
     </row>
-    <row r="146" spans="1:5" ht="199.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="199.9" customHeight="1">
       <c r="A146" s="6" t="s">
         <v>2</v>
       </c>
@@ -3792,238 +3812,280 @@
       </c>
       <c r="E146" s="14"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="31.5">
       <c r="A147" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B147" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C147" s="6"/>
+      <c r="B147" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C147" s="6">
+        <v>2008</v>
+      </c>
       <c r="D147" s="12"/>
       <c r="E147" s="14"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="31.5">
       <c r="A148" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B148" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C148" s="6"/>
+      <c r="B148" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" s="6">
+        <v>2014</v>
+      </c>
       <c r="D148" s="12"/>
       <c r="E148" s="14"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="31.5">
       <c r="A149" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B149" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C149" s="6"/>
+      <c r="B149" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C149" s="6">
+        <v>2012</v>
+      </c>
       <c r="D149" s="12"/>
       <c r="E149" s="14"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="31.5">
       <c r="A150" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B150" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C150" s="6"/>
+      <c r="B150" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" s="6">
+        <v>2012</v>
+      </c>
       <c r="D150" s="12"/>
       <c r="E150" s="14"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="31.5">
       <c r="A151" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B151" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C151" s="6"/>
+      <c r="B151" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" s="6">
+        <v>2014</v>
+      </c>
       <c r="D151" s="12"/>
       <c r="E151" s="14"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="31.5">
       <c r="A152" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B152" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C152" s="6"/>
+      <c r="B152" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C152" s="6">
+        <v>1998</v>
+      </c>
       <c r="D152" s="12"/>
       <c r="E152" s="14"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C153" s="6"/>
+        <v>243</v>
+      </c>
+      <c r="C153" s="6">
+        <v>2007</v>
+      </c>
       <c r="D153" s="12"/>
       <c r="E153" s="14"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="31.5">
       <c r="A154" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B154" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C154" s="6"/>
+      <c r="B154" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C154" s="6">
+        <v>2012</v>
+      </c>
       <c r="D154" s="12"/>
       <c r="E154" s="14"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="31.5">
       <c r="A155" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C155" s="6"/>
+      <c r="B155" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C155" s="6">
+        <v>2009</v>
+      </c>
       <c r="D155" s="12"/>
       <c r="E155" s="14"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="31.5">
       <c r="A156" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C156" s="6"/>
+      <c r="B156" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C156" s="6">
+        <v>2006</v>
+      </c>
       <c r="D156" s="12"/>
       <c r="E156" s="14"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="31.5">
       <c r="A157" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C157" s="6"/>
+      <c r="B157" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C157" s="6">
+        <v>2006</v>
+      </c>
       <c r="D157" s="12"/>
       <c r="E157" s="14"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5">
       <c r="A158" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C158" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="C158" s="6">
+        <v>2008</v>
+      </c>
       <c r="D158" s="12"/>
       <c r="E158" s="14"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="31.5">
       <c r="A159" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B159" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C159" s="6"/>
+      <c r="B159" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C159" s="6">
+        <v>2012</v>
+      </c>
       <c r="D159" s="12"/>
       <c r="E159" s="14"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="31.5">
       <c r="A160" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B160" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C160" s="6"/>
+      <c r="B160" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C160" s="6">
+        <v>2008</v>
+      </c>
       <c r="D160" s="12"/>
       <c r="E160" s="14"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="31.5">
       <c r="A161" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B161" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C161" s="6"/>
+      <c r="B161" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C161" s="6">
+        <v>2008</v>
+      </c>
       <c r="D161" s="12"/>
       <c r="E161" s="14"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="31.5">
       <c r="A162" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B162" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C162" s="6"/>
+      <c r="B162" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C162" s="6">
+        <v>2010</v>
+      </c>
       <c r="D162" s="12"/>
       <c r="E162" s="14"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="31.5">
       <c r="A163" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B163" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C163" s="6"/>
+      <c r="B163" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C163" s="6">
+        <v>2006</v>
+      </c>
       <c r="D163" s="12"/>
       <c r="E163" s="14"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="31.5">
       <c r="A164" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B164" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C164" s="6"/>
+      <c r="B164" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C164" s="6">
+        <v>2002</v>
+      </c>
       <c r="D164" s="12"/>
       <c r="E164" s="14"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C165" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="C165" s="6">
+        <v>2009</v>
+      </c>
       <c r="D165" s="12"/>
       <c r="E165" s="14"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="31.5">
       <c r="A166" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C166" s="6"/>
+      <c r="C166" s="6">
+        <v>1999</v>
+      </c>
       <c r="D166" s="12"/>
       <c r="E166" s="14"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="31.5">
       <c r="A167" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C167" s="6"/>
+      <c r="C167" s="6">
+        <v>2013</v>
+      </c>
       <c r="D167" s="12"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" s="6" t="s">
         <v>68</v>
       </c>
@@ -4032,7 +4094,7 @@
       <c r="D168" s="12"/>
       <c r="E168" s="14"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="6" t="s">
         <v>68</v>
       </c>
@@ -4041,7 +4103,7 @@
       <c r="D169" s="12"/>
       <c r="E169" s="14"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
         <v>68</v>
       </c>
@@ -4050,7 +4112,7 @@
       <c r="D170" s="12"/>
       <c r="E170" s="14"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" s="6" t="s">
         <v>68</v>
       </c>
@@ -4059,7 +4121,7 @@
       <c r="D171" s="12"/>
       <c r="E171" s="14"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="6" t="s">
         <v>68</v>
       </c>
@@ -4068,7 +4130,7 @@
       <c r="D172" s="12"/>
       <c r="E172" s="14"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" s="6" t="s">
         <v>68</v>
       </c>
@@ -4077,7 +4139,7 @@
       <c r="D173" s="12"/>
       <c r="E173" s="14"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" s="6" t="s">
         <v>68</v>
       </c>
@@ -4086,7 +4148,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="14"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" s="6" t="s">
         <v>68</v>
       </c>
@@ -4095,7 +4157,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="14"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5">
       <c r="A176" s="6" t="s">
         <v>68</v>
       </c>
@@ -4104,7 +4166,7 @@
       <c r="D176" s="12"/>
       <c r="E176" s="14"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" s="6" t="s">
         <v>68</v>
       </c>
@@ -4113,7 +4175,7 @@
       <c r="D177" s="12"/>
       <c r="E177" s="14"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" s="6" t="s">
         <v>68</v>
       </c>
@@ -4122,7 +4184,7 @@
       <c r="D178" s="12"/>
       <c r="E178" s="14"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5">
       <c r="A179" s="6" t="s">
         <v>68</v>
       </c>
@@ -4131,7 +4193,7 @@
       <c r="D179" s="12"/>
       <c r="E179" s="14"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5">
       <c r="A180" s="6" t="s">
         <v>68</v>
       </c>
@@ -4140,7 +4202,7 @@
       <c r="D180" s="12"/>
       <c r="E180" s="14"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5">
       <c r="A181" s="6" t="s">
         <v>68</v>
       </c>
@@ -4149,7 +4211,7 @@
       <c r="D181" s="12"/>
       <c r="E181" s="14"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
         <v>68</v>
       </c>
@@ -4158,7 +4220,7 @@
       <c r="D182" s="12"/>
       <c r="E182" s="14"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5">
       <c r="A183" s="6" t="s">
         <v>68</v>
       </c>
@@ -4167,7 +4229,7 @@
       <c r="D183" s="12"/>
       <c r="E183" s="14"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" s="6" t="s">
         <v>68</v>
       </c>
@@ -4176,7 +4238,7 @@
       <c r="D184" s="12"/>
       <c r="E184" s="14"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5">
       <c r="A185" s="6" t="s">
         <v>68</v>
       </c>
@@ -4185,7 +4247,7 @@
       <c r="D185" s="12"/>
       <c r="E185" s="14"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" s="6" t="s">
         <v>68</v>
       </c>
@@ -4194,7 +4256,7 @@
       <c r="D186" s="12"/>
       <c r="E186" s="14"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="6" t="s">
         <v>68</v>
       </c>
@@ -4203,7 +4265,7 @@
       <c r="D187" s="12"/>
       <c r="E187" s="14"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5">
       <c r="A188" s="6" t="s">
         <v>68</v>
       </c>
@@ -4212,7 +4274,7 @@
       <c r="D188" s="12"/>
       <c r="E188" s="14"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5">
       <c r="A189" s="6" t="s">
         <v>68</v>
       </c>
@@ -4221,7 +4283,7 @@
       <c r="D189" s="12"/>
       <c r="E189" s="14"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5">
       <c r="A190" s="6" t="s">
         <v>68</v>
       </c>
@@ -4230,7 +4292,7 @@
       <c r="D190" s="12"/>
       <c r="E190" s="14"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5">
       <c r="A191" s="6" t="s">
         <v>68</v>
       </c>
@@ -4239,7 +4301,7 @@
       <c r="D191" s="12"/>
       <c r="E191" s="14"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5">
       <c r="A192" s="6" t="s">
         <v>68</v>
       </c>
@@ -4248,7 +4310,7 @@
       <c r="D192" s="12"/>
       <c r="E192" s="14"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5">
       <c r="A193" s="6" t="s">
         <v>68</v>
       </c>
@@ -4257,7 +4319,7 @@
       <c r="D193" s="12"/>
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5">
       <c r="A194" s="6" t="s">
         <v>68</v>
       </c>
@@ -4266,7 +4328,7 @@
       <c r="D194" s="12"/>
       <c r="E194" s="14"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5">
       <c r="A195" s="6" t="s">
         <v>68</v>
       </c>
@@ -4275,7 +4337,7 @@
       <c r="D195" s="12"/>
       <c r="E195" s="14"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5">
       <c r="A196" s="6" t="s">
         <v>68</v>
       </c>
@@ -4284,7 +4346,7 @@
       <c r="D196" s="12"/>
       <c r="E196" s="14"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5">
       <c r="A197" s="6" t="s">
         <v>68</v>
       </c>
@@ -4293,7 +4355,7 @@
       <c r="D197" s="12"/>
       <c r="E197" s="14"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5">
       <c r="A198" s="6" t="s">
         <v>68</v>
       </c>
@@ -4302,7 +4364,7 @@
       <c r="D198" s="12"/>
       <c r="E198" s="14"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5">
       <c r="A199" s="6" t="s">
         <v>68</v>
       </c>
@@ -4311,7 +4373,7 @@
       <c r="D199" s="12"/>
       <c r="E199" s="14"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5">
       <c r="A200" s="6" t="s">
         <v>68</v>
       </c>
@@ -4320,7 +4382,7 @@
       <c r="D200" s="12"/>
       <c r="E200" s="14"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5">
       <c r="A201" s="6" t="s">
         <v>68</v>
       </c>
@@ -4329,7 +4391,7 @@
       <c r="D201" s="12"/>
       <c r="E201" s="14"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5">
       <c r="A202" s="6" t="s">
         <v>68</v>
       </c>
@@ -4338,7 +4400,7 @@
       <c r="D202" s="12"/>
       <c r="E202" s="14"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5">
       <c r="A203" s="6" t="s">
         <v>68</v>
       </c>
@@ -4347,7 +4409,7 @@
       <c r="D203" s="12"/>
       <c r="E203" s="14"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
         <v>68</v>
       </c>
@@ -4356,7 +4418,7 @@
       <c r="D204" s="12"/>
       <c r="E204" s="14"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5">
       <c r="A205" s="6" t="s">
         <v>68</v>
       </c>
@@ -4365,7 +4427,7 @@
       <c r="D205" s="12"/>
       <c r="E205" s="14"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5">
       <c r="A206" s="6" t="s">
         <v>68</v>
       </c>
@@ -4374,7 +4436,7 @@
       <c r="D206" s="12"/>
       <c r="E206" s="14"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5">
       <c r="A207" s="6" t="s">
         <v>68</v>
       </c>
@@ -4383,7 +4445,7 @@
       <c r="D207" s="12"/>
       <c r="E207" s="14"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5">
       <c r="A208" s="6" t="s">
         <v>68</v>
       </c>
@@ -4392,7 +4454,7 @@
       <c r="D208" s="12"/>
       <c r="E208" s="14"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5">
       <c r="A209" s="6" t="s">
         <v>68</v>
       </c>
@@ -4401,7 +4463,7 @@
       <c r="D209" s="12"/>
       <c r="E209" s="14"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5">
       <c r="A210" s="6" t="s">
         <v>68</v>
       </c>
@@ -4410,7 +4472,7 @@
       <c r="D210" s="12"/>
       <c r="E210" s="14"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5">
       <c r="A211" s="6" t="s">
         <v>68</v>
       </c>
@@ -4419,7 +4481,7 @@
       <c r="D211" s="12"/>
       <c r="E211" s="14"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5">
       <c r="A212" s="6" t="s">
         <v>68</v>
       </c>
@@ -4428,7 +4490,7 @@
       <c r="D212" s="12"/>
       <c r="E212" s="14"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5">
       <c r="A213" s="6" t="s">
         <v>68</v>
       </c>
@@ -4437,7 +4499,7 @@
       <c r="D213" s="12"/>
       <c r="E213" s="14"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5">
       <c r="A214" s="6" t="s">
         <v>68</v>
       </c>
@@ -4446,7 +4508,7 @@
       <c r="D214" s="12"/>
       <c r="E214" s="14"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5">
       <c r="A215" s="6" t="s">
         <v>68</v>
       </c>
@@ -4455,7 +4517,7 @@
       <c r="D215" s="12"/>
       <c r="E215" s="14"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5">
       <c r="A216" s="6" t="s">
         <v>68</v>
       </c>
@@ -4464,7 +4526,7 @@
       <c r="D216" s="12"/>
       <c r="E216" s="14"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5">
       <c r="A217" s="6" t="s">
         <v>68</v>
       </c>
@@ -4473,7 +4535,7 @@
       <c r="D217" s="12"/>
       <c r="E217" s="14"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5">
       <c r="A218" s="6" t="s">
         <v>68</v>
       </c>
@@ -4482,7 +4544,7 @@
       <c r="D218" s="12"/>
       <c r="E218" s="14"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5">
       <c r="A219" s="6" t="s">
         <v>68</v>
       </c>
@@ -4491,7 +4553,7 @@
       <c r="D219" s="12"/>
       <c r="E219" s="14"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5">
       <c r="A220" s="6" t="s">
         <v>68</v>
       </c>
@@ -4500,7 +4562,7 @@
       <c r="D220" s="12"/>
       <c r="E220" s="14"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5">
       <c r="A221" s="6" t="s">
         <v>68</v>
       </c>
@@ -4509,7 +4571,7 @@
       <c r="D221" s="12"/>
       <c r="E221" s="14"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5">
       <c r="A222" s="6" t="s">
         <v>68</v>
       </c>
@@ -4518,7 +4580,7 @@
       <c r="D222" s="12"/>
       <c r="E222" s="14"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5">
       <c r="A223" s="6" t="s">
         <v>68</v>
       </c>
@@ -4527,7 +4589,7 @@
       <c r="D223" s="12"/>
       <c r="E223" s="14"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5">
       <c r="A224" s="6" t="s">
         <v>68</v>
       </c>
@@ -4536,7 +4598,7 @@
       <c r="D224" s="12"/>
       <c r="E224" s="14"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5">
       <c r="A225" s="6" t="s">
         <v>68</v>
       </c>
@@ -4545,7 +4607,7 @@
       <c r="D225" s="12"/>
       <c r="E225" s="14"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5">
       <c r="A226" s="6" t="s">
         <v>68</v>
       </c>
@@ -4554,7 +4616,7 @@
       <c r="D226" s="12"/>
       <c r="E226" s="14"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5">
       <c r="A227" s="6" t="s">
         <v>68</v>
       </c>
@@ -4563,7 +4625,7 @@
       <c r="D227" s="12"/>
       <c r="E227" s="14"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5">
       <c r="A228" s="6" t="s">
         <v>68</v>
       </c>
@@ -4572,7 +4634,7 @@
       <c r="D228" s="12"/>
       <c r="E228" s="14"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5">
       <c r="A229" s="6" t="s">
         <v>68</v>
       </c>
@@ -4581,7 +4643,7 @@
       <c r="D229" s="12"/>
       <c r="E229" s="14"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5">
       <c r="A230" s="6" t="s">
         <v>68</v>
       </c>
@@ -4590,7 +4652,7 @@
       <c r="D230" s="12"/>
       <c r="E230" s="14"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5">
       <c r="A231" s="6" t="s">
         <v>68</v>
       </c>
@@ -4599,7 +4661,7 @@
       <c r="D231" s="12"/>
       <c r="E231" s="14"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5">
       <c r="A232" s="6" t="s">
         <v>68</v>
       </c>
@@ -4608,7 +4670,7 @@
       <c r="D232" s="12"/>
       <c r="E232" s="14"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5">
       <c r="A233" s="6" t="s">
         <v>68</v>
       </c>
@@ -4617,7 +4679,7 @@
       <c r="D233" s="12"/>
       <c r="E233" s="14"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5">
       <c r="A234" s="6" t="s">
         <v>68</v>
       </c>
@@ -4626,7 +4688,7 @@
       <c r="D234" s="12"/>
       <c r="E234" s="14"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5">
       <c r="A235" s="6" t="s">
         <v>68</v>
       </c>
@@ -4635,7 +4697,7 @@
       <c r="D235" s="12"/>
       <c r="E235" s="14"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5">
       <c r="A236" s="6" t="s">
         <v>68</v>
       </c>
@@ -4644,7 +4706,7 @@
       <c r="D236" s="12"/>
       <c r="E236" s="14"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5">
       <c r="A237" s="6" t="s">
         <v>68</v>
       </c>
@@ -4653,7 +4715,7 @@
       <c r="D237" s="12"/>
       <c r="E237" s="14"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5">
       <c r="A238" s="6" t="s">
         <v>68</v>
       </c>
@@ -4662,7 +4724,7 @@
       <c r="D238" s="12"/>
       <c r="E238" s="14"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5">
       <c r="A239" s="6" t="s">
         <v>68</v>
       </c>
@@ -4671,7 +4733,7 @@
       <c r="D239" s="12"/>
       <c r="E239" s="14"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5">
       <c r="A240" s="6" t="s">
         <v>68</v>
       </c>
@@ -4680,7 +4742,7 @@
       <c r="D240" s="12"/>
       <c r="E240" s="14"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5">
       <c r="A241" s="6" t="s">
         <v>68</v>
       </c>
@@ -4689,7 +4751,7 @@
       <c r="D241" s="12"/>
       <c r="E241" s="14"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5">
       <c r="A242" s="6" t="s">
         <v>68</v>
       </c>
@@ -4698,7 +4760,7 @@
       <c r="D242" s="12"/>
       <c r="E242" s="14"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5">
       <c r="A243" s="6" t="s">
         <v>68</v>
       </c>
@@ -4707,7 +4769,7 @@
       <c r="D243" s="12"/>
       <c r="E243" s="14"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5">
       <c r="A244" s="6" t="s">
         <v>68</v>
       </c>
@@ -4716,7 +4778,7 @@
       <c r="D244" s="12"/>
       <c r="E244" s="14"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5">
       <c r="A245" s="6" t="s">
         <v>68</v>
       </c>
@@ -4725,7 +4787,7 @@
       <c r="D245" s="12"/>
       <c r="E245" s="14"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5">
       <c r="A246" s="6" t="s">
         <v>68</v>
       </c>
@@ -4734,7 +4796,7 @@
       <c r="D246" s="12"/>
       <c r="E246" s="14"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5">
       <c r="A247" s="6" t="s">
         <v>68</v>
       </c>
@@ -4743,7 +4805,7 @@
       <c r="D247" s="12"/>
       <c r="E247" s="14"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5">
       <c r="A248" s="6" t="s">
         <v>68</v>
       </c>
@@ -4752,7 +4814,7 @@
       <c r="D248" s="12"/>
       <c r="E248" s="14"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5">
       <c r="A249" s="6" t="s">
         <v>68</v>
       </c>
@@ -4761,7 +4823,7 @@
       <c r="D249" s="12"/>
       <c r="E249" s="14"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5">
       <c r="A250" s="6" t="s">
         <v>68</v>
       </c>
@@ -4770,7 +4832,7 @@
       <c r="D250" s="12"/>
       <c r="E250" s="14"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5">
       <c r="A251" s="6" t="s">
         <v>68</v>
       </c>
@@ -4779,7 +4841,7 @@
       <c r="D251" s="12"/>
       <c r="E251" s="14"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5">
       <c r="A252" s="6" t="s">
         <v>68</v>
       </c>
@@ -4788,7 +4850,7 @@
       <c r="D252" s="12"/>
       <c r="E252" s="14"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5">
       <c r="A253" s="6" t="s">
         <v>68</v>
       </c>
@@ -4797,7 +4859,7 @@
       <c r="D253" s="12"/>
       <c r="E253" s="14"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5">
       <c r="A254" s="6" t="s">
         <v>68</v>
       </c>
@@ -4806,7 +4868,7 @@
       <c r="D254" s="12"/>
       <c r="E254" s="14"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5">
       <c r="A255" s="6" t="s">
         <v>68</v>
       </c>
@@ -4815,7 +4877,7 @@
       <c r="D255" s="12"/>
       <c r="E255" s="14"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5">
       <c r="A256" s="6" t="s">
         <v>68</v>
       </c>
@@ -4824,7 +4886,7 @@
       <c r="D256" s="12"/>
       <c r="E256" s="14"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5">
       <c r="A257" s="6" t="s">
         <v>68</v>
       </c>
@@ -4833,7 +4895,7 @@
       <c r="D257" s="12"/>
       <c r="E257" s="14"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5">
       <c r="A258" s="6" t="s">
         <v>68</v>
       </c>
@@ -4842,7 +4904,7 @@
       <c r="D258" s="12"/>
       <c r="E258" s="14"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5">
       <c r="A259" s="6" t="s">
         <v>68</v>
       </c>
@@ -4851,7 +4913,7 @@
       <c r="D259" s="12"/>
       <c r="E259" s="14"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5">
       <c r="A260" s="6" t="s">
         <v>68</v>
       </c>
@@ -4860,7 +4922,7 @@
       <c r="D260" s="12"/>
       <c r="E260" s="14"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5">
       <c r="A261" s="6" t="s">
         <v>68</v>
       </c>
@@ -4869,7 +4931,7 @@
       <c r="D261" s="12"/>
       <c r="E261" s="14"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5">
       <c r="A262" s="6" t="s">
         <v>68</v>
       </c>
@@ -4878,7 +4940,7 @@
       <c r="D262" s="12"/>
       <c r="E262" s="14"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5">
       <c r="A263" s="6" t="s">
         <v>68</v>
       </c>
@@ -4887,7 +4949,7 @@
       <c r="D263" s="12"/>
       <c r="E263" s="14"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
         <v>68</v>
       </c>
@@ -4896,7 +4958,7 @@
       <c r="D264" s="12"/>
       <c r="E264" s="14"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5">
       <c r="A265" s="6" t="s">
         <v>68</v>
       </c>
@@ -4905,7 +4967,7 @@
       <c r="D265" s="12"/>
       <c r="E265" s="14"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5">
       <c r="A266" s="6" t="s">
         <v>68</v>
       </c>
@@ -4914,7 +4976,7 @@
       <c r="D266" s="12"/>
       <c r="E266" s="14"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
         <v>68</v>
       </c>
@@ -4923,7 +4985,7 @@
       <c r="D267" s="12"/>
       <c r="E267" s="14"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5">
       <c r="A268" s="6" t="s">
         <v>68</v>
       </c>
@@ -4932,7 +4994,7 @@
       <c r="D268" s="12"/>
       <c r="E268" s="14"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5">
       <c r="A269" s="6" t="s">
         <v>68</v>
       </c>
@@ -4941,7 +5003,7 @@
       <c r="D269" s="12"/>
       <c r="E269" s="14"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5">
       <c r="A270" s="6" t="s">
         <v>68</v>
       </c>
@@ -4950,7 +5012,7 @@
       <c r="D270" s="12"/>
       <c r="E270" s="14"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5">
       <c r="A271" s="6" t="s">
         <v>68</v>
       </c>
@@ -4959,7 +5021,7 @@
       <c r="D271" s="12"/>
       <c r="E271" s="14"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5">
       <c r="A272" s="6" t="s">
         <v>68</v>
       </c>
@@ -4968,7 +5030,7 @@
       <c r="D272" s="12"/>
       <c r="E272" s="14"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5">
       <c r="A273" s="6" t="s">
         <v>68</v>
       </c>
@@ -4977,7 +5039,7 @@
       <c r="D273" s="12"/>
       <c r="E273" s="14"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5">
       <c r="A274" s="6" t="s">
         <v>68</v>
       </c>
@@ -4986,7 +5048,7 @@
       <c r="D274" s="12"/>
       <c r="E274" s="14"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5">
       <c r="A275" s="6" t="s">
         <v>68</v>
       </c>
@@ -4995,7 +5057,7 @@
       <c r="D275" s="12"/>
       <c r="E275" s="14"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5">
       <c r="A276" s="6" t="s">
         <v>68</v>
       </c>
@@ -5004,7 +5066,7 @@
       <c r="D276" s="12"/>
       <c r="E276" s="14"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5">
       <c r="A277" s="6" t="s">
         <v>68</v>
       </c>
@@ -5013,7 +5075,7 @@
       <c r="D277" s="12"/>
       <c r="E277" s="14"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5">
       <c r="A278" s="6" t="s">
         <v>68</v>
       </c>
@@ -5022,7 +5084,7 @@
       <c r="D278" s="12"/>
       <c r="E278" s="14"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5">
       <c r="A279" s="6" t="s">
         <v>68</v>
       </c>
@@ -5031,7 +5093,7 @@
       <c r="D279" s="12"/>
       <c r="E279" s="14"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5">
       <c r="A280" s="6" t="s">
         <v>68</v>
       </c>
@@ -5040,7 +5102,7 @@
       <c r="D280" s="12"/>
       <c r="E280" s="14"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5">
       <c r="A281" s="6" t="s">
         <v>68</v>
       </c>
@@ -5049,7 +5111,7 @@
       <c r="D281" s="12"/>
       <c r="E281" s="14"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
         <v>68</v>
       </c>
@@ -5058,7 +5120,7 @@
       <c r="D282" s="12"/>
       <c r="E282" s="14"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5">
       <c r="A283" s="6" t="s">
         <v>68</v>
       </c>
@@ -5067,7 +5129,7 @@
       <c r="D283" s="12"/>
       <c r="E283" s="14"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5">
       <c r="A284" s="6" t="s">
         <v>68</v>
       </c>
@@ -5076,7 +5138,7 @@
       <c r="D284" s="12"/>
       <c r="E284" s="14"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5">
       <c r="A285" s="6" t="s">
         <v>68</v>
       </c>
@@ -5085,7 +5147,7 @@
       <c r="D285" s="12"/>
       <c r="E285" s="14"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5">
       <c r="A286" s="6" t="s">
         <v>68</v>
       </c>
@@ -5094,7 +5156,7 @@
       <c r="D286" s="12"/>
       <c r="E286" s="14"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5">
       <c r="A287" s="6" t="s">
         <v>68</v>
       </c>
@@ -5103,7 +5165,7 @@
       <c r="D287" s="12"/>
       <c r="E287" s="14"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5">
       <c r="A288" s="6" t="s">
         <v>68</v>
       </c>
@@ -5112,7 +5174,7 @@
       <c r="D288" s="12"/>
       <c r="E288" s="14"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5">
       <c r="A289" s="6" t="s">
         <v>68</v>
       </c>
@@ -5121,7 +5183,7 @@
       <c r="D289" s="12"/>
       <c r="E289" s="14"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5">
       <c r="A290" s="6" t="s">
         <v>68</v>
       </c>
@@ -5130,7 +5192,7 @@
       <c r="D290" s="12"/>
       <c r="E290" s="14"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5">
       <c r="A291" s="6" t="s">
         <v>68</v>
       </c>
@@ -5139,7 +5201,7 @@
       <c r="D291" s="12"/>
       <c r="E291" s="14"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5">
       <c r="A292" s="6" t="s">
         <v>68</v>
       </c>
@@ -5148,7 +5210,7 @@
       <c r="D292" s="12"/>
       <c r="E292" s="14"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5">
       <c r="A293" s="6" t="s">
         <v>68</v>
       </c>
@@ -5157,7 +5219,7 @@
       <c r="D293" s="12"/>
       <c r="E293" s="14"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5">
       <c r="A294" s="6" t="s">
         <v>68</v>
       </c>
@@ -5166,7 +5228,7 @@
       <c r="D294" s="12"/>
       <c r="E294" s="14"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5">
       <c r="A295" s="6" t="s">
         <v>68</v>
       </c>
@@ -5175,7 +5237,7 @@
       <c r="D295" s="12"/>
       <c r="E295" s="14"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5">
       <c r="A296" s="6" t="s">
         <v>68</v>
       </c>
@@ -5184,7 +5246,7 @@
       <c r="D296" s="12"/>
       <c r="E296" s="14"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5">
       <c r="A297" s="6" t="s">
         <v>68</v>
       </c>
@@ -5193,7 +5255,7 @@
       <c r="D297" s="12"/>
       <c r="E297" s="14"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5">
       <c r="A298" s="6" t="s">
         <v>68</v>
       </c>
@@ -5202,7 +5264,7 @@
       <c r="D298" s="12"/>
       <c r="E298" s="14"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5">
       <c r="A299" s="6" t="s">
         <v>68</v>
       </c>
@@ -5211,7 +5273,7 @@
       <c r="D299" s="12"/>
       <c r="E299" s="14"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5">
       <c r="A300" s="6" t="s">
         <v>68</v>
       </c>
@@ -5220,7 +5282,7 @@
       <c r="D300" s="12"/>
       <c r="E300" s="14"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5">
       <c r="A301" s="6" t="s">
         <v>68</v>
       </c>
@@ -5229,7 +5291,7 @@
       <c r="D301" s="12"/>
       <c r="E301" s="14"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5">
       <c r="A302" s="6" t="s">
         <v>68</v>
       </c>
@@ -5238,7 +5300,7 @@
       <c r="D302" s="12"/>
       <c r="E302" s="14"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5">
       <c r="A303" s="6" t="s">
         <v>68</v>
       </c>
@@ -5247,7 +5309,7 @@
       <c r="D303" s="12"/>
       <c r="E303" s="14"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5">
       <c r="A304" s="6" t="s">
         <v>68</v>
       </c>
@@ -5256,7 +5318,7 @@
       <c r="D304" s="12"/>
       <c r="E304" s="14"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5">
       <c r="A305" s="6" t="s">
         <v>68</v>
       </c>
@@ -5265,7 +5327,7 @@
       <c r="D305" s="12"/>
       <c r="E305" s="14"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5">
       <c r="A306" s="6" t="s">
         <v>68</v>
       </c>
@@ -5274,7 +5336,7 @@
       <c r="D306" s="12"/>
       <c r="E306" s="14"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5">
       <c r="A307" s="6" t="s">
         <v>68</v>
       </c>
@@ -5283,7 +5345,7 @@
       <c r="D307" s="12"/>
       <c r="E307" s="14"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5">
       <c r="A308" s="6" t="s">
         <v>68</v>
       </c>
@@ -5292,7 +5354,7 @@
       <c r="D308" s="12"/>
       <c r="E308" s="14"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5">
       <c r="A309" s="6" t="s">
         <v>68</v>
       </c>
@@ -5301,7 +5363,7 @@
       <c r="D309" s="12"/>
       <c r="E309" s="14"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5">
       <c r="A310" s="6" t="s">
         <v>68</v>
       </c>
@@ -5310,7 +5372,7 @@
       <c r="D310" s="12"/>
       <c r="E310" s="14"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5">
       <c r="A311" s="6" t="s">
         <v>68</v>
       </c>
@@ -5319,7 +5381,7 @@
       <c r="D311" s="12"/>
       <c r="E311" s="14"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5">
       <c r="A312" s="6" t="s">
         <v>68</v>
       </c>
@@ -5328,7 +5390,7 @@
       <c r="D312" s="12"/>
       <c r="E312" s="14"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5">
       <c r="A313" s="6" t="s">
         <v>68</v>
       </c>
@@ -5337,7 +5399,7 @@
       <c r="D313" s="12"/>
       <c r="E313" s="14"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5">
       <c r="A314" s="6" t="s">
         <v>68</v>
       </c>
@@ -5346,7 +5408,7 @@
       <c r="D314" s="12"/>
       <c r="E314" s="14"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5">
       <c r="A315" s="6" t="s">
         <v>68</v>
       </c>
@@ -5355,7 +5417,7 @@
       <c r="D315" s="12"/>
       <c r="E315" s="14"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5">
       <c r="A316" s="6" t="s">
         <v>68</v>
       </c>
@@ -5364,7 +5426,7 @@
       <c r="D316" s="12"/>
       <c r="E316" s="14"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5">
       <c r="A317" s="6" t="s">
         <v>68</v>
       </c>
@@ -5373,7 +5435,7 @@
       <c r="D317" s="12"/>
       <c r="E317" s="14"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5">
       <c r="A318" s="6" t="s">
         <v>68</v>
       </c>
@@ -5382,7 +5444,7 @@
       <c r="D318" s="12"/>
       <c r="E318" s="14"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5">
       <c r="A319" s="6" t="s">
         <v>68</v>
       </c>
@@ -5391,7 +5453,7 @@
       <c r="D319" s="12"/>
       <c r="E319" s="14"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5">
       <c r="A320" s="6" t="s">
         <v>68</v>
       </c>
@@ -5400,7 +5462,7 @@
       <c r="D320" s="12"/>
       <c r="E320" s="14"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5">
       <c r="A321" s="6" t="s">
         <v>68</v>
       </c>
@@ -5409,7 +5471,7 @@
       <c r="D321" s="12"/>
       <c r="E321" s="14"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5">
       <c r="A322" s="6" t="s">
         <v>68</v>
       </c>
@@ -5418,7 +5480,7 @@
       <c r="D322" s="12"/>
       <c r="E322" s="14"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5">
       <c r="A323" s="6" t="s">
         <v>68</v>
       </c>
@@ -5427,7 +5489,7 @@
       <c r="D323" s="12"/>
       <c r="E323" s="14"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5">
       <c r="A324" s="6" t="s">
         <v>68</v>
       </c>
@@ -5436,7 +5498,7 @@
       <c r="D324" s="12"/>
       <c r="E324" s="14"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5">
       <c r="A325" s="6" t="s">
         <v>68</v>
       </c>
@@ -5445,7 +5507,7 @@
       <c r="D325" s="12"/>
       <c r="E325" s="14"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5">
       <c r="A326" s="6" t="s">
         <v>68</v>
       </c>
@@ -5454,7 +5516,7 @@
       <c r="D326" s="12"/>
       <c r="E326" s="14"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5">
       <c r="A327" s="6" t="s">
         <v>68</v>
       </c>
@@ -5463,7 +5525,7 @@
       <c r="D327" s="12"/>
       <c r="E327" s="14"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5">
       <c r="A328" s="6" t="s">
         <v>68</v>
       </c>
@@ -5472,7 +5534,7 @@
       <c r="D328" s="12"/>
       <c r="E328" s="14"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5">
       <c r="A329" s="6" t="s">
         <v>68</v>
       </c>
@@ -5481,7 +5543,7 @@
       <c r="D329" s="12"/>
       <c r="E329" s="14"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5">
       <c r="A330" s="6" t="s">
         <v>68</v>
       </c>
@@ -5490,7 +5552,7 @@
       <c r="D330" s="12"/>
       <c r="E330" s="14"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5">
       <c r="A331" s="6" t="s">
         <v>68</v>
       </c>
@@ -5499,7 +5561,7 @@
       <c r="D331" s="12"/>
       <c r="E331" s="14"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5">
       <c r="A332" s="6" t="s">
         <v>68</v>
       </c>
@@ -5508,7 +5570,7 @@
       <c r="D332" s="12"/>
       <c r="E332" s="14"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5">
       <c r="A333" s="6" t="s">
         <v>68</v>
       </c>
@@ -5517,7 +5579,7 @@
       <c r="D333" s="12"/>
       <c r="E333" s="14"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5">
       <c r="A334" s="6" t="s">
         <v>68</v>
       </c>
@@ -5526,7 +5588,7 @@
       <c r="D334" s="12"/>
       <c r="E334" s="14"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5">
       <c r="A335" s="6" t="s">
         <v>68</v>
       </c>
@@ -5535,7 +5597,7 @@
       <c r="D335" s="12"/>
       <c r="E335" s="14"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5">
       <c r="A336" s="6" t="s">
         <v>68</v>
       </c>
@@ -5544,7 +5606,7 @@
       <c r="D336" s="12"/>
       <c r="E336" s="14"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5">
       <c r="A337" s="6" t="s">
         <v>68</v>
       </c>
@@ -5553,7 +5615,7 @@
       <c r="D337" s="12"/>
       <c r="E337" s="14"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5">
       <c r="A338" s="6" t="s">
         <v>68</v>
       </c>
@@ -5562,7 +5624,7 @@
       <c r="D338" s="12"/>
       <c r="E338" s="14"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5">
       <c r="A339" s="6" t="s">
         <v>68</v>
       </c>
@@ -5571,7 +5633,7 @@
       <c r="D339" s="12"/>
       <c r="E339" s="14"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5">
       <c r="A340" s="6" t="s">
         <v>68</v>
       </c>
@@ -5580,7 +5642,7 @@
       <c r="D340" s="12"/>
       <c r="E340" s="14"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5">
       <c r="A341" s="6" t="s">
         <v>68</v>
       </c>
@@ -5589,7 +5651,7 @@
       <c r="D341" s="12"/>
       <c r="E341" s="14"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5">
       <c r="A342" s="6" t="s">
         <v>68</v>
       </c>
@@ -5598,7 +5660,7 @@
       <c r="D342" s="12"/>
       <c r="E342" s="14"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5">
       <c r="A343" s="6" t="s">
         <v>68</v>
       </c>
@@ -5607,7 +5669,7 @@
       <c r="D343" s="12"/>
       <c r="E343" s="14"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5">
       <c r="A344" s="6" t="s">
         <v>68</v>
       </c>
@@ -5616,7 +5678,7 @@
       <c r="D344" s="12"/>
       <c r="E344" s="14"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5">
       <c r="A345" s="6" t="s">
         <v>68</v>
       </c>
@@ -5625,7 +5687,7 @@
       <c r="D345" s="12"/>
       <c r="E345" s="14"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5">
       <c r="A346" s="6" t="s">
         <v>68</v>
       </c>
@@ -5634,7 +5696,7 @@
       <c r="D346" s="12"/>
       <c r="E346" s="14"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5">
       <c r="A347" s="6" t="s">
         <v>68</v>
       </c>
@@ -5643,7 +5705,7 @@
       <c r="D347" s="12"/>
       <c r="E347" s="14"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5">
       <c r="A348" s="6" t="s">
         <v>68</v>
       </c>
@@ -5652,7 +5714,7 @@
       <c r="D348" s="12"/>
       <c r="E348" s="14"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5">
       <c r="A349" s="6" t="s">
         <v>68</v>
       </c>
@@ -5661,7 +5723,7 @@
       <c r="D349" s="12"/>
       <c r="E349" s="14"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5">
       <c r="A350" s="6" t="s">
         <v>68</v>
       </c>
@@ -5670,7 +5732,7 @@
       <c r="D350" s="12"/>
       <c r="E350" s="14"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5">
       <c r="A351" s="6" t="s">
         <v>68</v>
       </c>
@@ -5679,7 +5741,7 @@
       <c r="D351" s="12"/>
       <c r="E351" s="14"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5">
       <c r="A352" s="6" t="s">
         <v>68</v>
       </c>
@@ -5688,7 +5750,7 @@
       <c r="D352" s="12"/>
       <c r="E352" s="14"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5">
       <c r="A353" s="6" t="s">
         <v>68</v>
       </c>
@@ -5697,7 +5759,7 @@
       <c r="D353" s="12"/>
       <c r="E353" s="14"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5">
       <c r="A354" s="6" t="s">
         <v>68</v>
       </c>
@@ -5706,7 +5768,7 @@
       <c r="D354" s="12"/>
       <c r="E354" s="14"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5">
       <c r="A355" s="6" t="s">
         <v>68</v>
       </c>
@@ -5715,7 +5777,7 @@
       <c r="D355" s="12"/>
       <c r="E355" s="14"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5">
       <c r="A356" s="6" t="s">
         <v>68</v>
       </c>
@@ -5724,7 +5786,7 @@
       <c r="D356" s="12"/>
       <c r="E356" s="14"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5">
       <c r="A357" s="6" t="s">
         <v>68</v>
       </c>
@@ -5733,7 +5795,7 @@
       <c r="D357" s="12"/>
       <c r="E357" s="14"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -5742,7 +5804,7 @@
       <c r="D358" s="12"/>
       <c r="E358" s="14"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5">
       <c r="A359" s="6" t="s">
         <v>68</v>
       </c>
@@ -5751,7 +5813,7 @@
       <c r="D359" s="12"/>
       <c r="E359" s="14"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5">
       <c r="A360" s="6" t="s">
         <v>68</v>
       </c>
@@ -5760,7 +5822,7 @@
       <c r="D360" s="12"/>
       <c r="E360" s="14"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5">
       <c r="A361" s="6" t="s">
         <v>68</v>
       </c>
@@ -5769,7 +5831,7 @@
       <c r="D361" s="12"/>
       <c r="E361" s="14"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5">
       <c r="A362" s="6" t="s">
         <v>68</v>
       </c>
@@ -5778,7 +5840,7 @@
       <c r="D362" s="12"/>
       <c r="E362" s="14"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5">
       <c r="A363" s="6" t="s">
         <v>68</v>
       </c>
@@ -5787,7 +5849,7 @@
       <c r="D363" s="12"/>
       <c r="E363" s="14"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5">
       <c r="A364" s="6" t="s">
         <v>68</v>
       </c>
@@ -5796,7 +5858,7 @@
       <c r="D364" s="12"/>
       <c r="E364" s="14"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5">
       <c r="A365" s="6" t="s">
         <v>68</v>
       </c>
@@ -5805,7 +5867,7 @@
       <c r="D365" s="12"/>
       <c r="E365" s="14"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5">
       <c r="A366" s="6" t="s">
         <v>68</v>
       </c>
@@ -5814,7 +5876,7 @@
       <c r="D366" s="12"/>
       <c r="E366" s="14"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5">
       <c r="A367" s="6" t="s">
         <v>68</v>
       </c>
@@ -5823,7 +5885,7 @@
       <c r="D367" s="12"/>
       <c r="E367" s="14"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5">
       <c r="A368" s="6" t="s">
         <v>68</v>
       </c>
@@ -5832,7 +5894,7 @@
       <c r="D368" s="12"/>
       <c r="E368" s="14"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5">
       <c r="A369" s="6" t="s">
         <v>68</v>
       </c>
@@ -5841,7 +5903,7 @@
       <c r="D369" s="12"/>
       <c r="E369" s="14"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5">
       <c r="A370" s="6" t="s">
         <v>68</v>
       </c>
@@ -5850,7 +5912,7 @@
       <c r="D370" s="12"/>
       <c r="E370" s="14"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5">
       <c r="A371" s="6" t="s">
         <v>68</v>
       </c>
@@ -5859,7 +5921,7 @@
       <c r="D371" s="12"/>
       <c r="E371" s="14"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5">
       <c r="A372" s="6" t="s">
         <v>68</v>
       </c>
@@ -5868,7 +5930,7 @@
       <c r="D372" s="12"/>
       <c r="E372" s="14"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5">
       <c r="A373" s="6" t="s">
         <v>68</v>
       </c>
@@ -5877,7 +5939,7 @@
       <c r="D373" s="12"/>
       <c r="E373" s="14"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5">
       <c r="A374" s="6" t="s">
         <v>68</v>
       </c>
@@ -5886,7 +5948,7 @@
       <c r="D374" s="12"/>
       <c r="E374" s="14"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5">
       <c r="A375" s="6" t="s">
         <v>68</v>
       </c>
@@ -5895,7 +5957,7 @@
       <c r="D375" s="12"/>
       <c r="E375" s="14"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5">
       <c r="A376" s="6" t="s">
         <v>68</v>
       </c>
@@ -5904,7 +5966,7 @@
       <c r="D376" s="12"/>
       <c r="E376" s="14"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5">
       <c r="A377" s="6" t="s">
         <v>68</v>
       </c>
@@ -5913,7 +5975,7 @@
       <c r="D377" s="12"/>
       <c r="E377" s="14"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5">
       <c r="A378" s="6" t="s">
         <v>68</v>
       </c>
@@ -5922,7 +5984,7 @@
       <c r="D378" s="12"/>
       <c r="E378" s="14"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5">
       <c r="A379" s="6" t="s">
         <v>68</v>
       </c>
@@ -5931,7 +5993,7 @@
       <c r="D379" s="12"/>
       <c r="E379" s="14"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5">
       <c r="A380" s="6" t="s">
         <v>68</v>
       </c>
@@ -5940,7 +6002,7 @@
       <c r="D380" s="12"/>
       <c r="E380" s="14"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5">
       <c r="A381" s="6" t="s">
         <v>68</v>
       </c>
@@ -5949,7 +6011,7 @@
       <c r="D381" s="12"/>
       <c r="E381" s="14"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5">
       <c r="A382" s="6" t="s">
         <v>68</v>
       </c>
@@ -5958,7 +6020,7 @@
       <c r="D382" s="12"/>
       <c r="E382" s="14"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5">
       <c r="A383" s="6" t="s">
         <v>68</v>
       </c>
@@ -5967,7 +6029,7 @@
       <c r="D383" s="12"/>
       <c r="E383" s="14"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5">
       <c r="A384" s="6" t="s">
         <v>68</v>
       </c>
@@ -5976,7 +6038,7 @@
       <c r="D384" s="12"/>
       <c r="E384" s="14"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5">
       <c r="A385" s="6" t="s">
         <v>68</v>
       </c>
@@ -5985,7 +6047,7 @@
       <c r="D385" s="12"/>
       <c r="E385" s="14"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5">
       <c r="A386" s="6" t="s">
         <v>68</v>
       </c>
@@ -5994,7 +6056,7 @@
       <c r="D386" s="12"/>
       <c r="E386" s="14"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5">
       <c r="A387" s="6" t="s">
         <v>68</v>
       </c>
@@ -6003,7 +6065,7 @@
       <c r="D387" s="12"/>
       <c r="E387" s="14"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5">
       <c r="A388" s="6" t="s">
         <v>68</v>
       </c>
@@ -6012,7 +6074,7 @@
       <c r="D388" s="12"/>
       <c r="E388" s="14"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5">
       <c r="A389" s="6" t="s">
         <v>68</v>
       </c>
@@ -6021,7 +6083,7 @@
       <c r="D389" s="12"/>
       <c r="E389" s="14"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5">
       <c r="A390" s="6" t="s">
         <v>68</v>
       </c>
@@ -6030,7 +6092,7 @@
       <c r="D390" s="12"/>
       <c r="E390" s="14"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5">
       <c r="A391" s="6" t="s">
         <v>68</v>
       </c>
@@ -6039,7 +6101,7 @@
       <c r="D391" s="12"/>
       <c r="E391" s="14"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5">
       <c r="A392" s="6" t="s">
         <v>68</v>
       </c>
@@ -6048,7 +6110,7 @@
       <c r="D392" s="12"/>
       <c r="E392" s="14"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5">
       <c r="A393" s="6" t="s">
         <v>68</v>
       </c>
@@ -6057,7 +6119,7 @@
       <c r="D393" s="12"/>
       <c r="E393" s="14"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5">
       <c r="A394" s="6" t="s">
         <v>68</v>
       </c>
@@ -6066,7 +6128,7 @@
       <c r="D394" s="12"/>
       <c r="E394" s="14"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5">
       <c r="A395" s="6" t="s">
         <v>68</v>
       </c>
@@ -6075,7 +6137,7 @@
       <c r="D395" s="12"/>
       <c r="E395" s="14"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5">
       <c r="A396" s="6" t="s">
         <v>68</v>
       </c>
@@ -6084,7 +6146,7 @@
       <c r="D396" s="12"/>
       <c r="E396" s="14"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5">
       <c r="A397" s="6" t="s">
         <v>68</v>
       </c>
@@ -6093,7 +6155,7 @@
       <c r="D397" s="12"/>
       <c r="E397" s="14"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5">
       <c r="A398" s="6" t="s">
         <v>68</v>
       </c>
@@ -6102,7 +6164,7 @@
       <c r="D398" s="12"/>
       <c r="E398" s="14"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5">
       <c r="A399" s="6" t="s">
         <v>68</v>
       </c>
@@ -6111,7 +6173,7 @@
       <c r="D399" s="12"/>
       <c r="E399" s="14"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5">
       <c r="A400" s="6" t="s">
         <v>68</v>
       </c>
@@ -6120,7 +6182,7 @@
       <c r="D400" s="12"/>
       <c r="E400" s="14"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5">
       <c r="A401" s="6" t="s">
         <v>68</v>
       </c>
@@ -6129,7 +6191,7 @@
       <c r="D401" s="12"/>
       <c r="E401" s="14"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5">
       <c r="A402" s="6" t="s">
         <v>68</v>
       </c>
@@ -6138,7 +6200,7 @@
       <c r="D402" s="12"/>
       <c r="E402" s="14"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5">
       <c r="A403" s="6" t="s">
         <v>68</v>
       </c>
@@ -6147,7 +6209,7 @@
       <c r="D403" s="12"/>
       <c r="E403" s="14"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5">
       <c r="A404" s="6" t="s">
         <v>68</v>
       </c>
@@ -6156,7 +6218,7 @@
       <c r="D404" s="12"/>
       <c r="E404" s="14"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5">
       <c r="A405" s="6" t="s">
         <v>68</v>
       </c>
@@ -6165,7 +6227,7 @@
       <c r="D405" s="12"/>
       <c r="E405" s="14"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5">
       <c r="A406" s="6" t="s">
         <v>68</v>
       </c>
@@ -6174,7 +6236,7 @@
       <c r="D406" s="12"/>
       <c r="E406" s="14"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5">
       <c r="A407" s="6" t="s">
         <v>68</v>
       </c>
@@ -6183,7 +6245,7 @@
       <c r="D407" s="12"/>
       <c r="E407" s="14"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5">
       <c r="A408" s="6" t="s">
         <v>68</v>
       </c>
@@ -6192,7 +6254,7 @@
       <c r="D408" s="12"/>
       <c r="E408" s="14"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5">
       <c r="A409" s="6" t="s">
         <v>68</v>
       </c>
@@ -6201,7 +6263,7 @@
       <c r="D409" s="12"/>
       <c r="E409" s="14"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5">
       <c r="A410" s="6" t="s">
         <v>68</v>
       </c>
@@ -6210,7 +6272,7 @@
       <c r="D410" s="12"/>
       <c r="E410" s="14"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5">
       <c r="A411" s="6" t="s">
         <v>68</v>
       </c>
@@ -6219,7 +6281,7 @@
       <c r="D411" s="12"/>
       <c r="E411" s="14"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5">
       <c r="A412" s="6" t="s">
         <v>68</v>
       </c>
@@ -6228,7 +6290,7 @@
       <c r="D412" s="12"/>
       <c r="E412" s="14"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5">
       <c r="A413" s="6" t="s">
         <v>68</v>
       </c>
@@ -6237,7 +6299,7 @@
       <c r="D413" s="12"/>
       <c r="E413" s="14"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5">
       <c r="A414" s="6" t="s">
         <v>68</v>
       </c>
@@ -6246,7 +6308,7 @@
       <c r="D414" s="12"/>
       <c r="E414" s="14"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5">
       <c r="A415" s="6" t="s">
         <v>68</v>
       </c>
@@ -6255,7 +6317,7 @@
       <c r="D415" s="12"/>
       <c r="E415" s="14"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5">
       <c r="A416" s="6" t="s">
         <v>68</v>
       </c>
@@ -6264,7 +6326,7 @@
       <c r="D416" s="12"/>
       <c r="E416" s="14"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5">
       <c r="A417" s="6" t="s">
         <v>68</v>
       </c>
@@ -6273,7 +6335,7 @@
       <c r="D417" s="12"/>
       <c r="E417" s="14"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5">
       <c r="A418" s="6" t="s">
         <v>68</v>
       </c>
@@ -6282,7 +6344,7 @@
       <c r="D418" s="12"/>
       <c r="E418" s="14"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5">
       <c r="A419" s="6" t="s">
         <v>68</v>
       </c>
@@ -6291,7 +6353,7 @@
       <c r="D419" s="12"/>
       <c r="E419" s="14"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5">
       <c r="A420" s="6" t="s">
         <v>68</v>
       </c>
@@ -6300,7 +6362,7 @@
       <c r="D420" s="12"/>
       <c r="E420" s="14"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5">
       <c r="A421" s="6" t="s">
         <v>68</v>
       </c>
@@ -6309,7 +6371,7 @@
       <c r="D421" s="12"/>
       <c r="E421" s="14"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5">
       <c r="A422" s="6" t="s">
         <v>68</v>
       </c>
@@ -6318,7 +6380,7 @@
       <c r="D422" s="12"/>
       <c r="E422" s="14"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5">
       <c r="A423" s="6" t="s">
         <v>68</v>
       </c>
@@ -6327,7 +6389,7 @@
       <c r="D423" s="12"/>
       <c r="E423" s="14"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5">
       <c r="A424" s="6" t="s">
         <v>68</v>
       </c>
@@ -6336,7 +6398,7 @@
       <c r="D424" s="12"/>
       <c r="E424" s="14"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5">
       <c r="A425" s="6" t="s">
         <v>68</v>
       </c>
@@ -6345,7 +6407,7 @@
       <c r="D425" s="12"/>
       <c r="E425" s="14"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5">
       <c r="A426" s="6" t="s">
         <v>68</v>
       </c>
@@ -6354,7 +6416,7 @@
       <c r="D426" s="12"/>
       <c r="E426" s="14"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5">
       <c r="A427" s="6" t="s">
         <v>68</v>
       </c>
@@ -6363,7 +6425,7 @@
       <c r="D427" s="12"/>
       <c r="E427" s="14"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5">
       <c r="A428" s="6" t="s">
         <v>68</v>
       </c>
@@ -6372,7 +6434,7 @@
       <c r="D428" s="12"/>
       <c r="E428" s="14"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5">
       <c r="A429" s="6" t="s">
         <v>68</v>
       </c>
@@ -6381,7 +6443,7 @@
       <c r="D429" s="12"/>
       <c r="E429" s="14"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5">
       <c r="A430" s="6" t="s">
         <v>68</v>
       </c>
@@ -6390,7 +6452,7 @@
       <c r="D430" s="12"/>
       <c r="E430" s="14"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5">
       <c r="A431" s="6" t="s">
         <v>68</v>
       </c>
@@ -6399,7 +6461,7 @@
       <c r="D431" s="12"/>
       <c r="E431" s="14"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5">
       <c r="A432" s="6" t="s">
         <v>68</v>
       </c>
@@ -6408,7 +6470,7 @@
       <c r="D432" s="12"/>
       <c r="E432" s="14"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5">
       <c r="A433" s="6" t="s">
         <v>68</v>
       </c>
@@ -6417,7 +6479,7 @@
       <c r="D433" s="12"/>
       <c r="E433" s="14"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5">
       <c r="A434" s="6" t="s">
         <v>68</v>
       </c>
@@ -6426,7 +6488,7 @@
       <c r="D434" s="12"/>
       <c r="E434" s="14"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5">
       <c r="A435" s="6" t="s">
         <v>68</v>
       </c>
@@ -6435,7 +6497,7 @@
       <c r="D435" s="12"/>
       <c r="E435" s="14"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5">
       <c r="A436" s="6" t="s">
         <v>68</v>
       </c>
@@ -6444,7 +6506,7 @@
       <c r="D436" s="12"/>
       <c r="E436" s="14"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5">
       <c r="A437" s="6" t="s">
         <v>68</v>
       </c>
@@ -6453,7 +6515,7 @@
       <c r="D437" s="12"/>
       <c r="E437" s="14"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5">
       <c r="A438" s="6" t="s">
         <v>68</v>
       </c>
@@ -6462,7 +6524,7 @@
       <c r="D438" s="12"/>
       <c r="E438" s="14"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5">
       <c r="A439" s="6" t="s">
         <v>68</v>
       </c>
@@ -6471,7 +6533,7 @@
       <c r="D439" s="12"/>
       <c r="E439" s="14"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5">
       <c r="A440" s="6" t="s">
         <v>68</v>
       </c>
@@ -6480,7 +6542,7 @@
       <c r="D440" s="12"/>
       <c r="E440" s="14"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5">
       <c r="A441" s="6" t="s">
         <v>68</v>
       </c>
@@ -6489,7 +6551,7 @@
       <c r="D441" s="12"/>
       <c r="E441" s="14"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5">
       <c r="A442" s="6" t="s">
         <v>68</v>
       </c>
@@ -6498,7 +6560,7 @@
       <c r="D442" s="12"/>
       <c r="E442" s="14"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5">
       <c r="A443" s="6" t="s">
         <v>68</v>
       </c>
@@ -6507,7 +6569,7 @@
       <c r="D443" s="12"/>
       <c r="E443" s="14"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5">
       <c r="A444" s="6" t="s">
         <v>68</v>
       </c>
@@ -6516,7 +6578,7 @@
       <c r="D444" s="12"/>
       <c r="E444" s="14"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5">
       <c r="A445" s="6" t="s">
         <v>68</v>
       </c>
@@ -6525,7 +6587,7 @@
       <c r="D445" s="12"/>
       <c r="E445" s="14"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5">
       <c r="A446" s="6" t="s">
         <v>68</v>
       </c>
@@ -6534,7 +6596,7 @@
       <c r="D446" s="12"/>
       <c r="E446" s="14"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5">
       <c r="A447" s="6" t="s">
         <v>68</v>
       </c>
@@ -6543,7 +6605,7 @@
       <c r="D447" s="12"/>
       <c r="E447" s="14"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5">
       <c r="A448" s="6" t="s">
         <v>68</v>
       </c>
@@ -6552,7 +6614,7 @@
       <c r="D448" s="12"/>
       <c r="E448" s="14"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5">
       <c r="A449" s="6" t="s">
         <v>68</v>
       </c>
@@ -6561,7 +6623,7 @@
       <c r="D449" s="12"/>
       <c r="E449" s="14"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5">
       <c r="A450" s="6" t="s">
         <v>68</v>
       </c>
@@ -6570,7 +6632,7 @@
       <c r="D450" s="12"/>
       <c r="E450" s="14"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5">
       <c r="A451" s="6" t="s">
         <v>68</v>
       </c>
@@ -6579,7 +6641,7 @@
       <c r="D451" s="12"/>
       <c r="E451" s="14"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5">
       <c r="A452" s="6" t="s">
         <v>68</v>
       </c>
@@ -6588,7 +6650,7 @@
       <c r="D452" s="12"/>
       <c r="E452" s="14"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5">
       <c r="A453" s="6" t="s">
         <v>68</v>
       </c>
@@ -6597,7 +6659,7 @@
       <c r="D453" s="12"/>
       <c r="E453" s="14"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5">
       <c r="A454" s="6" t="s">
         <v>68</v>
       </c>
@@ -6606,7 +6668,7 @@
       <c r="D454" s="12"/>
       <c r="E454" s="14"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5">
       <c r="A455" s="6" t="s">
         <v>68</v>
       </c>
@@ -6615,7 +6677,7 @@
       <c r="D455" s="12"/>
       <c r="E455" s="14"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5">
       <c r="A456" s="6" t="s">
         <v>68</v>
       </c>
@@ -6624,7 +6686,7 @@
       <c r="D456" s="12"/>
       <c r="E456" s="14"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5">
       <c r="A457" s="6" t="s">
         <v>68</v>
       </c>
@@ -6633,7 +6695,7 @@
       <c r="D457" s="12"/>
       <c r="E457" s="14"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5">
       <c r="A458" s="6" t="s">
         <v>68</v>
       </c>
@@ -6642,7 +6704,7 @@
       <c r="D458" s="12"/>
       <c r="E458" s="14"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5">
       <c r="A459" s="6" t="s">
         <v>68</v>
       </c>
@@ -6651,7 +6713,7 @@
       <c r="D459" s="12"/>
       <c r="E459" s="14"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5">
       <c r="A460" s="6" t="s">
         <v>68</v>
       </c>
@@ -6660,7 +6722,7 @@
       <c r="D460" s="12"/>
       <c r="E460" s="14"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5">
       <c r="A461" s="6" t="s">
         <v>68</v>
       </c>
@@ -6669,7 +6731,7 @@
       <c r="D461" s="12"/>
       <c r="E461" s="14"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5">
       <c r="A462" s="6" t="s">
         <v>68</v>
       </c>
@@ -6678,7 +6740,7 @@
       <c r="D462" s="12"/>
       <c r="E462" s="14"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5">
       <c r="A463" s="6" t="s">
         <v>68</v>
       </c>
@@ -6687,7 +6749,7 @@
       <c r="D463" s="12"/>
       <c r="E463" s="14"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5">
       <c r="A464" s="6" t="s">
         <v>68</v>
       </c>
@@ -6696,7 +6758,7 @@
       <c r="D464" s="12"/>
       <c r="E464" s="14"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5">
       <c r="A465" s="6" t="s">
         <v>68</v>
       </c>
@@ -6705,7 +6767,7 @@
       <c r="D465" s="12"/>
       <c r="E465" s="14"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5">
       <c r="A466" s="6" t="s">
         <v>68</v>
       </c>
@@ -6714,7 +6776,7 @@
       <c r="D466" s="12"/>
       <c r="E466" s="14"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5">
       <c r="A467" s="6" t="s">
         <v>68</v>
       </c>
@@ -6723,7 +6785,7 @@
       <c r="D467" s="12"/>
       <c r="E467" s="14"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5">
       <c r="A468" s="6" t="s">
         <v>68</v>
       </c>
@@ -6732,7 +6794,7 @@
       <c r="D468" s="12"/>
       <c r="E468" s="14"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5">
       <c r="A469" s="6" t="s">
         <v>68</v>
       </c>
@@ -6741,7 +6803,7 @@
       <c r="D469" s="12"/>
       <c r="E469" s="14"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5">
       <c r="A470" s="6" t="s">
         <v>68</v>
       </c>
@@ -6750,7 +6812,7 @@
       <c r="D470" s="12"/>
       <c r="E470" s="14"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5">
       <c r="A471" s="6" t="s">
         <v>68</v>
       </c>
@@ -6759,7 +6821,7 @@
       <c r="D471" s="12"/>
       <c r="E471" s="14"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5">
       <c r="A472" s="6" t="s">
         <v>68</v>
       </c>
@@ -6768,7 +6830,7 @@
       <c r="D472" s="12"/>
       <c r="E472" s="14"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5">
       <c r="A473" s="6" t="s">
         <v>68</v>
       </c>
@@ -6777,7 +6839,7 @@
       <c r="D473" s="12"/>
       <c r="E473" s="14"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5">
       <c r="A474" s="6" t="s">
         <v>68</v>
       </c>
@@ -6786,7 +6848,7 @@
       <c r="D474" s="12"/>
       <c r="E474" s="14"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5">
       <c r="A475" s="6" t="s">
         <v>68</v>
       </c>
@@ -6795,7 +6857,7 @@
       <c r="D475" s="12"/>
       <c r="E475" s="14"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5">
       <c r="A476" s="6" t="s">
         <v>68</v>
       </c>
@@ -6804,7 +6866,7 @@
       <c r="D476" s="12"/>
       <c r="E476" s="14"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5">
       <c r="A477" s="6" t="s">
         <v>68</v>
       </c>
@@ -6813,7 +6875,7 @@
       <c r="D477" s="12"/>
       <c r="E477" s="14"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5">
       <c r="A478" s="6" t="s">
         <v>68</v>
       </c>
@@ -6822,7 +6884,7 @@
       <c r="D478" s="12"/>
       <c r="E478" s="14"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5">
       <c r="A479" s="6" t="s">
         <v>68</v>
       </c>
@@ -6831,7 +6893,7 @@
       <c r="D479" s="12"/>
       <c r="E479" s="14"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5">
       <c r="A480" s="6" t="s">
         <v>68</v>
       </c>
@@ -6840,7 +6902,7 @@
       <c r="D480" s="12"/>
       <c r="E480" s="14"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5">
       <c r="A481" s="6" t="s